--- a/resources/Permission.xlsx
+++ b/resources/Permission.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5117B3-EF9A-4444-9227-16503F84B290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions (Import)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -322,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -769,30 +768,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -830,7 +829,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A75" si="0">A2+1</f>
         <v>2</v>
@@ -846,7 +845,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -862,7 +861,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -878,7 +877,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -894,7 +893,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -910,7 +909,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -926,7 +925,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -942,7 +941,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -958,7 +957,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -974,7 +973,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -990,7 +989,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1006,7 +1005,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1022,7 +1021,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1042,7 +1041,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1066,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1082,7 +1081,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1098,7 +1097,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1">
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1114,7 +1113,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1134,7 +1133,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1154,7 +1153,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1181,7 +1180,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1208,7 +1207,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1224,7 +1223,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1240,7 +1239,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1256,7 +1255,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1">
+    <row r="27" spans="1:18">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1272,7 +1271,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1">
+    <row r="28" spans="1:18">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1288,7 +1287,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1304,7 +1303,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1320,7 +1319,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1336,7 +1335,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1352,7 +1351,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1368,7 +1367,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1384,7 +1383,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1400,7 +1399,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1416,7 +1415,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1432,7 +1431,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1448,7 +1447,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1464,7 +1463,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1480,7 +1479,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1496,7 +1495,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1512,7 +1511,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1529,7 +1528,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="13">
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1545,7 +1544,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="13">
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1561,7 +1560,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="13">
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1577,7 +1576,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="13">
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1593,7 +1592,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="13">
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1609,7 +1608,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="13">
+    <row r="49" spans="1:7">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1625,7 +1624,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="13">
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1647,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13">
+    <row r="51" spans="1:7">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1663,7 +1662,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="13">
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1679,7 +1678,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="13">
+    <row r="53" spans="1:7">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1701,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13">
+    <row r="54" spans="1:7">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1717,7 +1716,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="13">
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1733,7 +1732,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="13">
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1749,7 +1748,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="13">
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1773,7 +1772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13">
+    <row r="58" spans="1:7">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1789,7 +1788,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="13">
+    <row r="59" spans="1:7">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1807,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13">
+    <row r="60" spans="1:7">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1831,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13">
+    <row r="61" spans="1:7">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1847,7 +1846,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="13">
+    <row r="62" spans="1:7">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1867,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13">
+    <row r="63" spans="1:7">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1887,7 +1886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13">
+    <row r="64" spans="1:7">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1907,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="13">
+    <row r="65" spans="1:18">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1925,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="13">
+    <row r="66" spans="1:18">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1943,7 +1942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="13">
+    <row r="67" spans="1:18">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1961,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="13">
+    <row r="68" spans="1:18">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1983,7 +1982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="13">
+    <row r="69" spans="1:18">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2003,7 +2002,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:18" ht="13">
+    <row r="70" spans="1:18">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2036,7 +2035,7 @@
       <c r="Q70" s="25"/>
       <c r="R70" s="25"/>
     </row>
-    <row r="71" spans="1:18" ht="13">
+    <row r="71" spans="1:18">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2071,7 +2070,7 @@
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
     </row>
-    <row r="72" spans="1:18" ht="13">
+    <row r="72" spans="1:18">
       <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2098,7 +2097,7 @@
       <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
     </row>
-    <row r="73" spans="1:18" ht="13">
+    <row r="73" spans="1:18">
       <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2125,7 +2124,7 @@
       <c r="Q73" s="25"/>
       <c r="R73" s="25"/>
     </row>
-    <row r="74" spans="1:18" ht="13">
+    <row r="74" spans="1:18">
       <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2141,7 +2140,7 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:18" ht="13">
+    <row r="75" spans="1:18">
       <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2157,7 +2156,7 @@
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:18" ht="13">
+    <row r="76" spans="1:18">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2172,7 +2171,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="1:18" ht="13">
+    <row r="77" spans="1:18">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2187,7 +2186,7 @@
       <c r="F77" s="28"/>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="1:18" ht="13">
+    <row r="78" spans="1:18">
       <c r="A78" s="3">
         <v>78</v>
       </c>
@@ -2202,7 +2201,7 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:18" ht="13">
+    <row r="79" spans="1:18">
       <c r="A79" s="3">
         <v>79</v>
       </c>
@@ -2217,7 +2216,7 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:18" ht="13">
+    <row r="80" spans="1:18">
       <c r="A80" s="3">
         <v>80</v>
       </c>
@@ -2232,7 +2231,7 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" ht="13">
+    <row r="81" spans="1:7">
       <c r="A81" s="3">
         <v>81</v>
       </c>
@@ -2247,7 +2246,7 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="13">
+    <row r="82" spans="1:7">
       <c r="A82" s="3">
         <v>82</v>
       </c>
@@ -2262,7 +2261,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" ht="13">
+    <row r="83" spans="1:7">
       <c r="A83" s="3">
         <v>83</v>
       </c>
@@ -2277,7 +2276,7 @@
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="13">
+    <row r="84" spans="1:7">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="13">
+    <row r="85" spans="1:7">
       <c r="A85" s="5">
         <v>85</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="13">
+    <row r="86" spans="1:7">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13">
+    <row r="87" spans="1:7">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="13">
+    <row r="88" spans="1:7">
       <c r="A88" s="5">
         <v>88</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13">
+    <row r="89" spans="1:7">
       <c r="A89" s="5">
         <v>89</v>
       </c>
@@ -2381,7 +2380,7 @@
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="13">
+    <row r="90" spans="1:7">
       <c r="A90" s="5">
         <v>90</v>
       </c>
@@ -2396,7 +2395,7 @@
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" ht="13">
+    <row r="91" spans="1:7">
       <c r="A91" s="5">
         <v>91</v>
       </c>
@@ -2411,7 +2410,7 @@
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="13">
+    <row r="92" spans="1:7">
       <c r="A92" s="5">
         <v>92</v>
       </c>
@@ -2426,7 +2425,7 @@
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" ht="13">
+    <row r="93" spans="1:7">
       <c r="A93" s="12"/>
       <c r="B93" s="37"/>
       <c r="C93" s="12"/>
@@ -2435,7 +2434,7 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="13">
+    <row r="94" spans="1:7">
       <c r="A94" s="12"/>
       <c r="B94" s="37"/>
       <c r="C94" s="12"/>
@@ -2444,7 +2443,7 @@
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" ht="13">
+    <row r="95" spans="1:7">
       <c r="A95" s="12"/>
       <c r="B95" s="37"/>
       <c r="C95" s="12"/>
@@ -2453,7 +2452,7 @@
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="13">
+    <row r="96" spans="1:7">
       <c r="A96" s="12"/>
       <c r="B96" s="37"/>
       <c r="C96" s="12"/>
@@ -2462,7 +2461,7 @@
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" ht="13">
+    <row r="97" spans="1:7">
       <c r="A97" s="12"/>
       <c r="B97" s="37"/>
       <c r="C97" s="12"/>
@@ -2471,7 +2470,7 @@
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="13">
+    <row r="98" spans="1:7">
       <c r="A98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -2479,7 +2478,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
     </row>
-    <row r="99" spans="1:7" ht="13">
+    <row r="99" spans="1:7">
       <c r="A99" s="20"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -2487,7 +2486,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" ht="13">
+    <row r="100" spans="1:7">
       <c r="A100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -2495,7 +2494,7 @@
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" ht="13">
+    <row r="101" spans="1:7">
       <c r="A101" s="20"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -2503,7 +2502,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
     </row>
-    <row r="102" spans="1:7" ht="13">
+    <row r="102" spans="1:7">
       <c r="A102" s="20"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -2511,7 +2510,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:7" ht="13">
+    <row r="103" spans="1:7">
       <c r="A103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -2519,7 +2518,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
     </row>
-    <row r="104" spans="1:7" ht="13">
+    <row r="104" spans="1:7">
       <c r="A104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -2527,7 +2526,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" spans="1:7" ht="13">
+    <row r="105" spans="1:7">
       <c r="A105" s="20"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -2535,7 +2534,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:7" ht="13">
+    <row r="106" spans="1:7">
       <c r="A106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -2543,7 +2542,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
     </row>
-    <row r="107" spans="1:7" ht="13">
+    <row r="107" spans="1:7">
       <c r="A107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -2551,7 +2550,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="1:7" ht="13">
+    <row r="108" spans="1:7">
       <c r="A108" s="20"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -2559,7 +2558,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
     </row>
-    <row r="109" spans="1:7" ht="13">
+    <row r="109" spans="1:7">
       <c r="A109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -2567,7 +2566,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="1:7" ht="13">
+    <row r="110" spans="1:7">
       <c r="A110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -2575,7 +2574,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
     </row>
-    <row r="111" spans="1:7" ht="13">
+    <row r="111" spans="1:7">
       <c r="A111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -2583,7 +2582,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="1:7" ht="13">
+    <row r="112" spans="1:7">
       <c r="A112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -2591,7 +2590,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
     </row>
-    <row r="113" spans="1:7" ht="13">
+    <row r="113" spans="1:7">
       <c r="A113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -2599,7 +2598,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="1:7" ht="13">
+    <row r="114" spans="1:7">
       <c r="A114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -2607,7 +2606,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
     </row>
-    <row r="115" spans="1:7" ht="13">
+    <row r="115" spans="1:7">
       <c r="A115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -2615,7 +2614,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
     </row>
-    <row r="116" spans="1:7" ht="13">
+    <row r="116" spans="1:7">
       <c r="A116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -2623,7 +2622,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
     </row>
-    <row r="117" spans="1:7" ht="13">
+    <row r="117" spans="1:7">
       <c r="A117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -2631,7 +2630,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="1:7" ht="13">
+    <row r="118" spans="1:7">
       <c r="A118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -2639,7 +2638,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
     </row>
-    <row r="119" spans="1:7" ht="13">
+    <row r="119" spans="1:7">
       <c r="A119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -2647,7 +2646,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="1:7" ht="13">
+    <row r="120" spans="1:7">
       <c r="A120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -2655,7 +2654,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
     </row>
-    <row r="121" spans="1:7" ht="13">
+    <row r="121" spans="1:7">
       <c r="A121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -2663,7 +2662,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
     </row>
-    <row r="122" spans="1:7" ht="13">
+    <row r="122" spans="1:7">
       <c r="A122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -2671,7 +2670,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
     </row>
-    <row r="123" spans="1:7" ht="13">
+    <row r="123" spans="1:7">
       <c r="A123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -2679,7 +2678,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
     </row>
-    <row r="124" spans="1:7" ht="13">
+    <row r="124" spans="1:7">
       <c r="A124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -2687,7 +2686,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
     </row>
-    <row r="125" spans="1:7" ht="13">
+    <row r="125" spans="1:7">
       <c r="A125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -2695,7 +2694,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
     </row>
-    <row r="126" spans="1:7" ht="13">
+    <row r="126" spans="1:7">
       <c r="A126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -2703,7 +2702,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
     </row>
-    <row r="127" spans="1:7" ht="13">
+    <row r="127" spans="1:7">
       <c r="A127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -2711,7 +2710,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
     </row>
-    <row r="128" spans="1:7" ht="13">
+    <row r="128" spans="1:7">
       <c r="A128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -2719,7 +2718,7 @@
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
     </row>
-    <row r="129" spans="1:7" ht="13">
+    <row r="129" spans="1:7">
       <c r="A129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -2727,7 +2726,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
     </row>
-    <row r="130" spans="1:7" ht="13">
+    <row r="130" spans="1:7">
       <c r="A130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -2735,7 +2734,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
     </row>
-    <row r="131" spans="1:7" ht="13">
+    <row r="131" spans="1:7">
       <c r="A131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -2743,7 +2742,7 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
     </row>
-    <row r="132" spans="1:7" ht="13">
+    <row r="132" spans="1:7">
       <c r="A132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -2751,7 +2750,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
     </row>
-    <row r="133" spans="1:7" ht="13">
+    <row r="133" spans="1:7">
       <c r="A133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -2759,7 +2758,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="1:7" ht="13">
+    <row r="134" spans="1:7">
       <c r="A134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -2767,7 +2766,7 @@
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
     </row>
-    <row r="135" spans="1:7" ht="13">
+    <row r="135" spans="1:7">
       <c r="A135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -2775,7 +2774,7 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="1:7" ht="13">
+    <row r="136" spans="1:7">
       <c r="A136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -2783,7 +2782,7 @@
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
     </row>
-    <row r="137" spans="1:7" ht="13">
+    <row r="137" spans="1:7">
       <c r="A137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -2791,7 +2790,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="1:7" ht="13">
+    <row r="138" spans="1:7">
       <c r="A138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -2799,7 +2798,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" spans="1:7" ht="13">
+    <row r="139" spans="1:7">
       <c r="A139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -2807,7 +2806,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="1:7" ht="13">
+    <row r="140" spans="1:7">
       <c r="A140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -2815,7 +2814,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
-    <row r="141" spans="1:7" ht="13">
+    <row r="141" spans="1:7">
       <c r="A141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -2823,7 +2822,7 @@
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="1:7" ht="13">
+    <row r="142" spans="1:7">
       <c r="A142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -2831,7 +2830,7 @@
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
-    <row r="143" spans="1:7" ht="13">
+    <row r="143" spans="1:7">
       <c r="A143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -2839,7 +2838,7 @@
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="1:7" ht="13">
+    <row r="144" spans="1:7">
       <c r="A144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -2847,7 +2846,7 @@
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="1:7" ht="13">
+    <row r="145" spans="1:7">
       <c r="A145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -2855,7 +2854,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
     </row>
-    <row r="146" spans="1:7" ht="13">
+    <row r="146" spans="1:7">
       <c r="A146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -2863,7 +2862,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
     </row>
-    <row r="147" spans="1:7" ht="13">
+    <row r="147" spans="1:7">
       <c r="A147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -2871,7 +2870,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
     </row>
-    <row r="148" spans="1:7" ht="13">
+    <row r="148" spans="1:7">
       <c r="A148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -2879,7 +2878,7 @@
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
     </row>
-    <row r="149" spans="1:7" ht="13">
+    <row r="149" spans="1:7">
       <c r="A149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -2887,7 +2886,7 @@
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
     </row>
-    <row r="150" spans="1:7" ht="13">
+    <row r="150" spans="1:7">
       <c r="A150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -2895,7 +2894,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
     </row>
-    <row r="151" spans="1:7" ht="13">
+    <row r="151" spans="1:7">
       <c r="A151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -2903,7 +2902,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
     </row>
-    <row r="152" spans="1:7" ht="13">
+    <row r="152" spans="1:7">
       <c r="A152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -2911,7 +2910,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
     </row>
-    <row r="153" spans="1:7" ht="13">
+    <row r="153" spans="1:7">
       <c r="A153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -2919,7 +2918,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:7" ht="13">
+    <row r="154" spans="1:7">
       <c r="A154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -2927,7 +2926,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
     </row>
-    <row r="155" spans="1:7" ht="13">
+    <row r="155" spans="1:7">
       <c r="A155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -2935,7 +2934,7 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
     </row>
-    <row r="156" spans="1:7" ht="13">
+    <row r="156" spans="1:7">
       <c r="A156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -2943,7 +2942,7 @@
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
     </row>
-    <row r="157" spans="1:7" ht="13">
+    <row r="157" spans="1:7">
       <c r="A157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -2951,7 +2950,7 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
     </row>
-    <row r="158" spans="1:7" ht="13">
+    <row r="158" spans="1:7">
       <c r="A158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -2959,7 +2958,7 @@
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
     </row>
-    <row r="159" spans="1:7" ht="13">
+    <row r="159" spans="1:7">
       <c r="A159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -2967,7 +2966,7 @@
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
     </row>
-    <row r="160" spans="1:7" ht="13">
+    <row r="160" spans="1:7">
       <c r="A160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -2975,7 +2974,7 @@
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
     </row>
-    <row r="161" spans="1:7" ht="13">
+    <row r="161" spans="1:7">
       <c r="A161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -2983,7 +2982,7 @@
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="1:7" ht="13">
+    <row r="162" spans="1:7">
       <c r="A162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -2991,7 +2990,7 @@
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
-    <row r="163" spans="1:7" ht="13">
+    <row r="163" spans="1:7">
       <c r="A163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -2999,7 +2998,7 @@
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="1:7" ht="13">
+    <row r="164" spans="1:7">
       <c r="A164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -3007,7 +3006,7 @@
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
-    <row r="165" spans="1:7" ht="13">
+    <row r="165" spans="1:7">
       <c r="A165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -3015,7 +3014,7 @@
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="1:7" ht="13">
+    <row r="166" spans="1:7">
       <c r="A166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -3023,7 +3022,7 @@
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:7" ht="13">
+    <row r="167" spans="1:7">
       <c r="A167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -3031,7 +3030,7 @@
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="1:7" ht="13">
+    <row r="168" spans="1:7">
       <c r="A168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -3039,7 +3038,7 @@
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
     </row>
-    <row r="169" spans="1:7" ht="13">
+    <row r="169" spans="1:7">
       <c r="A169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -3047,7 +3046,7 @@
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="1:7" ht="13">
+    <row r="170" spans="1:7">
       <c r="A170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -3055,7 +3054,7 @@
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
     </row>
-    <row r="171" spans="1:7" ht="13">
+    <row r="171" spans="1:7">
       <c r="A171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -3063,7 +3062,7 @@
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="1:7" ht="13">
+    <row r="172" spans="1:7">
       <c r="A172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
@@ -3071,7 +3070,7 @@
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
     </row>
-    <row r="173" spans="1:7" ht="13">
+    <row r="173" spans="1:7">
       <c r="A173" s="20"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
@@ -3079,7 +3078,7 @@
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="1:7" ht="13">
+    <row r="174" spans="1:7">
       <c r="A174" s="20"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -3087,7 +3086,7 @@
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="1:7" ht="13">
+    <row r="175" spans="1:7">
       <c r="A175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
@@ -3095,7 +3094,7 @@
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:7" ht="13">
+    <row r="176" spans="1:7">
       <c r="A176" s="20"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
@@ -3103,7 +3102,7 @@
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
     </row>
-    <row r="177" spans="1:7" ht="13">
+    <row r="177" spans="1:7">
       <c r="A177" s="20"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
@@ -3111,7 +3110,7 @@
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7" ht="13">
+    <row r="178" spans="1:7">
       <c r="A178" s="20"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
@@ -3119,7 +3118,7 @@
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="1:7" ht="13">
+    <row r="179" spans="1:7">
       <c r="A179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
@@ -3127,7 +3126,7 @@
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" ht="13">
+    <row r="180" spans="1:7">
       <c r="A180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
@@ -3135,7 +3134,7 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="1:7" ht="13">
+    <row r="181" spans="1:7">
       <c r="A181" s="20"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -3143,7 +3142,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="1:7" ht="13">
+    <row r="182" spans="1:7">
       <c r="A182" s="20"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
@@ -3151,7 +3150,7 @@
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:7" ht="13">
+    <row r="183" spans="1:7">
       <c r="A183" s="20"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
@@ -3159,7 +3158,7 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="1:7" ht="13">
+    <row r="184" spans="1:7">
       <c r="A184" s="20"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
@@ -3167,7 +3166,7 @@
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
     </row>
-    <row r="185" spans="1:7" ht="13">
+    <row r="185" spans="1:7">
       <c r="A185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -3175,7 +3174,7 @@
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
     </row>
-    <row r="186" spans="1:7" ht="13">
+    <row r="186" spans="1:7">
       <c r="A186" s="20"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
@@ -3183,7 +3182,7 @@
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="1:7" ht="13">
+    <row r="187" spans="1:7">
       <c r="A187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
@@ -3191,7 +3190,7 @@
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
     </row>
-    <row r="188" spans="1:7" ht="13">
+    <row r="188" spans="1:7">
       <c r="A188" s="20"/>
       <c r="C188" s="20"/>
       <c r="D188" s="20"/>
@@ -3199,7 +3198,7 @@
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
     </row>
-    <row r="189" spans="1:7" ht="13">
+    <row r="189" spans="1:7">
       <c r="A189" s="20"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
@@ -3207,7 +3206,7 @@
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
     </row>
-    <row r="190" spans="1:7" ht="13">
+    <row r="190" spans="1:7">
       <c r="A190" s="20"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
@@ -3215,7 +3214,7 @@
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
     </row>
-    <row r="191" spans="1:7" ht="13">
+    <row r="191" spans="1:7">
       <c r="A191" s="20"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
@@ -3223,7 +3222,7 @@
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
     </row>
-    <row r="192" spans="1:7" ht="13">
+    <row r="192" spans="1:7">
       <c r="A192" s="20"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
@@ -3231,7 +3230,7 @@
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
     </row>
-    <row r="193" spans="1:7" ht="13">
+    <row r="193" spans="1:7">
       <c r="A193" s="20"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
@@ -3239,7 +3238,7 @@
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="194" spans="1:7" ht="13">
+    <row r="194" spans="1:7">
       <c r="A194" s="20"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
@@ -3247,7 +3246,7 @@
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
     </row>
-    <row r="195" spans="1:7" ht="13">
+    <row r="195" spans="1:7">
       <c r="A195" s="20"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
@@ -3255,7 +3254,7 @@
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
     </row>
-    <row r="196" spans="1:7" ht="13">
+    <row r="196" spans="1:7">
       <c r="A196" s="20"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
@@ -3263,7 +3262,7 @@
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
     </row>
-    <row r="197" spans="1:7" ht="13">
+    <row r="197" spans="1:7">
       <c r="A197" s="20"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
@@ -3271,7 +3270,7 @@
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
     </row>
-    <row r="198" spans="1:7" ht="13">
+    <row r="198" spans="1:7">
       <c r="A198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
@@ -3279,7 +3278,7 @@
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
     </row>
-    <row r="199" spans="1:7" ht="13">
+    <row r="199" spans="1:7">
       <c r="A199" s="20"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
@@ -3287,7 +3286,7 @@
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
     </row>
-    <row r="200" spans="1:7" ht="13">
+    <row r="200" spans="1:7">
       <c r="A200" s="20"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -3295,7 +3294,7 @@
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
     </row>
-    <row r="201" spans="1:7" ht="13">
+    <row r="201" spans="1:7">
       <c r="A201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
@@ -3303,7 +3302,7 @@
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
     </row>
-    <row r="202" spans="1:7" ht="13">
+    <row r="202" spans="1:7">
       <c r="A202" s="20"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
@@ -3311,7 +3310,7 @@
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
     </row>
-    <row r="203" spans="1:7" ht="13">
+    <row r="203" spans="1:7">
       <c r="A203" s="20"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
@@ -3319,7 +3318,7 @@
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
     </row>
-    <row r="204" spans="1:7" ht="13">
+    <row r="204" spans="1:7">
       <c r="A204" s="20"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
@@ -3327,7 +3326,7 @@
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
     </row>
-    <row r="205" spans="1:7" ht="13">
+    <row r="205" spans="1:7">
       <c r="A205" s="20"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
@@ -3335,7 +3334,7 @@
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
     </row>
-    <row r="206" spans="1:7" ht="13">
+    <row r="206" spans="1:7">
       <c r="A206" s="20"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
@@ -3343,7 +3342,7 @@
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
     </row>
-    <row r="207" spans="1:7" ht="13">
+    <row r="207" spans="1:7">
       <c r="A207" s="20"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
@@ -3351,7 +3350,7 @@
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
     </row>
-    <row r="208" spans="1:7" ht="13">
+    <row r="208" spans="1:7">
       <c r="A208" s="20"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
@@ -3359,7 +3358,7 @@
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
     </row>
-    <row r="209" spans="1:7" ht="13">
+    <row r="209" spans="1:7">
       <c r="A209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
@@ -3367,7 +3366,7 @@
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
     </row>
-    <row r="210" spans="1:7" ht="13">
+    <row r="210" spans="1:7">
       <c r="A210" s="20"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
@@ -3375,7 +3374,7 @@
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
     </row>
-    <row r="211" spans="1:7" ht="13">
+    <row r="211" spans="1:7">
       <c r="A211" s="20"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
@@ -3383,7 +3382,7 @@
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
     </row>
-    <row r="212" spans="1:7" ht="13">
+    <row r="212" spans="1:7">
       <c r="A212" s="20"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
@@ -3391,7 +3390,7 @@
       <c r="F212" s="20"/>
       <c r="G212" s="20"/>
     </row>
-    <row r="213" spans="1:7" ht="13">
+    <row r="213" spans="1:7">
       <c r="A213" s="20"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
@@ -3399,7 +3398,7 @@
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
     </row>
-    <row r="214" spans="1:7" ht="13">
+    <row r="214" spans="1:7">
       <c r="A214" s="20"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
@@ -3407,7 +3406,7 @@
       <c r="F214" s="20"/>
       <c r="G214" s="20"/>
     </row>
-    <row r="215" spans="1:7" ht="13">
+    <row r="215" spans="1:7">
       <c r="A215" s="20"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
@@ -3415,7 +3414,7 @@
       <c r="F215" s="20"/>
       <c r="G215" s="20"/>
     </row>
-    <row r="216" spans="1:7" ht="13">
+    <row r="216" spans="1:7">
       <c r="A216" s="20"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
@@ -3423,7 +3422,7 @@
       <c r="F216" s="20"/>
       <c r="G216" s="20"/>
     </row>
-    <row r="217" spans="1:7" ht="13">
+    <row r="217" spans="1:7">
       <c r="A217" s="20"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
@@ -3431,7 +3430,7 @@
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
     </row>
-    <row r="218" spans="1:7" ht="13">
+    <row r="218" spans="1:7">
       <c r="A218" s="20"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
@@ -3439,7 +3438,7 @@
       <c r="F218" s="20"/>
       <c r="G218" s="20"/>
     </row>
-    <row r="219" spans="1:7" ht="13">
+    <row r="219" spans="1:7">
       <c r="A219" s="20"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -3447,7 +3446,7 @@
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
     </row>
-    <row r="220" spans="1:7" ht="13">
+    <row r="220" spans="1:7">
       <c r="A220" s="20"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
@@ -3455,7 +3454,7 @@
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
     </row>
-    <row r="221" spans="1:7" ht="13">
+    <row r="221" spans="1:7">
       <c r="A221" s="20"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
@@ -3463,7 +3462,7 @@
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
     </row>
-    <row r="222" spans="1:7" ht="13">
+    <row r="222" spans="1:7">
       <c r="A222" s="20"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
@@ -3471,7 +3470,7 @@
       <c r="F222" s="20"/>
       <c r="G222" s="20"/>
     </row>
-    <row r="223" spans="1:7" ht="13">
+    <row r="223" spans="1:7">
       <c r="A223" s="20"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
@@ -3479,7 +3478,7 @@
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
     </row>
-    <row r="224" spans="1:7" ht="13">
+    <row r="224" spans="1:7">
       <c r="A224" s="20"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
@@ -3487,7 +3486,7 @@
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
     </row>
-    <row r="225" spans="1:7" ht="13">
+    <row r="225" spans="1:7">
       <c r="A225" s="20"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
@@ -3495,7 +3494,7 @@
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
     </row>
-    <row r="226" spans="1:7" ht="13">
+    <row r="226" spans="1:7">
       <c r="A226" s="20"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
@@ -3503,7 +3502,7 @@
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
     </row>
-    <row r="227" spans="1:7" ht="13">
+    <row r="227" spans="1:7">
       <c r="A227" s="20"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
@@ -3511,7 +3510,7 @@
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
     </row>
-    <row r="228" spans="1:7" ht="13">
+    <row r="228" spans="1:7">
       <c r="A228" s="20"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
@@ -3519,7 +3518,7 @@
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
     </row>
-    <row r="229" spans="1:7" ht="13">
+    <row r="229" spans="1:7">
       <c r="A229" s="20"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
@@ -3527,7 +3526,7 @@
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
     </row>
-    <row r="230" spans="1:7" ht="13">
+    <row r="230" spans="1:7">
       <c r="A230" s="20"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
@@ -3535,7 +3534,7 @@
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
     </row>
-    <row r="231" spans="1:7" ht="13">
+    <row r="231" spans="1:7">
       <c r="A231" s="20"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
@@ -3543,7 +3542,7 @@
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
     </row>
-    <row r="232" spans="1:7" ht="13">
+    <row r="232" spans="1:7">
       <c r="A232" s="20"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
@@ -3551,7 +3550,7 @@
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
     </row>
-    <row r="233" spans="1:7" ht="13">
+    <row r="233" spans="1:7">
       <c r="A233" s="20"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
@@ -3559,7 +3558,7 @@
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
     </row>
-    <row r="234" spans="1:7" ht="13">
+    <row r="234" spans="1:7">
       <c r="A234" s="20"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
@@ -3567,7 +3566,7 @@
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
     </row>
-    <row r="235" spans="1:7" ht="13">
+    <row r="235" spans="1:7">
       <c r="A235" s="20"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
@@ -3575,7 +3574,7 @@
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
     </row>
-    <row r="236" spans="1:7" ht="13">
+    <row r="236" spans="1:7">
       <c r="A236" s="20"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
@@ -3583,7 +3582,7 @@
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
     </row>
-    <row r="237" spans="1:7" ht="13">
+    <row r="237" spans="1:7">
       <c r="A237" s="20"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
@@ -3591,7 +3590,7 @@
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
     </row>
-    <row r="238" spans="1:7" ht="13">
+    <row r="238" spans="1:7">
       <c r="A238" s="20"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -3599,7 +3598,7 @@
       <c r="F238" s="20"/>
       <c r="G238" s="20"/>
     </row>
-    <row r="239" spans="1:7" ht="13">
+    <row r="239" spans="1:7">
       <c r="A239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
@@ -3607,7 +3606,7 @@
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
     </row>
-    <row r="240" spans="1:7" ht="13">
+    <row r="240" spans="1:7">
       <c r="A240" s="20"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
@@ -3615,7 +3614,7 @@
       <c r="F240" s="20"/>
       <c r="G240" s="20"/>
     </row>
-    <row r="241" spans="1:7" ht="13">
+    <row r="241" spans="1:7">
       <c r="A241" s="20"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
@@ -3623,7 +3622,7 @@
       <c r="F241" s="20"/>
       <c r="G241" s="20"/>
     </row>
-    <row r="242" spans="1:7" ht="13">
+    <row r="242" spans="1:7">
       <c r="A242" s="20"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
@@ -3631,7 +3630,7 @@
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
     </row>
-    <row r="243" spans="1:7" ht="13">
+    <row r="243" spans="1:7">
       <c r="A243" s="20"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
@@ -3639,7 +3638,7 @@
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
     </row>
-    <row r="244" spans="1:7" ht="13">
+    <row r="244" spans="1:7">
       <c r="A244" s="20"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
@@ -3647,7 +3646,7 @@
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
     </row>
-    <row r="245" spans="1:7" ht="13">
+    <row r="245" spans="1:7">
       <c r="A245" s="20"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
@@ -3655,7 +3654,7 @@
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
     </row>
-    <row r="246" spans="1:7" ht="13">
+    <row r="246" spans="1:7">
       <c r="A246" s="20"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
@@ -3663,7 +3662,7 @@
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
     </row>
-    <row r="247" spans="1:7" ht="13">
+    <row r="247" spans="1:7">
       <c r="A247" s="20"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
@@ -3671,7 +3670,7 @@
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
     </row>
-    <row r="248" spans="1:7" ht="13">
+    <row r="248" spans="1:7">
       <c r="A248" s="20"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
@@ -3679,7 +3678,7 @@
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
     </row>
-    <row r="249" spans="1:7" ht="13">
+    <row r="249" spans="1:7">
       <c r="A249" s="20"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
@@ -3687,7 +3686,7 @@
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
     </row>
-    <row r="250" spans="1:7" ht="13">
+    <row r="250" spans="1:7">
       <c r="A250" s="20"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
@@ -3695,7 +3694,7 @@
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
     </row>
-    <row r="251" spans="1:7" ht="13">
+    <row r="251" spans="1:7">
       <c r="A251" s="20"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
@@ -3703,7 +3702,7 @@
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
     </row>
-    <row r="252" spans="1:7" ht="13">
+    <row r="252" spans="1:7">
       <c r="A252" s="20"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
@@ -3711,7 +3710,7 @@
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
     </row>
-    <row r="253" spans="1:7" ht="13">
+    <row r="253" spans="1:7">
       <c r="A253" s="20"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
@@ -3719,7 +3718,7 @@
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
     </row>
-    <row r="254" spans="1:7" ht="13">
+    <row r="254" spans="1:7">
       <c r="A254" s="20"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -3727,7 +3726,7 @@
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
     </row>
-    <row r="255" spans="1:7" ht="13">
+    <row r="255" spans="1:7">
       <c r="A255" s="20"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
@@ -3735,7 +3734,7 @@
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
     </row>
-    <row r="256" spans="1:7" ht="13">
+    <row r="256" spans="1:7">
       <c r="A256" s="20"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -3743,7 +3742,7 @@
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
     </row>
-    <row r="257" spans="1:7" ht="13">
+    <row r="257" spans="1:7">
       <c r="A257" s="20"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -3751,7 +3750,7 @@
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
     </row>
-    <row r="258" spans="1:7" ht="13">
+    <row r="258" spans="1:7">
       <c r="A258" s="20"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
@@ -3759,7 +3758,7 @@
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
     </row>
-    <row r="259" spans="1:7" ht="13">
+    <row r="259" spans="1:7">
       <c r="A259" s="20"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
@@ -3767,7 +3766,7 @@
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
     </row>
-    <row r="260" spans="1:7" ht="13">
+    <row r="260" spans="1:7">
       <c r="A260" s="20"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
@@ -3775,7 +3774,7 @@
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
     </row>
-    <row r="261" spans="1:7" ht="13">
+    <row r="261" spans="1:7">
       <c r="A261" s="20"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
@@ -3783,7 +3782,7 @@
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
     </row>
-    <row r="262" spans="1:7" ht="13">
+    <row r="262" spans="1:7">
       <c r="A262" s="20"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
@@ -3791,7 +3790,7 @@
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
     </row>
-    <row r="263" spans="1:7" ht="13">
+    <row r="263" spans="1:7">
       <c r="A263" s="20"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
@@ -3799,7 +3798,7 @@
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
     </row>
-    <row r="264" spans="1:7" ht="13">
+    <row r="264" spans="1:7">
       <c r="A264" s="20"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
@@ -3807,7 +3806,7 @@
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
     </row>
-    <row r="265" spans="1:7" ht="13">
+    <row r="265" spans="1:7">
       <c r="A265" s="20"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
@@ -3815,7 +3814,7 @@
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
     </row>
-    <row r="266" spans="1:7" ht="13">
+    <row r="266" spans="1:7">
       <c r="A266" s="20"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
@@ -3823,7 +3822,7 @@
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
     </row>
-    <row r="267" spans="1:7" ht="13">
+    <row r="267" spans="1:7">
       <c r="A267" s="20"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
@@ -3831,7 +3830,7 @@
       <c r="F267" s="20"/>
       <c r="G267" s="20"/>
     </row>
-    <row r="268" spans="1:7" ht="13">
+    <row r="268" spans="1:7">
       <c r="A268" s="20"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
@@ -3839,7 +3838,7 @@
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
     </row>
-    <row r="269" spans="1:7" ht="13">
+    <row r="269" spans="1:7">
       <c r="A269" s="20"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
@@ -3847,7 +3846,7 @@
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
     </row>
-    <row r="270" spans="1:7" ht="13">
+    <row r="270" spans="1:7">
       <c r="A270" s="20"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
@@ -3855,7 +3854,7 @@
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
     </row>
-    <row r="271" spans="1:7" ht="13">
+    <row r="271" spans="1:7">
       <c r="A271" s="20"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
@@ -3863,7 +3862,7 @@
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
     </row>
-    <row r="272" spans="1:7" ht="13">
+    <row r="272" spans="1:7">
       <c r="A272" s="20"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
@@ -3871,7 +3870,7 @@
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
     </row>
-    <row r="273" spans="1:7" ht="13">
+    <row r="273" spans="1:7">
       <c r="A273" s="20"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
@@ -3879,7 +3878,7 @@
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
     </row>
-    <row r="274" spans="1:7" ht="13">
+    <row r="274" spans="1:7">
       <c r="A274" s="20"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
@@ -3887,7 +3886,7 @@
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
     </row>
-    <row r="275" spans="1:7" ht="13">
+    <row r="275" spans="1:7">
       <c r="A275" s="20"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
@@ -3895,7 +3894,7 @@
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
     </row>
-    <row r="276" spans="1:7" ht="13">
+    <row r="276" spans="1:7">
       <c r="A276" s="20"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -3903,7 +3902,7 @@
       <c r="F276" s="20"/>
       <c r="G276" s="20"/>
     </row>
-    <row r="277" spans="1:7" ht="13">
+    <row r="277" spans="1:7">
       <c r="A277" s="20"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
@@ -3911,7 +3910,7 @@
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
     </row>
-    <row r="278" spans="1:7" ht="13">
+    <row r="278" spans="1:7">
       <c r="A278" s="20"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
@@ -3919,7 +3918,7 @@
       <c r="F278" s="20"/>
       <c r="G278" s="20"/>
     </row>
-    <row r="279" spans="1:7" ht="13">
+    <row r="279" spans="1:7">
       <c r="A279" s="20"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
@@ -3927,7 +3926,7 @@
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
     </row>
-    <row r="280" spans="1:7" ht="13">
+    <row r="280" spans="1:7">
       <c r="A280" s="20"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
@@ -3935,7 +3934,7 @@
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
     </row>
-    <row r="281" spans="1:7" ht="13">
+    <row r="281" spans="1:7">
       <c r="A281" s="20"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
@@ -3943,7 +3942,7 @@
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
     </row>
-    <row r="282" spans="1:7" ht="13">
+    <row r="282" spans="1:7">
       <c r="A282" s="20"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
@@ -3951,7 +3950,7 @@
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
     </row>
-    <row r="283" spans="1:7" ht="13">
+    <row r="283" spans="1:7">
       <c r="A283" s="20"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
@@ -3959,7 +3958,7 @@
       <c r="F283" s="20"/>
       <c r="G283" s="20"/>
     </row>
-    <row r="284" spans="1:7" ht="13">
+    <row r="284" spans="1:7">
       <c r="A284" s="20"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
@@ -3967,7 +3966,7 @@
       <c r="F284" s="20"/>
       <c r="G284" s="20"/>
     </row>
-    <row r="285" spans="1:7" ht="13">
+    <row r="285" spans="1:7">
       <c r="A285" s="20"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
@@ -3975,7 +3974,7 @@
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
     </row>
-    <row r="286" spans="1:7" ht="13">
+    <row r="286" spans="1:7">
       <c r="A286" s="20"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
@@ -3983,7 +3982,7 @@
       <c r="F286" s="20"/>
       <c r="G286" s="20"/>
     </row>
-    <row r="287" spans="1:7" ht="13">
+    <row r="287" spans="1:7">
       <c r="A287" s="20"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
@@ -3991,7 +3990,7 @@
       <c r="F287" s="20"/>
       <c r="G287" s="20"/>
     </row>
-    <row r="288" spans="1:7" ht="13">
+    <row r="288" spans="1:7">
       <c r="A288" s="20"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
@@ -3999,7 +3998,7 @@
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
     </row>
-    <row r="289" spans="1:7" ht="13">
+    <row r="289" spans="1:7">
       <c r="A289" s="20"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
@@ -4007,7 +4006,7 @@
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
     </row>
-    <row r="290" spans="1:7" ht="13">
+    <row r="290" spans="1:7">
       <c r="A290" s="20"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
@@ -4015,7 +4014,7 @@
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
     </row>
-    <row r="291" spans="1:7" ht="13">
+    <row r="291" spans="1:7">
       <c r="A291" s="20"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
@@ -4023,7 +4022,7 @@
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
     </row>
-    <row r="292" spans="1:7" ht="13">
+    <row r="292" spans="1:7">
       <c r="A292" s="20"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
@@ -4031,7 +4030,7 @@
       <c r="F292" s="20"/>
       <c r="G292" s="20"/>
     </row>
-    <row r="293" spans="1:7" ht="13">
+    <row r="293" spans="1:7">
       <c r="A293" s="20"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
@@ -4039,7 +4038,7 @@
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
     </row>
-    <row r="294" spans="1:7" ht="13">
+    <row r="294" spans="1:7">
       <c r="A294" s="20"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
@@ -4047,7 +4046,7 @@
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
     </row>
-    <row r="295" spans="1:7" ht="13">
+    <row r="295" spans="1:7">
       <c r="A295" s="20"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -4055,7 +4054,7 @@
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
     </row>
-    <row r="296" spans="1:7" ht="13">
+    <row r="296" spans="1:7">
       <c r="A296" s="20"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
@@ -4063,7 +4062,7 @@
       <c r="F296" s="20"/>
       <c r="G296" s="20"/>
     </row>
-    <row r="297" spans="1:7" ht="13">
+    <row r="297" spans="1:7">
       <c r="A297" s="20"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
@@ -4071,7 +4070,7 @@
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
     </row>
-    <row r="298" spans="1:7" ht="13">
+    <row r="298" spans="1:7">
       <c r="A298" s="20"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
@@ -4079,7 +4078,7 @@
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
     </row>
-    <row r="299" spans="1:7" ht="13">
+    <row r="299" spans="1:7">
       <c r="A299" s="20"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
@@ -4087,7 +4086,7 @@
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
     </row>
-    <row r="300" spans="1:7" ht="13">
+    <row r="300" spans="1:7">
       <c r="A300" s="20"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
@@ -4095,7 +4094,7 @@
       <c r="F300" s="20"/>
       <c r="G300" s="20"/>
     </row>
-    <row r="301" spans="1:7" ht="13">
+    <row r="301" spans="1:7">
       <c r="A301" s="20"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
@@ -4103,7 +4102,7 @@
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
     </row>
-    <row r="302" spans="1:7" ht="13">
+    <row r="302" spans="1:7">
       <c r="A302" s="20"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
@@ -4111,7 +4110,7 @@
       <c r="F302" s="20"/>
       <c r="G302" s="20"/>
     </row>
-    <row r="303" spans="1:7" ht="13">
+    <row r="303" spans="1:7">
       <c r="A303" s="20"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
@@ -4119,7 +4118,7 @@
       <c r="F303" s="20"/>
       <c r="G303" s="20"/>
     </row>
-    <row r="304" spans="1:7" ht="13">
+    <row r="304" spans="1:7">
       <c r="A304" s="20"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
@@ -4127,7 +4126,7 @@
       <c r="F304" s="20"/>
       <c r="G304" s="20"/>
     </row>
-    <row r="305" spans="1:7" ht="13">
+    <row r="305" spans="1:7">
       <c r="A305" s="20"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
@@ -4135,7 +4134,7 @@
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
     </row>
-    <row r="306" spans="1:7" ht="13">
+    <row r="306" spans="1:7">
       <c r="A306" s="20"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
@@ -4143,7 +4142,7 @@
       <c r="F306" s="20"/>
       <c r="G306" s="20"/>
     </row>
-    <row r="307" spans="1:7" ht="13">
+    <row r="307" spans="1:7">
       <c r="A307" s="20"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
@@ -4151,7 +4150,7 @@
       <c r="F307" s="20"/>
       <c r="G307" s="20"/>
     </row>
-    <row r="308" spans="1:7" ht="13">
+    <row r="308" spans="1:7">
       <c r="A308" s="20"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
@@ -4159,7 +4158,7 @@
       <c r="F308" s="20"/>
       <c r="G308" s="20"/>
     </row>
-    <row r="309" spans="1:7" ht="13">
+    <row r="309" spans="1:7">
       <c r="A309" s="20"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
@@ -4167,7 +4166,7 @@
       <c r="F309" s="20"/>
       <c r="G309" s="20"/>
     </row>
-    <row r="310" spans="1:7" ht="13">
+    <row r="310" spans="1:7">
       <c r="A310" s="20"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
@@ -4175,7 +4174,7 @@
       <c r="F310" s="20"/>
       <c r="G310" s="20"/>
     </row>
-    <row r="311" spans="1:7" ht="13">
+    <row r="311" spans="1:7">
       <c r="A311" s="20"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
@@ -4183,7 +4182,7 @@
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
     </row>
-    <row r="312" spans="1:7" ht="13">
+    <row r="312" spans="1:7">
       <c r="A312" s="20"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
@@ -4191,7 +4190,7 @@
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
     </row>
-    <row r="313" spans="1:7" ht="13">
+    <row r="313" spans="1:7">
       <c r="A313" s="20"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
@@ -4199,7 +4198,7 @@
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
     </row>
-    <row r="314" spans="1:7" ht="13">
+    <row r="314" spans="1:7">
       <c r="A314" s="20"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -4207,7 +4206,7 @@
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
     </row>
-    <row r="315" spans="1:7" ht="13">
+    <row r="315" spans="1:7">
       <c r="A315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
@@ -4215,7 +4214,7 @@
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
     </row>
-    <row r="316" spans="1:7" ht="13">
+    <row r="316" spans="1:7">
       <c r="A316" s="20"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
@@ -4223,7 +4222,7 @@
       <c r="F316" s="20"/>
       <c r="G316" s="20"/>
     </row>
-    <row r="317" spans="1:7" ht="13">
+    <row r="317" spans="1:7">
       <c r="A317" s="20"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
@@ -4231,7 +4230,7 @@
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
     </row>
-    <row r="318" spans="1:7" ht="13">
+    <row r="318" spans="1:7">
       <c r="A318" s="20"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
@@ -4239,7 +4238,7 @@
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
     </row>
-    <row r="319" spans="1:7" ht="13">
+    <row r="319" spans="1:7">
       <c r="A319" s="20"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
@@ -4247,7 +4246,7 @@
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
     </row>
-    <row r="320" spans="1:7" ht="13">
+    <row r="320" spans="1:7">
       <c r="A320" s="20"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
@@ -4255,7 +4254,7 @@
       <c r="F320" s="20"/>
       <c r="G320" s="20"/>
     </row>
-    <row r="321" spans="1:7" ht="13">
+    <row r="321" spans="1:7">
       <c r="A321" s="20"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
@@ -4263,7 +4262,7 @@
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
     </row>
-    <row r="322" spans="1:7" ht="13">
+    <row r="322" spans="1:7">
       <c r="A322" s="20"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
@@ -4271,7 +4270,7 @@
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
     </row>
-    <row r="323" spans="1:7" ht="13">
+    <row r="323" spans="1:7">
       <c r="A323" s="20"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
@@ -4279,7 +4278,7 @@
       <c r="F323" s="20"/>
       <c r="G323" s="20"/>
     </row>
-    <row r="324" spans="1:7" ht="13">
+    <row r="324" spans="1:7">
       <c r="A324" s="20"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
@@ -4287,7 +4286,7 @@
       <c r="F324" s="20"/>
       <c r="G324" s="20"/>
     </row>
-    <row r="325" spans="1:7" ht="13">
+    <row r="325" spans="1:7">
       <c r="A325" s="20"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
@@ -4295,7 +4294,7 @@
       <c r="F325" s="20"/>
       <c r="G325" s="20"/>
     </row>
-    <row r="326" spans="1:7" ht="13">
+    <row r="326" spans="1:7">
       <c r="A326" s="20"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
@@ -4303,7 +4302,7 @@
       <c r="F326" s="20"/>
       <c r="G326" s="20"/>
     </row>
-    <row r="327" spans="1:7" ht="13">
+    <row r="327" spans="1:7">
       <c r="A327" s="20"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
@@ -4311,7 +4310,7 @@
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
     </row>
-    <row r="328" spans="1:7" ht="13">
+    <row r="328" spans="1:7">
       <c r="A328" s="20"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
@@ -4319,7 +4318,7 @@
       <c r="F328" s="20"/>
       <c r="G328" s="20"/>
     </row>
-    <row r="329" spans="1:7" ht="13">
+    <row r="329" spans="1:7">
       <c r="A329" s="20"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
@@ -4327,7 +4326,7 @@
       <c r="F329" s="20"/>
       <c r="G329" s="20"/>
     </row>
-    <row r="330" spans="1:7" ht="13">
+    <row r="330" spans="1:7">
       <c r="A330" s="20"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
@@ -4335,7 +4334,7 @@
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
     </row>
-    <row r="331" spans="1:7" ht="13">
+    <row r="331" spans="1:7">
       <c r="A331" s="20"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
@@ -4343,7 +4342,7 @@
       <c r="F331" s="20"/>
       <c r="G331" s="20"/>
     </row>
-    <row r="332" spans="1:7" ht="13">
+    <row r="332" spans="1:7">
       <c r="A332" s="20"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
@@ -4351,7 +4350,7 @@
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
     </row>
-    <row r="333" spans="1:7" ht="13">
+    <row r="333" spans="1:7">
       <c r="A333" s="20"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
@@ -4359,7 +4358,7 @@
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
     </row>
-    <row r="334" spans="1:7" ht="13">
+    <row r="334" spans="1:7">
       <c r="A334" s="20"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
@@ -4367,7 +4366,7 @@
       <c r="F334" s="20"/>
       <c r="G334" s="20"/>
     </row>
-    <row r="335" spans="1:7" ht="13">
+    <row r="335" spans="1:7">
       <c r="A335" s="20"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
@@ -4375,7 +4374,7 @@
       <c r="F335" s="20"/>
       <c r="G335" s="20"/>
     </row>
-    <row r="336" spans="1:7" ht="13">
+    <row r="336" spans="1:7">
       <c r="A336" s="20"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
@@ -4383,7 +4382,7 @@
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
     </row>
-    <row r="337" spans="1:7" ht="13">
+    <row r="337" spans="1:7">
       <c r="A337" s="20"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
@@ -4391,7 +4390,7 @@
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
     </row>
-    <row r="338" spans="1:7" ht="13">
+    <row r="338" spans="1:7">
       <c r="A338" s="20"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
@@ -4399,7 +4398,7 @@
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
     </row>
-    <row r="339" spans="1:7" ht="13">
+    <row r="339" spans="1:7">
       <c r="A339" s="20"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
@@ -4407,7 +4406,7 @@
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
     </row>
-    <row r="340" spans="1:7" ht="13">
+    <row r="340" spans="1:7">
       <c r="A340" s="20"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
@@ -4415,7 +4414,7 @@
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
     </row>
-    <row r="341" spans="1:7" ht="13">
+    <row r="341" spans="1:7">
       <c r="A341" s="20"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
@@ -4423,7 +4422,7 @@
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
     </row>
-    <row r="342" spans="1:7" ht="13">
+    <row r="342" spans="1:7">
       <c r="A342" s="20"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
@@ -4431,7 +4430,7 @@
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
     </row>
-    <row r="343" spans="1:7" ht="13">
+    <row r="343" spans="1:7">
       <c r="A343" s="20"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
@@ -4439,7 +4438,7 @@
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
     </row>
-    <row r="344" spans="1:7" ht="13">
+    <row r="344" spans="1:7">
       <c r="A344" s="20"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
@@ -4447,7 +4446,7 @@
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
     </row>
-    <row r="345" spans="1:7" ht="13">
+    <row r="345" spans="1:7">
       <c r="A345" s="20"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
@@ -4455,7 +4454,7 @@
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
     </row>
-    <row r="346" spans="1:7" ht="13">
+    <row r="346" spans="1:7">
       <c r="A346" s="20"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
@@ -4463,7 +4462,7 @@
       <c r="F346" s="20"/>
       <c r="G346" s="20"/>
     </row>
-    <row r="347" spans="1:7" ht="13">
+    <row r="347" spans="1:7">
       <c r="A347" s="20"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
@@ -4471,7 +4470,7 @@
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
     </row>
-    <row r="348" spans="1:7" ht="13">
+    <row r="348" spans="1:7">
       <c r="A348" s="20"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
@@ -4479,7 +4478,7 @@
       <c r="F348" s="20"/>
       <c r="G348" s="20"/>
     </row>
-    <row r="349" spans="1:7" ht="13">
+    <row r="349" spans="1:7">
       <c r="A349" s="20"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
@@ -4487,7 +4486,7 @@
       <c r="F349" s="20"/>
       <c r="G349" s="20"/>
     </row>
-    <row r="350" spans="1:7" ht="13">
+    <row r="350" spans="1:7">
       <c r="A350" s="20"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
@@ -4495,7 +4494,7 @@
       <c r="F350" s="20"/>
       <c r="G350" s="20"/>
     </row>
-    <row r="351" spans="1:7" ht="13">
+    <row r="351" spans="1:7">
       <c r="A351" s="20"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
@@ -4503,7 +4502,7 @@
       <c r="F351" s="20"/>
       <c r="G351" s="20"/>
     </row>
-    <row r="352" spans="1:7" ht="13">
+    <row r="352" spans="1:7">
       <c r="A352" s="20"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
@@ -4511,7 +4510,7 @@
       <c r="F352" s="20"/>
       <c r="G352" s="20"/>
     </row>
-    <row r="353" spans="1:7" ht="13">
+    <row r="353" spans="1:7">
       <c r="A353" s="20"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
@@ -4519,7 +4518,7 @@
       <c r="F353" s="20"/>
       <c r="G353" s="20"/>
     </row>
-    <row r="354" spans="1:7" ht="13">
+    <row r="354" spans="1:7">
       <c r="A354" s="20"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
@@ -4527,7 +4526,7 @@
       <c r="F354" s="20"/>
       <c r="G354" s="20"/>
     </row>
-    <row r="355" spans="1:7" ht="13">
+    <row r="355" spans="1:7">
       <c r="A355" s="20"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
@@ -4535,7 +4534,7 @@
       <c r="F355" s="20"/>
       <c r="G355" s="20"/>
     </row>
-    <row r="356" spans="1:7" ht="13">
+    <row r="356" spans="1:7">
       <c r="A356" s="20"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
@@ -4543,7 +4542,7 @@
       <c r="F356" s="20"/>
       <c r="G356" s="20"/>
     </row>
-    <row r="357" spans="1:7" ht="13">
+    <row r="357" spans="1:7">
       <c r="A357" s="20"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
@@ -4551,7 +4550,7 @@
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
     </row>
-    <row r="358" spans="1:7" ht="13">
+    <row r="358" spans="1:7">
       <c r="A358" s="20"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
@@ -4559,7 +4558,7 @@
       <c r="F358" s="20"/>
       <c r="G358" s="20"/>
     </row>
-    <row r="359" spans="1:7" ht="13">
+    <row r="359" spans="1:7">
       <c r="A359" s="20"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
@@ -4567,7 +4566,7 @@
       <c r="F359" s="20"/>
       <c r="G359" s="20"/>
     </row>
-    <row r="360" spans="1:7" ht="13">
+    <row r="360" spans="1:7">
       <c r="A360" s="20"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
@@ -4575,7 +4574,7 @@
       <c r="F360" s="20"/>
       <c r="G360" s="20"/>
     </row>
-    <row r="361" spans="1:7" ht="13">
+    <row r="361" spans="1:7">
       <c r="A361" s="20"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
@@ -4583,7 +4582,7 @@
       <c r="F361" s="20"/>
       <c r="G361" s="20"/>
     </row>
-    <row r="362" spans="1:7" ht="13">
+    <row r="362" spans="1:7">
       <c r="A362" s="20"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
@@ -4591,7 +4590,7 @@
       <c r="F362" s="20"/>
       <c r="G362" s="20"/>
     </row>
-    <row r="363" spans="1:7" ht="13">
+    <row r="363" spans="1:7">
       <c r="A363" s="20"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
@@ -4599,7 +4598,7 @@
       <c r="F363" s="20"/>
       <c r="G363" s="20"/>
     </row>
-    <row r="364" spans="1:7" ht="13">
+    <row r="364" spans="1:7">
       <c r="A364" s="20"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
@@ -4607,7 +4606,7 @@
       <c r="F364" s="20"/>
       <c r="G364" s="20"/>
     </row>
-    <row r="365" spans="1:7" ht="13">
+    <row r="365" spans="1:7">
       <c r="A365" s="20"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
@@ -4615,7 +4614,7 @@
       <c r="F365" s="20"/>
       <c r="G365" s="20"/>
     </row>
-    <row r="366" spans="1:7" ht="13">
+    <row r="366" spans="1:7">
       <c r="A366" s="20"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
@@ -4623,7 +4622,7 @@
       <c r="F366" s="20"/>
       <c r="G366" s="20"/>
     </row>
-    <row r="367" spans="1:7" ht="13">
+    <row r="367" spans="1:7">
       <c r="A367" s="20"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
@@ -4631,7 +4630,7 @@
       <c r="F367" s="20"/>
       <c r="G367" s="20"/>
     </row>
-    <row r="368" spans="1:7" ht="13">
+    <row r="368" spans="1:7">
       <c r="A368" s="20"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
@@ -4639,7 +4638,7 @@
       <c r="F368" s="20"/>
       <c r="G368" s="20"/>
     </row>
-    <row r="369" spans="1:7" ht="13">
+    <row r="369" spans="1:7">
       <c r="A369" s="20"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
@@ -4647,7 +4646,7 @@
       <c r="F369" s="20"/>
       <c r="G369" s="20"/>
     </row>
-    <row r="370" spans="1:7" ht="13">
+    <row r="370" spans="1:7">
       <c r="A370" s="20"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
@@ -4655,7 +4654,7 @@
       <c r="F370" s="20"/>
       <c r="G370" s="20"/>
     </row>
-    <row r="371" spans="1:7" ht="13">
+    <row r="371" spans="1:7">
       <c r="A371" s="20"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
@@ -4663,7 +4662,7 @@
       <c r="F371" s="20"/>
       <c r="G371" s="20"/>
     </row>
-    <row r="372" spans="1:7" ht="13">
+    <row r="372" spans="1:7">
       <c r="A372" s="20"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
@@ -4671,7 +4670,7 @@
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
     </row>
-    <row r="373" spans="1:7" ht="13">
+    <row r="373" spans="1:7">
       <c r="A373" s="20"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
@@ -4679,7 +4678,7 @@
       <c r="F373" s="20"/>
       <c r="G373" s="20"/>
     </row>
-    <row r="374" spans="1:7" ht="13">
+    <row r="374" spans="1:7">
       <c r="A374" s="20"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
@@ -4687,7 +4686,7 @@
       <c r="F374" s="20"/>
       <c r="G374" s="20"/>
     </row>
-    <row r="375" spans="1:7" ht="13">
+    <row r="375" spans="1:7">
       <c r="A375" s="20"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
@@ -4695,7 +4694,7 @@
       <c r="F375" s="20"/>
       <c r="G375" s="20"/>
     </row>
-    <row r="376" spans="1:7" ht="13">
+    <row r="376" spans="1:7">
       <c r="A376" s="20"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
@@ -4703,7 +4702,7 @@
       <c r="F376" s="20"/>
       <c r="G376" s="20"/>
     </row>
-    <row r="377" spans="1:7" ht="13">
+    <row r="377" spans="1:7">
       <c r="A377" s="20"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
@@ -4711,7 +4710,7 @@
       <c r="F377" s="20"/>
       <c r="G377" s="20"/>
     </row>
-    <row r="378" spans="1:7" ht="13">
+    <row r="378" spans="1:7">
       <c r="A378" s="20"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
@@ -4719,7 +4718,7 @@
       <c r="F378" s="20"/>
       <c r="G378" s="20"/>
     </row>
-    <row r="379" spans="1:7" ht="13">
+    <row r="379" spans="1:7">
       <c r="A379" s="20"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
@@ -4727,7 +4726,7 @@
       <c r="F379" s="20"/>
       <c r="G379" s="20"/>
     </row>
-    <row r="380" spans="1:7" ht="13">
+    <row r="380" spans="1:7">
       <c r="A380" s="20"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
@@ -4735,7 +4734,7 @@
       <c r="F380" s="20"/>
       <c r="G380" s="20"/>
     </row>
-    <row r="381" spans="1:7" ht="13">
+    <row r="381" spans="1:7">
       <c r="A381" s="20"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
@@ -4743,7 +4742,7 @@
       <c r="F381" s="20"/>
       <c r="G381" s="20"/>
     </row>
-    <row r="382" spans="1:7" ht="13">
+    <row r="382" spans="1:7">
       <c r="A382" s="20"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
@@ -4751,7 +4750,7 @@
       <c r="F382" s="20"/>
       <c r="G382" s="20"/>
     </row>
-    <row r="383" spans="1:7" ht="13">
+    <row r="383" spans="1:7">
       <c r="A383" s="20"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
@@ -4759,7 +4758,7 @@
       <c r="F383" s="20"/>
       <c r="G383" s="20"/>
     </row>
-    <row r="384" spans="1:7" ht="13">
+    <row r="384" spans="1:7">
       <c r="A384" s="20"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
@@ -4767,7 +4766,7 @@
       <c r="F384" s="20"/>
       <c r="G384" s="20"/>
     </row>
-    <row r="385" spans="1:7" ht="13">
+    <row r="385" spans="1:7">
       <c r="A385" s="20"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
@@ -4775,7 +4774,7 @@
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
     </row>
-    <row r="386" spans="1:7" ht="13">
+    <row r="386" spans="1:7">
       <c r="A386" s="20"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
@@ -4783,7 +4782,7 @@
       <c r="F386" s="20"/>
       <c r="G386" s="20"/>
     </row>
-    <row r="387" spans="1:7" ht="13">
+    <row r="387" spans="1:7">
       <c r="A387" s="20"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
@@ -4791,7 +4790,7 @@
       <c r="F387" s="20"/>
       <c r="G387" s="20"/>
     </row>
-    <row r="388" spans="1:7" ht="13">
+    <row r="388" spans="1:7">
       <c r="A388" s="20"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
@@ -4799,7 +4798,7 @@
       <c r="F388" s="20"/>
       <c r="G388" s="20"/>
     </row>
-    <row r="389" spans="1:7" ht="13">
+    <row r="389" spans="1:7">
       <c r="A389" s="20"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
@@ -4807,7 +4806,7 @@
       <c r="F389" s="20"/>
       <c r="G389" s="20"/>
     </row>
-    <row r="390" spans="1:7" ht="13">
+    <row r="390" spans="1:7">
       <c r="A390" s="20"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
@@ -4815,7 +4814,7 @@
       <c r="F390" s="20"/>
       <c r="G390" s="20"/>
     </row>
-    <row r="391" spans="1:7" ht="13">
+    <row r="391" spans="1:7">
       <c r="A391" s="20"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
@@ -4823,7 +4822,7 @@
       <c r="F391" s="20"/>
       <c r="G391" s="20"/>
     </row>
-    <row r="392" spans="1:7" ht="13">
+    <row r="392" spans="1:7">
       <c r="A392" s="20"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
@@ -4831,7 +4830,7 @@
       <c r="F392" s="20"/>
       <c r="G392" s="20"/>
     </row>
-    <row r="393" spans="1:7" ht="13">
+    <row r="393" spans="1:7">
       <c r="A393" s="20"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
@@ -4839,7 +4838,7 @@
       <c r="F393" s="20"/>
       <c r="G393" s="20"/>
     </row>
-    <row r="394" spans="1:7" ht="13">
+    <row r="394" spans="1:7">
       <c r="A394" s="20"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
@@ -4847,7 +4846,7 @@
       <c r="F394" s="20"/>
       <c r="G394" s="20"/>
     </row>
-    <row r="395" spans="1:7" ht="13">
+    <row r="395" spans="1:7">
       <c r="A395" s="20"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
@@ -4855,7 +4854,7 @@
       <c r="F395" s="20"/>
       <c r="G395" s="20"/>
     </row>
-    <row r="396" spans="1:7" ht="13">
+    <row r="396" spans="1:7">
       <c r="A396" s="20"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
@@ -4863,7 +4862,7 @@
       <c r="F396" s="20"/>
       <c r="G396" s="20"/>
     </row>
-    <row r="397" spans="1:7" ht="13">
+    <row r="397" spans="1:7">
       <c r="A397" s="20"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
@@ -4871,7 +4870,7 @@
       <c r="F397" s="20"/>
       <c r="G397" s="20"/>
     </row>
-    <row r="398" spans="1:7" ht="13">
+    <row r="398" spans="1:7">
       <c r="A398" s="20"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
@@ -4879,7 +4878,7 @@
       <c r="F398" s="20"/>
       <c r="G398" s="20"/>
     </row>
-    <row r="399" spans="1:7" ht="13">
+    <row r="399" spans="1:7">
       <c r="A399" s="20"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
@@ -4887,7 +4886,7 @@
       <c r="F399" s="20"/>
       <c r="G399" s="20"/>
     </row>
-    <row r="400" spans="1:7" ht="13">
+    <row r="400" spans="1:7">
       <c r="A400" s="20"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
@@ -4895,7 +4894,7 @@
       <c r="F400" s="20"/>
       <c r="G400" s="20"/>
     </row>
-    <row r="401" spans="1:7" ht="13">
+    <row r="401" spans="1:7">
       <c r="A401" s="20"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
@@ -4903,7 +4902,7 @@
       <c r="F401" s="20"/>
       <c r="G401" s="20"/>
     </row>
-    <row r="402" spans="1:7" ht="13">
+    <row r="402" spans="1:7">
       <c r="A402" s="20"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
@@ -4911,7 +4910,7 @@
       <c r="F402" s="20"/>
       <c r="G402" s="20"/>
     </row>
-    <row r="403" spans="1:7" ht="13">
+    <row r="403" spans="1:7">
       <c r="A403" s="20"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
@@ -4919,7 +4918,7 @@
       <c r="F403" s="20"/>
       <c r="G403" s="20"/>
     </row>
-    <row r="404" spans="1:7" ht="13">
+    <row r="404" spans="1:7">
       <c r="A404" s="20"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
@@ -4927,7 +4926,7 @@
       <c r="F404" s="20"/>
       <c r="G404" s="20"/>
     </row>
-    <row r="405" spans="1:7" ht="13">
+    <row r="405" spans="1:7">
       <c r="A405" s="20"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
@@ -4935,7 +4934,7 @@
       <c r="F405" s="20"/>
       <c r="G405" s="20"/>
     </row>
-    <row r="406" spans="1:7" ht="13">
+    <row r="406" spans="1:7">
       <c r="A406" s="20"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
@@ -4943,7 +4942,7 @@
       <c r="F406" s="20"/>
       <c r="G406" s="20"/>
     </row>
-    <row r="407" spans="1:7" ht="13">
+    <row r="407" spans="1:7">
       <c r="A407" s="20"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
@@ -4951,7 +4950,7 @@
       <c r="F407" s="20"/>
       <c r="G407" s="20"/>
     </row>
-    <row r="408" spans="1:7" ht="13">
+    <row r="408" spans="1:7">
       <c r="A408" s="20"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
@@ -4959,7 +4958,7 @@
       <c r="F408" s="20"/>
       <c r="G408" s="20"/>
     </row>
-    <row r="409" spans="1:7" ht="13">
+    <row r="409" spans="1:7">
       <c r="A409" s="20"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
@@ -4967,7 +4966,7 @@
       <c r="F409" s="20"/>
       <c r="G409" s="20"/>
     </row>
-    <row r="410" spans="1:7" ht="13">
+    <row r="410" spans="1:7">
       <c r="A410" s="20"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
@@ -4975,7 +4974,7 @@
       <c r="F410" s="20"/>
       <c r="G410" s="20"/>
     </row>
-    <row r="411" spans="1:7" ht="13">
+    <row r="411" spans="1:7">
       <c r="A411" s="20"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
@@ -4983,7 +4982,7 @@
       <c r="F411" s="20"/>
       <c r="G411" s="20"/>
     </row>
-    <row r="412" spans="1:7" ht="13">
+    <row r="412" spans="1:7">
       <c r="A412" s="20"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
@@ -4991,7 +4990,7 @@
       <c r="F412" s="20"/>
       <c r="G412" s="20"/>
     </row>
-    <row r="413" spans="1:7" ht="13">
+    <row r="413" spans="1:7">
       <c r="A413" s="20"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
@@ -4999,7 +4998,7 @@
       <c r="F413" s="20"/>
       <c r="G413" s="20"/>
     </row>
-    <row r="414" spans="1:7" ht="13">
+    <row r="414" spans="1:7">
       <c r="A414" s="20"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
@@ -5007,7 +5006,7 @@
       <c r="F414" s="20"/>
       <c r="G414" s="20"/>
     </row>
-    <row r="415" spans="1:7" ht="13">
+    <row r="415" spans="1:7">
       <c r="A415" s="20"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
@@ -5015,7 +5014,7 @@
       <c r="F415" s="20"/>
       <c r="G415" s="20"/>
     </row>
-    <row r="416" spans="1:7" ht="13">
+    <row r="416" spans="1:7">
       <c r="A416" s="20"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
@@ -5023,7 +5022,7 @@
       <c r="F416" s="20"/>
       <c r="G416" s="20"/>
     </row>
-    <row r="417" spans="1:7" ht="13">
+    <row r="417" spans="1:7">
       <c r="A417" s="20"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
@@ -5031,7 +5030,7 @@
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
     </row>
-    <row r="418" spans="1:7" ht="13">
+    <row r="418" spans="1:7">
       <c r="A418" s="20"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
@@ -5039,7 +5038,7 @@
       <c r="F418" s="20"/>
       <c r="G418" s="20"/>
     </row>
-    <row r="419" spans="1:7" ht="13">
+    <row r="419" spans="1:7">
       <c r="A419" s="20"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
@@ -5047,7 +5046,7 @@
       <c r="F419" s="20"/>
       <c r="G419" s="20"/>
     </row>
-    <row r="420" spans="1:7" ht="13">
+    <row r="420" spans="1:7">
       <c r="A420" s="20"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
@@ -5055,7 +5054,7 @@
       <c r="F420" s="20"/>
       <c r="G420" s="20"/>
     </row>
-    <row r="421" spans="1:7" ht="13">
+    <row r="421" spans="1:7">
       <c r="A421" s="20"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
@@ -5063,7 +5062,7 @@
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
     </row>
-    <row r="422" spans="1:7" ht="13">
+    <row r="422" spans="1:7">
       <c r="A422" s="20"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
@@ -5071,7 +5070,7 @@
       <c r="F422" s="20"/>
       <c r="G422" s="20"/>
     </row>
-    <row r="423" spans="1:7" ht="13">
+    <row r="423" spans="1:7">
       <c r="A423" s="20"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
@@ -5079,7 +5078,7 @@
       <c r="F423" s="20"/>
       <c r="G423" s="20"/>
     </row>
-    <row r="424" spans="1:7" ht="13">
+    <row r="424" spans="1:7">
       <c r="A424" s="20"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
@@ -5087,7 +5086,7 @@
       <c r="F424" s="20"/>
       <c r="G424" s="20"/>
     </row>
-    <row r="425" spans="1:7" ht="13">
+    <row r="425" spans="1:7">
       <c r="A425" s="20"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
@@ -5095,7 +5094,7 @@
       <c r="F425" s="20"/>
       <c r="G425" s="20"/>
     </row>
-    <row r="426" spans="1:7" ht="13">
+    <row r="426" spans="1:7">
       <c r="A426" s="20"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
@@ -5103,7 +5102,7 @@
       <c r="F426" s="20"/>
       <c r="G426" s="20"/>
     </row>
-    <row r="427" spans="1:7" ht="13">
+    <row r="427" spans="1:7">
       <c r="A427" s="20"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
@@ -5111,7 +5110,7 @@
       <c r="F427" s="20"/>
       <c r="G427" s="20"/>
     </row>
-    <row r="428" spans="1:7" ht="13">
+    <row r="428" spans="1:7">
       <c r="A428" s="20"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
@@ -5119,7 +5118,7 @@
       <c r="F428" s="20"/>
       <c r="G428" s="20"/>
     </row>
-    <row r="429" spans="1:7" ht="13">
+    <row r="429" spans="1:7">
       <c r="A429" s="20"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
@@ -5127,7 +5126,7 @@
       <c r="F429" s="20"/>
       <c r="G429" s="20"/>
     </row>
-    <row r="430" spans="1:7" ht="13">
+    <row r="430" spans="1:7">
       <c r="A430" s="20"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
@@ -5135,7 +5134,7 @@
       <c r="F430" s="20"/>
       <c r="G430" s="20"/>
     </row>
-    <row r="431" spans="1:7" ht="13">
+    <row r="431" spans="1:7">
       <c r="A431" s="20"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
@@ -5143,7 +5142,7 @@
       <c r="F431" s="20"/>
       <c r="G431" s="20"/>
     </row>
-    <row r="432" spans="1:7" ht="13">
+    <row r="432" spans="1:7">
       <c r="A432" s="20"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
@@ -5151,7 +5150,7 @@
       <c r="F432" s="20"/>
       <c r="G432" s="20"/>
     </row>
-    <row r="433" spans="1:7" ht="13">
+    <row r="433" spans="1:7">
       <c r="A433" s="20"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
@@ -5159,7 +5158,7 @@
       <c r="F433" s="20"/>
       <c r="G433" s="20"/>
     </row>
-    <row r="434" spans="1:7" ht="13">
+    <row r="434" spans="1:7">
       <c r="A434" s="20"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
@@ -5167,7 +5166,7 @@
       <c r="F434" s="20"/>
       <c r="G434" s="20"/>
     </row>
-    <row r="435" spans="1:7" ht="13">
+    <row r="435" spans="1:7">
       <c r="A435" s="20"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
@@ -5175,7 +5174,7 @@
       <c r="F435" s="20"/>
       <c r="G435" s="20"/>
     </row>
-    <row r="436" spans="1:7" ht="13">
+    <row r="436" spans="1:7">
       <c r="A436" s="20"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
@@ -5183,7 +5182,7 @@
       <c r="F436" s="20"/>
       <c r="G436" s="20"/>
     </row>
-    <row r="437" spans="1:7" ht="13">
+    <row r="437" spans="1:7">
       <c r="A437" s="20"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
@@ -5191,7 +5190,7 @@
       <c r="F437" s="20"/>
       <c r="G437" s="20"/>
     </row>
-    <row r="438" spans="1:7" ht="13">
+    <row r="438" spans="1:7">
       <c r="A438" s="20"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
@@ -5199,7 +5198,7 @@
       <c r="F438" s="20"/>
       <c r="G438" s="20"/>
     </row>
-    <row r="439" spans="1:7" ht="13">
+    <row r="439" spans="1:7">
       <c r="A439" s="20"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
@@ -5207,7 +5206,7 @@
       <c r="F439" s="20"/>
       <c r="G439" s="20"/>
     </row>
-    <row r="440" spans="1:7" ht="13">
+    <row r="440" spans="1:7">
       <c r="A440" s="20"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
@@ -5215,7 +5214,7 @@
       <c r="F440" s="20"/>
       <c r="G440" s="20"/>
     </row>
-    <row r="441" spans="1:7" ht="13">
+    <row r="441" spans="1:7">
       <c r="A441" s="20"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
@@ -5223,7 +5222,7 @@
       <c r="F441" s="20"/>
       <c r="G441" s="20"/>
     </row>
-    <row r="442" spans="1:7" ht="13">
+    <row r="442" spans="1:7">
       <c r="A442" s="20"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
@@ -5231,7 +5230,7 @@
       <c r="F442" s="20"/>
       <c r="G442" s="20"/>
     </row>
-    <row r="443" spans="1:7" ht="13">
+    <row r="443" spans="1:7">
       <c r="A443" s="20"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
@@ -5239,7 +5238,7 @@
       <c r="F443" s="20"/>
       <c r="G443" s="20"/>
     </row>
-    <row r="444" spans="1:7" ht="13">
+    <row r="444" spans="1:7">
       <c r="A444" s="20"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
@@ -5247,7 +5246,7 @@
       <c r="F444" s="20"/>
       <c r="G444" s="20"/>
     </row>
-    <row r="445" spans="1:7" ht="13">
+    <row r="445" spans="1:7">
       <c r="A445" s="20"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
@@ -5255,7 +5254,7 @@
       <c r="F445" s="20"/>
       <c r="G445" s="20"/>
     </row>
-    <row r="446" spans="1:7" ht="13">
+    <row r="446" spans="1:7">
       <c r="A446" s="20"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
@@ -5263,7 +5262,7 @@
       <c r="F446" s="20"/>
       <c r="G446" s="20"/>
     </row>
-    <row r="447" spans="1:7" ht="13">
+    <row r="447" spans="1:7">
       <c r="A447" s="20"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
@@ -5271,7 +5270,7 @@
       <c r="F447" s="20"/>
       <c r="G447" s="20"/>
     </row>
-    <row r="448" spans="1:7" ht="13">
+    <row r="448" spans="1:7">
       <c r="A448" s="20"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
@@ -5279,7 +5278,7 @@
       <c r="F448" s="20"/>
       <c r="G448" s="20"/>
     </row>
-    <row r="449" spans="1:7" ht="13">
+    <row r="449" spans="1:7">
       <c r="A449" s="20"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
@@ -5287,7 +5286,7 @@
       <c r="F449" s="20"/>
       <c r="G449" s="20"/>
     </row>
-    <row r="450" spans="1:7" ht="13">
+    <row r="450" spans="1:7">
       <c r="A450" s="20"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
@@ -5295,7 +5294,7 @@
       <c r="F450" s="20"/>
       <c r="G450" s="20"/>
     </row>
-    <row r="451" spans="1:7" ht="13">
+    <row r="451" spans="1:7">
       <c r="A451" s="20"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
@@ -5303,7 +5302,7 @@
       <c r="F451" s="20"/>
       <c r="G451" s="20"/>
     </row>
-    <row r="452" spans="1:7" ht="13">
+    <row r="452" spans="1:7">
       <c r="A452" s="20"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
@@ -5311,7 +5310,7 @@
       <c r="F452" s="20"/>
       <c r="G452" s="20"/>
     </row>
-    <row r="453" spans="1:7" ht="13">
+    <row r="453" spans="1:7">
       <c r="A453" s="20"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
@@ -5319,7 +5318,7 @@
       <c r="F453" s="20"/>
       <c r="G453" s="20"/>
     </row>
-    <row r="454" spans="1:7" ht="13">
+    <row r="454" spans="1:7">
       <c r="A454" s="20"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
@@ -5327,7 +5326,7 @@
       <c r="F454" s="20"/>
       <c r="G454" s="20"/>
     </row>
-    <row r="455" spans="1:7" ht="13">
+    <row r="455" spans="1:7">
       <c r="A455" s="20"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
@@ -5335,7 +5334,7 @@
       <c r="F455" s="20"/>
       <c r="G455" s="20"/>
     </row>
-    <row r="456" spans="1:7" ht="13">
+    <row r="456" spans="1:7">
       <c r="A456" s="20"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
@@ -5343,7 +5342,7 @@
       <c r="F456" s="20"/>
       <c r="G456" s="20"/>
     </row>
-    <row r="457" spans="1:7" ht="13">
+    <row r="457" spans="1:7">
       <c r="A457" s="20"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
@@ -5351,7 +5350,7 @@
       <c r="F457" s="20"/>
       <c r="G457" s="20"/>
     </row>
-    <row r="458" spans="1:7" ht="13">
+    <row r="458" spans="1:7">
       <c r="A458" s="20"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
@@ -5359,7 +5358,7 @@
       <c r="F458" s="20"/>
       <c r="G458" s="20"/>
     </row>
-    <row r="459" spans="1:7" ht="13">
+    <row r="459" spans="1:7">
       <c r="A459" s="20"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
@@ -5367,7 +5366,7 @@
       <c r="F459" s="20"/>
       <c r="G459" s="20"/>
     </row>
-    <row r="460" spans="1:7" ht="13">
+    <row r="460" spans="1:7">
       <c r="A460" s="20"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
@@ -5375,7 +5374,7 @@
       <c r="F460" s="20"/>
       <c r="G460" s="20"/>
     </row>
-    <row r="461" spans="1:7" ht="13">
+    <row r="461" spans="1:7">
       <c r="A461" s="20"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
@@ -5383,7 +5382,7 @@
       <c r="F461" s="20"/>
       <c r="G461" s="20"/>
     </row>
-    <row r="462" spans="1:7" ht="13">
+    <row r="462" spans="1:7">
       <c r="A462" s="20"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
@@ -5391,7 +5390,7 @@
       <c r="F462" s="20"/>
       <c r="G462" s="20"/>
     </row>
-    <row r="463" spans="1:7" ht="13">
+    <row r="463" spans="1:7">
       <c r="A463" s="20"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
@@ -5399,7 +5398,7 @@
       <c r="F463" s="20"/>
       <c r="G463" s="20"/>
     </row>
-    <row r="464" spans="1:7" ht="13">
+    <row r="464" spans="1:7">
       <c r="A464" s="20"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
@@ -5407,7 +5406,7 @@
       <c r="F464" s="20"/>
       <c r="G464" s="20"/>
     </row>
-    <row r="465" spans="1:7" ht="13">
+    <row r="465" spans="1:7">
       <c r="A465" s="20"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
@@ -5415,7 +5414,7 @@
       <c r="F465" s="20"/>
       <c r="G465" s="20"/>
     </row>
-    <row r="466" spans="1:7" ht="13">
+    <row r="466" spans="1:7">
       <c r="A466" s="20"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
@@ -5423,7 +5422,7 @@
       <c r="F466" s="20"/>
       <c r="G466" s="20"/>
     </row>
-    <row r="467" spans="1:7" ht="13">
+    <row r="467" spans="1:7">
       <c r="A467" s="20"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
@@ -5431,7 +5430,7 @@
       <c r="F467" s="20"/>
       <c r="G467" s="20"/>
     </row>
-    <row r="468" spans="1:7" ht="13">
+    <row r="468" spans="1:7">
       <c r="A468" s="20"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
@@ -5439,7 +5438,7 @@
       <c r="F468" s="20"/>
       <c r="G468" s="20"/>
     </row>
-    <row r="469" spans="1:7" ht="13">
+    <row r="469" spans="1:7">
       <c r="A469" s="20"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
@@ -5447,7 +5446,7 @@
       <c r="F469" s="20"/>
       <c r="G469" s="20"/>
     </row>
-    <row r="470" spans="1:7" ht="13">
+    <row r="470" spans="1:7">
       <c r="A470" s="20"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
@@ -5455,7 +5454,7 @@
       <c r="F470" s="20"/>
       <c r="G470" s="20"/>
     </row>
-    <row r="471" spans="1:7" ht="13">
+    <row r="471" spans="1:7">
       <c r="A471" s="20"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
@@ -5463,7 +5462,7 @@
       <c r="F471" s="20"/>
       <c r="G471" s="20"/>
     </row>
-    <row r="472" spans="1:7" ht="13">
+    <row r="472" spans="1:7">
       <c r="A472" s="20"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
@@ -5471,7 +5470,7 @@
       <c r="F472" s="20"/>
       <c r="G472" s="20"/>
     </row>
-    <row r="473" spans="1:7" ht="13">
+    <row r="473" spans="1:7">
       <c r="A473" s="20"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
@@ -5479,7 +5478,7 @@
       <c r="F473" s="20"/>
       <c r="G473" s="20"/>
     </row>
-    <row r="474" spans="1:7" ht="13">
+    <row r="474" spans="1:7">
       <c r="A474" s="20"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
@@ -5487,7 +5486,7 @@
       <c r="F474" s="20"/>
       <c r="G474" s="20"/>
     </row>
-    <row r="475" spans="1:7" ht="13">
+    <row r="475" spans="1:7">
       <c r="A475" s="20"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
@@ -5495,7 +5494,7 @@
       <c r="F475" s="20"/>
       <c r="G475" s="20"/>
     </row>
-    <row r="476" spans="1:7" ht="13">
+    <row r="476" spans="1:7">
       <c r="A476" s="20"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
@@ -5503,7 +5502,7 @@
       <c r="F476" s="20"/>
       <c r="G476" s="20"/>
     </row>
-    <row r="477" spans="1:7" ht="13">
+    <row r="477" spans="1:7">
       <c r="A477" s="20"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
@@ -5511,7 +5510,7 @@
       <c r="F477" s="20"/>
       <c r="G477" s="20"/>
     </row>
-    <row r="478" spans="1:7" ht="13">
+    <row r="478" spans="1:7">
       <c r="A478" s="20"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
@@ -5519,7 +5518,7 @@
       <c r="F478" s="20"/>
       <c r="G478" s="20"/>
     </row>
-    <row r="479" spans="1:7" ht="13">
+    <row r="479" spans="1:7">
       <c r="A479" s="20"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
@@ -5527,7 +5526,7 @@
       <c r="F479" s="20"/>
       <c r="G479" s="20"/>
     </row>
-    <row r="480" spans="1:7" ht="13">
+    <row r="480" spans="1:7">
       <c r="A480" s="20"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
@@ -5535,7 +5534,7 @@
       <c r="F480" s="20"/>
       <c r="G480" s="20"/>
     </row>
-    <row r="481" spans="1:7" ht="13">
+    <row r="481" spans="1:7">
       <c r="A481" s="20"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
@@ -5543,7 +5542,7 @@
       <c r="F481" s="20"/>
       <c r="G481" s="20"/>
     </row>
-    <row r="482" spans="1:7" ht="13">
+    <row r="482" spans="1:7">
       <c r="A482" s="20"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
@@ -5551,7 +5550,7 @@
       <c r="F482" s="20"/>
       <c r="G482" s="20"/>
     </row>
-    <row r="483" spans="1:7" ht="13">
+    <row r="483" spans="1:7">
       <c r="A483" s="20"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
@@ -5559,7 +5558,7 @@
       <c r="F483" s="20"/>
       <c r="G483" s="20"/>
     </row>
-    <row r="484" spans="1:7" ht="13">
+    <row r="484" spans="1:7">
       <c r="A484" s="20"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
@@ -5567,7 +5566,7 @@
       <c r="F484" s="20"/>
       <c r="G484" s="20"/>
     </row>
-    <row r="485" spans="1:7" ht="13">
+    <row r="485" spans="1:7">
       <c r="A485" s="20"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
@@ -5575,7 +5574,7 @@
       <c r="F485" s="20"/>
       <c r="G485" s="20"/>
     </row>
-    <row r="486" spans="1:7" ht="13">
+    <row r="486" spans="1:7">
       <c r="A486" s="20"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
@@ -5583,7 +5582,7 @@
       <c r="F486" s="20"/>
       <c r="G486" s="20"/>
     </row>
-    <row r="487" spans="1:7" ht="13">
+    <row r="487" spans="1:7">
       <c r="A487" s="20"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
@@ -5591,7 +5590,7 @@
       <c r="F487" s="20"/>
       <c r="G487" s="20"/>
     </row>
-    <row r="488" spans="1:7" ht="13">
+    <row r="488" spans="1:7">
       <c r="A488" s="20"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
@@ -5599,7 +5598,7 @@
       <c r="F488" s="20"/>
       <c r="G488" s="20"/>
     </row>
-    <row r="489" spans="1:7" ht="13">
+    <row r="489" spans="1:7">
       <c r="A489" s="20"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
@@ -5607,7 +5606,7 @@
       <c r="F489" s="20"/>
       <c r="G489" s="20"/>
     </row>
-    <row r="490" spans="1:7" ht="13">
+    <row r="490" spans="1:7">
       <c r="A490" s="20"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
@@ -5615,7 +5614,7 @@
       <c r="F490" s="20"/>
       <c r="G490" s="20"/>
     </row>
-    <row r="491" spans="1:7" ht="13">
+    <row r="491" spans="1:7">
       <c r="A491" s="20"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
@@ -5623,7 +5622,7 @@
       <c r="F491" s="20"/>
       <c r="G491" s="20"/>
     </row>
-    <row r="492" spans="1:7" ht="13">
+    <row r="492" spans="1:7">
       <c r="A492" s="20"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
@@ -5631,7 +5630,7 @@
       <c r="F492" s="20"/>
       <c r="G492" s="20"/>
     </row>
-    <row r="493" spans="1:7" ht="13">
+    <row r="493" spans="1:7">
       <c r="A493" s="20"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
@@ -5639,7 +5638,7 @@
       <c r="F493" s="20"/>
       <c r="G493" s="20"/>
     </row>
-    <row r="494" spans="1:7" ht="13">
+    <row r="494" spans="1:7">
       <c r="A494" s="20"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
@@ -5647,7 +5646,7 @@
       <c r="F494" s="20"/>
       <c r="G494" s="20"/>
     </row>
-    <row r="495" spans="1:7" ht="13">
+    <row r="495" spans="1:7">
       <c r="A495" s="20"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
@@ -5655,7 +5654,7 @@
       <c r="F495" s="20"/>
       <c r="G495" s="20"/>
     </row>
-    <row r="496" spans="1:7" ht="13">
+    <row r="496" spans="1:7">
       <c r="A496" s="20"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
@@ -5663,7 +5662,7 @@
       <c r="F496" s="20"/>
       <c r="G496" s="20"/>
     </row>
-    <row r="497" spans="1:7" ht="13">
+    <row r="497" spans="1:7">
       <c r="A497" s="20"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
@@ -5671,7 +5670,7 @@
       <c r="F497" s="20"/>
       <c r="G497" s="20"/>
     </row>
-    <row r="498" spans="1:7" ht="13">
+    <row r="498" spans="1:7">
       <c r="A498" s="20"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
@@ -5679,7 +5678,7 @@
       <c r="F498" s="20"/>
       <c r="G498" s="20"/>
     </row>
-    <row r="499" spans="1:7" ht="13">
+    <row r="499" spans="1:7">
       <c r="A499" s="20"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
@@ -5687,7 +5686,7 @@
       <c r="F499" s="20"/>
       <c r="G499" s="20"/>
     </row>
-    <row r="500" spans="1:7" ht="13">
+    <row r="500" spans="1:7">
       <c r="A500" s="20"/>
       <c r="C500" s="20"/>
       <c r="D500" s="20"/>
@@ -5695,7 +5694,7 @@
       <c r="F500" s="20"/>
       <c r="G500" s="20"/>
     </row>
-    <row r="501" spans="1:7" ht="13">
+    <row r="501" spans="1:7">
       <c r="A501" s="20"/>
       <c r="C501" s="20"/>
       <c r="D501" s="20"/>
@@ -5703,7 +5702,7 @@
       <c r="F501" s="20"/>
       <c r="G501" s="20"/>
     </row>
-    <row r="502" spans="1:7" ht="13">
+    <row r="502" spans="1:7">
       <c r="A502" s="20"/>
       <c r="C502" s="20"/>
       <c r="D502" s="20"/>
@@ -5711,7 +5710,7 @@
       <c r="F502" s="20"/>
       <c r="G502" s="20"/>
     </row>
-    <row r="503" spans="1:7" ht="13">
+    <row r="503" spans="1:7">
       <c r="A503" s="20"/>
       <c r="C503" s="20"/>
       <c r="D503" s="20"/>
@@ -5719,7 +5718,7 @@
       <c r="F503" s="20"/>
       <c r="G503" s="20"/>
     </row>
-    <row r="504" spans="1:7" ht="13">
+    <row r="504" spans="1:7">
       <c r="A504" s="20"/>
       <c r="C504" s="20"/>
       <c r="D504" s="20"/>
@@ -5727,7 +5726,7 @@
       <c r="F504" s="20"/>
       <c r="G504" s="20"/>
     </row>
-    <row r="505" spans="1:7" ht="13">
+    <row r="505" spans="1:7">
       <c r="A505" s="20"/>
       <c r="C505" s="20"/>
       <c r="D505" s="20"/>
@@ -5735,7 +5734,7 @@
       <c r="F505" s="20"/>
       <c r="G505" s="20"/>
     </row>
-    <row r="506" spans="1:7" ht="13">
+    <row r="506" spans="1:7">
       <c r="A506" s="20"/>
       <c r="C506" s="20"/>
       <c r="D506" s="20"/>
@@ -5743,7 +5742,7 @@
       <c r="F506" s="20"/>
       <c r="G506" s="20"/>
     </row>
-    <row r="507" spans="1:7" ht="13">
+    <row r="507" spans="1:7">
       <c r="A507" s="20"/>
       <c r="C507" s="20"/>
       <c r="D507" s="20"/>
@@ -5751,7 +5750,7 @@
       <c r="F507" s="20"/>
       <c r="G507" s="20"/>
     </row>
-    <row r="508" spans="1:7" ht="13">
+    <row r="508" spans="1:7">
       <c r="A508" s="20"/>
       <c r="C508" s="20"/>
       <c r="D508" s="20"/>
@@ -5759,7 +5758,7 @@
       <c r="F508" s="20"/>
       <c r="G508" s="20"/>
     </row>
-    <row r="509" spans="1:7" ht="13">
+    <row r="509" spans="1:7">
       <c r="A509" s="20"/>
       <c r="C509" s="20"/>
       <c r="D509" s="20"/>
@@ -5767,7 +5766,7 @@
       <c r="F509" s="20"/>
       <c r="G509" s="20"/>
     </row>
-    <row r="510" spans="1:7" ht="13">
+    <row r="510" spans="1:7">
       <c r="A510" s="20"/>
       <c r="C510" s="20"/>
       <c r="D510" s="20"/>
@@ -5775,7 +5774,7 @@
       <c r="F510" s="20"/>
       <c r="G510" s="20"/>
     </row>
-    <row r="511" spans="1:7" ht="13">
+    <row r="511" spans="1:7">
       <c r="A511" s="20"/>
       <c r="C511" s="20"/>
       <c r="D511" s="20"/>
@@ -5783,7 +5782,7 @@
       <c r="F511" s="20"/>
       <c r="G511" s="20"/>
     </row>
-    <row r="512" spans="1:7" ht="13">
+    <row r="512" spans="1:7">
       <c r="A512" s="20"/>
       <c r="C512" s="20"/>
       <c r="D512" s="20"/>
@@ -5791,7 +5790,7 @@
       <c r="F512" s="20"/>
       <c r="G512" s="20"/>
     </row>
-    <row r="513" spans="1:7" ht="13">
+    <row r="513" spans="1:7">
       <c r="A513" s="20"/>
       <c r="C513" s="20"/>
       <c r="D513" s="20"/>
@@ -5799,7 +5798,7 @@
       <c r="F513" s="20"/>
       <c r="G513" s="20"/>
     </row>
-    <row r="514" spans="1:7" ht="13">
+    <row r="514" spans="1:7">
       <c r="A514" s="20"/>
       <c r="C514" s="20"/>
       <c r="D514" s="20"/>
@@ -5807,7 +5806,7 @@
       <c r="F514" s="20"/>
       <c r="G514" s="20"/>
     </row>
-    <row r="515" spans="1:7" ht="13">
+    <row r="515" spans="1:7">
       <c r="A515" s="20"/>
       <c r="C515" s="20"/>
       <c r="D515" s="20"/>
@@ -5815,7 +5814,7 @@
       <c r="F515" s="20"/>
       <c r="G515" s="20"/>
     </row>
-    <row r="516" spans="1:7" ht="13">
+    <row r="516" spans="1:7">
       <c r="A516" s="20"/>
       <c r="C516" s="20"/>
       <c r="D516" s="20"/>
@@ -5823,7 +5822,7 @@
       <c r="F516" s="20"/>
       <c r="G516" s="20"/>
     </row>
-    <row r="517" spans="1:7" ht="13">
+    <row r="517" spans="1:7">
       <c r="A517" s="20"/>
       <c r="C517" s="20"/>
       <c r="D517" s="20"/>
@@ -5831,7 +5830,7 @@
       <c r="F517" s="20"/>
       <c r="G517" s="20"/>
     </row>
-    <row r="518" spans="1:7" ht="13">
+    <row r="518" spans="1:7">
       <c r="A518" s="20"/>
       <c r="C518" s="20"/>
       <c r="D518" s="20"/>
@@ -5839,7 +5838,7 @@
       <c r="F518" s="20"/>
       <c r="G518" s="20"/>
     </row>
-    <row r="519" spans="1:7" ht="13">
+    <row r="519" spans="1:7">
       <c r="A519" s="20"/>
       <c r="C519" s="20"/>
       <c r="D519" s="20"/>
@@ -5847,7 +5846,7 @@
       <c r="F519" s="20"/>
       <c r="G519" s="20"/>
     </row>
-    <row r="520" spans="1:7" ht="13">
+    <row r="520" spans="1:7">
       <c r="A520" s="20"/>
       <c r="C520" s="20"/>
       <c r="D520" s="20"/>
@@ -5855,7 +5854,7 @@
       <c r="F520" s="20"/>
       <c r="G520" s="20"/>
     </row>
-    <row r="521" spans="1:7" ht="13">
+    <row r="521" spans="1:7">
       <c r="A521" s="20"/>
       <c r="C521" s="20"/>
       <c r="D521" s="20"/>
@@ -5863,7 +5862,7 @@
       <c r="F521" s="20"/>
       <c r="G521" s="20"/>
     </row>
-    <row r="522" spans="1:7" ht="13">
+    <row r="522" spans="1:7">
       <c r="A522" s="20"/>
       <c r="C522" s="20"/>
       <c r="D522" s="20"/>
@@ -5871,7 +5870,7 @@
       <c r="F522" s="20"/>
       <c r="G522" s="20"/>
     </row>
-    <row r="523" spans="1:7" ht="13">
+    <row r="523" spans="1:7">
       <c r="A523" s="20"/>
       <c r="C523" s="20"/>
       <c r="D523" s="20"/>
@@ -5879,7 +5878,7 @@
       <c r="F523" s="20"/>
       <c r="G523" s="20"/>
     </row>
-    <row r="524" spans="1:7" ht="13">
+    <row r="524" spans="1:7">
       <c r="A524" s="20"/>
       <c r="C524" s="20"/>
       <c r="D524" s="20"/>
@@ -5887,7 +5886,7 @@
       <c r="F524" s="20"/>
       <c r="G524" s="20"/>
     </row>
-    <row r="525" spans="1:7" ht="13">
+    <row r="525" spans="1:7">
       <c r="A525" s="20"/>
       <c r="C525" s="20"/>
       <c r="D525" s="20"/>
@@ -5895,7 +5894,7 @@
       <c r="F525" s="20"/>
       <c r="G525" s="20"/>
     </row>
-    <row r="526" spans="1:7" ht="13">
+    <row r="526" spans="1:7">
       <c r="A526" s="20"/>
       <c r="C526" s="20"/>
       <c r="D526" s="20"/>
@@ -5903,7 +5902,7 @@
       <c r="F526" s="20"/>
       <c r="G526" s="20"/>
     </row>
-    <row r="527" spans="1:7" ht="13">
+    <row r="527" spans="1:7">
       <c r="A527" s="20"/>
       <c r="C527" s="20"/>
       <c r="D527" s="20"/>
@@ -5911,7 +5910,7 @@
       <c r="F527" s="20"/>
       <c r="G527" s="20"/>
     </row>
-    <row r="528" spans="1:7" ht="13">
+    <row r="528" spans="1:7">
       <c r="A528" s="20"/>
       <c r="C528" s="20"/>
       <c r="D528" s="20"/>
@@ -5919,7 +5918,7 @@
       <c r="F528" s="20"/>
       <c r="G528" s="20"/>
     </row>
-    <row r="529" spans="1:7" ht="13">
+    <row r="529" spans="1:7">
       <c r="A529" s="20"/>
       <c r="C529" s="20"/>
       <c r="D529" s="20"/>
@@ -5927,7 +5926,7 @@
       <c r="F529" s="20"/>
       <c r="G529" s="20"/>
     </row>
-    <row r="530" spans="1:7" ht="13">
+    <row r="530" spans="1:7">
       <c r="A530" s="20"/>
       <c r="C530" s="20"/>
       <c r="D530" s="20"/>
@@ -5935,7 +5934,7 @@
       <c r="F530" s="20"/>
       <c r="G530" s="20"/>
     </row>
-    <row r="531" spans="1:7" ht="13">
+    <row r="531" spans="1:7">
       <c r="A531" s="20"/>
       <c r="C531" s="20"/>
       <c r="D531" s="20"/>
@@ -5943,7 +5942,7 @@
       <c r="F531" s="20"/>
       <c r="G531" s="20"/>
     </row>
-    <row r="532" spans="1:7" ht="13">
+    <row r="532" spans="1:7">
       <c r="A532" s="20"/>
       <c r="C532" s="20"/>
       <c r="D532" s="20"/>
@@ -5951,7 +5950,7 @@
       <c r="F532" s="20"/>
       <c r="G532" s="20"/>
     </row>
-    <row r="533" spans="1:7" ht="13">
+    <row r="533" spans="1:7">
       <c r="A533" s="20"/>
       <c r="C533" s="20"/>
       <c r="D533" s="20"/>
@@ -5959,7 +5958,7 @@
       <c r="F533" s="20"/>
       <c r="G533" s="20"/>
     </row>
-    <row r="534" spans="1:7" ht="13">
+    <row r="534" spans="1:7">
       <c r="A534" s="20"/>
       <c r="C534" s="20"/>
       <c r="D534" s="20"/>
@@ -5967,7 +5966,7 @@
       <c r="F534" s="20"/>
       <c r="G534" s="20"/>
     </row>
-    <row r="535" spans="1:7" ht="13">
+    <row r="535" spans="1:7">
       <c r="A535" s="20"/>
       <c r="C535" s="20"/>
       <c r="D535" s="20"/>
@@ -5975,7 +5974,7 @@
       <c r="F535" s="20"/>
       <c r="G535" s="20"/>
     </row>
-    <row r="536" spans="1:7" ht="13">
+    <row r="536" spans="1:7">
       <c r="A536" s="20"/>
       <c r="C536" s="20"/>
       <c r="D536" s="20"/>
@@ -5983,7 +5982,7 @@
       <c r="F536" s="20"/>
       <c r="G536" s="20"/>
     </row>
-    <row r="537" spans="1:7" ht="13">
+    <row r="537" spans="1:7">
       <c r="A537" s="20"/>
       <c r="C537" s="20"/>
       <c r="D537" s="20"/>
@@ -5991,7 +5990,7 @@
       <c r="F537" s="20"/>
       <c r="G537" s="20"/>
     </row>
-    <row r="538" spans="1:7" ht="13">
+    <row r="538" spans="1:7">
       <c r="A538" s="20"/>
       <c r="C538" s="20"/>
       <c r="D538" s="20"/>
@@ -5999,7 +5998,7 @@
       <c r="F538" s="20"/>
       <c r="G538" s="20"/>
     </row>
-    <row r="539" spans="1:7" ht="13">
+    <row r="539" spans="1:7">
       <c r="A539" s="20"/>
       <c r="C539" s="20"/>
       <c r="D539" s="20"/>
@@ -6007,7 +6006,7 @@
       <c r="F539" s="20"/>
       <c r="G539" s="20"/>
     </row>
-    <row r="540" spans="1:7" ht="13">
+    <row r="540" spans="1:7">
       <c r="A540" s="20"/>
       <c r="C540" s="20"/>
       <c r="D540" s="20"/>
@@ -6015,7 +6014,7 @@
       <c r="F540" s="20"/>
       <c r="G540" s="20"/>
     </row>
-    <row r="541" spans="1:7" ht="13">
+    <row r="541" spans="1:7">
       <c r="A541" s="20"/>
       <c r="C541" s="20"/>
       <c r="D541" s="20"/>
@@ -6023,7 +6022,7 @@
       <c r="F541" s="20"/>
       <c r="G541" s="20"/>
     </row>
-    <row r="542" spans="1:7" ht="13">
+    <row r="542" spans="1:7">
       <c r="A542" s="20"/>
       <c r="C542" s="20"/>
       <c r="D542" s="20"/>
@@ -6031,7 +6030,7 @@
       <c r="F542" s="20"/>
       <c r="G542" s="20"/>
     </row>
-    <row r="543" spans="1:7" ht="13">
+    <row r="543" spans="1:7">
       <c r="A543" s="20"/>
       <c r="C543" s="20"/>
       <c r="D543" s="20"/>
@@ -6039,7 +6038,7 @@
       <c r="F543" s="20"/>
       <c r="G543" s="20"/>
     </row>
-    <row r="544" spans="1:7" ht="13">
+    <row r="544" spans="1:7">
       <c r="A544" s="20"/>
       <c r="C544" s="20"/>
       <c r="D544" s="20"/>
@@ -6047,7 +6046,7 @@
       <c r="F544" s="20"/>
       <c r="G544" s="20"/>
     </row>
-    <row r="545" spans="1:7" ht="13">
+    <row r="545" spans="1:7">
       <c r="A545" s="20"/>
       <c r="C545" s="20"/>
       <c r="D545" s="20"/>
@@ -6055,7 +6054,7 @@
       <c r="F545" s="20"/>
       <c r="G545" s="20"/>
     </row>
-    <row r="546" spans="1:7" ht="13">
+    <row r="546" spans="1:7">
       <c r="A546" s="20"/>
       <c r="C546" s="20"/>
       <c r="D546" s="20"/>
@@ -6063,7 +6062,7 @@
       <c r="F546" s="20"/>
       <c r="G546" s="20"/>
     </row>
-    <row r="547" spans="1:7" ht="13">
+    <row r="547" spans="1:7">
       <c r="A547" s="20"/>
       <c r="C547" s="20"/>
       <c r="D547" s="20"/>
@@ -6071,7 +6070,7 @@
       <c r="F547" s="20"/>
       <c r="G547" s="20"/>
     </row>
-    <row r="548" spans="1:7" ht="13">
+    <row r="548" spans="1:7">
       <c r="A548" s="20"/>
       <c r="C548" s="20"/>
       <c r="D548" s="20"/>
@@ -6079,7 +6078,7 @@
       <c r="F548" s="20"/>
       <c r="G548" s="20"/>
     </row>
-    <row r="549" spans="1:7" ht="13">
+    <row r="549" spans="1:7">
       <c r="A549" s="20"/>
       <c r="C549" s="20"/>
       <c r="D549" s="20"/>
@@ -6087,7 +6086,7 @@
       <c r="F549" s="20"/>
       <c r="G549" s="20"/>
     </row>
-    <row r="550" spans="1:7" ht="13">
+    <row r="550" spans="1:7">
       <c r="A550" s="20"/>
       <c r="C550" s="20"/>
       <c r="D550" s="20"/>
@@ -6095,7 +6094,7 @@
       <c r="F550" s="20"/>
       <c r="G550" s="20"/>
     </row>
-    <row r="551" spans="1:7" ht="13">
+    <row r="551" spans="1:7">
       <c r="A551" s="20"/>
       <c r="C551" s="20"/>
       <c r="D551" s="20"/>
@@ -6103,7 +6102,7 @@
       <c r="F551" s="20"/>
       <c r="G551" s="20"/>
     </row>
-    <row r="552" spans="1:7" ht="13">
+    <row r="552" spans="1:7">
       <c r="A552" s="20"/>
       <c r="C552" s="20"/>
       <c r="D552" s="20"/>
@@ -6111,7 +6110,7 @@
       <c r="F552" s="20"/>
       <c r="G552" s="20"/>
     </row>
-    <row r="553" spans="1:7" ht="13">
+    <row r="553" spans="1:7">
       <c r="A553" s="20"/>
       <c r="C553" s="20"/>
       <c r="D553" s="20"/>
@@ -6119,7 +6118,7 @@
       <c r="F553" s="20"/>
       <c r="G553" s="20"/>
     </row>
-    <row r="554" spans="1:7" ht="13">
+    <row r="554" spans="1:7">
       <c r="A554" s="20"/>
       <c r="C554" s="20"/>
       <c r="D554" s="20"/>
@@ -6127,7 +6126,7 @@
       <c r="F554" s="20"/>
       <c r="G554" s="20"/>
     </row>
-    <row r="555" spans="1:7" ht="13">
+    <row r="555" spans="1:7">
       <c r="A555" s="20"/>
       <c r="C555" s="20"/>
       <c r="D555" s="20"/>
@@ -6135,7 +6134,7 @@
       <c r="F555" s="20"/>
       <c r="G555" s="20"/>
     </row>
-    <row r="556" spans="1:7" ht="13">
+    <row r="556" spans="1:7">
       <c r="A556" s="20"/>
       <c r="C556" s="20"/>
       <c r="D556" s="20"/>
@@ -6143,7 +6142,7 @@
       <c r="F556" s="20"/>
       <c r="G556" s="20"/>
     </row>
-    <row r="557" spans="1:7" ht="13">
+    <row r="557" spans="1:7">
       <c r="A557" s="20"/>
       <c r="C557" s="20"/>
       <c r="D557" s="20"/>
@@ -6151,7 +6150,7 @@
       <c r="F557" s="20"/>
       <c r="G557" s="20"/>
     </row>
-    <row r="558" spans="1:7" ht="13">
+    <row r="558" spans="1:7">
       <c r="A558" s="20"/>
       <c r="C558" s="20"/>
       <c r="D558" s="20"/>
@@ -6159,7 +6158,7 @@
       <c r="F558" s="20"/>
       <c r="G558" s="20"/>
     </row>
-    <row r="559" spans="1:7" ht="13">
+    <row r="559" spans="1:7">
       <c r="A559" s="20"/>
       <c r="C559" s="20"/>
       <c r="D559" s="20"/>
@@ -6167,7 +6166,7 @@
       <c r="F559" s="20"/>
       <c r="G559" s="20"/>
     </row>
-    <row r="560" spans="1:7" ht="13">
+    <row r="560" spans="1:7">
       <c r="A560" s="20"/>
       <c r="C560" s="20"/>
       <c r="D560" s="20"/>
@@ -6175,7 +6174,7 @@
       <c r="F560" s="20"/>
       <c r="G560" s="20"/>
     </row>
-    <row r="561" spans="1:7" ht="13">
+    <row r="561" spans="1:7">
       <c r="A561" s="20"/>
       <c r="C561" s="20"/>
       <c r="D561" s="20"/>
@@ -6183,7 +6182,7 @@
       <c r="F561" s="20"/>
       <c r="G561" s="20"/>
     </row>
-    <row r="562" spans="1:7" ht="13">
+    <row r="562" spans="1:7">
       <c r="A562" s="20"/>
       <c r="C562" s="20"/>
       <c r="D562" s="20"/>
@@ -6191,7 +6190,7 @@
       <c r="F562" s="20"/>
       <c r="G562" s="20"/>
     </row>
-    <row r="563" spans="1:7" ht="13">
+    <row r="563" spans="1:7">
       <c r="A563" s="20"/>
       <c r="C563" s="20"/>
       <c r="D563" s="20"/>
@@ -6199,7 +6198,7 @@
       <c r="F563" s="20"/>
       <c r="G563" s="20"/>
     </row>
-    <row r="564" spans="1:7" ht="13">
+    <row r="564" spans="1:7">
       <c r="A564" s="20"/>
       <c r="C564" s="20"/>
       <c r="D564" s="20"/>
@@ -6207,7 +6206,7 @@
       <c r="F564" s="20"/>
       <c r="G564" s="20"/>
     </row>
-    <row r="565" spans="1:7" ht="13">
+    <row r="565" spans="1:7">
       <c r="A565" s="20"/>
       <c r="C565" s="20"/>
       <c r="D565" s="20"/>
@@ -6215,7 +6214,7 @@
       <c r="F565" s="20"/>
       <c r="G565" s="20"/>
     </row>
-    <row r="566" spans="1:7" ht="13">
+    <row r="566" spans="1:7">
       <c r="A566" s="20"/>
       <c r="C566" s="20"/>
       <c r="D566" s="20"/>
@@ -6223,7 +6222,7 @@
       <c r="F566" s="20"/>
       <c r="G566" s="20"/>
     </row>
-    <row r="567" spans="1:7" ht="13">
+    <row r="567" spans="1:7">
       <c r="A567" s="20"/>
       <c r="C567" s="20"/>
       <c r="D567" s="20"/>
@@ -6231,7 +6230,7 @@
       <c r="F567" s="20"/>
       <c r="G567" s="20"/>
     </row>
-    <row r="568" spans="1:7" ht="13">
+    <row r="568" spans="1:7">
       <c r="A568" s="20"/>
       <c r="C568" s="20"/>
       <c r="D568" s="20"/>
@@ -6239,7 +6238,7 @@
       <c r="F568" s="20"/>
       <c r="G568" s="20"/>
     </row>
-    <row r="569" spans="1:7" ht="13">
+    <row r="569" spans="1:7">
       <c r="A569" s="20"/>
       <c r="C569" s="20"/>
       <c r="D569" s="20"/>
@@ -6247,7 +6246,7 @@
       <c r="F569" s="20"/>
       <c r="G569" s="20"/>
     </row>
-    <row r="570" spans="1:7" ht="13">
+    <row r="570" spans="1:7">
       <c r="A570" s="20"/>
       <c r="C570" s="20"/>
       <c r="D570" s="20"/>
@@ -6255,7 +6254,7 @@
       <c r="F570" s="20"/>
       <c r="G570" s="20"/>
     </row>
-    <row r="571" spans="1:7" ht="13">
+    <row r="571" spans="1:7">
       <c r="A571" s="20"/>
       <c r="C571" s="20"/>
       <c r="D571" s="20"/>
@@ -6263,7 +6262,7 @@
       <c r="F571" s="20"/>
       <c r="G571" s="20"/>
     </row>
-    <row r="572" spans="1:7" ht="13">
+    <row r="572" spans="1:7">
       <c r="A572" s="20"/>
       <c r="C572" s="20"/>
       <c r="D572" s="20"/>
@@ -6271,7 +6270,7 @@
       <c r="F572" s="20"/>
       <c r="G572" s="20"/>
     </row>
-    <row r="573" spans="1:7" ht="13">
+    <row r="573" spans="1:7">
       <c r="A573" s="20"/>
       <c r="C573" s="20"/>
       <c r="D573" s="20"/>
@@ -6279,7 +6278,7 @@
       <c r="F573" s="20"/>
       <c r="G573" s="20"/>
     </row>
-    <row r="574" spans="1:7" ht="13">
+    <row r="574" spans="1:7">
       <c r="A574" s="20"/>
       <c r="C574" s="20"/>
       <c r="D574" s="20"/>
@@ -6287,7 +6286,7 @@
       <c r="F574" s="20"/>
       <c r="G574" s="20"/>
     </row>
-    <row r="575" spans="1:7" ht="13">
+    <row r="575" spans="1:7">
       <c r="A575" s="20"/>
       <c r="C575" s="20"/>
       <c r="D575" s="20"/>
@@ -6295,7 +6294,7 @@
       <c r="F575" s="20"/>
       <c r="G575" s="20"/>
     </row>
-    <row r="576" spans="1:7" ht="13">
+    <row r="576" spans="1:7">
       <c r="A576" s="20"/>
       <c r="C576" s="20"/>
       <c r="D576" s="20"/>
@@ -6303,7 +6302,7 @@
       <c r="F576" s="20"/>
       <c r="G576" s="20"/>
     </row>
-    <row r="577" spans="1:7" ht="13">
+    <row r="577" spans="1:7">
       <c r="A577" s="20"/>
       <c r="C577" s="20"/>
       <c r="D577" s="20"/>
@@ -6311,7 +6310,7 @@
       <c r="F577" s="20"/>
       <c r="G577" s="20"/>
     </row>
-    <row r="578" spans="1:7" ht="13">
+    <row r="578" spans="1:7">
       <c r="A578" s="20"/>
       <c r="C578" s="20"/>
       <c r="D578" s="20"/>
@@ -6319,7 +6318,7 @@
       <c r="F578" s="20"/>
       <c r="G578" s="20"/>
     </row>
-    <row r="579" spans="1:7" ht="13">
+    <row r="579" spans="1:7">
       <c r="A579" s="20"/>
       <c r="C579" s="20"/>
       <c r="D579" s="20"/>
@@ -6327,7 +6326,7 @@
       <c r="F579" s="20"/>
       <c r="G579" s="20"/>
     </row>
-    <row r="580" spans="1:7" ht="13">
+    <row r="580" spans="1:7">
       <c r="A580" s="20"/>
       <c r="C580" s="20"/>
       <c r="D580" s="20"/>
@@ -6335,7 +6334,7 @@
       <c r="F580" s="20"/>
       <c r="G580" s="20"/>
     </row>
-    <row r="581" spans="1:7" ht="13">
+    <row r="581" spans="1:7">
       <c r="A581" s="20"/>
       <c r="C581" s="20"/>
       <c r="D581" s="20"/>
@@ -6343,7 +6342,7 @@
       <c r="F581" s="20"/>
       <c r="G581" s="20"/>
     </row>
-    <row r="582" spans="1:7" ht="13">
+    <row r="582" spans="1:7">
       <c r="A582" s="20"/>
       <c r="C582" s="20"/>
       <c r="D582" s="20"/>
@@ -6351,7 +6350,7 @@
       <c r="F582" s="20"/>
       <c r="G582" s="20"/>
     </row>
-    <row r="583" spans="1:7" ht="13">
+    <row r="583" spans="1:7">
       <c r="A583" s="20"/>
       <c r="C583" s="20"/>
       <c r="D583" s="20"/>
@@ -6359,7 +6358,7 @@
       <c r="F583" s="20"/>
       <c r="G583" s="20"/>
     </row>
-    <row r="584" spans="1:7" ht="13">
+    <row r="584" spans="1:7">
       <c r="A584" s="20"/>
       <c r="C584" s="20"/>
       <c r="D584" s="20"/>
@@ -6367,7 +6366,7 @@
       <c r="F584" s="20"/>
       <c r="G584" s="20"/>
     </row>
-    <row r="585" spans="1:7" ht="13">
+    <row r="585" spans="1:7">
       <c r="A585" s="20"/>
       <c r="C585" s="20"/>
       <c r="D585" s="20"/>
@@ -6375,7 +6374,7 @@
       <c r="F585" s="20"/>
       <c r="G585" s="20"/>
     </row>
-    <row r="586" spans="1:7" ht="13">
+    <row r="586" spans="1:7">
       <c r="A586" s="20"/>
       <c r="C586" s="20"/>
       <c r="D586" s="20"/>
@@ -6383,7 +6382,7 @@
       <c r="F586" s="20"/>
       <c r="G586" s="20"/>
     </row>
-    <row r="587" spans="1:7" ht="13">
+    <row r="587" spans="1:7">
       <c r="A587" s="20"/>
       <c r="C587" s="20"/>
       <c r="D587" s="20"/>
@@ -6391,7 +6390,7 @@
       <c r="F587" s="20"/>
       <c r="G587" s="20"/>
     </row>
-    <row r="588" spans="1:7" ht="13">
+    <row r="588" spans="1:7">
       <c r="A588" s="20"/>
       <c r="C588" s="20"/>
       <c r="D588" s="20"/>
@@ -6399,7 +6398,7 @@
       <c r="F588" s="20"/>
       <c r="G588" s="20"/>
     </row>
-    <row r="589" spans="1:7" ht="13">
+    <row r="589" spans="1:7">
       <c r="A589" s="20"/>
       <c r="C589" s="20"/>
       <c r="D589" s="20"/>
@@ -6407,7 +6406,7 @@
       <c r="F589" s="20"/>
       <c r="G589" s="20"/>
     </row>
-    <row r="590" spans="1:7" ht="13">
+    <row r="590" spans="1:7">
       <c r="A590" s="20"/>
       <c r="C590" s="20"/>
       <c r="D590" s="20"/>
@@ -6415,7 +6414,7 @@
       <c r="F590" s="20"/>
       <c r="G590" s="20"/>
     </row>
-    <row r="591" spans="1:7" ht="13">
+    <row r="591" spans="1:7">
       <c r="A591" s="20"/>
       <c r="C591" s="20"/>
       <c r="D591" s="20"/>
@@ -6423,7 +6422,7 @@
       <c r="F591" s="20"/>
       <c r="G591" s="20"/>
     </row>
-    <row r="592" spans="1:7" ht="13">
+    <row r="592" spans="1:7">
       <c r="A592" s="20"/>
       <c r="C592" s="20"/>
       <c r="D592" s="20"/>
@@ -6431,7 +6430,7 @@
       <c r="F592" s="20"/>
       <c r="G592" s="20"/>
     </row>
-    <row r="593" spans="1:7" ht="13">
+    <row r="593" spans="1:7">
       <c r="A593" s="20"/>
       <c r="C593" s="20"/>
       <c r="D593" s="20"/>
@@ -6439,7 +6438,7 @@
       <c r="F593" s="20"/>
       <c r="G593" s="20"/>
     </row>
-    <row r="594" spans="1:7" ht="13">
+    <row r="594" spans="1:7">
       <c r="A594" s="20"/>
       <c r="C594" s="20"/>
       <c r="D594" s="20"/>
@@ -6447,7 +6446,7 @@
       <c r="F594" s="20"/>
       <c r="G594" s="20"/>
     </row>
-    <row r="595" spans="1:7" ht="13">
+    <row r="595" spans="1:7">
       <c r="A595" s="20"/>
       <c r="C595" s="20"/>
       <c r="D595" s="20"/>
@@ -6455,7 +6454,7 @@
       <c r="F595" s="20"/>
       <c r="G595" s="20"/>
     </row>
-    <row r="596" spans="1:7" ht="13">
+    <row r="596" spans="1:7">
       <c r="A596" s="20"/>
       <c r="C596" s="20"/>
       <c r="D596" s="20"/>
@@ -6463,7 +6462,7 @@
       <c r="F596" s="20"/>
       <c r="G596" s="20"/>
     </row>
-    <row r="597" spans="1:7" ht="13">
+    <row r="597" spans="1:7">
       <c r="A597" s="20"/>
       <c r="C597" s="20"/>
       <c r="D597" s="20"/>
@@ -6471,7 +6470,7 @@
       <c r="F597" s="20"/>
       <c r="G597" s="20"/>
     </row>
-    <row r="598" spans="1:7" ht="13">
+    <row r="598" spans="1:7">
       <c r="A598" s="20"/>
       <c r="C598" s="20"/>
       <c r="D598" s="20"/>
@@ -6479,7 +6478,7 @@
       <c r="F598" s="20"/>
       <c r="G598" s="20"/>
     </row>
-    <row r="599" spans="1:7" ht="13">
+    <row r="599" spans="1:7">
       <c r="A599" s="20"/>
       <c r="C599" s="20"/>
       <c r="D599" s="20"/>
@@ -6487,7 +6486,7 @@
       <c r="F599" s="20"/>
       <c r="G599" s="20"/>
     </row>
-    <row r="600" spans="1:7" ht="13">
+    <row r="600" spans="1:7">
       <c r="A600" s="20"/>
       <c r="C600" s="20"/>
       <c r="D600" s="20"/>
@@ -6495,7 +6494,7 @@
       <c r="F600" s="20"/>
       <c r="G600" s="20"/>
     </row>
-    <row r="601" spans="1:7" ht="13">
+    <row r="601" spans="1:7">
       <c r="A601" s="20"/>
       <c r="C601" s="20"/>
       <c r="D601" s="20"/>
@@ -6503,7 +6502,7 @@
       <c r="F601" s="20"/>
       <c r="G601" s="20"/>
     </row>
-    <row r="602" spans="1:7" ht="13">
+    <row r="602" spans="1:7">
       <c r="A602" s="20"/>
       <c r="C602" s="20"/>
       <c r="D602" s="20"/>
@@ -6511,7 +6510,7 @@
       <c r="F602" s="20"/>
       <c r="G602" s="20"/>
     </row>
-    <row r="603" spans="1:7" ht="13">
+    <row r="603" spans="1:7">
       <c r="A603" s="20"/>
       <c r="C603" s="20"/>
       <c r="D603" s="20"/>
@@ -6519,7 +6518,7 @@
       <c r="F603" s="20"/>
       <c r="G603" s="20"/>
     </row>
-    <row r="604" spans="1:7" ht="13">
+    <row r="604" spans="1:7">
       <c r="A604" s="20"/>
       <c r="C604" s="20"/>
       <c r="D604" s="20"/>
@@ -6527,7 +6526,7 @@
       <c r="F604" s="20"/>
       <c r="G604" s="20"/>
     </row>
-    <row r="605" spans="1:7" ht="13">
+    <row r="605" spans="1:7">
       <c r="A605" s="20"/>
       <c r="C605" s="20"/>
       <c r="D605" s="20"/>
@@ -6535,7 +6534,7 @@
       <c r="F605" s="20"/>
       <c r="G605" s="20"/>
     </row>
-    <row r="606" spans="1:7" ht="13">
+    <row r="606" spans="1:7">
       <c r="A606" s="20"/>
       <c r="C606" s="20"/>
       <c r="D606" s="20"/>
@@ -6543,7 +6542,7 @@
       <c r="F606" s="20"/>
       <c r="G606" s="20"/>
     </row>
-    <row r="607" spans="1:7" ht="13">
+    <row r="607" spans="1:7">
       <c r="A607" s="20"/>
       <c r="C607" s="20"/>
       <c r="D607" s="20"/>
@@ -6551,7 +6550,7 @@
       <c r="F607" s="20"/>
       <c r="G607" s="20"/>
     </row>
-    <row r="608" spans="1:7" ht="13">
+    <row r="608" spans="1:7">
       <c r="A608" s="20"/>
       <c r="C608" s="20"/>
       <c r="D608" s="20"/>
@@ -6559,7 +6558,7 @@
       <c r="F608" s="20"/>
       <c r="G608" s="20"/>
     </row>
-    <row r="609" spans="1:7" ht="13">
+    <row r="609" spans="1:7">
       <c r="A609" s="20"/>
       <c r="C609" s="20"/>
       <c r="D609" s="20"/>
@@ -6567,7 +6566,7 @@
       <c r="F609" s="20"/>
       <c r="G609" s="20"/>
     </row>
-    <row r="610" spans="1:7" ht="13">
+    <row r="610" spans="1:7">
       <c r="A610" s="20"/>
       <c r="C610" s="20"/>
       <c r="D610" s="20"/>
@@ -6575,7 +6574,7 @@
       <c r="F610" s="20"/>
       <c r="G610" s="20"/>
     </row>
-    <row r="611" spans="1:7" ht="13">
+    <row r="611" spans="1:7">
       <c r="A611" s="20"/>
       <c r="C611" s="20"/>
       <c r="D611" s="20"/>
@@ -6583,7 +6582,7 @@
       <c r="F611" s="20"/>
       <c r="G611" s="20"/>
     </row>
-    <row r="612" spans="1:7" ht="13">
+    <row r="612" spans="1:7">
       <c r="A612" s="20"/>
       <c r="C612" s="20"/>
       <c r="D612" s="20"/>
@@ -6591,7 +6590,7 @@
       <c r="F612" s="20"/>
       <c r="G612" s="20"/>
     </row>
-    <row r="613" spans="1:7" ht="13">
+    <row r="613" spans="1:7">
       <c r="A613" s="20"/>
       <c r="C613" s="20"/>
       <c r="D613" s="20"/>
@@ -6599,7 +6598,7 @@
       <c r="F613" s="20"/>
       <c r="G613" s="20"/>
     </row>
-    <row r="614" spans="1:7" ht="13">
+    <row r="614" spans="1:7">
       <c r="A614" s="20"/>
       <c r="C614" s="20"/>
       <c r="D614" s="20"/>
@@ -6607,7 +6606,7 @@
       <c r="F614" s="20"/>
       <c r="G614" s="20"/>
     </row>
-    <row r="615" spans="1:7" ht="13">
+    <row r="615" spans="1:7">
       <c r="A615" s="20"/>
       <c r="C615" s="20"/>
       <c r="D615" s="20"/>
@@ -6615,7 +6614,7 @@
       <c r="F615" s="20"/>
       <c r="G615" s="20"/>
     </row>
-    <row r="616" spans="1:7" ht="13">
+    <row r="616" spans="1:7">
       <c r="A616" s="20"/>
       <c r="C616" s="20"/>
       <c r="D616" s="20"/>
@@ -6623,7 +6622,7 @@
       <c r="F616" s="20"/>
       <c r="G616" s="20"/>
     </row>
-    <row r="617" spans="1:7" ht="13">
+    <row r="617" spans="1:7">
       <c r="A617" s="20"/>
       <c r="C617" s="20"/>
       <c r="D617" s="20"/>
@@ -6631,7 +6630,7 @@
       <c r="F617" s="20"/>
       <c r="G617" s="20"/>
     </row>
-    <row r="618" spans="1:7" ht="13">
+    <row r="618" spans="1:7">
       <c r="A618" s="20"/>
       <c r="C618" s="20"/>
       <c r="D618" s="20"/>
@@ -6639,7 +6638,7 @@
       <c r="F618" s="20"/>
       <c r="G618" s="20"/>
     </row>
-    <row r="619" spans="1:7" ht="13">
+    <row r="619" spans="1:7">
       <c r="A619" s="20"/>
       <c r="C619" s="20"/>
       <c r="D619" s="20"/>
@@ -6647,7 +6646,7 @@
       <c r="F619" s="20"/>
       <c r="G619" s="20"/>
     </row>
-    <row r="620" spans="1:7" ht="13">
+    <row r="620" spans="1:7">
       <c r="A620" s="20"/>
       <c r="C620" s="20"/>
       <c r="D620" s="20"/>
@@ -6655,7 +6654,7 @@
       <c r="F620" s="20"/>
       <c r="G620" s="20"/>
     </row>
-    <row r="621" spans="1:7" ht="13">
+    <row r="621" spans="1:7">
       <c r="A621" s="20"/>
       <c r="C621" s="20"/>
       <c r="D621" s="20"/>
@@ -6663,7 +6662,7 @@
       <c r="F621" s="20"/>
       <c r="G621" s="20"/>
     </row>
-    <row r="622" spans="1:7" ht="13">
+    <row r="622" spans="1:7">
       <c r="A622" s="20"/>
       <c r="C622" s="20"/>
       <c r="D622" s="20"/>
@@ -6671,7 +6670,7 @@
       <c r="F622" s="20"/>
       <c r="G622" s="20"/>
     </row>
-    <row r="623" spans="1:7" ht="13">
+    <row r="623" spans="1:7">
       <c r="A623" s="20"/>
       <c r="C623" s="20"/>
       <c r="D623" s="20"/>
@@ -6679,7 +6678,7 @@
       <c r="F623" s="20"/>
       <c r="G623" s="20"/>
     </row>
-    <row r="624" spans="1:7" ht="13">
+    <row r="624" spans="1:7">
       <c r="A624" s="20"/>
       <c r="C624" s="20"/>
       <c r="D624" s="20"/>
@@ -6687,7 +6686,7 @@
       <c r="F624" s="20"/>
       <c r="G624" s="20"/>
     </row>
-    <row r="625" spans="1:7" ht="13">
+    <row r="625" spans="1:7">
       <c r="A625" s="20"/>
       <c r="C625" s="20"/>
       <c r="D625" s="20"/>
@@ -6695,7 +6694,7 @@
       <c r="F625" s="20"/>
       <c r="G625" s="20"/>
     </row>
-    <row r="626" spans="1:7" ht="13">
+    <row r="626" spans="1:7">
       <c r="A626" s="20"/>
       <c r="C626" s="20"/>
       <c r="D626" s="20"/>
@@ -6703,7 +6702,7 @@
       <c r="F626" s="20"/>
       <c r="G626" s="20"/>
     </row>
-    <row r="627" spans="1:7" ht="13">
+    <row r="627" spans="1:7">
       <c r="A627" s="20"/>
       <c r="C627" s="20"/>
       <c r="D627" s="20"/>
@@ -6711,7 +6710,7 @@
       <c r="F627" s="20"/>
       <c r="G627" s="20"/>
     </row>
-    <row r="628" spans="1:7" ht="13">
+    <row r="628" spans="1:7">
       <c r="A628" s="20"/>
       <c r="C628" s="20"/>
       <c r="D628" s="20"/>
@@ -6719,7 +6718,7 @@
       <c r="F628" s="20"/>
       <c r="G628" s="20"/>
     </row>
-    <row r="629" spans="1:7" ht="13">
+    <row r="629" spans="1:7">
       <c r="A629" s="20"/>
       <c r="C629" s="20"/>
       <c r="D629" s="20"/>
@@ -6727,7 +6726,7 @@
       <c r="F629" s="20"/>
       <c r="G629" s="20"/>
     </row>
-    <row r="630" spans="1:7" ht="13">
+    <row r="630" spans="1:7">
       <c r="A630" s="20"/>
       <c r="C630" s="20"/>
       <c r="D630" s="20"/>
@@ -6735,7 +6734,7 @@
       <c r="F630" s="20"/>
       <c r="G630" s="20"/>
     </row>
-    <row r="631" spans="1:7" ht="13">
+    <row r="631" spans="1:7">
       <c r="A631" s="20"/>
       <c r="C631" s="20"/>
       <c r="D631" s="20"/>
@@ -6743,7 +6742,7 @@
       <c r="F631" s="20"/>
       <c r="G631" s="20"/>
     </row>
-    <row r="632" spans="1:7" ht="13">
+    <row r="632" spans="1:7">
       <c r="A632" s="20"/>
       <c r="C632" s="20"/>
       <c r="D632" s="20"/>
@@ -6751,7 +6750,7 @@
       <c r="F632" s="20"/>
       <c r="G632" s="20"/>
     </row>
-    <row r="633" spans="1:7" ht="13">
+    <row r="633" spans="1:7">
       <c r="A633" s="20"/>
       <c r="C633" s="20"/>
       <c r="D633" s="20"/>
@@ -6759,7 +6758,7 @@
       <c r="F633" s="20"/>
       <c r="G633" s="20"/>
     </row>
-    <row r="634" spans="1:7" ht="13">
+    <row r="634" spans="1:7">
       <c r="A634" s="20"/>
       <c r="C634" s="20"/>
       <c r="D634" s="20"/>
@@ -6767,7 +6766,7 @@
       <c r="F634" s="20"/>
       <c r="G634" s="20"/>
     </row>
-    <row r="635" spans="1:7" ht="13">
+    <row r="635" spans="1:7">
       <c r="A635" s="20"/>
       <c r="C635" s="20"/>
       <c r="D635" s="20"/>
@@ -6775,7 +6774,7 @@
       <c r="F635" s="20"/>
       <c r="G635" s="20"/>
     </row>
-    <row r="636" spans="1:7" ht="13">
+    <row r="636" spans="1:7">
       <c r="A636" s="20"/>
       <c r="C636" s="20"/>
       <c r="D636" s="20"/>
@@ -6783,7 +6782,7 @@
       <c r="F636" s="20"/>
       <c r="G636" s="20"/>
     </row>
-    <row r="637" spans="1:7" ht="13">
+    <row r="637" spans="1:7">
       <c r="A637" s="20"/>
       <c r="C637" s="20"/>
       <c r="D637" s="20"/>
@@ -6791,7 +6790,7 @@
       <c r="F637" s="20"/>
       <c r="G637" s="20"/>
     </row>
-    <row r="638" spans="1:7" ht="13">
+    <row r="638" spans="1:7">
       <c r="A638" s="20"/>
       <c r="C638" s="20"/>
       <c r="D638" s="20"/>
@@ -6799,7 +6798,7 @@
       <c r="F638" s="20"/>
       <c r="G638" s="20"/>
     </row>
-    <row r="639" spans="1:7" ht="13">
+    <row r="639" spans="1:7">
       <c r="A639" s="20"/>
       <c r="C639" s="20"/>
       <c r="D639" s="20"/>
@@ -6807,7 +6806,7 @@
       <c r="F639" s="20"/>
       <c r="G639" s="20"/>
     </row>
-    <row r="640" spans="1:7" ht="13">
+    <row r="640" spans="1:7">
       <c r="A640" s="20"/>
       <c r="C640" s="20"/>
       <c r="D640" s="20"/>
@@ -6815,7 +6814,7 @@
       <c r="F640" s="20"/>
       <c r="G640" s="20"/>
     </row>
-    <row r="641" spans="1:7" ht="13">
+    <row r="641" spans="1:7">
       <c r="A641" s="20"/>
       <c r="C641" s="20"/>
       <c r="D641" s="20"/>
@@ -6823,7 +6822,7 @@
       <c r="F641" s="20"/>
       <c r="G641" s="20"/>
     </row>
-    <row r="642" spans="1:7" ht="13">
+    <row r="642" spans="1:7">
       <c r="A642" s="20"/>
       <c r="C642" s="20"/>
       <c r="D642" s="20"/>
@@ -6831,7 +6830,7 @@
       <c r="F642" s="20"/>
       <c r="G642" s="20"/>
     </row>
-    <row r="643" spans="1:7" ht="13">
+    <row r="643" spans="1:7">
       <c r="A643" s="20"/>
       <c r="C643" s="20"/>
       <c r="D643" s="20"/>
@@ -6839,7 +6838,7 @@
       <c r="F643" s="20"/>
       <c r="G643" s="20"/>
     </row>
-    <row r="644" spans="1:7" ht="13">
+    <row r="644" spans="1:7">
       <c r="A644" s="20"/>
       <c r="C644" s="20"/>
       <c r="D644" s="20"/>
@@ -6847,7 +6846,7 @@
       <c r="F644" s="20"/>
       <c r="G644" s="20"/>
     </row>
-    <row r="645" spans="1:7" ht="13">
+    <row r="645" spans="1:7">
       <c r="A645" s="20"/>
       <c r="C645" s="20"/>
       <c r="D645" s="20"/>
@@ -6855,7 +6854,7 @@
       <c r="F645" s="20"/>
       <c r="G645" s="20"/>
     </row>
-    <row r="646" spans="1:7" ht="13">
+    <row r="646" spans="1:7">
       <c r="A646" s="20"/>
       <c r="C646" s="20"/>
       <c r="D646" s="20"/>
@@ -6863,7 +6862,7 @@
       <c r="F646" s="20"/>
       <c r="G646" s="20"/>
     </row>
-    <row r="647" spans="1:7" ht="13">
+    <row r="647" spans="1:7">
       <c r="A647" s="20"/>
       <c r="C647" s="20"/>
       <c r="D647" s="20"/>
@@ -6871,7 +6870,7 @@
       <c r="F647" s="20"/>
       <c r="G647" s="20"/>
     </row>
-    <row r="648" spans="1:7" ht="13">
+    <row r="648" spans="1:7">
       <c r="A648" s="20"/>
       <c r="C648" s="20"/>
       <c r="D648" s="20"/>
@@ -6879,7 +6878,7 @@
       <c r="F648" s="20"/>
       <c r="G648" s="20"/>
     </row>
-    <row r="649" spans="1:7" ht="13">
+    <row r="649" spans="1:7">
       <c r="A649" s="20"/>
       <c r="C649" s="20"/>
       <c r="D649" s="20"/>
@@ -6887,7 +6886,7 @@
       <c r="F649" s="20"/>
       <c r="G649" s="20"/>
     </row>
-    <row r="650" spans="1:7" ht="13">
+    <row r="650" spans="1:7">
       <c r="A650" s="20"/>
       <c r="C650" s="20"/>
       <c r="D650" s="20"/>
@@ -6895,7 +6894,7 @@
       <c r="F650" s="20"/>
       <c r="G650" s="20"/>
     </row>
-    <row r="651" spans="1:7" ht="13">
+    <row r="651" spans="1:7">
       <c r="A651" s="20"/>
       <c r="C651" s="20"/>
       <c r="D651" s="20"/>
@@ -6903,7 +6902,7 @@
       <c r="F651" s="20"/>
       <c r="G651" s="20"/>
     </row>
-    <row r="652" spans="1:7" ht="13">
+    <row r="652" spans="1:7">
       <c r="A652" s="20"/>
       <c r="C652" s="20"/>
       <c r="D652" s="20"/>
@@ -6911,7 +6910,7 @@
       <c r="F652" s="20"/>
       <c r="G652" s="20"/>
     </row>
-    <row r="653" spans="1:7" ht="13">
+    <row r="653" spans="1:7">
       <c r="A653" s="20"/>
       <c r="C653" s="20"/>
       <c r="D653" s="20"/>
@@ -6919,7 +6918,7 @@
       <c r="F653" s="20"/>
       <c r="G653" s="20"/>
     </row>
-    <row r="654" spans="1:7" ht="13">
+    <row r="654" spans="1:7">
       <c r="A654" s="20"/>
       <c r="C654" s="20"/>
       <c r="D654" s="20"/>
@@ -6927,7 +6926,7 @@
       <c r="F654" s="20"/>
       <c r="G654" s="20"/>
     </row>
-    <row r="655" spans="1:7" ht="13">
+    <row r="655" spans="1:7">
       <c r="A655" s="20"/>
       <c r="C655" s="20"/>
       <c r="D655" s="20"/>
@@ -6935,7 +6934,7 @@
       <c r="F655" s="20"/>
       <c r="G655" s="20"/>
     </row>
-    <row r="656" spans="1:7" ht="13">
+    <row r="656" spans="1:7">
       <c r="A656" s="20"/>
       <c r="C656" s="20"/>
       <c r="D656" s="20"/>
@@ -6943,7 +6942,7 @@
       <c r="F656" s="20"/>
       <c r="G656" s="20"/>
     </row>
-    <row r="657" spans="1:7" ht="13">
+    <row r="657" spans="1:7">
       <c r="A657" s="20"/>
       <c r="C657" s="20"/>
       <c r="D657" s="20"/>
@@ -6951,7 +6950,7 @@
       <c r="F657" s="20"/>
       <c r="G657" s="20"/>
     </row>
-    <row r="658" spans="1:7" ht="13">
+    <row r="658" spans="1:7">
       <c r="A658" s="20"/>
       <c r="C658" s="20"/>
       <c r="D658" s="20"/>
@@ -6959,7 +6958,7 @@
       <c r="F658" s="20"/>
       <c r="G658" s="20"/>
     </row>
-    <row r="659" spans="1:7" ht="13">
+    <row r="659" spans="1:7">
       <c r="A659" s="20"/>
       <c r="C659" s="20"/>
       <c r="D659" s="20"/>
@@ -6967,7 +6966,7 @@
       <c r="F659" s="20"/>
       <c r="G659" s="20"/>
     </row>
-    <row r="660" spans="1:7" ht="13">
+    <row r="660" spans="1:7">
       <c r="A660" s="20"/>
       <c r="C660" s="20"/>
       <c r="D660" s="20"/>
@@ -6975,7 +6974,7 @@
       <c r="F660" s="20"/>
       <c r="G660" s="20"/>
     </row>
-    <row r="661" spans="1:7" ht="13">
+    <row r="661" spans="1:7">
       <c r="A661" s="20"/>
       <c r="C661" s="20"/>
       <c r="D661" s="20"/>
@@ -6983,7 +6982,7 @@
       <c r="F661" s="20"/>
       <c r="G661" s="20"/>
     </row>
-    <row r="662" spans="1:7" ht="13">
+    <row r="662" spans="1:7">
       <c r="A662" s="20"/>
       <c r="C662" s="20"/>
       <c r="D662" s="20"/>
@@ -6991,7 +6990,7 @@
       <c r="F662" s="20"/>
       <c r="G662" s="20"/>
     </row>
-    <row r="663" spans="1:7" ht="13">
+    <row r="663" spans="1:7">
       <c r="A663" s="20"/>
       <c r="C663" s="20"/>
       <c r="D663" s="20"/>
@@ -6999,7 +6998,7 @@
       <c r="F663" s="20"/>
       <c r="G663" s="20"/>
     </row>
-    <row r="664" spans="1:7" ht="13">
+    <row r="664" spans="1:7">
       <c r="A664" s="20"/>
       <c r="C664" s="20"/>
       <c r="D664" s="20"/>
@@ -7007,7 +7006,7 @@
       <c r="F664" s="20"/>
       <c r="G664" s="20"/>
     </row>
-    <row r="665" spans="1:7" ht="13">
+    <row r="665" spans="1:7">
       <c r="A665" s="20"/>
       <c r="C665" s="20"/>
       <c r="D665" s="20"/>
@@ -7015,7 +7014,7 @@
       <c r="F665" s="20"/>
       <c r="G665" s="20"/>
     </row>
-    <row r="666" spans="1:7" ht="13">
+    <row r="666" spans="1:7">
       <c r="A666" s="20"/>
       <c r="C666" s="20"/>
       <c r="D666" s="20"/>
@@ -7023,7 +7022,7 @@
       <c r="F666" s="20"/>
       <c r="G666" s="20"/>
     </row>
-    <row r="667" spans="1:7" ht="13">
+    <row r="667" spans="1:7">
       <c r="A667" s="20"/>
       <c r="C667" s="20"/>
       <c r="D667" s="20"/>
@@ -7031,7 +7030,7 @@
       <c r="F667" s="20"/>
       <c r="G667" s="20"/>
     </row>
-    <row r="668" spans="1:7" ht="13">
+    <row r="668" spans="1:7">
       <c r="A668" s="20"/>
       <c r="C668" s="20"/>
       <c r="D668" s="20"/>
@@ -7039,7 +7038,7 @@
       <c r="F668" s="20"/>
       <c r="G668" s="20"/>
     </row>
-    <row r="669" spans="1:7" ht="13">
+    <row r="669" spans="1:7">
       <c r="A669" s="20"/>
       <c r="C669" s="20"/>
       <c r="D669" s="20"/>
@@ -7047,7 +7046,7 @@
       <c r="F669" s="20"/>
       <c r="G669" s="20"/>
     </row>
-    <row r="670" spans="1:7" ht="13">
+    <row r="670" spans="1:7">
       <c r="A670" s="20"/>
       <c r="C670" s="20"/>
       <c r="D670" s="20"/>
@@ -7055,7 +7054,7 @@
       <c r="F670" s="20"/>
       <c r="G670" s="20"/>
     </row>
-    <row r="671" spans="1:7" ht="13">
+    <row r="671" spans="1:7">
       <c r="A671" s="20"/>
       <c r="C671" s="20"/>
       <c r="D671" s="20"/>
@@ -7063,7 +7062,7 @@
       <c r="F671" s="20"/>
       <c r="G671" s="20"/>
     </row>
-    <row r="672" spans="1:7" ht="13">
+    <row r="672" spans="1:7">
       <c r="A672" s="20"/>
       <c r="C672" s="20"/>
       <c r="D672" s="20"/>
@@ -7071,7 +7070,7 @@
       <c r="F672" s="20"/>
       <c r="G672" s="20"/>
     </row>
-    <row r="673" spans="1:7" ht="13">
+    <row r="673" spans="1:7">
       <c r="A673" s="20"/>
       <c r="C673" s="20"/>
       <c r="D673" s="20"/>
@@ -7079,7 +7078,7 @@
       <c r="F673" s="20"/>
       <c r="G673" s="20"/>
     </row>
-    <row r="674" spans="1:7" ht="13">
+    <row r="674" spans="1:7">
       <c r="A674" s="20"/>
       <c r="C674" s="20"/>
       <c r="D674" s="20"/>
@@ -7087,7 +7086,7 @@
       <c r="F674" s="20"/>
       <c r="G674" s="20"/>
     </row>
-    <row r="675" spans="1:7" ht="13">
+    <row r="675" spans="1:7">
       <c r="A675" s="20"/>
       <c r="C675" s="20"/>
       <c r="D675" s="20"/>
@@ -7095,7 +7094,7 @@
       <c r="F675" s="20"/>
       <c r="G675" s="20"/>
     </row>
-    <row r="676" spans="1:7" ht="13">
+    <row r="676" spans="1:7">
       <c r="A676" s="20"/>
       <c r="C676" s="20"/>
       <c r="D676" s="20"/>
@@ -7103,7 +7102,7 @@
       <c r="F676" s="20"/>
       <c r="G676" s="20"/>
     </row>
-    <row r="677" spans="1:7" ht="13">
+    <row r="677" spans="1:7">
       <c r="A677" s="20"/>
       <c r="C677" s="20"/>
       <c r="D677" s="20"/>
@@ -7111,7 +7110,7 @@
       <c r="F677" s="20"/>
       <c r="G677" s="20"/>
     </row>
-    <row r="678" spans="1:7" ht="13">
+    <row r="678" spans="1:7">
       <c r="A678" s="20"/>
       <c r="C678" s="20"/>
       <c r="D678" s="20"/>
@@ -7119,7 +7118,7 @@
       <c r="F678" s="20"/>
       <c r="G678" s="20"/>
     </row>
-    <row r="679" spans="1:7" ht="13">
+    <row r="679" spans="1:7">
       <c r="A679" s="20"/>
       <c r="C679" s="20"/>
       <c r="D679" s="20"/>
@@ -7127,7 +7126,7 @@
       <c r="F679" s="20"/>
       <c r="G679" s="20"/>
     </row>
-    <row r="680" spans="1:7" ht="13">
+    <row r="680" spans="1:7">
       <c r="A680" s="20"/>
       <c r="C680" s="20"/>
       <c r="D680" s="20"/>
@@ -7135,7 +7134,7 @@
       <c r="F680" s="20"/>
       <c r="G680" s="20"/>
     </row>
-    <row r="681" spans="1:7" ht="13">
+    <row r="681" spans="1:7">
       <c r="A681" s="20"/>
       <c r="C681" s="20"/>
       <c r="D681" s="20"/>
@@ -7143,7 +7142,7 @@
       <c r="F681" s="20"/>
       <c r="G681" s="20"/>
     </row>
-    <row r="682" spans="1:7" ht="13">
+    <row r="682" spans="1:7">
       <c r="A682" s="20"/>
       <c r="C682" s="20"/>
       <c r="D682" s="20"/>
@@ -7151,7 +7150,7 @@
       <c r="F682" s="20"/>
       <c r="G682" s="20"/>
     </row>
-    <row r="683" spans="1:7" ht="13">
+    <row r="683" spans="1:7">
       <c r="A683" s="20"/>
       <c r="C683" s="20"/>
       <c r="D683" s="20"/>
@@ -7159,7 +7158,7 @@
       <c r="F683" s="20"/>
       <c r="G683" s="20"/>
     </row>
-    <row r="684" spans="1:7" ht="13">
+    <row r="684" spans="1:7">
       <c r="A684" s="20"/>
       <c r="C684" s="20"/>
       <c r="D684" s="20"/>
@@ -7167,7 +7166,7 @@
       <c r="F684" s="20"/>
       <c r="G684" s="20"/>
     </row>
-    <row r="685" spans="1:7" ht="13">
+    <row r="685" spans="1:7">
       <c r="A685" s="20"/>
       <c r="C685" s="20"/>
       <c r="D685" s="20"/>
@@ -7175,7 +7174,7 @@
       <c r="F685" s="20"/>
       <c r="G685" s="20"/>
     </row>
-    <row r="686" spans="1:7" ht="13">
+    <row r="686" spans="1:7">
       <c r="A686" s="20"/>
       <c r="C686" s="20"/>
       <c r="D686" s="20"/>
@@ -7183,7 +7182,7 @@
       <c r="F686" s="20"/>
       <c r="G686" s="20"/>
     </row>
-    <row r="687" spans="1:7" ht="13">
+    <row r="687" spans="1:7">
       <c r="A687" s="20"/>
       <c r="C687" s="20"/>
       <c r="D687" s="20"/>
@@ -7191,7 +7190,7 @@
       <c r="F687" s="20"/>
       <c r="G687" s="20"/>
     </row>
-    <row r="688" spans="1:7" ht="13">
+    <row r="688" spans="1:7">
       <c r="A688" s="20"/>
       <c r="C688" s="20"/>
       <c r="D688" s="20"/>
@@ -7199,7 +7198,7 @@
       <c r="F688" s="20"/>
       <c r="G688" s="20"/>
     </row>
-    <row r="689" spans="1:7" ht="13">
+    <row r="689" spans="1:7">
       <c r="A689" s="20"/>
       <c r="C689" s="20"/>
       <c r="D689" s="20"/>
@@ -7207,7 +7206,7 @@
       <c r="F689" s="20"/>
       <c r="G689" s="20"/>
     </row>
-    <row r="690" spans="1:7" ht="13">
+    <row r="690" spans="1:7">
       <c r="A690" s="20"/>
       <c r="C690" s="20"/>
       <c r="D690" s="20"/>
@@ -7215,7 +7214,7 @@
       <c r="F690" s="20"/>
       <c r="G690" s="20"/>
     </row>
-    <row r="691" spans="1:7" ht="13">
+    <row r="691" spans="1:7">
       <c r="A691" s="20"/>
       <c r="C691" s="20"/>
       <c r="D691" s="20"/>
@@ -7223,7 +7222,7 @@
       <c r="F691" s="20"/>
       <c r="G691" s="20"/>
     </row>
-    <row r="692" spans="1:7" ht="13">
+    <row r="692" spans="1:7">
       <c r="A692" s="20"/>
       <c r="C692" s="20"/>
       <c r="D692" s="20"/>
@@ -7231,7 +7230,7 @@
       <c r="F692" s="20"/>
       <c r="G692" s="20"/>
     </row>
-    <row r="693" spans="1:7" ht="13">
+    <row r="693" spans="1:7">
       <c r="A693" s="20"/>
       <c r="C693" s="20"/>
       <c r="D693" s="20"/>
@@ -7239,7 +7238,7 @@
       <c r="F693" s="20"/>
       <c r="G693" s="20"/>
     </row>
-    <row r="694" spans="1:7" ht="13">
+    <row r="694" spans="1:7">
       <c r="A694" s="20"/>
       <c r="C694" s="20"/>
       <c r="D694" s="20"/>
@@ -7247,7 +7246,7 @@
       <c r="F694" s="20"/>
       <c r="G694" s="20"/>
     </row>
-    <row r="695" spans="1:7" ht="13">
+    <row r="695" spans="1:7">
       <c r="A695" s="20"/>
       <c r="C695" s="20"/>
       <c r="D695" s="20"/>
@@ -7255,7 +7254,7 @@
       <c r="F695" s="20"/>
       <c r="G695" s="20"/>
     </row>
-    <row r="696" spans="1:7" ht="13">
+    <row r="696" spans="1:7">
       <c r="A696" s="20"/>
       <c r="C696" s="20"/>
       <c r="D696" s="20"/>
@@ -7263,7 +7262,7 @@
       <c r="F696" s="20"/>
       <c r="G696" s="20"/>
     </row>
-    <row r="697" spans="1:7" ht="13">
+    <row r="697" spans="1:7">
       <c r="A697" s="20"/>
       <c r="C697" s="20"/>
       <c r="D697" s="20"/>
@@ -7271,7 +7270,7 @@
       <c r="F697" s="20"/>
       <c r="G697" s="20"/>
     </row>
-    <row r="698" spans="1:7" ht="13">
+    <row r="698" spans="1:7">
       <c r="A698" s="20"/>
       <c r="C698" s="20"/>
       <c r="D698" s="20"/>
@@ -7279,7 +7278,7 @@
       <c r="F698" s="20"/>
       <c r="G698" s="20"/>
     </row>
-    <row r="699" spans="1:7" ht="13">
+    <row r="699" spans="1:7">
       <c r="A699" s="20"/>
       <c r="C699" s="20"/>
       <c r="D699" s="20"/>
@@ -7287,7 +7286,7 @@
       <c r="F699" s="20"/>
       <c r="G699" s="20"/>
     </row>
-    <row r="700" spans="1:7" ht="13">
+    <row r="700" spans="1:7">
       <c r="A700" s="20"/>
       <c r="C700" s="20"/>
       <c r="D700" s="20"/>
@@ -7295,7 +7294,7 @@
       <c r="F700" s="20"/>
       <c r="G700" s="20"/>
     </row>
-    <row r="701" spans="1:7" ht="13">
+    <row r="701" spans="1:7">
       <c r="A701" s="20"/>
       <c r="C701" s="20"/>
       <c r="D701" s="20"/>
@@ -7303,7 +7302,7 @@
       <c r="F701" s="20"/>
       <c r="G701" s="20"/>
     </row>
-    <row r="702" spans="1:7" ht="13">
+    <row r="702" spans="1:7">
       <c r="A702" s="20"/>
       <c r="C702" s="20"/>
       <c r="D702" s="20"/>
@@ -7311,7 +7310,7 @@
       <c r="F702" s="20"/>
       <c r="G702" s="20"/>
     </row>
-    <row r="703" spans="1:7" ht="13">
+    <row r="703" spans="1:7">
       <c r="A703" s="20"/>
       <c r="C703" s="20"/>
       <c r="D703" s="20"/>
@@ -7319,7 +7318,7 @@
       <c r="F703" s="20"/>
       <c r="G703" s="20"/>
     </row>
-    <row r="704" spans="1:7" ht="13">
+    <row r="704" spans="1:7">
       <c r="A704" s="20"/>
       <c r="C704" s="20"/>
       <c r="D704" s="20"/>
@@ -7327,7 +7326,7 @@
       <c r="F704" s="20"/>
       <c r="G704" s="20"/>
     </row>
-    <row r="705" spans="1:7" ht="13">
+    <row r="705" spans="1:7">
       <c r="A705" s="20"/>
       <c r="C705" s="20"/>
       <c r="D705" s="20"/>
@@ -7335,7 +7334,7 @@
       <c r="F705" s="20"/>
       <c r="G705" s="20"/>
     </row>
-    <row r="706" spans="1:7" ht="13">
+    <row r="706" spans="1:7">
       <c r="A706" s="20"/>
       <c r="C706" s="20"/>
       <c r="D706" s="20"/>
@@ -7343,7 +7342,7 @@
       <c r="F706" s="20"/>
       <c r="G706" s="20"/>
     </row>
-    <row r="707" spans="1:7" ht="13">
+    <row r="707" spans="1:7">
       <c r="A707" s="20"/>
       <c r="C707" s="20"/>
       <c r="D707" s="20"/>
@@ -7351,7 +7350,7 @@
       <c r="F707" s="20"/>
       <c r="G707" s="20"/>
     </row>
-    <row r="708" spans="1:7" ht="13">
+    <row r="708" spans="1:7">
       <c r="A708" s="20"/>
       <c r="C708" s="20"/>
       <c r="D708" s="20"/>
@@ -7359,7 +7358,7 @@
       <c r="F708" s="20"/>
       <c r="G708" s="20"/>
     </row>
-    <row r="709" spans="1:7" ht="13">
+    <row r="709" spans="1:7">
       <c r="A709" s="20"/>
       <c r="C709" s="20"/>
       <c r="D709" s="20"/>
@@ -7367,7 +7366,7 @@
       <c r="F709" s="20"/>
       <c r="G709" s="20"/>
     </row>
-    <row r="710" spans="1:7" ht="13">
+    <row r="710" spans="1:7">
       <c r="A710" s="20"/>
       <c r="C710" s="20"/>
       <c r="D710" s="20"/>
@@ -7375,7 +7374,7 @@
       <c r="F710" s="20"/>
       <c r="G710" s="20"/>
     </row>
-    <row r="711" spans="1:7" ht="13">
+    <row r="711" spans="1:7">
       <c r="A711" s="20"/>
       <c r="C711" s="20"/>
       <c r="D711" s="20"/>
@@ -7383,7 +7382,7 @@
       <c r="F711" s="20"/>
       <c r="G711" s="20"/>
     </row>
-    <row r="712" spans="1:7" ht="13">
+    <row r="712" spans="1:7">
       <c r="A712" s="20"/>
       <c r="C712" s="20"/>
       <c r="D712" s="20"/>
@@ -7391,7 +7390,7 @@
       <c r="F712" s="20"/>
       <c r="G712" s="20"/>
     </row>
-    <row r="713" spans="1:7" ht="13">
+    <row r="713" spans="1:7">
       <c r="A713" s="20"/>
       <c r="C713" s="20"/>
       <c r="D713" s="20"/>
@@ -7399,7 +7398,7 @@
       <c r="F713" s="20"/>
       <c r="G713" s="20"/>
     </row>
-    <row r="714" spans="1:7" ht="13">
+    <row r="714" spans="1:7">
       <c r="A714" s="20"/>
       <c r="C714" s="20"/>
       <c r="D714" s="20"/>
@@ -7407,7 +7406,7 @@
       <c r="F714" s="20"/>
       <c r="G714" s="20"/>
     </row>
-    <row r="715" spans="1:7" ht="13">
+    <row r="715" spans="1:7">
       <c r="A715" s="20"/>
       <c r="C715" s="20"/>
       <c r="D715" s="20"/>
@@ -7415,7 +7414,7 @@
       <c r="F715" s="20"/>
       <c r="G715" s="20"/>
     </row>
-    <row r="716" spans="1:7" ht="13">
+    <row r="716" spans="1:7">
       <c r="A716" s="20"/>
       <c r="C716" s="20"/>
       <c r="D716" s="20"/>
@@ -7423,7 +7422,7 @@
       <c r="F716" s="20"/>
       <c r="G716" s="20"/>
     </row>
-    <row r="717" spans="1:7" ht="13">
+    <row r="717" spans="1:7">
       <c r="A717" s="20"/>
       <c r="C717" s="20"/>
       <c r="D717" s="20"/>
@@ -7431,7 +7430,7 @@
       <c r="F717" s="20"/>
       <c r="G717" s="20"/>
     </row>
-    <row r="718" spans="1:7" ht="13">
+    <row r="718" spans="1:7">
       <c r="A718" s="20"/>
       <c r="C718" s="20"/>
       <c r="D718" s="20"/>
@@ -7439,7 +7438,7 @@
       <c r="F718" s="20"/>
       <c r="G718" s="20"/>
     </row>
-    <row r="719" spans="1:7" ht="13">
+    <row r="719" spans="1:7">
       <c r="A719" s="20"/>
       <c r="C719" s="20"/>
       <c r="D719" s="20"/>
@@ -7447,7 +7446,7 @@
       <c r="F719" s="20"/>
       <c r="G719" s="20"/>
     </row>
-    <row r="720" spans="1:7" ht="13">
+    <row r="720" spans="1:7">
       <c r="A720" s="20"/>
       <c r="C720" s="20"/>
       <c r="D720" s="20"/>
@@ -7455,7 +7454,7 @@
       <c r="F720" s="20"/>
       <c r="G720" s="20"/>
     </row>
-    <row r="721" spans="1:7" ht="13">
+    <row r="721" spans="1:7">
       <c r="A721" s="20"/>
       <c r="C721" s="20"/>
       <c r="D721" s="20"/>
@@ -7463,7 +7462,7 @@
       <c r="F721" s="20"/>
       <c r="G721" s="20"/>
     </row>
-    <row r="722" spans="1:7" ht="13">
+    <row r="722" spans="1:7">
       <c r="A722" s="20"/>
       <c r="C722" s="20"/>
       <c r="D722" s="20"/>
@@ -7471,7 +7470,7 @@
       <c r="F722" s="20"/>
       <c r="G722" s="20"/>
     </row>
-    <row r="723" spans="1:7" ht="13">
+    <row r="723" spans="1:7">
       <c r="A723" s="20"/>
       <c r="C723" s="20"/>
       <c r="D723" s="20"/>
@@ -7479,7 +7478,7 @@
       <c r="F723" s="20"/>
       <c r="G723" s="20"/>
     </row>
-    <row r="724" spans="1:7" ht="13">
+    <row r="724" spans="1:7">
       <c r="A724" s="20"/>
       <c r="C724" s="20"/>
       <c r="D724" s="20"/>
@@ -7487,7 +7486,7 @@
       <c r="F724" s="20"/>
       <c r="G724" s="20"/>
     </row>
-    <row r="725" spans="1:7" ht="13">
+    <row r="725" spans="1:7">
       <c r="A725" s="20"/>
       <c r="C725" s="20"/>
       <c r="D725" s="20"/>
@@ -7495,7 +7494,7 @@
       <c r="F725" s="20"/>
       <c r="G725" s="20"/>
     </row>
-    <row r="726" spans="1:7" ht="13">
+    <row r="726" spans="1:7">
       <c r="A726" s="20"/>
       <c r="C726" s="20"/>
       <c r="D726" s="20"/>
@@ -7503,7 +7502,7 @@
       <c r="F726" s="20"/>
       <c r="G726" s="20"/>
     </row>
-    <row r="727" spans="1:7" ht="13">
+    <row r="727" spans="1:7">
       <c r="A727" s="20"/>
       <c r="C727" s="20"/>
       <c r="D727" s="20"/>
@@ -7511,7 +7510,7 @@
       <c r="F727" s="20"/>
       <c r="G727" s="20"/>
     </row>
-    <row r="728" spans="1:7" ht="13">
+    <row r="728" spans="1:7">
       <c r="A728" s="20"/>
       <c r="C728" s="20"/>
       <c r="D728" s="20"/>
@@ -7519,7 +7518,7 @@
       <c r="F728" s="20"/>
       <c r="G728" s="20"/>
     </row>
-    <row r="729" spans="1:7" ht="13">
+    <row r="729" spans="1:7">
       <c r="A729" s="20"/>
       <c r="C729" s="20"/>
       <c r="D729" s="20"/>
@@ -7527,7 +7526,7 @@
       <c r="F729" s="20"/>
       <c r="G729" s="20"/>
     </row>
-    <row r="730" spans="1:7" ht="13">
+    <row r="730" spans="1:7">
       <c r="A730" s="20"/>
       <c r="C730" s="20"/>
       <c r="D730" s="20"/>
@@ -7535,7 +7534,7 @@
       <c r="F730" s="20"/>
       <c r="G730" s="20"/>
     </row>
-    <row r="731" spans="1:7" ht="13">
+    <row r="731" spans="1:7">
       <c r="A731" s="20"/>
       <c r="C731" s="20"/>
       <c r="D731" s="20"/>
@@ -7543,7 +7542,7 @@
       <c r="F731" s="20"/>
       <c r="G731" s="20"/>
     </row>
-    <row r="732" spans="1:7" ht="13">
+    <row r="732" spans="1:7">
       <c r="A732" s="20"/>
       <c r="C732" s="20"/>
       <c r="D732" s="20"/>
@@ -7551,7 +7550,7 @@
       <c r="F732" s="20"/>
       <c r="G732" s="20"/>
     </row>
-    <row r="733" spans="1:7" ht="13">
+    <row r="733" spans="1:7">
       <c r="A733" s="20"/>
       <c r="C733" s="20"/>
       <c r="D733" s="20"/>
@@ -7559,7 +7558,7 @@
       <c r="F733" s="20"/>
       <c r="G733" s="20"/>
     </row>
-    <row r="734" spans="1:7" ht="13">
+    <row r="734" spans="1:7">
       <c r="A734" s="20"/>
       <c r="C734" s="20"/>
       <c r="D734" s="20"/>
@@ -7567,7 +7566,7 @@
       <c r="F734" s="20"/>
       <c r="G734" s="20"/>
     </row>
-    <row r="735" spans="1:7" ht="13">
+    <row r="735" spans="1:7">
       <c r="A735" s="20"/>
       <c r="C735" s="20"/>
       <c r="D735" s="20"/>
@@ -7575,7 +7574,7 @@
       <c r="F735" s="20"/>
       <c r="G735" s="20"/>
     </row>
-    <row r="736" spans="1:7" ht="13">
+    <row r="736" spans="1:7">
       <c r="A736" s="20"/>
       <c r="C736" s="20"/>
       <c r="D736" s="20"/>
@@ -7583,7 +7582,7 @@
       <c r="F736" s="20"/>
       <c r="G736" s="20"/>
     </row>
-    <row r="737" spans="1:7" ht="13">
+    <row r="737" spans="1:7">
       <c r="A737" s="20"/>
       <c r="C737" s="20"/>
       <c r="D737" s="20"/>
@@ -7591,7 +7590,7 @@
       <c r="F737" s="20"/>
       <c r="G737" s="20"/>
     </row>
-    <row r="738" spans="1:7" ht="13">
+    <row r="738" spans="1:7">
       <c r="A738" s="20"/>
       <c r="C738" s="20"/>
       <c r="D738" s="20"/>
@@ -7599,7 +7598,7 @@
       <c r="F738" s="20"/>
       <c r="G738" s="20"/>
     </row>
-    <row r="739" spans="1:7" ht="13">
+    <row r="739" spans="1:7">
       <c r="A739" s="20"/>
       <c r="C739" s="20"/>
       <c r="D739" s="20"/>
@@ -7607,7 +7606,7 @@
       <c r="F739" s="20"/>
       <c r="G739" s="20"/>
     </row>
-    <row r="740" spans="1:7" ht="13">
+    <row r="740" spans="1:7">
       <c r="A740" s="20"/>
       <c r="C740" s="20"/>
       <c r="D740" s="20"/>
@@ -7615,7 +7614,7 @@
       <c r="F740" s="20"/>
       <c r="G740" s="20"/>
     </row>
-    <row r="741" spans="1:7" ht="13">
+    <row r="741" spans="1:7">
       <c r="A741" s="20"/>
       <c r="C741" s="20"/>
       <c r="D741" s="20"/>
@@ -7623,7 +7622,7 @@
       <c r="F741" s="20"/>
       <c r="G741" s="20"/>
     </row>
-    <row r="742" spans="1:7" ht="13">
+    <row r="742" spans="1:7">
       <c r="A742" s="20"/>
       <c r="C742" s="20"/>
       <c r="D742" s="20"/>
@@ -7631,7 +7630,7 @@
       <c r="F742" s="20"/>
       <c r="G742" s="20"/>
     </row>
-    <row r="743" spans="1:7" ht="13">
+    <row r="743" spans="1:7">
       <c r="A743" s="20"/>
       <c r="C743" s="20"/>
       <c r="D743" s="20"/>
@@ -7639,7 +7638,7 @@
       <c r="F743" s="20"/>
       <c r="G743" s="20"/>
     </row>
-    <row r="744" spans="1:7" ht="13">
+    <row r="744" spans="1:7">
       <c r="A744" s="20"/>
       <c r="C744" s="20"/>
       <c r="D744" s="20"/>
@@ -7647,7 +7646,7 @@
       <c r="F744" s="20"/>
       <c r="G744" s="20"/>
     </row>
-    <row r="745" spans="1:7" ht="13">
+    <row r="745" spans="1:7">
       <c r="A745" s="20"/>
       <c r="C745" s="20"/>
       <c r="D745" s="20"/>
@@ -7655,7 +7654,7 @@
       <c r="F745" s="20"/>
       <c r="G745" s="20"/>
     </row>
-    <row r="746" spans="1:7" ht="13">
+    <row r="746" spans="1:7">
       <c r="A746" s="20"/>
       <c r="C746" s="20"/>
       <c r="D746" s="20"/>
@@ -7663,7 +7662,7 @@
       <c r="F746" s="20"/>
       <c r="G746" s="20"/>
     </row>
-    <row r="747" spans="1:7" ht="13">
+    <row r="747" spans="1:7">
       <c r="A747" s="20"/>
       <c r="C747" s="20"/>
       <c r="D747" s="20"/>
@@ -7671,7 +7670,7 @@
       <c r="F747" s="20"/>
       <c r="G747" s="20"/>
     </row>
-    <row r="748" spans="1:7" ht="13">
+    <row r="748" spans="1:7">
       <c r="A748" s="20"/>
       <c r="C748" s="20"/>
       <c r="D748" s="20"/>
@@ -7679,7 +7678,7 @@
       <c r="F748" s="20"/>
       <c r="G748" s="20"/>
     </row>
-    <row r="749" spans="1:7" ht="13">
+    <row r="749" spans="1:7">
       <c r="A749" s="20"/>
       <c r="C749" s="20"/>
       <c r="D749" s="20"/>
@@ -7687,7 +7686,7 @@
       <c r="F749" s="20"/>
       <c r="G749" s="20"/>
     </row>
-    <row r="750" spans="1:7" ht="13">
+    <row r="750" spans="1:7">
       <c r="A750" s="20"/>
       <c r="C750" s="20"/>
       <c r="D750" s="20"/>
@@ -7695,7 +7694,7 @@
       <c r="F750" s="20"/>
       <c r="G750" s="20"/>
     </row>
-    <row r="751" spans="1:7" ht="13">
+    <row r="751" spans="1:7">
       <c r="A751" s="20"/>
       <c r="C751" s="20"/>
       <c r="D751" s="20"/>
@@ -7703,7 +7702,7 @@
       <c r="F751" s="20"/>
       <c r="G751" s="20"/>
     </row>
-    <row r="752" spans="1:7" ht="13">
+    <row r="752" spans="1:7">
       <c r="A752" s="20"/>
       <c r="C752" s="20"/>
       <c r="D752" s="20"/>
@@ -7711,7 +7710,7 @@
       <c r="F752" s="20"/>
       <c r="G752" s="20"/>
     </row>
-    <row r="753" spans="1:7" ht="13">
+    <row r="753" spans="1:7">
       <c r="A753" s="20"/>
       <c r="C753" s="20"/>
       <c r="D753" s="20"/>
@@ -7719,7 +7718,7 @@
       <c r="F753" s="20"/>
       <c r="G753" s="20"/>
     </row>
-    <row r="754" spans="1:7" ht="13">
+    <row r="754" spans="1:7">
       <c r="A754" s="20"/>
       <c r="C754" s="20"/>
       <c r="D754" s="20"/>
@@ -7727,7 +7726,7 @@
       <c r="F754" s="20"/>
       <c r="G754" s="20"/>
     </row>
-    <row r="755" spans="1:7" ht="13">
+    <row r="755" spans="1:7">
       <c r="A755" s="20"/>
       <c r="C755" s="20"/>
       <c r="D755" s="20"/>
@@ -7735,7 +7734,7 @@
       <c r="F755" s="20"/>
       <c r="G755" s="20"/>
     </row>
-    <row r="756" spans="1:7" ht="13">
+    <row r="756" spans="1:7">
       <c r="A756" s="20"/>
       <c r="C756" s="20"/>
       <c r="D756" s="20"/>
@@ -7743,7 +7742,7 @@
       <c r="F756" s="20"/>
       <c r="G756" s="20"/>
     </row>
-    <row r="757" spans="1:7" ht="13">
+    <row r="757" spans="1:7">
       <c r="A757" s="20"/>
       <c r="C757" s="20"/>
       <c r="D757" s="20"/>
@@ -7751,7 +7750,7 @@
       <c r="F757" s="20"/>
       <c r="G757" s="20"/>
     </row>
-    <row r="758" spans="1:7" ht="13">
+    <row r="758" spans="1:7">
       <c r="A758" s="20"/>
       <c r="C758" s="20"/>
       <c r="D758" s="20"/>
@@ -7759,7 +7758,7 @@
       <c r="F758" s="20"/>
       <c r="G758" s="20"/>
     </row>
-    <row r="759" spans="1:7" ht="13">
+    <row r="759" spans="1:7">
       <c r="A759" s="20"/>
       <c r="C759" s="20"/>
       <c r="D759" s="20"/>
@@ -7767,7 +7766,7 @@
       <c r="F759" s="20"/>
       <c r="G759" s="20"/>
     </row>
-    <row r="760" spans="1:7" ht="13">
+    <row r="760" spans="1:7">
       <c r="A760" s="20"/>
       <c r="C760" s="20"/>
       <c r="D760" s="20"/>
@@ -7775,7 +7774,7 @@
       <c r="F760" s="20"/>
       <c r="G760" s="20"/>
     </row>
-    <row r="761" spans="1:7" ht="13">
+    <row r="761" spans="1:7">
       <c r="A761" s="20"/>
       <c r="C761" s="20"/>
       <c r="D761" s="20"/>
@@ -7783,7 +7782,7 @@
       <c r="F761" s="20"/>
       <c r="G761" s="20"/>
     </row>
-    <row r="762" spans="1:7" ht="13">
+    <row r="762" spans="1:7">
       <c r="A762" s="20"/>
       <c r="C762" s="20"/>
       <c r="D762" s="20"/>
@@ -7791,7 +7790,7 @@
       <c r="F762" s="20"/>
       <c r="G762" s="20"/>
     </row>
-    <row r="763" spans="1:7" ht="13">
+    <row r="763" spans="1:7">
       <c r="A763" s="20"/>
       <c r="C763" s="20"/>
       <c r="D763" s="20"/>
@@ -7799,7 +7798,7 @@
       <c r="F763" s="20"/>
       <c r="G763" s="20"/>
     </row>
-    <row r="764" spans="1:7" ht="13">
+    <row r="764" spans="1:7">
       <c r="A764" s="20"/>
       <c r="C764" s="20"/>
       <c r="D764" s="20"/>
@@ -7807,7 +7806,7 @@
       <c r="F764" s="20"/>
       <c r="G764" s="20"/>
     </row>
-    <row r="765" spans="1:7" ht="13">
+    <row r="765" spans="1:7">
       <c r="A765" s="20"/>
       <c r="C765" s="20"/>
       <c r="D765" s="20"/>
@@ -7815,7 +7814,7 @@
       <c r="F765" s="20"/>
       <c r="G765" s="20"/>
     </row>
-    <row r="766" spans="1:7" ht="13">
+    <row r="766" spans="1:7">
       <c r="A766" s="20"/>
       <c r="C766" s="20"/>
       <c r="D766" s="20"/>
@@ -7823,7 +7822,7 @@
       <c r="F766" s="20"/>
       <c r="G766" s="20"/>
     </row>
-    <row r="767" spans="1:7" ht="13">
+    <row r="767" spans="1:7">
       <c r="A767" s="20"/>
       <c r="C767" s="20"/>
       <c r="D767" s="20"/>
@@ -7831,7 +7830,7 @@
       <c r="F767" s="20"/>
       <c r="G767" s="20"/>
     </row>
-    <row r="768" spans="1:7" ht="13">
+    <row r="768" spans="1:7">
       <c r="A768" s="20"/>
       <c r="C768" s="20"/>
       <c r="D768" s="20"/>
@@ -7839,7 +7838,7 @@
       <c r="F768" s="20"/>
       <c r="G768" s="20"/>
     </row>
-    <row r="769" spans="1:7" ht="13">
+    <row r="769" spans="1:7">
       <c r="A769" s="20"/>
       <c r="C769" s="20"/>
       <c r="D769" s="20"/>
@@ -7847,7 +7846,7 @@
       <c r="F769" s="20"/>
       <c r="G769" s="20"/>
     </row>
-    <row r="770" spans="1:7" ht="13">
+    <row r="770" spans="1:7">
       <c r="A770" s="20"/>
       <c r="C770" s="20"/>
       <c r="D770" s="20"/>
@@ -7855,7 +7854,7 @@
       <c r="F770" s="20"/>
       <c r="G770" s="20"/>
     </row>
-    <row r="771" spans="1:7" ht="13">
+    <row r="771" spans="1:7">
       <c r="A771" s="20"/>
       <c r="C771" s="20"/>
       <c r="D771" s="20"/>
@@ -7863,7 +7862,7 @@
       <c r="F771" s="20"/>
       <c r="G771" s="20"/>
     </row>
-    <row r="772" spans="1:7" ht="13">
+    <row r="772" spans="1:7">
       <c r="A772" s="20"/>
       <c r="C772" s="20"/>
       <c r="D772" s="20"/>
@@ -7871,7 +7870,7 @@
       <c r="F772" s="20"/>
       <c r="G772" s="20"/>
     </row>
-    <row r="773" spans="1:7" ht="13">
+    <row r="773" spans="1:7">
       <c r="A773" s="20"/>
       <c r="C773" s="20"/>
       <c r="D773" s="20"/>
@@ -7879,7 +7878,7 @@
       <c r="F773" s="20"/>
       <c r="G773" s="20"/>
     </row>
-    <row r="774" spans="1:7" ht="13">
+    <row r="774" spans="1:7">
       <c r="A774" s="20"/>
       <c r="C774" s="20"/>
       <c r="D774" s="20"/>
@@ -7887,7 +7886,7 @@
       <c r="F774" s="20"/>
       <c r="G774" s="20"/>
     </row>
-    <row r="775" spans="1:7" ht="13">
+    <row r="775" spans="1:7">
       <c r="A775" s="20"/>
       <c r="C775" s="20"/>
       <c r="D775" s="20"/>
@@ -7895,7 +7894,7 @@
       <c r="F775" s="20"/>
       <c r="G775" s="20"/>
     </row>
-    <row r="776" spans="1:7" ht="13">
+    <row r="776" spans="1:7">
       <c r="A776" s="20"/>
       <c r="C776" s="20"/>
       <c r="D776" s="20"/>
@@ -7903,7 +7902,7 @@
       <c r="F776" s="20"/>
       <c r="G776" s="20"/>
     </row>
-    <row r="777" spans="1:7" ht="13">
+    <row r="777" spans="1:7">
       <c r="A777" s="20"/>
       <c r="C777" s="20"/>
       <c r="D777" s="20"/>
@@ -7911,7 +7910,7 @@
       <c r="F777" s="20"/>
       <c r="G777" s="20"/>
     </row>
-    <row r="778" spans="1:7" ht="13">
+    <row r="778" spans="1:7">
       <c r="A778" s="20"/>
       <c r="C778" s="20"/>
       <c r="D778" s="20"/>
@@ -7919,7 +7918,7 @@
       <c r="F778" s="20"/>
       <c r="G778" s="20"/>
     </row>
-    <row r="779" spans="1:7" ht="13">
+    <row r="779" spans="1:7">
       <c r="A779" s="20"/>
       <c r="C779" s="20"/>
       <c r="D779" s="20"/>
@@ -7927,7 +7926,7 @@
       <c r="F779" s="20"/>
       <c r="G779" s="20"/>
     </row>
-    <row r="780" spans="1:7" ht="13">
+    <row r="780" spans="1:7">
       <c r="A780" s="20"/>
       <c r="C780" s="20"/>
       <c r="D780" s="20"/>
@@ -7935,7 +7934,7 @@
       <c r="F780" s="20"/>
       <c r="G780" s="20"/>
     </row>
-    <row r="781" spans="1:7" ht="13">
+    <row r="781" spans="1:7">
       <c r="A781" s="20"/>
       <c r="C781" s="20"/>
       <c r="D781" s="20"/>
@@ -7943,7 +7942,7 @@
       <c r="F781" s="20"/>
       <c r="G781" s="20"/>
     </row>
-    <row r="782" spans="1:7" ht="13">
+    <row r="782" spans="1:7">
       <c r="A782" s="20"/>
       <c r="C782" s="20"/>
       <c r="D782" s="20"/>
@@ -7951,7 +7950,7 @@
       <c r="F782" s="20"/>
       <c r="G782" s="20"/>
     </row>
-    <row r="783" spans="1:7" ht="13">
+    <row r="783" spans="1:7">
       <c r="A783" s="20"/>
       <c r="C783" s="20"/>
       <c r="D783" s="20"/>
@@ -7959,7 +7958,7 @@
       <c r="F783" s="20"/>
       <c r="G783" s="20"/>
     </row>
-    <row r="784" spans="1:7" ht="13">
+    <row r="784" spans="1:7">
       <c r="A784" s="20"/>
       <c r="C784" s="20"/>
       <c r="D784" s="20"/>
@@ -7967,7 +7966,7 @@
       <c r="F784" s="20"/>
       <c r="G784" s="20"/>
     </row>
-    <row r="785" spans="1:7" ht="13">
+    <row r="785" spans="1:7">
       <c r="A785" s="20"/>
       <c r="C785" s="20"/>
       <c r="D785" s="20"/>
@@ -7975,7 +7974,7 @@
       <c r="F785" s="20"/>
       <c r="G785" s="20"/>
     </row>
-    <row r="786" spans="1:7" ht="13">
+    <row r="786" spans="1:7">
       <c r="A786" s="20"/>
       <c r="C786" s="20"/>
       <c r="D786" s="20"/>
@@ -7983,7 +7982,7 @@
       <c r="F786" s="20"/>
       <c r="G786" s="20"/>
     </row>
-    <row r="787" spans="1:7" ht="13">
+    <row r="787" spans="1:7">
       <c r="A787" s="20"/>
       <c r="C787" s="20"/>
       <c r="D787" s="20"/>
@@ -7991,7 +7990,7 @@
       <c r="F787" s="20"/>
       <c r="G787" s="20"/>
     </row>
-    <row r="788" spans="1:7" ht="13">
+    <row r="788" spans="1:7">
       <c r="A788" s="20"/>
       <c r="C788" s="20"/>
       <c r="D788" s="20"/>
@@ -7999,7 +7998,7 @@
       <c r="F788" s="20"/>
       <c r="G788" s="20"/>
     </row>
-    <row r="789" spans="1:7" ht="13">
+    <row r="789" spans="1:7">
       <c r="A789" s="20"/>
       <c r="C789" s="20"/>
       <c r="D789" s="20"/>
@@ -8007,7 +8006,7 @@
       <c r="F789" s="20"/>
       <c r="G789" s="20"/>
     </row>
-    <row r="790" spans="1:7" ht="13">
+    <row r="790" spans="1:7">
       <c r="A790" s="20"/>
       <c r="C790" s="20"/>
       <c r="D790" s="20"/>
@@ -8015,7 +8014,7 @@
       <c r="F790" s="20"/>
       <c r="G790" s="20"/>
     </row>
-    <row r="791" spans="1:7" ht="13">
+    <row r="791" spans="1:7">
       <c r="A791" s="20"/>
       <c r="C791" s="20"/>
       <c r="D791" s="20"/>
@@ -8023,7 +8022,7 @@
       <c r="F791" s="20"/>
       <c r="G791" s="20"/>
     </row>
-    <row r="792" spans="1:7" ht="13">
+    <row r="792" spans="1:7">
       <c r="A792" s="20"/>
       <c r="C792" s="20"/>
       <c r="D792" s="20"/>
@@ -8031,7 +8030,7 @@
       <c r="F792" s="20"/>
       <c r="G792" s="20"/>
     </row>
-    <row r="793" spans="1:7" ht="13">
+    <row r="793" spans="1:7">
       <c r="A793" s="20"/>
       <c r="C793" s="20"/>
       <c r="D793" s="20"/>
@@ -8039,7 +8038,7 @@
       <c r="F793" s="20"/>
       <c r="G793" s="20"/>
     </row>
-    <row r="794" spans="1:7" ht="13">
+    <row r="794" spans="1:7">
       <c r="A794" s="20"/>
       <c r="C794" s="20"/>
       <c r="D794" s="20"/>
@@ -8047,7 +8046,7 @@
       <c r="F794" s="20"/>
       <c r="G794" s="20"/>
     </row>
-    <row r="795" spans="1:7" ht="13">
+    <row r="795" spans="1:7">
       <c r="A795" s="20"/>
       <c r="C795" s="20"/>
       <c r="D795" s="20"/>
@@ -8055,7 +8054,7 @@
       <c r="F795" s="20"/>
       <c r="G795" s="20"/>
     </row>
-    <row r="796" spans="1:7" ht="13">
+    <row r="796" spans="1:7">
       <c r="A796" s="20"/>
       <c r="C796" s="20"/>
       <c r="D796" s="20"/>
@@ -8063,7 +8062,7 @@
       <c r="F796" s="20"/>
       <c r="G796" s="20"/>
     </row>
-    <row r="797" spans="1:7" ht="13">
+    <row r="797" spans="1:7">
       <c r="A797" s="20"/>
       <c r="C797" s="20"/>
       <c r="D797" s="20"/>
@@ -8071,7 +8070,7 @@
       <c r="F797" s="20"/>
       <c r="G797" s="20"/>
     </row>
-    <row r="798" spans="1:7" ht="13">
+    <row r="798" spans="1:7">
       <c r="A798" s="20"/>
       <c r="C798" s="20"/>
       <c r="D798" s="20"/>
@@ -8079,7 +8078,7 @@
       <c r="F798" s="20"/>
       <c r="G798" s="20"/>
     </row>
-    <row r="799" spans="1:7" ht="13">
+    <row r="799" spans="1:7">
       <c r="A799" s="20"/>
       <c r="C799" s="20"/>
       <c r="D799" s="20"/>
@@ -8087,7 +8086,7 @@
       <c r="F799" s="20"/>
       <c r="G799" s="20"/>
     </row>
-    <row r="800" spans="1:7" ht="13">
+    <row r="800" spans="1:7">
       <c r="A800" s="20"/>
       <c r="C800" s="20"/>
       <c r="D800" s="20"/>
@@ -8095,7 +8094,7 @@
       <c r="F800" s="20"/>
       <c r="G800" s="20"/>
     </row>
-    <row r="801" spans="1:7" ht="13">
+    <row r="801" spans="1:7">
       <c r="A801" s="20"/>
       <c r="C801" s="20"/>
       <c r="D801" s="20"/>
@@ -8103,7 +8102,7 @@
       <c r="F801" s="20"/>
       <c r="G801" s="20"/>
     </row>
-    <row r="802" spans="1:7" ht="13">
+    <row r="802" spans="1:7">
       <c r="A802" s="20"/>
       <c r="C802" s="20"/>
       <c r="D802" s="20"/>
@@ -8111,7 +8110,7 @@
       <c r="F802" s="20"/>
       <c r="G802" s="20"/>
     </row>
-    <row r="803" spans="1:7" ht="13">
+    <row r="803" spans="1:7">
       <c r="A803" s="20"/>
       <c r="C803" s="20"/>
       <c r="D803" s="20"/>
@@ -8119,7 +8118,7 @@
       <c r="F803" s="20"/>
       <c r="G803" s="20"/>
     </row>
-    <row r="804" spans="1:7" ht="13">
+    <row r="804" spans="1:7">
       <c r="A804" s="20"/>
       <c r="C804" s="20"/>
       <c r="D804" s="20"/>
@@ -8127,7 +8126,7 @@
       <c r="F804" s="20"/>
       <c r="G804" s="20"/>
     </row>
-    <row r="805" spans="1:7" ht="13">
+    <row r="805" spans="1:7">
       <c r="A805" s="20"/>
       <c r="C805" s="20"/>
       <c r="D805" s="20"/>
@@ -8135,7 +8134,7 @@
       <c r="F805" s="20"/>
       <c r="G805" s="20"/>
     </row>
-    <row r="806" spans="1:7" ht="13">
+    <row r="806" spans="1:7">
       <c r="A806" s="20"/>
       <c r="C806" s="20"/>
       <c r="D806" s="20"/>
@@ -8143,7 +8142,7 @@
       <c r="F806" s="20"/>
       <c r="G806" s="20"/>
     </row>
-    <row r="807" spans="1:7" ht="13">
+    <row r="807" spans="1:7">
       <c r="A807" s="20"/>
       <c r="C807" s="20"/>
       <c r="D807" s="20"/>
@@ -8151,7 +8150,7 @@
       <c r="F807" s="20"/>
       <c r="G807" s="20"/>
     </row>
-    <row r="808" spans="1:7" ht="13">
+    <row r="808" spans="1:7">
       <c r="A808" s="20"/>
       <c r="C808" s="20"/>
       <c r="D808" s="20"/>
@@ -8159,7 +8158,7 @@
       <c r="F808" s="20"/>
       <c r="G808" s="20"/>
     </row>
-    <row r="809" spans="1:7" ht="13">
+    <row r="809" spans="1:7">
       <c r="A809" s="20"/>
       <c r="C809" s="20"/>
       <c r="D809" s="20"/>
@@ -8167,7 +8166,7 @@
       <c r="F809" s="20"/>
       <c r="G809" s="20"/>
     </row>
-    <row r="810" spans="1:7" ht="13">
+    <row r="810" spans="1:7">
       <c r="A810" s="20"/>
       <c r="C810" s="20"/>
       <c r="D810" s="20"/>
@@ -8175,7 +8174,7 @@
       <c r="F810" s="20"/>
       <c r="G810" s="20"/>
     </row>
-    <row r="811" spans="1:7" ht="13">
+    <row r="811" spans="1:7">
       <c r="A811" s="20"/>
       <c r="C811" s="20"/>
       <c r="D811" s="20"/>
@@ -8183,7 +8182,7 @@
       <c r="F811" s="20"/>
       <c r="G811" s="20"/>
     </row>
-    <row r="812" spans="1:7" ht="13">
+    <row r="812" spans="1:7">
       <c r="A812" s="20"/>
       <c r="C812" s="20"/>
       <c r="D812" s="20"/>
@@ -8191,7 +8190,7 @@
       <c r="F812" s="20"/>
       <c r="G812" s="20"/>
     </row>
-    <row r="813" spans="1:7" ht="13">
+    <row r="813" spans="1:7">
       <c r="A813" s="20"/>
       <c r="C813" s="20"/>
       <c r="D813" s="20"/>
@@ -8199,7 +8198,7 @@
       <c r="F813" s="20"/>
       <c r="G813" s="20"/>
     </row>
-    <row r="814" spans="1:7" ht="13">
+    <row r="814" spans="1:7">
       <c r="A814" s="20"/>
       <c r="C814" s="20"/>
       <c r="D814" s="20"/>
@@ -8207,7 +8206,7 @@
       <c r="F814" s="20"/>
       <c r="G814" s="20"/>
     </row>
-    <row r="815" spans="1:7" ht="13">
+    <row r="815" spans="1:7">
       <c r="A815" s="20"/>
       <c r="C815" s="20"/>
       <c r="D815" s="20"/>
@@ -8215,7 +8214,7 @@
       <c r="F815" s="20"/>
       <c r="G815" s="20"/>
     </row>
-    <row r="816" spans="1:7" ht="13">
+    <row r="816" spans="1:7">
       <c r="A816" s="20"/>
       <c r="C816" s="20"/>
       <c r="D816" s="20"/>
@@ -8223,7 +8222,7 @@
       <c r="F816" s="20"/>
       <c r="G816" s="20"/>
     </row>
-    <row r="817" spans="1:7" ht="13">
+    <row r="817" spans="1:7">
       <c r="A817" s="20"/>
       <c r="C817" s="20"/>
       <c r="D817" s="20"/>
@@ -8231,7 +8230,7 @@
       <c r="F817" s="20"/>
       <c r="G817" s="20"/>
     </row>
-    <row r="818" spans="1:7" ht="13">
+    <row r="818" spans="1:7">
       <c r="A818" s="20"/>
       <c r="C818" s="20"/>
       <c r="D818" s="20"/>
@@ -8239,7 +8238,7 @@
       <c r="F818" s="20"/>
       <c r="G818" s="20"/>
     </row>
-    <row r="819" spans="1:7" ht="13">
+    <row r="819" spans="1:7">
       <c r="A819" s="20"/>
       <c r="C819" s="20"/>
       <c r="D819" s="20"/>
@@ -8247,7 +8246,7 @@
       <c r="F819" s="20"/>
       <c r="G819" s="20"/>
     </row>
-    <row r="820" spans="1:7" ht="13">
+    <row r="820" spans="1:7">
       <c r="A820" s="20"/>
       <c r="C820" s="20"/>
       <c r="D820" s="20"/>
@@ -8255,7 +8254,7 @@
       <c r="F820" s="20"/>
       <c r="G820" s="20"/>
     </row>
-    <row r="821" spans="1:7" ht="13">
+    <row r="821" spans="1:7">
       <c r="A821" s="20"/>
       <c r="C821" s="20"/>
       <c r="D821" s="20"/>
@@ -8263,7 +8262,7 @@
       <c r="F821" s="20"/>
       <c r="G821" s="20"/>
     </row>
-    <row r="822" spans="1:7" ht="13">
+    <row r="822" spans="1:7">
       <c r="A822" s="20"/>
       <c r="C822" s="20"/>
       <c r="D822" s="20"/>
@@ -8271,7 +8270,7 @@
       <c r="F822" s="20"/>
       <c r="G822" s="20"/>
     </row>
-    <row r="823" spans="1:7" ht="13">
+    <row r="823" spans="1:7">
       <c r="A823" s="20"/>
       <c r="C823" s="20"/>
       <c r="D823" s="20"/>
@@ -8279,7 +8278,7 @@
       <c r="F823" s="20"/>
       <c r="G823" s="20"/>
     </row>
-    <row r="824" spans="1:7" ht="13">
+    <row r="824" spans="1:7">
       <c r="A824" s="20"/>
       <c r="C824" s="20"/>
       <c r="D824" s="20"/>
@@ -8287,7 +8286,7 @@
       <c r="F824" s="20"/>
       <c r="G824" s="20"/>
     </row>
-    <row r="825" spans="1:7" ht="13">
+    <row r="825" spans="1:7">
       <c r="A825" s="20"/>
       <c r="C825" s="20"/>
       <c r="D825" s="20"/>
@@ -8295,7 +8294,7 @@
       <c r="F825" s="20"/>
       <c r="G825" s="20"/>
     </row>
-    <row r="826" spans="1:7" ht="13">
+    <row r="826" spans="1:7">
       <c r="A826" s="20"/>
       <c r="C826" s="20"/>
       <c r="D826" s="20"/>
@@ -8303,7 +8302,7 @@
       <c r="F826" s="20"/>
       <c r="G826" s="20"/>
     </row>
-    <row r="827" spans="1:7" ht="13">
+    <row r="827" spans="1:7">
       <c r="A827" s="20"/>
       <c r="C827" s="20"/>
       <c r="D827" s="20"/>
@@ -8311,7 +8310,7 @@
       <c r="F827" s="20"/>
       <c r="G827" s="20"/>
     </row>
-    <row r="828" spans="1:7" ht="13">
+    <row r="828" spans="1:7">
       <c r="A828" s="20"/>
       <c r="C828" s="20"/>
       <c r="D828" s="20"/>
@@ -8319,7 +8318,7 @@
       <c r="F828" s="20"/>
       <c r="G828" s="20"/>
     </row>
-    <row r="829" spans="1:7" ht="13">
+    <row r="829" spans="1:7">
       <c r="A829" s="20"/>
       <c r="C829" s="20"/>
       <c r="D829" s="20"/>
@@ -8327,7 +8326,7 @@
       <c r="F829" s="20"/>
       <c r="G829" s="20"/>
     </row>
-    <row r="830" spans="1:7" ht="13">
+    <row r="830" spans="1:7">
       <c r="A830" s="20"/>
       <c r="C830" s="20"/>
       <c r="D830" s="20"/>
@@ -8335,7 +8334,7 @@
       <c r="F830" s="20"/>
       <c r="G830" s="20"/>
     </row>
-    <row r="831" spans="1:7" ht="13">
+    <row r="831" spans="1:7">
       <c r="A831" s="20"/>
       <c r="C831" s="20"/>
       <c r="D831" s="20"/>
@@ -8343,7 +8342,7 @@
       <c r="F831" s="20"/>
       <c r="G831" s="20"/>
     </row>
-    <row r="832" spans="1:7" ht="13">
+    <row r="832" spans="1:7">
       <c r="A832" s="20"/>
       <c r="C832" s="20"/>
       <c r="D832" s="20"/>
@@ -8351,7 +8350,7 @@
       <c r="F832" s="20"/>
       <c r="G832" s="20"/>
     </row>
-    <row r="833" spans="1:7" ht="13">
+    <row r="833" spans="1:7">
       <c r="A833" s="20"/>
       <c r="C833" s="20"/>
       <c r="D833" s="20"/>
@@ -8359,7 +8358,7 @@
       <c r="F833" s="20"/>
       <c r="G833" s="20"/>
     </row>
-    <row r="834" spans="1:7" ht="13">
+    <row r="834" spans="1:7">
       <c r="A834" s="20"/>
       <c r="C834" s="20"/>
       <c r="D834" s="20"/>
@@ -8367,7 +8366,7 @@
       <c r="F834" s="20"/>
       <c r="G834" s="20"/>
     </row>
-    <row r="835" spans="1:7" ht="13">
+    <row r="835" spans="1:7">
       <c r="A835" s="20"/>
       <c r="C835" s="20"/>
       <c r="D835" s="20"/>
@@ -8375,7 +8374,7 @@
       <c r="F835" s="20"/>
       <c r="G835" s="20"/>
     </row>
-    <row r="836" spans="1:7" ht="13">
+    <row r="836" spans="1:7">
       <c r="A836" s="20"/>
       <c r="C836" s="20"/>
       <c r="D836" s="20"/>
@@ -8383,7 +8382,7 @@
       <c r="F836" s="20"/>
       <c r="G836" s="20"/>
     </row>
-    <row r="837" spans="1:7" ht="13">
+    <row r="837" spans="1:7">
       <c r="A837" s="20"/>
       <c r="C837" s="20"/>
       <c r="D837" s="20"/>
@@ -8391,7 +8390,7 @@
       <c r="F837" s="20"/>
       <c r="G837" s="20"/>
     </row>
-    <row r="838" spans="1:7" ht="13">
+    <row r="838" spans="1:7">
       <c r="A838" s="20"/>
       <c r="C838" s="20"/>
       <c r="D838" s="20"/>
@@ -8399,7 +8398,7 @@
       <c r="F838" s="20"/>
       <c r="G838" s="20"/>
     </row>
-    <row r="839" spans="1:7" ht="13">
+    <row r="839" spans="1:7">
       <c r="A839" s="20"/>
       <c r="C839" s="20"/>
       <c r="D839" s="20"/>
@@ -8407,7 +8406,7 @@
       <c r="F839" s="20"/>
       <c r="G839" s="20"/>
     </row>
-    <row r="840" spans="1:7" ht="13">
+    <row r="840" spans="1:7">
       <c r="A840" s="20"/>
       <c r="C840" s="20"/>
       <c r="D840" s="20"/>
@@ -8415,7 +8414,7 @@
       <c r="F840" s="20"/>
       <c r="G840" s="20"/>
     </row>
-    <row r="841" spans="1:7" ht="13">
+    <row r="841" spans="1:7">
       <c r="A841" s="20"/>
       <c r="C841" s="20"/>
       <c r="D841" s="20"/>
@@ -8423,7 +8422,7 @@
       <c r="F841" s="20"/>
       <c r="G841" s="20"/>
     </row>
-    <row r="842" spans="1:7" ht="13">
+    <row r="842" spans="1:7">
       <c r="A842" s="20"/>
       <c r="C842" s="20"/>
       <c r="D842" s="20"/>
@@ -8431,7 +8430,7 @@
       <c r="F842" s="20"/>
       <c r="G842" s="20"/>
     </row>
-    <row r="843" spans="1:7" ht="13">
+    <row r="843" spans="1:7">
       <c r="A843" s="20"/>
       <c r="C843" s="20"/>
       <c r="D843" s="20"/>
@@ -8439,7 +8438,7 @@
       <c r="F843" s="20"/>
       <c r="G843" s="20"/>
     </row>
-    <row r="844" spans="1:7" ht="13">
+    <row r="844" spans="1:7">
       <c r="A844" s="20"/>
       <c r="C844" s="20"/>
       <c r="D844" s="20"/>
@@ -8447,7 +8446,7 @@
       <c r="F844" s="20"/>
       <c r="G844" s="20"/>
     </row>
-    <row r="845" spans="1:7" ht="13">
+    <row r="845" spans="1:7">
       <c r="A845" s="20"/>
       <c r="C845" s="20"/>
       <c r="D845" s="20"/>
@@ -8455,7 +8454,7 @@
       <c r="F845" s="20"/>
       <c r="G845" s="20"/>
     </row>
-    <row r="846" spans="1:7" ht="13">
+    <row r="846" spans="1:7">
       <c r="A846" s="20"/>
       <c r="C846" s="20"/>
       <c r="D846" s="20"/>
@@ -8463,7 +8462,7 @@
       <c r="F846" s="20"/>
       <c r="G846" s="20"/>
     </row>
-    <row r="847" spans="1:7" ht="13">
+    <row r="847" spans="1:7">
       <c r="A847" s="20"/>
       <c r="C847" s="20"/>
       <c r="D847" s="20"/>
@@ -8471,7 +8470,7 @@
       <c r="F847" s="20"/>
       <c r="G847" s="20"/>
     </row>
-    <row r="848" spans="1:7" ht="13">
+    <row r="848" spans="1:7">
       <c r="A848" s="20"/>
       <c r="C848" s="20"/>
       <c r="D848" s="20"/>
@@ -8479,7 +8478,7 @@
       <c r="F848" s="20"/>
       <c r="G848" s="20"/>
     </row>
-    <row r="849" spans="1:7" ht="13">
+    <row r="849" spans="1:7">
       <c r="A849" s="20"/>
       <c r="C849" s="20"/>
       <c r="D849" s="20"/>
@@ -8487,7 +8486,7 @@
       <c r="F849" s="20"/>
       <c r="G849" s="20"/>
     </row>
-    <row r="850" spans="1:7" ht="13">
+    <row r="850" spans="1:7">
       <c r="A850" s="20"/>
       <c r="C850" s="20"/>
       <c r="D850" s="20"/>
@@ -8495,7 +8494,7 @@
       <c r="F850" s="20"/>
       <c r="G850" s="20"/>
     </row>
-    <row r="851" spans="1:7" ht="13">
+    <row r="851" spans="1:7">
       <c r="A851" s="20"/>
       <c r="C851" s="20"/>
       <c r="D851" s="20"/>
@@ -8503,7 +8502,7 @@
       <c r="F851" s="20"/>
       <c r="G851" s="20"/>
     </row>
-    <row r="852" spans="1:7" ht="13">
+    <row r="852" spans="1:7">
       <c r="A852" s="20"/>
       <c r="C852" s="20"/>
       <c r="D852" s="20"/>
@@ -8511,7 +8510,7 @@
       <c r="F852" s="20"/>
       <c r="G852" s="20"/>
     </row>
-    <row r="853" spans="1:7" ht="13">
+    <row r="853" spans="1:7">
       <c r="A853" s="20"/>
       <c r="C853" s="20"/>
       <c r="D853" s="20"/>
@@ -8519,7 +8518,7 @@
       <c r="F853" s="20"/>
       <c r="G853" s="20"/>
     </row>
-    <row r="854" spans="1:7" ht="13">
+    <row r="854" spans="1:7">
       <c r="A854" s="20"/>
       <c r="C854" s="20"/>
       <c r="D854" s="20"/>
@@ -8527,7 +8526,7 @@
       <c r="F854" s="20"/>
       <c r="G854" s="20"/>
     </row>
-    <row r="855" spans="1:7" ht="13">
+    <row r="855" spans="1:7">
       <c r="A855" s="20"/>
       <c r="C855" s="20"/>
       <c r="D855" s="20"/>
@@ -8535,7 +8534,7 @@
       <c r="F855" s="20"/>
       <c r="G855" s="20"/>
     </row>
-    <row r="856" spans="1:7" ht="13">
+    <row r="856" spans="1:7">
       <c r="A856" s="20"/>
       <c r="C856" s="20"/>
       <c r="D856" s="20"/>
@@ -8543,7 +8542,7 @@
       <c r="F856" s="20"/>
       <c r="G856" s="20"/>
     </row>
-    <row r="857" spans="1:7" ht="13">
+    <row r="857" spans="1:7">
       <c r="A857" s="20"/>
       <c r="C857" s="20"/>
       <c r="D857" s="20"/>
@@ -8551,7 +8550,7 @@
       <c r="F857" s="20"/>
       <c r="G857" s="20"/>
     </row>
-    <row r="858" spans="1:7" ht="13">
+    <row r="858" spans="1:7">
       <c r="A858" s="20"/>
       <c r="C858" s="20"/>
       <c r="D858" s="20"/>
@@ -8559,7 +8558,7 @@
       <c r="F858" s="20"/>
       <c r="G858" s="20"/>
     </row>
-    <row r="859" spans="1:7" ht="13">
+    <row r="859" spans="1:7">
       <c r="A859" s="20"/>
       <c r="C859" s="20"/>
       <c r="D859" s="20"/>
@@ -8567,7 +8566,7 @@
       <c r="F859" s="20"/>
       <c r="G859" s="20"/>
     </row>
-    <row r="860" spans="1:7" ht="13">
+    <row r="860" spans="1:7">
       <c r="A860" s="20"/>
       <c r="C860" s="20"/>
       <c r="D860" s="20"/>
@@ -8575,7 +8574,7 @@
       <c r="F860" s="20"/>
       <c r="G860" s="20"/>
     </row>
-    <row r="861" spans="1:7" ht="13">
+    <row r="861" spans="1:7">
       <c r="A861" s="20"/>
       <c r="C861" s="20"/>
       <c r="D861" s="20"/>
@@ -8583,7 +8582,7 @@
       <c r="F861" s="20"/>
       <c r="G861" s="20"/>
     </row>
-    <row r="862" spans="1:7" ht="13">
+    <row r="862" spans="1:7">
       <c r="A862" s="20"/>
       <c r="C862" s="20"/>
       <c r="D862" s="20"/>
@@ -8591,7 +8590,7 @@
       <c r="F862" s="20"/>
       <c r="G862" s="20"/>
     </row>
-    <row r="863" spans="1:7" ht="13">
+    <row r="863" spans="1:7">
       <c r="A863" s="20"/>
       <c r="C863" s="20"/>
       <c r="D863" s="20"/>
@@ -8599,7 +8598,7 @@
       <c r="F863" s="20"/>
       <c r="G863" s="20"/>
     </row>
-    <row r="864" spans="1:7" ht="13">
+    <row r="864" spans="1:7">
       <c r="A864" s="20"/>
       <c r="C864" s="20"/>
       <c r="D864" s="20"/>
@@ -8607,7 +8606,7 @@
       <c r="F864" s="20"/>
       <c r="G864" s="20"/>
     </row>
-    <row r="865" spans="1:7" ht="13">
+    <row r="865" spans="1:7">
       <c r="A865" s="20"/>
       <c r="C865" s="20"/>
       <c r="D865" s="20"/>
@@ -8615,7 +8614,7 @@
       <c r="F865" s="20"/>
       <c r="G865" s="20"/>
     </row>
-    <row r="866" spans="1:7" ht="13">
+    <row r="866" spans="1:7">
       <c r="A866" s="20"/>
       <c r="C866" s="20"/>
       <c r="D866" s="20"/>
@@ -8623,7 +8622,7 @@
       <c r="F866" s="20"/>
       <c r="G866" s="20"/>
     </row>
-    <row r="867" spans="1:7" ht="13">
+    <row r="867" spans="1:7">
       <c r="A867" s="20"/>
       <c r="C867" s="20"/>
       <c r="D867" s="20"/>
@@ -8631,7 +8630,7 @@
       <c r="F867" s="20"/>
       <c r="G867" s="20"/>
     </row>
-    <row r="868" spans="1:7" ht="13">
+    <row r="868" spans="1:7">
       <c r="A868" s="20"/>
       <c r="C868" s="20"/>
       <c r="D868" s="20"/>
@@ -8639,7 +8638,7 @@
       <c r="F868" s="20"/>
       <c r="G868" s="20"/>
     </row>
-    <row r="869" spans="1:7" ht="13">
+    <row r="869" spans="1:7">
       <c r="A869" s="20"/>
       <c r="C869" s="20"/>
       <c r="D869" s="20"/>
@@ -8647,7 +8646,7 @@
       <c r="F869" s="20"/>
       <c r="G869" s="20"/>
     </row>
-    <row r="870" spans="1:7" ht="13">
+    <row r="870" spans="1:7">
       <c r="A870" s="20"/>
       <c r="C870" s="20"/>
       <c r="D870" s="20"/>
@@ -8655,7 +8654,7 @@
       <c r="F870" s="20"/>
       <c r="G870" s="20"/>
     </row>
-    <row r="871" spans="1:7" ht="13">
+    <row r="871" spans="1:7">
       <c r="A871" s="20"/>
       <c r="C871" s="20"/>
       <c r="D871" s="20"/>
@@ -8663,7 +8662,7 @@
       <c r="F871" s="20"/>
       <c r="G871" s="20"/>
     </row>
-    <row r="872" spans="1:7" ht="13">
+    <row r="872" spans="1:7">
       <c r="A872" s="20"/>
       <c r="C872" s="20"/>
       <c r="D872" s="20"/>
@@ -8671,7 +8670,7 @@
       <c r="F872" s="20"/>
       <c r="G872" s="20"/>
     </row>
-    <row r="873" spans="1:7" ht="13">
+    <row r="873" spans="1:7">
       <c r="A873" s="20"/>
       <c r="C873" s="20"/>
       <c r="D873" s="20"/>
@@ -8679,7 +8678,7 @@
       <c r="F873" s="20"/>
       <c r="G873" s="20"/>
     </row>
-    <row r="874" spans="1:7" ht="13">
+    <row r="874" spans="1:7">
       <c r="A874" s="20"/>
       <c r="C874" s="20"/>
       <c r="D874" s="20"/>
@@ -8687,7 +8686,7 @@
       <c r="F874" s="20"/>
       <c r="G874" s="20"/>
     </row>
-    <row r="875" spans="1:7" ht="13">
+    <row r="875" spans="1:7">
       <c r="A875" s="20"/>
       <c r="C875" s="20"/>
       <c r="D875" s="20"/>
@@ -8695,7 +8694,7 @@
       <c r="F875" s="20"/>
       <c r="G875" s="20"/>
     </row>
-    <row r="876" spans="1:7" ht="13">
+    <row r="876" spans="1:7">
       <c r="A876" s="20"/>
       <c r="C876" s="20"/>
       <c r="D876" s="20"/>
@@ -8703,7 +8702,7 @@
       <c r="F876" s="20"/>
       <c r="G876" s="20"/>
     </row>
-    <row r="877" spans="1:7" ht="13">
+    <row r="877" spans="1:7">
       <c r="A877" s="20"/>
       <c r="C877" s="20"/>
       <c r="D877" s="20"/>
@@ -8711,7 +8710,7 @@
       <c r="F877" s="20"/>
       <c r="G877" s="20"/>
     </row>
-    <row r="878" spans="1:7" ht="13">
+    <row r="878" spans="1:7">
       <c r="A878" s="20"/>
       <c r="C878" s="20"/>
       <c r="D878" s="20"/>
@@ -8719,7 +8718,7 @@
       <c r="F878" s="20"/>
       <c r="G878" s="20"/>
     </row>
-    <row r="879" spans="1:7" ht="13">
+    <row r="879" spans="1:7">
       <c r="A879" s="20"/>
       <c r="C879" s="20"/>
       <c r="D879" s="20"/>
@@ -8727,7 +8726,7 @@
       <c r="F879" s="20"/>
       <c r="G879" s="20"/>
     </row>
-    <row r="880" spans="1:7" ht="13">
+    <row r="880" spans="1:7">
       <c r="A880" s="20"/>
       <c r="C880" s="20"/>
       <c r="D880" s="20"/>
@@ -8735,7 +8734,7 @@
       <c r="F880" s="20"/>
       <c r="G880" s="20"/>
     </row>
-    <row r="881" spans="1:7" ht="13">
+    <row r="881" spans="1:7">
       <c r="A881" s="20"/>
       <c r="C881" s="20"/>
       <c r="D881" s="20"/>
@@ -8743,7 +8742,7 @@
       <c r="F881" s="20"/>
       <c r="G881" s="20"/>
     </row>
-    <row r="882" spans="1:7" ht="13">
+    <row r="882" spans="1:7">
       <c r="A882" s="20"/>
       <c r="C882" s="20"/>
       <c r="D882" s="20"/>
@@ -8751,7 +8750,7 @@
       <c r="F882" s="20"/>
       <c r="G882" s="20"/>
     </row>
-    <row r="883" spans="1:7" ht="13">
+    <row r="883" spans="1:7">
       <c r="A883" s="20"/>
       <c r="C883" s="20"/>
       <c r="D883" s="20"/>
@@ -8759,7 +8758,7 @@
       <c r="F883" s="20"/>
       <c r="G883" s="20"/>
     </row>
-    <row r="884" spans="1:7" ht="13">
+    <row r="884" spans="1:7">
       <c r="A884" s="20"/>
       <c r="C884" s="20"/>
       <c r="D884" s="20"/>
@@ -8767,7 +8766,7 @@
       <c r="F884" s="20"/>
       <c r="G884" s="20"/>
     </row>
-    <row r="885" spans="1:7" ht="13">
+    <row r="885" spans="1:7">
       <c r="A885" s="20"/>
       <c r="C885" s="20"/>
       <c r="D885" s="20"/>
@@ -8775,7 +8774,7 @@
       <c r="F885" s="20"/>
       <c r="G885" s="20"/>
     </row>
-    <row r="886" spans="1:7" ht="13">
+    <row r="886" spans="1:7">
       <c r="A886" s="20"/>
       <c r="C886" s="20"/>
       <c r="D886" s="20"/>
@@ -8783,7 +8782,7 @@
       <c r="F886" s="20"/>
       <c r="G886" s="20"/>
     </row>
-    <row r="887" spans="1:7" ht="13">
+    <row r="887" spans="1:7">
       <c r="A887" s="20"/>
       <c r="C887" s="20"/>
       <c r="D887" s="20"/>
@@ -8791,7 +8790,7 @@
       <c r="F887" s="20"/>
       <c r="G887" s="20"/>
     </row>
-    <row r="888" spans="1:7" ht="13">
+    <row r="888" spans="1:7">
       <c r="A888" s="20"/>
       <c r="C888" s="20"/>
       <c r="D888" s="20"/>
@@ -8799,7 +8798,7 @@
       <c r="F888" s="20"/>
       <c r="G888" s="20"/>
     </row>
-    <row r="889" spans="1:7" ht="13">
+    <row r="889" spans="1:7">
       <c r="A889" s="20"/>
       <c r="C889" s="20"/>
       <c r="D889" s="20"/>
@@ -8807,7 +8806,7 @@
       <c r="F889" s="20"/>
       <c r="G889" s="20"/>
     </row>
-    <row r="890" spans="1:7" ht="13">
+    <row r="890" spans="1:7">
       <c r="A890" s="20"/>
       <c r="C890" s="20"/>
       <c r="D890" s="20"/>
@@ -8815,7 +8814,7 @@
       <c r="F890" s="20"/>
       <c r="G890" s="20"/>
     </row>
-    <row r="891" spans="1:7" ht="13">
+    <row r="891" spans="1:7">
       <c r="A891" s="20"/>
       <c r="C891" s="20"/>
       <c r="D891" s="20"/>
@@ -8823,7 +8822,7 @@
       <c r="F891" s="20"/>
       <c r="G891" s="20"/>
     </row>
-    <row r="892" spans="1:7" ht="13">
+    <row r="892" spans="1:7">
       <c r="A892" s="20"/>
       <c r="C892" s="20"/>
       <c r="D892" s="20"/>
@@ -8831,7 +8830,7 @@
       <c r="F892" s="20"/>
       <c r="G892" s="20"/>
     </row>
-    <row r="893" spans="1:7" ht="13">
+    <row r="893" spans="1:7">
       <c r="A893" s="20"/>
       <c r="C893" s="20"/>
       <c r="D893" s="20"/>
@@ -8839,7 +8838,7 @@
       <c r="F893" s="20"/>
       <c r="G893" s="20"/>
     </row>
-    <row r="894" spans="1:7" ht="13">
+    <row r="894" spans="1:7">
       <c r="A894" s="20"/>
       <c r="C894" s="20"/>
       <c r="D894" s="20"/>
@@ -8847,7 +8846,7 @@
       <c r="F894" s="20"/>
       <c r="G894" s="20"/>
     </row>
-    <row r="895" spans="1:7" ht="13">
+    <row r="895" spans="1:7">
       <c r="A895" s="20"/>
       <c r="C895" s="20"/>
       <c r="D895" s="20"/>
@@ -8855,7 +8854,7 @@
       <c r="F895" s="20"/>
       <c r="G895" s="20"/>
     </row>
-    <row r="896" spans="1:7" ht="13">
+    <row r="896" spans="1:7">
       <c r="A896" s="20"/>
       <c r="C896" s="20"/>
       <c r="D896" s="20"/>
@@ -8863,7 +8862,7 @@
       <c r="F896" s="20"/>
       <c r="G896" s="20"/>
     </row>
-    <row r="897" spans="1:7" ht="13">
+    <row r="897" spans="1:7">
       <c r="A897" s="20"/>
       <c r="C897" s="20"/>
       <c r="D897" s="20"/>
@@ -8871,7 +8870,7 @@
       <c r="F897" s="20"/>
       <c r="G897" s="20"/>
     </row>
-    <row r="898" spans="1:7" ht="13">
+    <row r="898" spans="1:7">
       <c r="A898" s="20"/>
       <c r="C898" s="20"/>
       <c r="D898" s="20"/>
@@ -8879,7 +8878,7 @@
       <c r="F898" s="20"/>
       <c r="G898" s="20"/>
     </row>
-    <row r="899" spans="1:7" ht="13">
+    <row r="899" spans="1:7">
       <c r="A899" s="20"/>
       <c r="C899" s="20"/>
       <c r="D899" s="20"/>
@@ -8887,7 +8886,7 @@
       <c r="F899" s="20"/>
       <c r="G899" s="20"/>
     </row>
-    <row r="900" spans="1:7" ht="13">
+    <row r="900" spans="1:7">
       <c r="A900" s="20"/>
       <c r="C900" s="20"/>
       <c r="D900" s="20"/>
@@ -8895,7 +8894,7 @@
       <c r="F900" s="20"/>
       <c r="G900" s="20"/>
     </row>
-    <row r="901" spans="1:7" ht="13">
+    <row r="901" spans="1:7">
       <c r="A901" s="20"/>
       <c r="C901" s="20"/>
       <c r="D901" s="20"/>
@@ -8903,7 +8902,7 @@
       <c r="F901" s="20"/>
       <c r="G901" s="20"/>
     </row>
-    <row r="902" spans="1:7" ht="13">
+    <row r="902" spans="1:7">
       <c r="A902" s="20"/>
       <c r="C902" s="20"/>
       <c r="D902" s="20"/>
@@ -8911,7 +8910,7 @@
       <c r="F902" s="20"/>
       <c r="G902" s="20"/>
     </row>
-    <row r="903" spans="1:7" ht="13">
+    <row r="903" spans="1:7">
       <c r="A903" s="20"/>
       <c r="C903" s="20"/>
       <c r="D903" s="20"/>
@@ -8919,7 +8918,7 @@
       <c r="F903" s="20"/>
       <c r="G903" s="20"/>
     </row>
-    <row r="904" spans="1:7" ht="13">
+    <row r="904" spans="1:7">
       <c r="A904" s="20"/>
       <c r="C904" s="20"/>
       <c r="D904" s="20"/>
@@ -8927,7 +8926,7 @@
       <c r="F904" s="20"/>
       <c r="G904" s="20"/>
     </row>
-    <row r="905" spans="1:7" ht="13">
+    <row r="905" spans="1:7">
       <c r="A905" s="20"/>
       <c r="C905" s="20"/>
       <c r="D905" s="20"/>
@@ -8935,7 +8934,7 @@
       <c r="F905" s="20"/>
       <c r="G905" s="20"/>
     </row>
-    <row r="906" spans="1:7" ht="13">
+    <row r="906" spans="1:7">
       <c r="A906" s="20"/>
       <c r="C906" s="20"/>
       <c r="D906" s="20"/>
@@ -8943,7 +8942,7 @@
       <c r="F906" s="20"/>
       <c r="G906" s="20"/>
     </row>
-    <row r="907" spans="1:7" ht="13">
+    <row r="907" spans="1:7">
       <c r="A907" s="20"/>
       <c r="C907" s="20"/>
       <c r="D907" s="20"/>
@@ -8951,7 +8950,7 @@
       <c r="F907" s="20"/>
       <c r="G907" s="20"/>
     </row>
-    <row r="908" spans="1:7" ht="13">
+    <row r="908" spans="1:7">
       <c r="A908" s="20"/>
       <c r="C908" s="20"/>
       <c r="D908" s="20"/>
@@ -8959,7 +8958,7 @@
       <c r="F908" s="20"/>
       <c r="G908" s="20"/>
     </row>
-    <row r="909" spans="1:7" ht="13">
+    <row r="909" spans="1:7">
       <c r="A909" s="20"/>
       <c r="C909" s="20"/>
       <c r="D909" s="20"/>
@@ -8967,7 +8966,7 @@
       <c r="F909" s="20"/>
       <c r="G909" s="20"/>
     </row>
-    <row r="910" spans="1:7" ht="13">
+    <row r="910" spans="1:7">
       <c r="A910" s="20"/>
       <c r="C910" s="20"/>
       <c r="D910" s="20"/>
@@ -8975,7 +8974,7 @@
       <c r="F910" s="20"/>
       <c r="G910" s="20"/>
     </row>
-    <row r="911" spans="1:7" ht="13">
+    <row r="911" spans="1:7">
       <c r="A911" s="20"/>
       <c r="C911" s="20"/>
       <c r="D911" s="20"/>
@@ -8983,7 +8982,7 @@
       <c r="F911" s="20"/>
       <c r="G911" s="20"/>
     </row>
-    <row r="912" spans="1:7" ht="13">
+    <row r="912" spans="1:7">
       <c r="A912" s="20"/>
       <c r="C912" s="20"/>
       <c r="D912" s="20"/>
@@ -8991,7 +8990,7 @@
       <c r="F912" s="20"/>
       <c r="G912" s="20"/>
     </row>
-    <row r="913" spans="1:7" ht="13">
+    <row r="913" spans="1:7">
       <c r="A913" s="20"/>
       <c r="C913" s="20"/>
       <c r="D913" s="20"/>
@@ -8999,7 +8998,7 @@
       <c r="F913" s="20"/>
       <c r="G913" s="20"/>
     </row>
-    <row r="914" spans="1:7" ht="13">
+    <row r="914" spans="1:7">
       <c r="A914" s="20"/>
       <c r="C914" s="20"/>
       <c r="D914" s="20"/>
@@ -9007,7 +9006,7 @@
       <c r="F914" s="20"/>
       <c r="G914" s="20"/>
     </row>
-    <row r="915" spans="1:7" ht="13">
+    <row r="915" spans="1:7">
       <c r="A915" s="20"/>
       <c r="C915" s="20"/>
       <c r="D915" s="20"/>
@@ -9015,7 +9014,7 @@
       <c r="F915" s="20"/>
       <c r="G915" s="20"/>
     </row>
-    <row r="916" spans="1:7" ht="13">
+    <row r="916" spans="1:7">
       <c r="A916" s="20"/>
       <c r="C916" s="20"/>
       <c r="D916" s="20"/>
@@ -9023,7 +9022,7 @@
       <c r="F916" s="20"/>
       <c r="G916" s="20"/>
     </row>
-    <row r="917" spans="1:7" ht="13">
+    <row r="917" spans="1:7">
       <c r="A917" s="20"/>
       <c r="C917" s="20"/>
       <c r="D917" s="20"/>
@@ -9031,7 +9030,7 @@
       <c r="F917" s="20"/>
       <c r="G917" s="20"/>
     </row>
-    <row r="918" spans="1:7" ht="13">
+    <row r="918" spans="1:7">
       <c r="A918" s="20"/>
       <c r="C918" s="20"/>
       <c r="D918" s="20"/>
@@ -9039,7 +9038,7 @@
       <c r="F918" s="20"/>
       <c r="G918" s="20"/>
     </row>
-    <row r="919" spans="1:7" ht="13">
+    <row r="919" spans="1:7">
       <c r="A919" s="20"/>
       <c r="C919" s="20"/>
       <c r="D919" s="20"/>
@@ -9047,7 +9046,7 @@
       <c r="F919" s="20"/>
       <c r="G919" s="20"/>
     </row>
-    <row r="920" spans="1:7" ht="13">
+    <row r="920" spans="1:7">
       <c r="A920" s="20"/>
       <c r="C920" s="20"/>
       <c r="D920" s="20"/>
@@ -9055,7 +9054,7 @@
       <c r="F920" s="20"/>
       <c r="G920" s="20"/>
     </row>
-    <row r="921" spans="1:7" ht="13">
+    <row r="921" spans="1:7">
       <c r="A921" s="20"/>
       <c r="C921" s="20"/>
       <c r="D921" s="20"/>
@@ -9063,7 +9062,7 @@
       <c r="F921" s="20"/>
       <c r="G921" s="20"/>
     </row>
-    <row r="922" spans="1:7" ht="13">
+    <row r="922" spans="1:7">
       <c r="A922" s="20"/>
       <c r="C922" s="20"/>
       <c r="D922" s="20"/>
@@ -9071,7 +9070,7 @@
       <c r="F922" s="20"/>
       <c r="G922" s="20"/>
     </row>
-    <row r="923" spans="1:7" ht="13">
+    <row r="923" spans="1:7">
       <c r="A923" s="20"/>
       <c r="C923" s="20"/>
       <c r="D923" s="20"/>
@@ -9079,7 +9078,7 @@
       <c r="F923" s="20"/>
       <c r="G923" s="20"/>
     </row>
-    <row r="924" spans="1:7" ht="13">
+    <row r="924" spans="1:7">
       <c r="A924" s="20"/>
       <c r="C924" s="20"/>
       <c r="D924" s="20"/>
@@ -9087,7 +9086,7 @@
       <c r="F924" s="20"/>
       <c r="G924" s="20"/>
     </row>
-    <row r="925" spans="1:7" ht="13">
+    <row r="925" spans="1:7">
       <c r="A925" s="20"/>
       <c r="C925" s="20"/>
       <c r="D925" s="20"/>
@@ -9095,7 +9094,7 @@
       <c r="F925" s="20"/>
       <c r="G925" s="20"/>
     </row>
-    <row r="926" spans="1:7" ht="13">
+    <row r="926" spans="1:7">
       <c r="A926" s="20"/>
       <c r="C926" s="20"/>
       <c r="D926" s="20"/>
@@ -9103,7 +9102,7 @@
       <c r="F926" s="20"/>
       <c r="G926" s="20"/>
     </row>
-    <row r="927" spans="1:7" ht="13">
+    <row r="927" spans="1:7">
       <c r="A927" s="20"/>
       <c r="C927" s="20"/>
       <c r="D927" s="20"/>
@@ -9111,7 +9110,7 @@
       <c r="F927" s="20"/>
       <c r="G927" s="20"/>
     </row>
-    <row r="928" spans="1:7" ht="13">
+    <row r="928" spans="1:7">
       <c r="A928" s="20"/>
       <c r="C928" s="20"/>
       <c r="D928" s="20"/>
@@ -9119,7 +9118,7 @@
       <c r="F928" s="20"/>
       <c r="G928" s="20"/>
     </row>
-    <row r="929" spans="1:7" ht="13">
+    <row r="929" spans="1:7">
       <c r="A929" s="20"/>
       <c r="C929" s="20"/>
       <c r="D929" s="20"/>
@@ -9127,7 +9126,7 @@
       <c r="F929" s="20"/>
       <c r="G929" s="20"/>
     </row>
-    <row r="930" spans="1:7" ht="13">
+    <row r="930" spans="1:7">
       <c r="A930" s="20"/>
       <c r="C930" s="20"/>
       <c r="D930" s="20"/>
@@ -9135,7 +9134,7 @@
       <c r="F930" s="20"/>
       <c r="G930" s="20"/>
     </row>
-    <row r="931" spans="1:7" ht="13">
+    <row r="931" spans="1:7">
       <c r="A931" s="20"/>
       <c r="C931" s="20"/>
       <c r="D931" s="20"/>
@@ -9143,7 +9142,7 @@
       <c r="F931" s="20"/>
       <c r="G931" s="20"/>
     </row>
-    <row r="932" spans="1:7" ht="13">
+    <row r="932" spans="1:7">
       <c r="A932" s="20"/>
       <c r="C932" s="20"/>
       <c r="D932" s="20"/>
@@ -9151,7 +9150,7 @@
       <c r="F932" s="20"/>
       <c r="G932" s="20"/>
     </row>
-    <row r="933" spans="1:7" ht="13">
+    <row r="933" spans="1:7">
       <c r="A933" s="20"/>
       <c r="C933" s="20"/>
       <c r="D933" s="20"/>
@@ -9159,7 +9158,7 @@
       <c r="F933" s="20"/>
       <c r="G933" s="20"/>
     </row>
-    <row r="934" spans="1:7" ht="13">
+    <row r="934" spans="1:7">
       <c r="A934" s="20"/>
       <c r="C934" s="20"/>
       <c r="D934" s="20"/>
@@ -9167,7 +9166,7 @@
       <c r="F934" s="20"/>
       <c r="G934" s="20"/>
     </row>
-    <row r="935" spans="1:7" ht="13">
+    <row r="935" spans="1:7">
       <c r="A935" s="20"/>
       <c r="C935" s="20"/>
       <c r="D935" s="20"/>
@@ -9175,7 +9174,7 @@
       <c r="F935" s="20"/>
       <c r="G935" s="20"/>
     </row>
-    <row r="936" spans="1:7" ht="13">
+    <row r="936" spans="1:7">
       <c r="A936" s="20"/>
       <c r="C936" s="20"/>
       <c r="D936" s="20"/>
@@ -9183,7 +9182,7 @@
       <c r="F936" s="20"/>
       <c r="G936" s="20"/>
     </row>
-    <row r="937" spans="1:7" ht="13">
+    <row r="937" spans="1:7">
       <c r="A937" s="20"/>
       <c r="C937" s="20"/>
       <c r="D937" s="20"/>
@@ -9191,7 +9190,7 @@
       <c r="F937" s="20"/>
       <c r="G937" s="20"/>
     </row>
-    <row r="938" spans="1:7" ht="13">
+    <row r="938" spans="1:7">
       <c r="A938" s="20"/>
       <c r="C938" s="20"/>
       <c r="D938" s="20"/>
@@ -9199,7 +9198,7 @@
       <c r="F938" s="20"/>
       <c r="G938" s="20"/>
     </row>
-    <row r="939" spans="1:7" ht="13">
+    <row r="939" spans="1:7">
       <c r="A939" s="20"/>
       <c r="C939" s="20"/>
       <c r="D939" s="20"/>
@@ -9207,7 +9206,7 @@
       <c r="F939" s="20"/>
       <c r="G939" s="20"/>
     </row>
-    <row r="940" spans="1:7" ht="13">
+    <row r="940" spans="1:7">
       <c r="A940" s="20"/>
       <c r="C940" s="20"/>
       <c r="D940" s="20"/>
@@ -9215,7 +9214,7 @@
       <c r="F940" s="20"/>
       <c r="G940" s="20"/>
     </row>
-    <row r="941" spans="1:7" ht="13">
+    <row r="941" spans="1:7">
       <c r="A941" s="20"/>
       <c r="C941" s="20"/>
       <c r="D941" s="20"/>
@@ -9223,7 +9222,7 @@
       <c r="F941" s="20"/>
       <c r="G941" s="20"/>
     </row>
-    <row r="942" spans="1:7" ht="13">
+    <row r="942" spans="1:7">
       <c r="A942" s="20"/>
       <c r="C942" s="20"/>
       <c r="D942" s="20"/>
@@ -9231,7 +9230,7 @@
       <c r="F942" s="20"/>
       <c r="G942" s="20"/>
     </row>
-    <row r="943" spans="1:7" ht="13">
+    <row r="943" spans="1:7">
       <c r="A943" s="20"/>
       <c r="C943" s="20"/>
       <c r="D943" s="20"/>
@@ -9239,7 +9238,7 @@
       <c r="F943" s="20"/>
       <c r="G943" s="20"/>
     </row>
-    <row r="944" spans="1:7" ht="13">
+    <row r="944" spans="1:7">
       <c r="A944" s="20"/>
       <c r="C944" s="20"/>
       <c r="D944" s="20"/>
@@ -9247,7 +9246,7 @@
       <c r="F944" s="20"/>
       <c r="G944" s="20"/>
     </row>
-    <row r="945" spans="1:7" ht="13">
+    <row r="945" spans="1:7">
       <c r="A945" s="20"/>
       <c r="C945" s="20"/>
       <c r="D945" s="20"/>
@@ -9255,7 +9254,7 @@
       <c r="F945" s="20"/>
       <c r="G945" s="20"/>
     </row>
-    <row r="946" spans="1:7" ht="13">
+    <row r="946" spans="1:7">
       <c r="A946" s="20"/>
       <c r="C946" s="20"/>
       <c r="D946" s="20"/>
@@ -9263,7 +9262,7 @@
       <c r="F946" s="20"/>
       <c r="G946" s="20"/>
     </row>
-    <row r="947" spans="1:7" ht="13">
+    <row r="947" spans="1:7">
       <c r="A947" s="20"/>
       <c r="C947" s="20"/>
       <c r="D947" s="20"/>
@@ -9271,7 +9270,7 @@
       <c r="F947" s="20"/>
       <c r="G947" s="20"/>
     </row>
-    <row r="948" spans="1:7" ht="13">
+    <row r="948" spans="1:7">
       <c r="A948" s="20"/>
       <c r="C948" s="20"/>
       <c r="D948" s="20"/>
@@ -9279,7 +9278,7 @@
       <c r="F948" s="20"/>
       <c r="G948" s="20"/>
     </row>
-    <row r="949" spans="1:7" ht="13">
+    <row r="949" spans="1:7">
       <c r="A949" s="20"/>
       <c r="C949" s="20"/>
       <c r="D949" s="20"/>
@@ -9287,7 +9286,7 @@
       <c r="F949" s="20"/>
       <c r="G949" s="20"/>
     </row>
-    <row r="950" spans="1:7" ht="13">
+    <row r="950" spans="1:7">
       <c r="A950" s="20"/>
       <c r="C950" s="20"/>
       <c r="D950" s="20"/>
@@ -9295,7 +9294,7 @@
       <c r="F950" s="20"/>
       <c r="G950" s="20"/>
     </row>
-    <row r="951" spans="1:7" ht="13">
+    <row r="951" spans="1:7">
       <c r="A951" s="20"/>
       <c r="C951" s="20"/>
       <c r="D951" s="20"/>
@@ -9303,7 +9302,7 @@
       <c r="F951" s="20"/>
       <c r="G951" s="20"/>
     </row>
-    <row r="952" spans="1:7" ht="13">
+    <row r="952" spans="1:7">
       <c r="A952" s="20"/>
       <c r="C952" s="20"/>
       <c r="D952" s="20"/>
@@ -9311,7 +9310,7 @@
       <c r="F952" s="20"/>
       <c r="G952" s="20"/>
     </row>
-    <row r="953" spans="1:7" ht="13">
+    <row r="953" spans="1:7">
       <c r="A953" s="20"/>
       <c r="C953" s="20"/>
       <c r="D953" s="20"/>
@@ -9319,7 +9318,7 @@
       <c r="F953" s="20"/>
       <c r="G953" s="20"/>
     </row>
-    <row r="954" spans="1:7" ht="13">
+    <row r="954" spans="1:7">
       <c r="A954" s="20"/>
       <c r="C954" s="20"/>
       <c r="D954" s="20"/>
@@ -9327,7 +9326,7 @@
       <c r="F954" s="20"/>
       <c r="G954" s="20"/>
     </row>
-    <row r="955" spans="1:7" ht="13">
+    <row r="955" spans="1:7">
       <c r="A955" s="20"/>
       <c r="C955" s="20"/>
       <c r="D955" s="20"/>
@@ -9335,7 +9334,7 @@
       <c r="F955" s="20"/>
       <c r="G955" s="20"/>
     </row>
-    <row r="956" spans="1:7" ht="13">
+    <row r="956" spans="1:7">
       <c r="A956" s="20"/>
       <c r="C956" s="20"/>
       <c r="D956" s="20"/>
@@ -9343,7 +9342,7 @@
       <c r="F956" s="20"/>
       <c r="G956" s="20"/>
     </row>
-    <row r="957" spans="1:7" ht="13">
+    <row r="957" spans="1:7">
       <c r="A957" s="20"/>
       <c r="C957" s="20"/>
       <c r="D957" s="20"/>
@@ -9351,7 +9350,7 @@
       <c r="F957" s="20"/>
       <c r="G957" s="20"/>
     </row>
-    <row r="958" spans="1:7" ht="13">
+    <row r="958" spans="1:7">
       <c r="A958" s="20"/>
       <c r="C958" s="20"/>
       <c r="D958" s="20"/>
@@ -9359,7 +9358,7 @@
       <c r="F958" s="20"/>
       <c r="G958" s="20"/>
     </row>
-    <row r="959" spans="1:7" ht="13">
+    <row r="959" spans="1:7">
       <c r="A959" s="20"/>
       <c r="C959" s="20"/>
       <c r="D959" s="20"/>
@@ -9367,7 +9366,7 @@
       <c r="F959" s="20"/>
       <c r="G959" s="20"/>
     </row>
-    <row r="960" spans="1:7" ht="13">
+    <row r="960" spans="1:7">
       <c r="A960" s="20"/>
       <c r="C960" s="20"/>
       <c r="D960" s="20"/>
@@ -9375,7 +9374,7 @@
       <c r="F960" s="20"/>
       <c r="G960" s="20"/>
     </row>
-    <row r="961" spans="1:7" ht="13">
+    <row r="961" spans="1:7">
       <c r="A961" s="20"/>
       <c r="C961" s="20"/>
       <c r="D961" s="20"/>
@@ -9383,7 +9382,7 @@
       <c r="F961" s="20"/>
       <c r="G961" s="20"/>
     </row>
-    <row r="962" spans="1:7" ht="13">
+    <row r="962" spans="1:7">
       <c r="A962" s="20"/>
       <c r="C962" s="20"/>
       <c r="D962" s="20"/>
@@ -9391,7 +9390,7 @@
       <c r="F962" s="20"/>
       <c r="G962" s="20"/>
     </row>
-    <row r="963" spans="1:7" ht="13">
+    <row r="963" spans="1:7">
       <c r="A963" s="20"/>
       <c r="C963" s="20"/>
       <c r="D963" s="20"/>
@@ -9399,7 +9398,7 @@
       <c r="F963" s="20"/>
       <c r="G963" s="20"/>
     </row>
-    <row r="964" spans="1:7" ht="13">
+    <row r="964" spans="1:7">
       <c r="A964" s="20"/>
       <c r="C964" s="20"/>
       <c r="D964" s="20"/>
@@ -9407,7 +9406,7 @@
       <c r="F964" s="20"/>
       <c r="G964" s="20"/>
     </row>
-    <row r="965" spans="1:7" ht="13">
+    <row r="965" spans="1:7">
       <c r="A965" s="20"/>
       <c r="C965" s="20"/>
       <c r="D965" s="20"/>
@@ -9415,7 +9414,7 @@
       <c r="F965" s="20"/>
       <c r="G965" s="20"/>
     </row>
-    <row r="966" spans="1:7" ht="13">
+    <row r="966" spans="1:7">
       <c r="A966" s="20"/>
       <c r="C966" s="20"/>
       <c r="D966" s="20"/>
@@ -9423,7 +9422,7 @@
       <c r="F966" s="20"/>
       <c r="G966" s="20"/>
     </row>
-    <row r="967" spans="1:7" ht="13">
+    <row r="967" spans="1:7">
       <c r="A967" s="20"/>
       <c r="C967" s="20"/>
       <c r="D967" s="20"/>
@@ -9431,7 +9430,7 @@
       <c r="F967" s="20"/>
       <c r="G967" s="20"/>
     </row>
-    <row r="968" spans="1:7" ht="13">
+    <row r="968" spans="1:7">
       <c r="A968" s="20"/>
       <c r="C968" s="20"/>
       <c r="D968" s="20"/>
@@ -9439,7 +9438,7 @@
       <c r="F968" s="20"/>
       <c r="G968" s="20"/>
     </row>
-    <row r="969" spans="1:7" ht="13">
+    <row r="969" spans="1:7">
       <c r="A969" s="20"/>
       <c r="C969" s="20"/>
       <c r="D969" s="20"/>
@@ -9447,7 +9446,7 @@
       <c r="F969" s="20"/>
       <c r="G969" s="20"/>
     </row>
-    <row r="970" spans="1:7" ht="13">
+    <row r="970" spans="1:7">
       <c r="A970" s="20"/>
       <c r="C970" s="20"/>
       <c r="D970" s="20"/>
@@ -9455,7 +9454,7 @@
       <c r="F970" s="20"/>
       <c r="G970" s="20"/>
     </row>
-    <row r="971" spans="1:7" ht="13">
+    <row r="971" spans="1:7">
       <c r="A971" s="20"/>
       <c r="C971" s="20"/>
       <c r="D971" s="20"/>
@@ -9463,7 +9462,7 @@
       <c r="F971" s="20"/>
       <c r="G971" s="20"/>
     </row>
-    <row r="972" spans="1:7" ht="13">
+    <row r="972" spans="1:7">
       <c r="A972" s="20"/>
       <c r="C972" s="20"/>
       <c r="D972" s="20"/>
@@ -9471,7 +9470,7 @@
       <c r="F972" s="20"/>
       <c r="G972" s="20"/>
     </row>
-    <row r="973" spans="1:7" ht="13">
+    <row r="973" spans="1:7">
       <c r="A973" s="20"/>
       <c r="C973" s="20"/>
       <c r="D973" s="20"/>
@@ -9479,7 +9478,7 @@
       <c r="F973" s="20"/>
       <c r="G973" s="20"/>
     </row>
-    <row r="974" spans="1:7" ht="13">
+    <row r="974" spans="1:7">
       <c r="A974" s="20"/>
       <c r="C974" s="20"/>
       <c r="D974" s="20"/>
@@ -9487,7 +9486,7 @@
       <c r="F974" s="20"/>
       <c r="G974" s="20"/>
     </row>
-    <row r="975" spans="1:7" ht="13">
+    <row r="975" spans="1:7">
       <c r="A975" s="20"/>
       <c r="C975" s="20"/>
       <c r="D975" s="20"/>
@@ -9495,7 +9494,7 @@
       <c r="F975" s="20"/>
       <c r="G975" s="20"/>
     </row>
-    <row r="976" spans="1:7" ht="13">
+    <row r="976" spans="1:7">
       <c r="A976" s="20"/>
       <c r="C976" s="20"/>
       <c r="D976" s="20"/>
@@ -9503,7 +9502,7 @@
       <c r="F976" s="20"/>
       <c r="G976" s="20"/>
     </row>
-    <row r="977" spans="1:7" ht="13">
+    <row r="977" spans="1:7">
       <c r="A977" s="20"/>
       <c r="C977" s="20"/>
       <c r="D977" s="20"/>
@@ -9511,7 +9510,7 @@
       <c r="F977" s="20"/>
       <c r="G977" s="20"/>
     </row>
-    <row r="978" spans="1:7" ht="13">
+    <row r="978" spans="1:7">
       <c r="A978" s="20"/>
       <c r="C978" s="20"/>
       <c r="D978" s="20"/>
@@ -9519,7 +9518,7 @@
       <c r="F978" s="20"/>
       <c r="G978" s="20"/>
     </row>
-    <row r="979" spans="1:7" ht="13">
+    <row r="979" spans="1:7">
       <c r="A979" s="20"/>
       <c r="C979" s="20"/>
       <c r="D979" s="20"/>
@@ -9527,7 +9526,7 @@
       <c r="F979" s="20"/>
       <c r="G979" s="20"/>
     </row>
-    <row r="980" spans="1:7" ht="13">
+    <row r="980" spans="1:7">
       <c r="A980" s="20"/>
       <c r="C980" s="20"/>
       <c r="D980" s="20"/>
@@ -9535,7 +9534,7 @@
       <c r="F980" s="20"/>
       <c r="G980" s="20"/>
     </row>
-    <row r="981" spans="1:7" ht="13">
+    <row r="981" spans="1:7">
       <c r="A981" s="20"/>
       <c r="C981" s="20"/>
       <c r="D981" s="20"/>
@@ -9543,7 +9542,7 @@
       <c r="F981" s="20"/>
       <c r="G981" s="20"/>
     </row>
-    <row r="982" spans="1:7" ht="13">
+    <row r="982" spans="1:7">
       <c r="A982" s="20"/>
       <c r="C982" s="20"/>
       <c r="D982" s="20"/>
@@ -9551,7 +9550,7 @@
       <c r="F982" s="20"/>
       <c r="G982" s="20"/>
     </row>
-    <row r="983" spans="1:7" ht="13">
+    <row r="983" spans="1:7">
       <c r="A983" s="20"/>
       <c r="C983" s="20"/>
       <c r="D983" s="20"/>
@@ -9559,7 +9558,7 @@
       <c r="F983" s="20"/>
       <c r="G983" s="20"/>
     </row>
-    <row r="984" spans="1:7" ht="13">
+    <row r="984" spans="1:7">
       <c r="A984" s="20"/>
       <c r="C984" s="20"/>
       <c r="D984" s="20"/>
@@ -9567,7 +9566,7 @@
       <c r="F984" s="20"/>
       <c r="G984" s="20"/>
     </row>
-    <row r="985" spans="1:7" ht="13">
+    <row r="985" spans="1:7">
       <c r="A985" s="20"/>
       <c r="C985" s="20"/>
       <c r="D985" s="20"/>
@@ -9575,7 +9574,7 @@
       <c r="F985" s="20"/>
       <c r="G985" s="20"/>
     </row>
-    <row r="986" spans="1:7" ht="13">
+    <row r="986" spans="1:7">
       <c r="A986" s="20"/>
       <c r="C986" s="20"/>
       <c r="D986" s="20"/>
@@ -9583,7 +9582,7 @@
       <c r="F986" s="20"/>
       <c r="G986" s="20"/>
     </row>
-    <row r="987" spans="1:7" ht="13">
+    <row r="987" spans="1:7">
       <c r="A987" s="20"/>
       <c r="C987" s="20"/>
       <c r="D987" s="20"/>
@@ -9591,7 +9590,7 @@
       <c r="F987" s="20"/>
       <c r="G987" s="20"/>
     </row>
-    <row r="988" spans="1:7" ht="13">
+    <row r="988" spans="1:7">
       <c r="A988" s="20"/>
       <c r="C988" s="20"/>
       <c r="D988" s="20"/>
@@ -9599,7 +9598,7 @@
       <c r="F988" s="20"/>
       <c r="G988" s="20"/>
     </row>
-    <row r="989" spans="1:7" ht="13">
+    <row r="989" spans="1:7">
       <c r="A989" s="20"/>
       <c r="C989" s="20"/>
       <c r="D989" s="20"/>
@@ -9607,7 +9606,7 @@
       <c r="F989" s="20"/>
       <c r="G989" s="20"/>
     </row>
-    <row r="990" spans="1:7" ht="13">
+    <row r="990" spans="1:7">
       <c r="A990" s="20"/>
       <c r="C990" s="20"/>
       <c r="D990" s="20"/>
@@ -9615,7 +9614,7 @@
       <c r="F990" s="20"/>
       <c r="G990" s="20"/>
     </row>
-    <row r="991" spans="1:7" ht="13">
+    <row r="991" spans="1:7">
       <c r="A991" s="20"/>
       <c r="C991" s="20"/>
       <c r="D991" s="20"/>
@@ -9623,7 +9622,7 @@
       <c r="F991" s="20"/>
       <c r="G991" s="20"/>
     </row>
-    <row r="992" spans="1:7" ht="13">
+    <row r="992" spans="1:7">
       <c r="A992" s="20"/>
       <c r="C992" s="20"/>
       <c r="D992" s="20"/>

--- a/resources/Permission.xlsx
+++ b/resources/Permission.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BBAD9-BF92-4987-BAC6-6487785948C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissions (Import)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -316,13 +327,61 @@
   </si>
   <si>
     <t>extended-exportation:export</t>
+  </si>
+  <si>
+    <t>zoom-meeting:add</t>
+  </si>
+  <si>
+    <t>zoom-meeting:edit</t>
+  </si>
+  <si>
+    <t>zoom-meeting:delete</t>
+  </si>
+  <si>
+    <t>zoom-meeting:list</t>
+  </si>
+  <si>
+    <t>zoom-meeting:view</t>
+  </si>
+  <si>
+    <t>task-management:report</t>
+  </si>
+  <si>
+    <t>task-management:all-list</t>
+  </si>
+  <si>
+    <t>task-management:add</t>
+  </si>
+  <si>
+    <t>survey:report</t>
+  </si>
+  <si>
+    <t>survey:all-list</t>
+  </si>
+  <si>
+    <t>survey:add</t>
+  </si>
+  <si>
+    <t>survey:edit</t>
+  </si>
+  <si>
+    <t>survey:delete</t>
+  </si>
+  <si>
+    <t>task-management:reported-by-me</t>
+  </si>
+  <si>
+    <t>task-management:reviewed-by-me</t>
+  </si>
+  <si>
+    <t>task-management:owned-by-me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -357,6 +416,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;JetBrains Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -433,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -456,11 +522,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,7 +662,24 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,17 +903,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:R992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
+      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -791,7 +926,7 @@
     <col min="6" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -829,7 +964,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A75" si="0">A2+1</f>
         <v>2</v>
@@ -845,7 +980,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -861,7 +996,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -877,7 +1012,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -893,7 +1028,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -909,7 +1044,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -925,7 +1060,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -941,7 +1076,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -957,7 +1092,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -973,7 +1108,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -989,7 +1124,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1005,7 +1140,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1021,7 +1156,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1041,7 +1176,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1065,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1081,7 +1216,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1097,7 +1232,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1113,7 +1248,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1133,7 +1268,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1153,7 +1288,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1180,7 +1315,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1207,7 +1342,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1223,7 +1358,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="12.75">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1239,7 +1374,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="12.75">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1255,7 +1390,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="12.75">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1271,7 +1406,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="12.75">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1287,7 +1422,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="12.75">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1303,7 +1438,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="12.75">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1319,7 +1454,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="12.75">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1335,7 +1470,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="12.75">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1351,7 +1486,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1367,7 +1502,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1383,7 +1518,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1399,7 +1534,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1415,7 +1550,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1431,7 +1566,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1447,7 +1582,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1463,7 +1598,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1479,7 +1614,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1495,7 +1630,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1511,7 +1646,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1528,7 +1663,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1544,7 +1679,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1560,7 +1695,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1576,7 +1711,7 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1592,7 +1727,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1608,7 +1743,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="12.75">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1624,7 +1759,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="12.75">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1646,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="12.75">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1662,7 +1797,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="12.75">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1678,7 +1813,7 @@
       <c r="F52" s="12"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="12.75">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1700,7 +1835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="12.75">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1716,7 +1851,7 @@
       <c r="F54" s="12"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="12.75">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1732,7 +1867,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="12.75">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1748,7 +1883,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="12.75">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1772,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="12.75">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1788,7 +1923,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="12.75">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1806,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="12.75">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1830,7 +1965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="12.75">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1846,7 +1981,7 @@
       <c r="F61" s="12"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="12.75">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1866,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="12.75">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1886,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="12.75">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1906,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="12.75">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1924,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" ht="12.75">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1942,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" ht="12.75">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1960,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" ht="12.75">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1982,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" ht="12.75">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2002,7 +2137,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" ht="12.75">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2035,7 +2170,7 @@
       <c r="Q70" s="25"/>
       <c r="R70" s="25"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" ht="12.75">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2070,7 +2205,7 @@
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" ht="12.75">
       <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2097,7 +2232,7 @@
       <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" ht="12.75">
       <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2124,7 +2259,7 @@
       <c r="Q73" s="25"/>
       <c r="R73" s="25"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" ht="12.75">
       <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2140,7 +2275,7 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" ht="12.75">
       <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2156,7 +2291,7 @@
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" ht="12.75">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2171,7 +2306,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" ht="12.75">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2186,7 +2321,7 @@
       <c r="F77" s="28"/>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" ht="12.75">
       <c r="A78" s="3">
         <v>78</v>
       </c>
@@ -2201,7 +2336,7 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" ht="12.75">
       <c r="A79" s="3">
         <v>79</v>
       </c>
@@ -2216,7 +2351,7 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" ht="12.75">
       <c r="A80" s="3">
         <v>80</v>
       </c>
@@ -2231,7 +2366,7 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="12.75">
       <c r="A81" s="3">
         <v>81</v>
       </c>
@@ -2246,7 +2381,7 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="12.75">
       <c r="A82" s="3">
         <v>82</v>
       </c>
@@ -2261,7 +2396,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="12.75">
       <c r="A83" s="3">
         <v>83</v>
       </c>
@@ -2276,7 +2411,7 @@
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="12.75">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -2293,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="12.75">
       <c r="A85" s="5">
         <v>85</v>
       </c>
@@ -2310,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="12.75">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -2327,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="12.75">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -2344,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="12.75">
       <c r="A88" s="5">
         <v>88</v>
       </c>
@@ -2361,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="12.75">
       <c r="A89" s="5">
         <v>89</v>
       </c>
@@ -2380,7 +2515,7 @@
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="12.75">
       <c r="A90" s="5">
         <v>90</v>
       </c>
@@ -2395,7 +2530,7 @@
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="12.75">
       <c r="A91" s="5">
         <v>91</v>
       </c>
@@ -2410,7 +2545,7 @@
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="12.75">
       <c r="A92" s="5">
         <v>92</v>
       </c>
@@ -2423,142 +2558,271 @@
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="12"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="12"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" ht="12.75">
+      <c r="A93" s="5">
+        <v>93</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="12"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="12"/>
+      <c r="G93" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.75">
+      <c r="A94" s="5">
+        <v>94</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="12"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="12"/>
+      <c r="G94" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12.75">
+      <c r="A95" s="5">
+        <v>95</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="12"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="12"/>
+      <c r="G95" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12.75">
+      <c r="A96" s="5">
+        <v>96</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="12"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="12"/>
+      <c r="G96" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12.75">
+      <c r="A97" s="5">
+        <v>97</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="G97" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75">
+      <c r="A98" s="5">
+        <v>98</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75">
+      <c r="A99" s="5">
+        <v>99</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75">
+      <c r="A100" s="5">
+        <v>100</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A101" s="5">
+        <v>101</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A102" s="37">
+        <v>102</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A103" s="40">
+        <v>103</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+    </row>
+    <row r="104" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A104" s="40">
+        <v>104</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+    </row>
+    <row r="105" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A105" s="40">
+        <v>105</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+    </row>
+    <row r="106" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A106" s="40">
+        <v>106</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+    </row>
+    <row r="107" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A107" s="40">
+        <v>107</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+    </row>
+    <row r="108" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A108" s="40">
+        <v>108</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+    </row>
+    <row r="109" spans="1:7" ht="12.75">
       <c r="A109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -2566,7 +2830,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" ht="12.75">
       <c r="A110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -2574,7 +2838,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" ht="12.75">
       <c r="A111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -2582,7 +2846,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="12.75">
       <c r="A112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -2590,7 +2854,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" ht="12.75">
       <c r="A113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -2598,7 +2862,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="12.75">
       <c r="A114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -2606,7 +2870,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="12.75">
       <c r="A115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -2614,7 +2878,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" ht="12.75">
       <c r="A116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -2622,7 +2886,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="12.75">
       <c r="A117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -2630,7 +2894,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="12.75">
       <c r="A118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -2638,7 +2902,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" ht="12.75">
       <c r="A119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -2646,7 +2910,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="12.75">
       <c r="A120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -2654,7 +2918,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" ht="12.75">
       <c r="A121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -2662,7 +2926,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="12.75">
       <c r="A122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -2670,7 +2934,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" ht="12.75">
       <c r="A123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -2678,7 +2942,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" ht="12.75">
       <c r="A124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -2686,7 +2950,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" ht="12.75">
       <c r="A125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -2694,7 +2958,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" ht="12.75">
       <c r="A126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -2702,7 +2966,7 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" ht="12.75">
       <c r="A127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -2710,7 +2974,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="12.75">
       <c r="A128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -2718,7 +2982,7 @@
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" ht="12.75">
       <c r="A129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -2726,7 +2990,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" ht="12.75">
       <c r="A130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -2734,7 +2998,7 @@
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="12.75">
       <c r="A131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -2742,7 +3006,7 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" ht="12.75">
       <c r="A132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -2750,7 +3014,7 @@
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="12.75">
       <c r="A133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -2758,7 +3022,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" ht="12.75">
       <c r="A134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -2766,7 +3030,7 @@
       <c r="F134" s="20"/>
       <c r="G134" s="20"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="12.75">
       <c r="A135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -2774,7 +3038,7 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" ht="12.75">
       <c r="A136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -2782,7 +3046,7 @@
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="12.75">
       <c r="A137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -2790,7 +3054,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" ht="12.75">
       <c r="A138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -2798,7 +3062,7 @@
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" ht="12.75">
       <c r="A139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -2806,7 +3070,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" ht="12.75">
       <c r="A140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -2814,7 +3078,7 @@
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" ht="12.75">
       <c r="A141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -2822,7 +3086,7 @@
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="12.75">
       <c r="A142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -2830,7 +3094,7 @@
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" ht="12.75">
       <c r="A143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -2838,7 +3102,7 @@
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" ht="12.75">
       <c r="A144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -2846,7 +3110,7 @@
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" ht="12.75">
       <c r="A145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -2854,7 +3118,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" ht="12.75">
       <c r="A146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -2862,7 +3126,7 @@
       <c r="F146" s="20"/>
       <c r="G146" s="20"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="12.75">
       <c r="A147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -2870,7 +3134,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="12.75">
       <c r="A148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -2878,7 +3142,7 @@
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" ht="12.75">
       <c r="A149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -2886,7 +3150,7 @@
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="12.75">
       <c r="A150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -2894,7 +3158,7 @@
       <c r="F150" s="20"/>
       <c r="G150" s="20"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" ht="12.75">
       <c r="A151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -2902,7 +3166,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" ht="12.75">
       <c r="A152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -2910,7 +3174,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" ht="12.75">
       <c r="A153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -2918,7 +3182,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" ht="12.75">
       <c r="A154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -2926,7 +3190,7 @@
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="12.75">
       <c r="A155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -2934,7 +3198,7 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="12.75">
       <c r="A156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -2942,7 +3206,7 @@
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" ht="12.75">
       <c r="A157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -2950,7 +3214,7 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" ht="12.75">
       <c r="A158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -2958,7 +3222,7 @@
       <c r="F158" s="20"/>
       <c r="G158" s="20"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" ht="12.75">
       <c r="A159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -2966,7 +3230,7 @@
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" ht="12.75">
       <c r="A160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -2974,7 +3238,7 @@
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="12.75">
       <c r="A161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -2982,7 +3246,7 @@
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" ht="12.75">
       <c r="A162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -2990,7 +3254,7 @@
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" ht="12.75">
       <c r="A163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -2998,7 +3262,7 @@
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" ht="12.75">
       <c r="A164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -3006,7 +3270,7 @@
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" ht="12.75">
       <c r="A165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -3014,7 +3278,7 @@
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="12.75">
       <c r="A166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -3022,7 +3286,7 @@
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="12.75">
       <c r="A167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -3030,7 +3294,7 @@
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="12.75">
       <c r="A168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -3038,7 +3302,7 @@
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" ht="12.75">
       <c r="A169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -3046,7 +3310,7 @@
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" ht="12.75">
       <c r="A170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -3054,7 +3318,7 @@
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" ht="12.75">
       <c r="A171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -3062,7 +3326,7 @@
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" ht="12.75">
       <c r="A172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
@@ -3070,7 +3334,7 @@
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" ht="12.75">
       <c r="A173" s="20"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
@@ -3078,7 +3342,7 @@
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" ht="12.75">
       <c r="A174" s="20"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -3086,7 +3350,7 @@
       <c r="F174" s="20"/>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="12.75">
       <c r="A175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
@@ -3094,7 +3358,7 @@
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="12.75">
       <c r="A176" s="20"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
@@ -3102,7 +3366,7 @@
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="12.75">
       <c r="A177" s="20"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
@@ -3110,7 +3374,7 @@
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" ht="12.75">
       <c r="A178" s="20"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
@@ -3118,7 +3382,7 @@
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" ht="12.75">
       <c r="A179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
@@ -3126,7 +3390,7 @@
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="12.75">
       <c r="A180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
@@ -3134,7 +3398,7 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" ht="12.75">
       <c r="A181" s="20"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -3142,7 +3406,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" ht="12.75">
       <c r="A182" s="20"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
@@ -3150,7 +3414,7 @@
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="12.75">
       <c r="A183" s="20"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
@@ -3158,7 +3422,7 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" ht="12.75">
       <c r="A184" s="20"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
@@ -3166,7 +3430,7 @@
       <c r="F184" s="20"/>
       <c r="G184" s="20"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" ht="12.75">
       <c r="A185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -3174,7 +3438,7 @@
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="12.75">
       <c r="A186" s="20"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
@@ -3182,7 +3446,7 @@
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" ht="12.75">
       <c r="A187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
@@ -3190,7 +3454,7 @@
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" ht="12.75">
       <c r="A188" s="20"/>
       <c r="C188" s="20"/>
       <c r="D188" s="20"/>
@@ -3198,7 +3462,7 @@
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="12.75">
       <c r="A189" s="20"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
@@ -3206,7 +3470,7 @@
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="12.75">
       <c r="A190" s="20"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
@@ -3214,7 +3478,7 @@
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="12.75">
       <c r="A191" s="20"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
@@ -3222,7 +3486,7 @@
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" ht="12.75">
       <c r="A192" s="20"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
@@ -3230,7 +3494,7 @@
       <c r="F192" s="20"/>
       <c r="G192" s="20"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="12.75">
       <c r="A193" s="20"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
@@ -3238,7 +3502,7 @@
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" ht="12.75">
       <c r="A194" s="20"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
@@ -3246,7 +3510,7 @@
       <c r="F194" s="20"/>
       <c r="G194" s="20"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" ht="12.75">
       <c r="A195" s="20"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
@@ -3254,7 +3518,7 @@
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" ht="12.75">
       <c r="A196" s="20"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
@@ -3262,7 +3526,7 @@
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" ht="12.75">
       <c r="A197" s="20"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
@@ -3270,7 +3534,7 @@
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="12.75">
       <c r="A198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
@@ -3278,7 +3542,7 @@
       <c r="F198" s="20"/>
       <c r="G198" s="20"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" ht="12.75">
       <c r="A199" s="20"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
@@ -3286,7 +3550,7 @@
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="12.75">
       <c r="A200" s="20"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -3294,7 +3558,7 @@
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" ht="12.75">
       <c r="A201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
@@ -3302,7 +3566,7 @@
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" ht="12.75">
       <c r="A202" s="20"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
@@ -3310,7 +3574,7 @@
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="12.75">
       <c r="A203" s="20"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
@@ -3318,7 +3582,7 @@
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" ht="12.75">
       <c r="A204" s="20"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
@@ -3326,7 +3590,7 @@
       <c r="F204" s="20"/>
       <c r="G204" s="20"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" ht="12.75">
       <c r="A205" s="20"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
@@ -3334,7 +3598,7 @@
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" ht="12.75">
       <c r="A206" s="20"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
@@ -3342,7 +3606,7 @@
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" ht="12.75">
       <c r="A207" s="20"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
@@ -3350,7 +3614,7 @@
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" ht="12.75">
       <c r="A208" s="20"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
@@ -3358,7 +3622,7 @@
       <c r="F208" s="20"/>
       <c r="G208" s="20"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="12.75">
       <c r="A209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
@@ -3366,7 +3630,7 @@
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" ht="12.75">
       <c r="A210" s="20"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
@@ -3374,7 +3638,7 @@
       <c r="F210" s="20"/>
       <c r="G210" s="20"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" ht="12.75">
       <c r="A211" s="20"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
@@ -3382,7 +3646,7 @@
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="12.75">
       <c r="A212" s="20"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
@@ -3390,7 +3654,7 @@
       <c r="F212" s="20"/>
       <c r="G212" s="20"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" ht="12.75">
       <c r="A213" s="20"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
@@ -3398,7 +3662,7 @@
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" ht="12.75">
       <c r="A214" s="20"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
@@ -3406,7 +3670,7 @@
       <c r="F214" s="20"/>
       <c r="G214" s="20"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" ht="12.75">
       <c r="A215" s="20"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
@@ -3414,7 +3678,7 @@
       <c r="F215" s="20"/>
       <c r="G215" s="20"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="12.75">
       <c r="A216" s="20"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
@@ -3422,7 +3686,7 @@
       <c r="F216" s="20"/>
       <c r="G216" s="20"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" ht="12.75">
       <c r="A217" s="20"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
@@ -3430,7 +3694,7 @@
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" ht="12.75">
       <c r="A218" s="20"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
@@ -3438,7 +3702,7 @@
       <c r="F218" s="20"/>
       <c r="G218" s="20"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" ht="12.75">
       <c r="A219" s="20"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -3446,7 +3710,7 @@
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" ht="12.75">
       <c r="A220" s="20"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
@@ -3454,7 +3718,7 @@
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="12.75">
       <c r="A221" s="20"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
@@ -3462,7 +3726,7 @@
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" ht="12.75">
       <c r="A222" s="20"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
@@ -3470,7 +3734,7 @@
       <c r="F222" s="20"/>
       <c r="G222" s="20"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" ht="12.75">
       <c r="A223" s="20"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
@@ -3478,7 +3742,7 @@
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" ht="12.75">
       <c r="A224" s="20"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
@@ -3486,7 +3750,7 @@
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" ht="12.75">
       <c r="A225" s="20"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
@@ -3494,7 +3758,7 @@
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="12.75">
       <c r="A226" s="20"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
@@ -3502,7 +3766,7 @@
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" ht="12.75">
       <c r="A227" s="20"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
@@ -3510,7 +3774,7 @@
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" ht="12.75">
       <c r="A228" s="20"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
@@ -3518,7 +3782,7 @@
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" ht="12.75">
       <c r="A229" s="20"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
@@ -3526,7 +3790,7 @@
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" ht="12.75">
       <c r="A230" s="20"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
@@ -3534,7 +3798,7 @@
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" ht="12.75">
       <c r="A231" s="20"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
@@ -3542,7 +3806,7 @@
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" ht="12.75">
       <c r="A232" s="20"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
@@ -3550,7 +3814,7 @@
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" ht="12.75">
       <c r="A233" s="20"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
@@ -3558,7 +3822,7 @@
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" ht="12.75">
       <c r="A234" s="20"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
@@ -3566,7 +3830,7 @@
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" ht="12.75">
       <c r="A235" s="20"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
@@ -3574,7 +3838,7 @@
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" ht="12.75">
       <c r="A236" s="20"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
@@ -3582,7 +3846,7 @@
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" ht="12.75">
       <c r="A237" s="20"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
@@ -3590,7 +3854,7 @@
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" ht="12.75">
       <c r="A238" s="20"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -3598,7 +3862,7 @@
       <c r="F238" s="20"/>
       <c r="G238" s="20"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" ht="12.75">
       <c r="A239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
@@ -3606,7 +3870,7 @@
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" ht="12.75">
       <c r="A240" s="20"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
@@ -3614,7 +3878,7 @@
       <c r="F240" s="20"/>
       <c r="G240" s="20"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" ht="12.75">
       <c r="A241" s="20"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
@@ -3622,7 +3886,7 @@
       <c r="F241" s="20"/>
       <c r="G241" s="20"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" ht="12.75">
       <c r="A242" s="20"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
@@ -3630,7 +3894,7 @@
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="12.75">
       <c r="A243" s="20"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
@@ -3638,7 +3902,7 @@
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" ht="12.75">
       <c r="A244" s="20"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
@@ -3646,7 +3910,7 @@
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" ht="12.75">
       <c r="A245" s="20"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
@@ -3654,7 +3918,7 @@
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" ht="12.75">
       <c r="A246" s="20"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
@@ -3662,7 +3926,7 @@
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" ht="12.75">
       <c r="A247" s="20"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
@@ -3670,7 +3934,7 @@
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" ht="12.75">
       <c r="A248" s="20"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
@@ -3678,7 +3942,7 @@
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" ht="12.75">
       <c r="A249" s="20"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
@@ -3686,7 +3950,7 @@
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="12.75">
       <c r="A250" s="20"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
@@ -3694,7 +3958,7 @@
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" ht="12.75">
       <c r="A251" s="20"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
@@ -3702,7 +3966,7 @@
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" ht="12.75">
       <c r="A252" s="20"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
@@ -3710,7 +3974,7 @@
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" ht="12.75">
       <c r="A253" s="20"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
@@ -3718,7 +3982,7 @@
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" ht="12.75">
       <c r="A254" s="20"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -3726,7 +3990,7 @@
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" ht="12.75">
       <c r="A255" s="20"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
@@ -3734,7 +3998,7 @@
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" ht="12.75">
       <c r="A256" s="20"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -3742,7 +4006,7 @@
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" ht="12.75">
       <c r="A257" s="20"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -3750,7 +4014,7 @@
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" ht="12.75">
       <c r="A258" s="20"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
@@ -3758,7 +4022,7 @@
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" ht="12.75">
       <c r="A259" s="20"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
@@ -3766,7 +4030,7 @@
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="12.75">
       <c r="A260" s="20"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
@@ -3774,7 +4038,7 @@
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" ht="12.75">
       <c r="A261" s="20"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
@@ -3782,7 +4046,7 @@
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" ht="12.75">
       <c r="A262" s="20"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
@@ -3790,7 +4054,7 @@
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" ht="12.75">
       <c r="A263" s="20"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
@@ -3798,7 +4062,7 @@
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" ht="12.75">
       <c r="A264" s="20"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
@@ -3806,7 +4070,7 @@
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" ht="12.75">
       <c r="A265" s="20"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
@@ -3814,7 +4078,7 @@
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" ht="12.75">
       <c r="A266" s="20"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
@@ -3822,7 +4086,7 @@
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" ht="12.75">
       <c r="A267" s="20"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
@@ -3830,7 +4094,7 @@
       <c r="F267" s="20"/>
       <c r="G267" s="20"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" ht="12.75">
       <c r="A268" s="20"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
@@ -3838,7 +4102,7 @@
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" ht="12.75">
       <c r="A269" s="20"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
@@ -3846,7 +4110,7 @@
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" ht="12.75">
       <c r="A270" s="20"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
@@ -3854,7 +4118,7 @@
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" ht="12.75">
       <c r="A271" s="20"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
@@ -3862,7 +4126,7 @@
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" ht="12.75">
       <c r="A272" s="20"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
@@ -3870,7 +4134,7 @@
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" ht="12.75">
       <c r="A273" s="20"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
@@ -3878,7 +4142,7 @@
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" ht="12.75">
       <c r="A274" s="20"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
@@ -3886,7 +4150,7 @@
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="12.75">
       <c r="A275" s="20"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
@@ -3894,7 +4158,7 @@
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" ht="12.75">
       <c r="A276" s="20"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -3902,7 +4166,7 @@
       <c r="F276" s="20"/>
       <c r="G276" s="20"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" ht="12.75">
       <c r="A277" s="20"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
@@ -3910,7 +4174,7 @@
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="12.75">
       <c r="A278" s="20"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
@@ -3918,7 +4182,7 @@
       <c r="F278" s="20"/>
       <c r="G278" s="20"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="12.75">
       <c r="A279" s="20"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
@@ -3926,7 +4190,7 @@
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" ht="12.75">
       <c r="A280" s="20"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
@@ -3934,7 +4198,7 @@
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" ht="12.75">
       <c r="A281" s="20"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
@@ -3942,7 +4206,7 @@
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" ht="12.75">
       <c r="A282" s="20"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
@@ -3950,7 +4214,7 @@
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" ht="12.75">
       <c r="A283" s="20"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
@@ -3958,7 +4222,7 @@
       <c r="F283" s="20"/>
       <c r="G283" s="20"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" ht="12.75">
       <c r="A284" s="20"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
@@ -3966,7 +4230,7 @@
       <c r="F284" s="20"/>
       <c r="G284" s="20"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" ht="12.75">
       <c r="A285" s="20"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
@@ -3974,7 +4238,7 @@
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="12.75">
       <c r="A286" s="20"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
@@ -3982,7 +4246,7 @@
       <c r="F286" s="20"/>
       <c r="G286" s="20"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" ht="12.75">
       <c r="A287" s="20"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
@@ -3990,7 +4254,7 @@
       <c r="F287" s="20"/>
       <c r="G287" s="20"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" ht="12.75">
       <c r="A288" s="20"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
@@ -3998,7 +4262,7 @@
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" ht="12.75">
       <c r="A289" s="20"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
@@ -4006,7 +4270,7 @@
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" ht="12.75">
       <c r="A290" s="20"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
@@ -4014,7 +4278,7 @@
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" ht="12.75">
       <c r="A291" s="20"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
@@ -4022,7 +4286,7 @@
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" ht="12.75">
       <c r="A292" s="20"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
@@ -4030,7 +4294,7 @@
       <c r="F292" s="20"/>
       <c r="G292" s="20"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="12.75">
       <c r="A293" s="20"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
@@ -4038,7 +4302,7 @@
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" ht="12.75">
       <c r="A294" s="20"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
@@ -4046,7 +4310,7 @@
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" ht="12.75">
       <c r="A295" s="20"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -4054,7 +4318,7 @@
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" ht="12.75">
       <c r="A296" s="20"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
@@ -4062,7 +4326,7 @@
       <c r="F296" s="20"/>
       <c r="G296" s="20"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="12.75">
       <c r="A297" s="20"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
@@ -4070,7 +4334,7 @@
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" ht="12.75">
       <c r="A298" s="20"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
@@ -4078,7 +4342,7 @@
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" ht="12.75">
       <c r="A299" s="20"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
@@ -4086,7 +4350,7 @@
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" ht="12.75">
       <c r="A300" s="20"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
@@ -4094,7 +4358,7 @@
       <c r="F300" s="20"/>
       <c r="G300" s="20"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" ht="12.75">
       <c r="A301" s="20"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
@@ -4102,7 +4366,7 @@
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" ht="12.75">
       <c r="A302" s="20"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
@@ -4110,7 +4374,7 @@
       <c r="F302" s="20"/>
       <c r="G302" s="20"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" ht="12.75">
       <c r="A303" s="20"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
@@ -4118,7 +4382,7 @@
       <c r="F303" s="20"/>
       <c r="G303" s="20"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" ht="12.75">
       <c r="A304" s="20"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
@@ -4126,7 +4390,7 @@
       <c r="F304" s="20"/>
       <c r="G304" s="20"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" ht="12.75">
       <c r="A305" s="20"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
@@ -4134,7 +4398,7 @@
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" ht="12.75">
       <c r="A306" s="20"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
@@ -4142,7 +4406,7 @@
       <c r="F306" s="20"/>
       <c r="G306" s="20"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" ht="12.75">
       <c r="A307" s="20"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
@@ -4150,7 +4414,7 @@
       <c r="F307" s="20"/>
       <c r="G307" s="20"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" ht="12.75">
       <c r="A308" s="20"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
@@ -4158,7 +4422,7 @@
       <c r="F308" s="20"/>
       <c r="G308" s="20"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" ht="12.75">
       <c r="A309" s="20"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
@@ -4166,7 +4430,7 @@
       <c r="F309" s="20"/>
       <c r="G309" s="20"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" ht="12.75">
       <c r="A310" s="20"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
@@ -4174,7 +4438,7 @@
       <c r="F310" s="20"/>
       <c r="G310" s="20"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" ht="12.75">
       <c r="A311" s="20"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
@@ -4182,7 +4446,7 @@
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" ht="12.75">
       <c r="A312" s="20"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
@@ -4190,7 +4454,7 @@
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" ht="12.75">
       <c r="A313" s="20"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
@@ -4198,7 +4462,7 @@
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" ht="12.75">
       <c r="A314" s="20"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -4206,7 +4470,7 @@
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" ht="12.75">
       <c r="A315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
@@ -4214,7 +4478,7 @@
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" ht="12.75">
       <c r="A316" s="20"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
@@ -4222,7 +4486,7 @@
       <c r="F316" s="20"/>
       <c r="G316" s="20"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" ht="12.75">
       <c r="A317" s="20"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
@@ -4230,7 +4494,7 @@
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" ht="12.75">
       <c r="A318" s="20"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
@@ -4238,7 +4502,7 @@
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" ht="12.75">
       <c r="A319" s="20"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
@@ -4246,7 +4510,7 @@
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" ht="12.75">
       <c r="A320" s="20"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
@@ -4254,7 +4518,7 @@
       <c r="F320" s="20"/>
       <c r="G320" s="20"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" ht="12.75">
       <c r="A321" s="20"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
@@ -4262,7 +4526,7 @@
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="12.75">
       <c r="A322" s="20"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
@@ -4270,7 +4534,7 @@
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" ht="12.75">
       <c r="A323" s="20"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
@@ -4278,7 +4542,7 @@
       <c r="F323" s="20"/>
       <c r="G323" s="20"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" ht="12.75">
       <c r="A324" s="20"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
@@ -4286,7 +4550,7 @@
       <c r="F324" s="20"/>
       <c r="G324" s="20"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" ht="12.75">
       <c r="A325" s="20"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
@@ -4294,7 +4558,7 @@
       <c r="F325" s="20"/>
       <c r="G325" s="20"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" ht="12.75">
       <c r="A326" s="20"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
@@ -4302,7 +4566,7 @@
       <c r="F326" s="20"/>
       <c r="G326" s="20"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" ht="12.75">
       <c r="A327" s="20"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
@@ -4310,7 +4574,7 @@
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" ht="12.75">
       <c r="A328" s="20"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
@@ -4318,7 +4582,7 @@
       <c r="F328" s="20"/>
       <c r="G328" s="20"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" ht="12.75">
       <c r="A329" s="20"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
@@ -4326,7 +4590,7 @@
       <c r="F329" s="20"/>
       <c r="G329" s="20"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" ht="12.75">
       <c r="A330" s="20"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
@@ -4334,7 +4598,7 @@
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" ht="12.75">
       <c r="A331" s="20"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
@@ -4342,7 +4606,7 @@
       <c r="F331" s="20"/>
       <c r="G331" s="20"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" ht="12.75">
       <c r="A332" s="20"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
@@ -4350,7 +4614,7 @@
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" ht="12.75">
       <c r="A333" s="20"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
@@ -4358,7 +4622,7 @@
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" ht="12.75">
       <c r="A334" s="20"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
@@ -4366,7 +4630,7 @@
       <c r="F334" s="20"/>
       <c r="G334" s="20"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" ht="12.75">
       <c r="A335" s="20"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
@@ -4374,7 +4638,7 @@
       <c r="F335" s="20"/>
       <c r="G335" s="20"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" ht="12.75">
       <c r="A336" s="20"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
@@ -4382,7 +4646,7 @@
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" ht="12.75">
       <c r="A337" s="20"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
@@ -4390,7 +4654,7 @@
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" ht="12.75">
       <c r="A338" s="20"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
@@ -4398,7 +4662,7 @@
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" ht="12.75">
       <c r="A339" s="20"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
@@ -4406,7 +4670,7 @@
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" ht="12.75">
       <c r="A340" s="20"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
@@ -4414,7 +4678,7 @@
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" ht="12.75">
       <c r="A341" s="20"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
@@ -4422,7 +4686,7 @@
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" ht="12.75">
       <c r="A342" s="20"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
@@ -4430,7 +4694,7 @@
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" ht="12.75">
       <c r="A343" s="20"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
@@ -4438,7 +4702,7 @@
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" ht="12.75">
       <c r="A344" s="20"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
@@ -4446,7 +4710,7 @@
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" ht="12.75">
       <c r="A345" s="20"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
@@ -4454,7 +4718,7 @@
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" ht="12.75">
       <c r="A346" s="20"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
@@ -4462,7 +4726,7 @@
       <c r="F346" s="20"/>
       <c r="G346" s="20"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" ht="12.75">
       <c r="A347" s="20"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
@@ -4470,7 +4734,7 @@
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" ht="12.75">
       <c r="A348" s="20"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
@@ -4478,7 +4742,7 @@
       <c r="F348" s="20"/>
       <c r="G348" s="20"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" ht="12.75">
       <c r="A349" s="20"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
@@ -4486,7 +4750,7 @@
       <c r="F349" s="20"/>
       <c r="G349" s="20"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" ht="12.75">
       <c r="A350" s="20"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
@@ -4494,7 +4758,7 @@
       <c r="F350" s="20"/>
       <c r="G350" s="20"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" ht="12.75">
       <c r="A351" s="20"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
@@ -4502,7 +4766,7 @@
       <c r="F351" s="20"/>
       <c r="G351" s="20"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" ht="12.75">
       <c r="A352" s="20"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
@@ -4510,7 +4774,7 @@
       <c r="F352" s="20"/>
       <c r="G352" s="20"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" ht="12.75">
       <c r="A353" s="20"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
@@ -4518,7 +4782,7 @@
       <c r="F353" s="20"/>
       <c r="G353" s="20"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" ht="12.75">
       <c r="A354" s="20"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
@@ -4526,7 +4790,7 @@
       <c r="F354" s="20"/>
       <c r="G354" s="20"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" ht="12.75">
       <c r="A355" s="20"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
@@ -4534,7 +4798,7 @@
       <c r="F355" s="20"/>
       <c r="G355" s="20"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" ht="12.75">
       <c r="A356" s="20"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
@@ -4542,7 +4806,7 @@
       <c r="F356" s="20"/>
       <c r="G356" s="20"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="12.75">
       <c r="A357" s="20"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
@@ -4550,7 +4814,7 @@
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" ht="12.75">
       <c r="A358" s="20"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
@@ -4558,7 +4822,7 @@
       <c r="F358" s="20"/>
       <c r="G358" s="20"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" ht="12.75">
       <c r="A359" s="20"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
@@ -4566,7 +4830,7 @@
       <c r="F359" s="20"/>
       <c r="G359" s="20"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" ht="12.75">
       <c r="A360" s="20"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
@@ -4574,7 +4838,7 @@
       <c r="F360" s="20"/>
       <c r="G360" s="20"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" ht="12.75">
       <c r="A361" s="20"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
@@ -4582,7 +4846,7 @@
       <c r="F361" s="20"/>
       <c r="G361" s="20"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" ht="12.75">
       <c r="A362" s="20"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
@@ -4590,7 +4854,7 @@
       <c r="F362" s="20"/>
       <c r="G362" s="20"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" ht="12.75">
       <c r="A363" s="20"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
@@ -4598,7 +4862,7 @@
       <c r="F363" s="20"/>
       <c r="G363" s="20"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" ht="12.75">
       <c r="A364" s="20"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
@@ -4606,7 +4870,7 @@
       <c r="F364" s="20"/>
       <c r="G364" s="20"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" ht="12.75">
       <c r="A365" s="20"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
@@ -4614,7 +4878,7 @@
       <c r="F365" s="20"/>
       <c r="G365" s="20"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" ht="12.75">
       <c r="A366" s="20"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
@@ -4622,7 +4886,7 @@
       <c r="F366" s="20"/>
       <c r="G366" s="20"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" ht="12.75">
       <c r="A367" s="20"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
@@ -4630,7 +4894,7 @@
       <c r="F367" s="20"/>
       <c r="G367" s="20"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" ht="12.75">
       <c r="A368" s="20"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
@@ -4638,7 +4902,7 @@
       <c r="F368" s="20"/>
       <c r="G368" s="20"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" ht="12.75">
       <c r="A369" s="20"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
@@ -4646,7 +4910,7 @@
       <c r="F369" s="20"/>
       <c r="G369" s="20"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" ht="12.75">
       <c r="A370" s="20"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
@@ -4654,7 +4918,7 @@
       <c r="F370" s="20"/>
       <c r="G370" s="20"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" ht="12.75">
       <c r="A371" s="20"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
@@ -4662,7 +4926,7 @@
       <c r="F371" s="20"/>
       <c r="G371" s="20"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" ht="12.75">
       <c r="A372" s="20"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
@@ -4670,7 +4934,7 @@
       <c r="F372" s="20"/>
       <c r="G372" s="20"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" ht="12.75">
       <c r="A373" s="20"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
@@ -4678,7 +4942,7 @@
       <c r="F373" s="20"/>
       <c r="G373" s="20"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" ht="12.75">
       <c r="A374" s="20"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
@@ -4686,7 +4950,7 @@
       <c r="F374" s="20"/>
       <c r="G374" s="20"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" ht="12.75">
       <c r="A375" s="20"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
@@ -4694,7 +4958,7 @@
       <c r="F375" s="20"/>
       <c r="G375" s="20"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" ht="12.75">
       <c r="A376" s="20"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
@@ -4702,7 +4966,7 @@
       <c r="F376" s="20"/>
       <c r="G376" s="20"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" ht="12.75">
       <c r="A377" s="20"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
@@ -4710,7 +4974,7 @@
       <c r="F377" s="20"/>
       <c r="G377" s="20"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" ht="12.75">
       <c r="A378" s="20"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
@@ -4718,7 +4982,7 @@
       <c r="F378" s="20"/>
       <c r="G378" s="20"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" ht="12.75">
       <c r="A379" s="20"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
@@ -4726,7 +4990,7 @@
       <c r="F379" s="20"/>
       <c r="G379" s="20"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" ht="12.75">
       <c r="A380" s="20"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
@@ -4734,7 +4998,7 @@
       <c r="F380" s="20"/>
       <c r="G380" s="20"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" ht="12.75">
       <c r="A381" s="20"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
@@ -4742,7 +5006,7 @@
       <c r="F381" s="20"/>
       <c r="G381" s="20"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" ht="12.75">
       <c r="A382" s="20"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
@@ -4750,7 +5014,7 @@
       <c r="F382" s="20"/>
       <c r="G382" s="20"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" ht="12.75">
       <c r="A383" s="20"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
@@ -4758,7 +5022,7 @@
       <c r="F383" s="20"/>
       <c r="G383" s="20"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" ht="12.75">
       <c r="A384" s="20"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
@@ -4766,7 +5030,7 @@
       <c r="F384" s="20"/>
       <c r="G384" s="20"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" ht="12.75">
       <c r="A385" s="20"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
@@ -4774,7 +5038,7 @@
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" ht="12.75">
       <c r="A386" s="20"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
@@ -4782,7 +5046,7 @@
       <c r="F386" s="20"/>
       <c r="G386" s="20"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" ht="12.75">
       <c r="A387" s="20"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
@@ -4790,7 +5054,7 @@
       <c r="F387" s="20"/>
       <c r="G387" s="20"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" ht="12.75">
       <c r="A388" s="20"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
@@ -4798,7 +5062,7 @@
       <c r="F388" s="20"/>
       <c r="G388" s="20"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" ht="12.75">
       <c r="A389" s="20"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
@@ -4806,7 +5070,7 @@
       <c r="F389" s="20"/>
       <c r="G389" s="20"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" ht="12.75">
       <c r="A390" s="20"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
@@ -4814,7 +5078,7 @@
       <c r="F390" s="20"/>
       <c r="G390" s="20"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" ht="12.75">
       <c r="A391" s="20"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
@@ -4822,7 +5086,7 @@
       <c r="F391" s="20"/>
       <c r="G391" s="20"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" ht="12.75">
       <c r="A392" s="20"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
@@ -4830,7 +5094,7 @@
       <c r="F392" s="20"/>
       <c r="G392" s="20"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" ht="12.75">
       <c r="A393" s="20"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
@@ -4838,7 +5102,7 @@
       <c r="F393" s="20"/>
       <c r="G393" s="20"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" ht="12.75">
       <c r="A394" s="20"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
@@ -4846,7 +5110,7 @@
       <c r="F394" s="20"/>
       <c r="G394" s="20"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" ht="12.75">
       <c r="A395" s="20"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
@@ -4854,7 +5118,7 @@
       <c r="F395" s="20"/>
       <c r="G395" s="20"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" ht="12.75">
       <c r="A396" s="20"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
@@ -4862,7 +5126,7 @@
       <c r="F396" s="20"/>
       <c r="G396" s="20"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" ht="12.75">
       <c r="A397" s="20"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
@@ -4870,7 +5134,7 @@
       <c r="F397" s="20"/>
       <c r="G397" s="20"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" ht="12.75">
       <c r="A398" s="20"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
@@ -4878,7 +5142,7 @@
       <c r="F398" s="20"/>
       <c r="G398" s="20"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" ht="12.75">
       <c r="A399" s="20"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
@@ -4886,7 +5150,7 @@
       <c r="F399" s="20"/>
       <c r="G399" s="20"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" ht="12.75">
       <c r="A400" s="20"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
@@ -4894,7 +5158,7 @@
       <c r="F400" s="20"/>
       <c r="G400" s="20"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" ht="12.75">
       <c r="A401" s="20"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
@@ -4902,7 +5166,7 @@
       <c r="F401" s="20"/>
       <c r="G401" s="20"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" ht="12.75">
       <c r="A402" s="20"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
@@ -4910,7 +5174,7 @@
       <c r="F402" s="20"/>
       <c r="G402" s="20"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" ht="12.75">
       <c r="A403" s="20"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
@@ -4918,7 +5182,7 @@
       <c r="F403" s="20"/>
       <c r="G403" s="20"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" ht="12.75">
       <c r="A404" s="20"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
@@ -4926,7 +5190,7 @@
       <c r="F404" s="20"/>
       <c r="G404" s="20"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" ht="12.75">
       <c r="A405" s="20"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
@@ -4934,7 +5198,7 @@
       <c r="F405" s="20"/>
       <c r="G405" s="20"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" ht="12.75">
       <c r="A406" s="20"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
@@ -4942,7 +5206,7 @@
       <c r="F406" s="20"/>
       <c r="G406" s="20"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" ht="12.75">
       <c r="A407" s="20"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
@@ -4950,7 +5214,7 @@
       <c r="F407" s="20"/>
       <c r="G407" s="20"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" ht="12.75">
       <c r="A408" s="20"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
@@ -4958,7 +5222,7 @@
       <c r="F408" s="20"/>
       <c r="G408" s="20"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" ht="12.75">
       <c r="A409" s="20"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
@@ -4966,7 +5230,7 @@
       <c r="F409" s="20"/>
       <c r="G409" s="20"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" ht="12.75">
       <c r="A410" s="20"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
@@ -4974,7 +5238,7 @@
       <c r="F410" s="20"/>
       <c r="G410" s="20"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" ht="12.75">
       <c r="A411" s="20"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
@@ -4982,7 +5246,7 @@
       <c r="F411" s="20"/>
       <c r="G411" s="20"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" ht="12.75">
       <c r="A412" s="20"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
@@ -4990,7 +5254,7 @@
       <c r="F412" s="20"/>
       <c r="G412" s="20"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" ht="12.75">
       <c r="A413" s="20"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
@@ -4998,7 +5262,7 @@
       <c r="F413" s="20"/>
       <c r="G413" s="20"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" ht="12.75">
       <c r="A414" s="20"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
@@ -5006,7 +5270,7 @@
       <c r="F414" s="20"/>
       <c r="G414" s="20"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" ht="12.75">
       <c r="A415" s="20"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
@@ -5014,7 +5278,7 @@
       <c r="F415" s="20"/>
       <c r="G415" s="20"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" ht="12.75">
       <c r="A416" s="20"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
@@ -5022,7 +5286,7 @@
       <c r="F416" s="20"/>
       <c r="G416" s="20"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" ht="12.75">
       <c r="A417" s="20"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
@@ -5030,7 +5294,7 @@
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" ht="12.75">
       <c r="A418" s="20"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
@@ -5038,7 +5302,7 @@
       <c r="F418" s="20"/>
       <c r="G418" s="20"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" ht="12.75">
       <c r="A419" s="20"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
@@ -5046,7 +5310,7 @@
       <c r="F419" s="20"/>
       <c r="G419" s="20"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" ht="12.75">
       <c r="A420" s="20"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
@@ -5054,7 +5318,7 @@
       <c r="F420" s="20"/>
       <c r="G420" s="20"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" ht="12.75">
       <c r="A421" s="20"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
@@ -5062,7 +5326,7 @@
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" ht="12.75">
       <c r="A422" s="20"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
@@ -5070,7 +5334,7 @@
       <c r="F422" s="20"/>
       <c r="G422" s="20"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" ht="12.75">
       <c r="A423" s="20"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
@@ -5078,7 +5342,7 @@
       <c r="F423" s="20"/>
       <c r="G423" s="20"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" ht="12.75">
       <c r="A424" s="20"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
@@ -5086,7 +5350,7 @@
       <c r="F424" s="20"/>
       <c r="G424" s="20"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" ht="12.75">
       <c r="A425" s="20"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
@@ -5094,7 +5358,7 @@
       <c r="F425" s="20"/>
       <c r="G425" s="20"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" ht="12.75">
       <c r="A426" s="20"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
@@ -5102,7 +5366,7 @@
       <c r="F426" s="20"/>
       <c r="G426" s="20"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" ht="12.75">
       <c r="A427" s="20"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
@@ -5110,7 +5374,7 @@
       <c r="F427" s="20"/>
       <c r="G427" s="20"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" ht="12.75">
       <c r="A428" s="20"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
@@ -5118,7 +5382,7 @@
       <c r="F428" s="20"/>
       <c r="G428" s="20"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" ht="12.75">
       <c r="A429" s="20"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
@@ -5126,7 +5390,7 @@
       <c r="F429" s="20"/>
       <c r="G429" s="20"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" ht="12.75">
       <c r="A430" s="20"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
@@ -5134,7 +5398,7 @@
       <c r="F430" s="20"/>
       <c r="G430" s="20"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" ht="12.75">
       <c r="A431" s="20"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
@@ -5142,7 +5406,7 @@
       <c r="F431" s="20"/>
       <c r="G431" s="20"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" ht="12.75">
       <c r="A432" s="20"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
@@ -5150,7 +5414,7 @@
       <c r="F432" s="20"/>
       <c r="G432" s="20"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" ht="12.75">
       <c r="A433" s="20"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
@@ -5158,7 +5422,7 @@
       <c r="F433" s="20"/>
       <c r="G433" s="20"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" ht="12.75">
       <c r="A434" s="20"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
@@ -5166,7 +5430,7 @@
       <c r="F434" s="20"/>
       <c r="G434" s="20"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" ht="12.75">
       <c r="A435" s="20"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
@@ -5174,7 +5438,7 @@
       <c r="F435" s="20"/>
       <c r="G435" s="20"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" ht="12.75">
       <c r="A436" s="20"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
@@ -5182,7 +5446,7 @@
       <c r="F436" s="20"/>
       <c r="G436" s="20"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" ht="12.75">
       <c r="A437" s="20"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
@@ -5190,7 +5454,7 @@
       <c r="F437" s="20"/>
       <c r="G437" s="20"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" ht="12.75">
       <c r="A438" s="20"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
@@ -5198,7 +5462,7 @@
       <c r="F438" s="20"/>
       <c r="G438" s="20"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" ht="12.75">
       <c r="A439" s="20"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
@@ -5206,7 +5470,7 @@
       <c r="F439" s="20"/>
       <c r="G439" s="20"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" ht="12.75">
       <c r="A440" s="20"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
@@ -5214,7 +5478,7 @@
       <c r="F440" s="20"/>
       <c r="G440" s="20"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" ht="12.75">
       <c r="A441" s="20"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
@@ -5222,7 +5486,7 @@
       <c r="F441" s="20"/>
       <c r="G441" s="20"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" ht="12.75">
       <c r="A442" s="20"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
@@ -5230,7 +5494,7 @@
       <c r="F442" s="20"/>
       <c r="G442" s="20"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" ht="12.75">
       <c r="A443" s="20"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
@@ -5238,7 +5502,7 @@
       <c r="F443" s="20"/>
       <c r="G443" s="20"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" ht="12.75">
       <c r="A444" s="20"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
@@ -5246,7 +5510,7 @@
       <c r="F444" s="20"/>
       <c r="G444" s="20"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" ht="12.75">
       <c r="A445" s="20"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
@@ -5254,7 +5518,7 @@
       <c r="F445" s="20"/>
       <c r="G445" s="20"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" ht="12.75">
       <c r="A446" s="20"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
@@ -5262,7 +5526,7 @@
       <c r="F446" s="20"/>
       <c r="G446" s="20"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" ht="12.75">
       <c r="A447" s="20"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
@@ -5270,7 +5534,7 @@
       <c r="F447" s="20"/>
       <c r="G447" s="20"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" ht="12.75">
       <c r="A448" s="20"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
@@ -5278,7 +5542,7 @@
       <c r="F448" s="20"/>
       <c r="G448" s="20"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" ht="12.75">
       <c r="A449" s="20"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
@@ -5286,7 +5550,7 @@
       <c r="F449" s="20"/>
       <c r="G449" s="20"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" ht="12.75">
       <c r="A450" s="20"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
@@ -5294,7 +5558,7 @@
       <c r="F450" s="20"/>
       <c r="G450" s="20"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" ht="12.75">
       <c r="A451" s="20"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
@@ -5302,7 +5566,7 @@
       <c r="F451" s="20"/>
       <c r="G451" s="20"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" ht="12.75">
       <c r="A452" s="20"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
@@ -5310,7 +5574,7 @@
       <c r="F452" s="20"/>
       <c r="G452" s="20"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" ht="12.75">
       <c r="A453" s="20"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
@@ -5318,7 +5582,7 @@
       <c r="F453" s="20"/>
       <c r="G453" s="20"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" ht="12.75">
       <c r="A454" s="20"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
@@ -5326,7 +5590,7 @@
       <c r="F454" s="20"/>
       <c r="G454" s="20"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" ht="12.75">
       <c r="A455" s="20"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
@@ -5334,7 +5598,7 @@
       <c r="F455" s="20"/>
       <c r="G455" s="20"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" ht="12.75">
       <c r="A456" s="20"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
@@ -5342,7 +5606,7 @@
       <c r="F456" s="20"/>
       <c r="G456" s="20"/>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" ht="12.75">
       <c r="A457" s="20"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
@@ -5350,7 +5614,7 @@
       <c r="F457" s="20"/>
       <c r="G457" s="20"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" ht="12.75">
       <c r="A458" s="20"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
@@ -5358,7 +5622,7 @@
       <c r="F458" s="20"/>
       <c r="G458" s="20"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="12.75">
       <c r="A459" s="20"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
@@ -5366,7 +5630,7 @@
       <c r="F459" s="20"/>
       <c r="G459" s="20"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" ht="12.75">
       <c r="A460" s="20"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
@@ -5374,7 +5638,7 @@
       <c r="F460" s="20"/>
       <c r="G460" s="20"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" ht="12.75">
       <c r="A461" s="20"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
@@ -5382,7 +5646,7 @@
       <c r="F461" s="20"/>
       <c r="G461" s="20"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" ht="12.75">
       <c r="A462" s="20"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
@@ -5390,7 +5654,7 @@
       <c r="F462" s="20"/>
       <c r="G462" s="20"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" ht="12.75">
       <c r="A463" s="20"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
@@ -5398,7 +5662,7 @@
       <c r="F463" s="20"/>
       <c r="G463" s="20"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" ht="12.75">
       <c r="A464" s="20"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
@@ -5406,7 +5670,7 @@
       <c r="F464" s="20"/>
       <c r="G464" s="20"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" ht="12.75">
       <c r="A465" s="20"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
@@ -5414,7 +5678,7 @@
       <c r="F465" s="20"/>
       <c r="G465" s="20"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" ht="12.75">
       <c r="A466" s="20"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
@@ -5422,7 +5686,7 @@
       <c r="F466" s="20"/>
       <c r="G466" s="20"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" ht="12.75">
       <c r="A467" s="20"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
@@ -5430,7 +5694,7 @@
       <c r="F467" s="20"/>
       <c r="G467" s="20"/>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" ht="12.75">
       <c r="A468" s="20"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
@@ -5438,7 +5702,7 @@
       <c r="F468" s="20"/>
       <c r="G468" s="20"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" ht="12.75">
       <c r="A469" s="20"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
@@ -5446,7 +5710,7 @@
       <c r="F469" s="20"/>
       <c r="G469" s="20"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" ht="12.75">
       <c r="A470" s="20"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
@@ -5454,7 +5718,7 @@
       <c r="F470" s="20"/>
       <c r="G470" s="20"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" ht="12.75">
       <c r="A471" s="20"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
@@ -5462,7 +5726,7 @@
       <c r="F471" s="20"/>
       <c r="G471" s="20"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" ht="12.75">
       <c r="A472" s="20"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
@@ -5470,7 +5734,7 @@
       <c r="F472" s="20"/>
       <c r="G472" s="20"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" ht="12.75">
       <c r="A473" s="20"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
@@ -5478,7 +5742,7 @@
       <c r="F473" s="20"/>
       <c r="G473" s="20"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" ht="12.75">
       <c r="A474" s="20"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
@@ -5486,7 +5750,7 @@
       <c r="F474" s="20"/>
       <c r="G474" s="20"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" ht="12.75">
       <c r="A475" s="20"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
@@ -5494,7 +5758,7 @@
       <c r="F475" s="20"/>
       <c r="G475" s="20"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" ht="12.75">
       <c r="A476" s="20"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
@@ -5502,7 +5766,7 @@
       <c r="F476" s="20"/>
       <c r="G476" s="20"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" ht="12.75">
       <c r="A477" s="20"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
@@ -5510,7 +5774,7 @@
       <c r="F477" s="20"/>
       <c r="G477" s="20"/>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" ht="12.75">
       <c r="A478" s="20"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
@@ -5518,7 +5782,7 @@
       <c r="F478" s="20"/>
       <c r="G478" s="20"/>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" ht="12.75">
       <c r="A479" s="20"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
@@ -5526,7 +5790,7 @@
       <c r="F479" s="20"/>
       <c r="G479" s="20"/>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" ht="12.75">
       <c r="A480" s="20"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
@@ -5534,7 +5798,7 @@
       <c r="F480" s="20"/>
       <c r="G480" s="20"/>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" ht="12.75">
       <c r="A481" s="20"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
@@ -5542,7 +5806,7 @@
       <c r="F481" s="20"/>
       <c r="G481" s="20"/>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" ht="12.75">
       <c r="A482" s="20"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
@@ -5550,7 +5814,7 @@
       <c r="F482" s="20"/>
       <c r="G482" s="20"/>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" ht="12.75">
       <c r="A483" s="20"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
@@ -5558,7 +5822,7 @@
       <c r="F483" s="20"/>
       <c r="G483" s="20"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" ht="12.75">
       <c r="A484" s="20"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
@@ -5566,7 +5830,7 @@
       <c r="F484" s="20"/>
       <c r="G484" s="20"/>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" ht="12.75">
       <c r="A485" s="20"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
@@ -5574,7 +5838,7 @@
       <c r="F485" s="20"/>
       <c r="G485" s="20"/>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" ht="12.75">
       <c r="A486" s="20"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
@@ -5582,7 +5846,7 @@
       <c r="F486" s="20"/>
       <c r="G486" s="20"/>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" ht="12.75">
       <c r="A487" s="20"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
@@ -5590,7 +5854,7 @@
       <c r="F487" s="20"/>
       <c r="G487" s="20"/>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" ht="12.75">
       <c r="A488" s="20"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
@@ -5598,7 +5862,7 @@
       <c r="F488" s="20"/>
       <c r="G488" s="20"/>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" ht="12.75">
       <c r="A489" s="20"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
@@ -5606,7 +5870,7 @@
       <c r="F489" s="20"/>
       <c r="G489" s="20"/>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" ht="12.75">
       <c r="A490" s="20"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
@@ -5614,7 +5878,7 @@
       <c r="F490" s="20"/>
       <c r="G490" s="20"/>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" ht="12.75">
       <c r="A491" s="20"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
@@ -5622,7 +5886,7 @@
       <c r="F491" s="20"/>
       <c r="G491" s="20"/>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" ht="12.75">
       <c r="A492" s="20"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
@@ -5630,7 +5894,7 @@
       <c r="F492" s="20"/>
       <c r="G492" s="20"/>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" ht="12.75">
       <c r="A493" s="20"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
@@ -5638,7 +5902,7 @@
       <c r="F493" s="20"/>
       <c r="G493" s="20"/>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" ht="12.75">
       <c r="A494" s="20"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
@@ -5646,7 +5910,7 @@
       <c r="F494" s="20"/>
       <c r="G494" s="20"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" ht="12.75">
       <c r="A495" s="20"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
@@ -5654,7 +5918,7 @@
       <c r="F495" s="20"/>
       <c r="G495" s="20"/>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" ht="12.75">
       <c r="A496" s="20"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
@@ -5662,7 +5926,7 @@
       <c r="F496" s="20"/>
       <c r="G496" s="20"/>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" ht="12.75">
       <c r="A497" s="20"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
@@ -5670,7 +5934,7 @@
       <c r="F497" s="20"/>
       <c r="G497" s="20"/>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" ht="12.75">
       <c r="A498" s="20"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
@@ -5678,7 +5942,7 @@
       <c r="F498" s="20"/>
       <c r="G498" s="20"/>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" ht="12.75">
       <c r="A499" s="20"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
@@ -5686,7 +5950,7 @@
       <c r="F499" s="20"/>
       <c r="G499" s="20"/>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" ht="12.75">
       <c r="A500" s="20"/>
       <c r="C500" s="20"/>
       <c r="D500" s="20"/>
@@ -5694,7 +5958,7 @@
       <c r="F500" s="20"/>
       <c r="G500" s="20"/>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" ht="12.75">
       <c r="A501" s="20"/>
       <c r="C501" s="20"/>
       <c r="D501" s="20"/>
@@ -5702,7 +5966,7 @@
       <c r="F501" s="20"/>
       <c r="G501" s="20"/>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" ht="12.75">
       <c r="A502" s="20"/>
       <c r="C502" s="20"/>
       <c r="D502" s="20"/>
@@ -5710,7 +5974,7 @@
       <c r="F502" s="20"/>
       <c r="G502" s="20"/>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" ht="12.75">
       <c r="A503" s="20"/>
       <c r="C503" s="20"/>
       <c r="D503" s="20"/>
@@ -5718,7 +5982,7 @@
       <c r="F503" s="20"/>
       <c r="G503" s="20"/>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" ht="12.75">
       <c r="A504" s="20"/>
       <c r="C504" s="20"/>
       <c r="D504" s="20"/>
@@ -5726,7 +5990,7 @@
       <c r="F504" s="20"/>
       <c r="G504" s="20"/>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" ht="12.75">
       <c r="A505" s="20"/>
       <c r="C505" s="20"/>
       <c r="D505" s="20"/>
@@ -5734,7 +5998,7 @@
       <c r="F505" s="20"/>
       <c r="G505" s="20"/>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" ht="12.75">
       <c r="A506" s="20"/>
       <c r="C506" s="20"/>
       <c r="D506" s="20"/>
@@ -5742,7 +6006,7 @@
       <c r="F506" s="20"/>
       <c r="G506" s="20"/>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" ht="12.75">
       <c r="A507" s="20"/>
       <c r="C507" s="20"/>
       <c r="D507" s="20"/>
@@ -5750,7 +6014,7 @@
       <c r="F507" s="20"/>
       <c r="G507" s="20"/>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" ht="12.75">
       <c r="A508" s="20"/>
       <c r="C508" s="20"/>
       <c r="D508" s="20"/>
@@ -5758,7 +6022,7 @@
       <c r="F508" s="20"/>
       <c r="G508" s="20"/>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" ht="12.75">
       <c r="A509" s="20"/>
       <c r="C509" s="20"/>
       <c r="D509" s="20"/>
@@ -5766,7 +6030,7 @@
       <c r="F509" s="20"/>
       <c r="G509" s="20"/>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" ht="12.75">
       <c r="A510" s="20"/>
       <c r="C510" s="20"/>
       <c r="D510" s="20"/>
@@ -5774,7 +6038,7 @@
       <c r="F510" s="20"/>
       <c r="G510" s="20"/>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" ht="12.75">
       <c r="A511" s="20"/>
       <c r="C511" s="20"/>
       <c r="D511" s="20"/>
@@ -5782,7 +6046,7 @@
       <c r="F511" s="20"/>
       <c r="G511" s="20"/>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" ht="12.75">
       <c r="A512" s="20"/>
       <c r="C512" s="20"/>
       <c r="D512" s="20"/>
@@ -5790,7 +6054,7 @@
       <c r="F512" s="20"/>
       <c r="G512" s="20"/>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" ht="12.75">
       <c r="A513" s="20"/>
       <c r="C513" s="20"/>
       <c r="D513" s="20"/>
@@ -5798,7 +6062,7 @@
       <c r="F513" s="20"/>
       <c r="G513" s="20"/>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" ht="12.75">
       <c r="A514" s="20"/>
       <c r="C514" s="20"/>
       <c r="D514" s="20"/>
@@ -5806,7 +6070,7 @@
       <c r="F514" s="20"/>
       <c r="G514" s="20"/>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" ht="12.75">
       <c r="A515" s="20"/>
       <c r="C515" s="20"/>
       <c r="D515" s="20"/>
@@ -5814,7 +6078,7 @@
       <c r="F515" s="20"/>
       <c r="G515" s="20"/>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" ht="12.75">
       <c r="A516" s="20"/>
       <c r="C516" s="20"/>
       <c r="D516" s="20"/>
@@ -5822,7 +6086,7 @@
       <c r="F516" s="20"/>
       <c r="G516" s="20"/>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" ht="12.75">
       <c r="A517" s="20"/>
       <c r="C517" s="20"/>
       <c r="D517" s="20"/>
@@ -5830,7 +6094,7 @@
       <c r="F517" s="20"/>
       <c r="G517" s="20"/>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" ht="12.75">
       <c r="A518" s="20"/>
       <c r="C518" s="20"/>
       <c r="D518" s="20"/>
@@ -5838,7 +6102,7 @@
       <c r="F518" s="20"/>
       <c r="G518" s="20"/>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" ht="12.75">
       <c r="A519" s="20"/>
       <c r="C519" s="20"/>
       <c r="D519" s="20"/>
@@ -5846,7 +6110,7 @@
       <c r="F519" s="20"/>
       <c r="G519" s="20"/>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" ht="12.75">
       <c r="A520" s="20"/>
       <c r="C520" s="20"/>
       <c r="D520" s="20"/>
@@ -5854,7 +6118,7 @@
       <c r="F520" s="20"/>
       <c r="G520" s="20"/>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" ht="12.75">
       <c r="A521" s="20"/>
       <c r="C521" s="20"/>
       <c r="D521" s="20"/>
@@ -5862,7 +6126,7 @@
       <c r="F521" s="20"/>
       <c r="G521" s="20"/>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" ht="12.75">
       <c r="A522" s="20"/>
       <c r="C522" s="20"/>
       <c r="D522" s="20"/>
@@ -5870,7 +6134,7 @@
       <c r="F522" s="20"/>
       <c r="G522" s="20"/>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" ht="12.75">
       <c r="A523" s="20"/>
       <c r="C523" s="20"/>
       <c r="D523" s="20"/>
@@ -5878,7 +6142,7 @@
       <c r="F523" s="20"/>
       <c r="G523" s="20"/>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" ht="12.75">
       <c r="A524" s="20"/>
       <c r="C524" s="20"/>
       <c r="D524" s="20"/>
@@ -5886,7 +6150,7 @@
       <c r="F524" s="20"/>
       <c r="G524" s="20"/>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" ht="12.75">
       <c r="A525" s="20"/>
       <c r="C525" s="20"/>
       <c r="D525" s="20"/>
@@ -5894,7 +6158,7 @@
       <c r="F525" s="20"/>
       <c r="G525" s="20"/>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" ht="12.75">
       <c r="A526" s="20"/>
       <c r="C526" s="20"/>
       <c r="D526" s="20"/>
@@ -5902,7 +6166,7 @@
       <c r="F526" s="20"/>
       <c r="G526" s="20"/>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" ht="12.75">
       <c r="A527" s="20"/>
       <c r="C527" s="20"/>
       <c r="D527" s="20"/>
@@ -5910,7 +6174,7 @@
       <c r="F527" s="20"/>
       <c r="G527" s="20"/>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" ht="12.75">
       <c r="A528" s="20"/>
       <c r="C528" s="20"/>
       <c r="D528" s="20"/>
@@ -5918,7 +6182,7 @@
       <c r="F528" s="20"/>
       <c r="G528" s="20"/>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" ht="12.75">
       <c r="A529" s="20"/>
       <c r="C529" s="20"/>
       <c r="D529" s="20"/>
@@ -5926,7 +6190,7 @@
       <c r="F529" s="20"/>
       <c r="G529" s="20"/>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" ht="12.75">
       <c r="A530" s="20"/>
       <c r="C530" s="20"/>
       <c r="D530" s="20"/>
@@ -5934,7 +6198,7 @@
       <c r="F530" s="20"/>
       <c r="G530" s="20"/>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" ht="12.75">
       <c r="A531" s="20"/>
       <c r="C531" s="20"/>
       <c r="D531" s="20"/>
@@ -5942,7 +6206,7 @@
       <c r="F531" s="20"/>
       <c r="G531" s="20"/>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" ht="12.75">
       <c r="A532" s="20"/>
       <c r="C532" s="20"/>
       <c r="D532" s="20"/>
@@ -5950,7 +6214,7 @@
       <c r="F532" s="20"/>
       <c r="G532" s="20"/>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" ht="12.75">
       <c r="A533" s="20"/>
       <c r="C533" s="20"/>
       <c r="D533" s="20"/>
@@ -5958,7 +6222,7 @@
       <c r="F533" s="20"/>
       <c r="G533" s="20"/>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" ht="12.75">
       <c r="A534" s="20"/>
       <c r="C534" s="20"/>
       <c r="D534" s="20"/>
@@ -5966,7 +6230,7 @@
       <c r="F534" s="20"/>
       <c r="G534" s="20"/>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" ht="12.75">
       <c r="A535" s="20"/>
       <c r="C535" s="20"/>
       <c r="D535" s="20"/>
@@ -5974,7 +6238,7 @@
       <c r="F535" s="20"/>
       <c r="G535" s="20"/>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" ht="12.75">
       <c r="A536" s="20"/>
       <c r="C536" s="20"/>
       <c r="D536" s="20"/>
@@ -5982,7 +6246,7 @@
       <c r="F536" s="20"/>
       <c r="G536" s="20"/>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" ht="12.75">
       <c r="A537" s="20"/>
       <c r="C537" s="20"/>
       <c r="D537" s="20"/>
@@ -5990,7 +6254,7 @@
       <c r="F537" s="20"/>
       <c r="G537" s="20"/>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" ht="12.75">
       <c r="A538" s="20"/>
       <c r="C538" s="20"/>
       <c r="D538" s="20"/>
@@ -5998,7 +6262,7 @@
       <c r="F538" s="20"/>
       <c r="G538" s="20"/>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" ht="12.75">
       <c r="A539" s="20"/>
       <c r="C539" s="20"/>
       <c r="D539" s="20"/>
@@ -6006,7 +6270,7 @@
       <c r="F539" s="20"/>
       <c r="G539" s="20"/>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" ht="12.75">
       <c r="A540" s="20"/>
       <c r="C540" s="20"/>
       <c r="D540" s="20"/>
@@ -6014,7 +6278,7 @@
       <c r="F540" s="20"/>
       <c r="G540" s="20"/>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" ht="12.75">
       <c r="A541" s="20"/>
       <c r="C541" s="20"/>
       <c r="D541" s="20"/>
@@ -6022,7 +6286,7 @@
       <c r="F541" s="20"/>
       <c r="G541" s="20"/>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" ht="12.75">
       <c r="A542" s="20"/>
       <c r="C542" s="20"/>
       <c r="D542" s="20"/>
@@ -6030,7 +6294,7 @@
       <c r="F542" s="20"/>
       <c r="G542" s="20"/>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" ht="12.75">
       <c r="A543" s="20"/>
       <c r="C543" s="20"/>
       <c r="D543" s="20"/>
@@ -6038,7 +6302,7 @@
       <c r="F543" s="20"/>
       <c r="G543" s="20"/>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" ht="12.75">
       <c r="A544" s="20"/>
       <c r="C544" s="20"/>
       <c r="D544" s="20"/>
@@ -6046,7 +6310,7 @@
       <c r="F544" s="20"/>
       <c r="G544" s="20"/>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" ht="12.75">
       <c r="A545" s="20"/>
       <c r="C545" s="20"/>
       <c r="D545" s="20"/>
@@ -6054,7 +6318,7 @@
       <c r="F545" s="20"/>
       <c r="G545" s="20"/>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" ht="12.75">
       <c r="A546" s="20"/>
       <c r="C546" s="20"/>
       <c r="D546" s="20"/>
@@ -6062,7 +6326,7 @@
       <c r="F546" s="20"/>
       <c r="G546" s="20"/>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" ht="12.75">
       <c r="A547" s="20"/>
       <c r="C547" s="20"/>
       <c r="D547" s="20"/>
@@ -6070,7 +6334,7 @@
       <c r="F547" s="20"/>
       <c r="G547" s="20"/>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" ht="12.75">
       <c r="A548" s="20"/>
       <c r="C548" s="20"/>
       <c r="D548" s="20"/>
@@ -6078,7 +6342,7 @@
       <c r="F548" s="20"/>
       <c r="G548" s="20"/>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" ht="12.75">
       <c r="A549" s="20"/>
       <c r="C549" s="20"/>
       <c r="D549" s="20"/>
@@ -6086,7 +6350,7 @@
       <c r="F549" s="20"/>
       <c r="G549" s="20"/>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" ht="12.75">
       <c r="A550" s="20"/>
       <c r="C550" s="20"/>
       <c r="D550" s="20"/>
@@ -6094,7 +6358,7 @@
       <c r="F550" s="20"/>
       <c r="G550" s="20"/>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" ht="12.75">
       <c r="A551" s="20"/>
       <c r="C551" s="20"/>
       <c r="D551" s="20"/>
@@ -6102,7 +6366,7 @@
       <c r="F551" s="20"/>
       <c r="G551" s="20"/>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" ht="12.75">
       <c r="A552" s="20"/>
       <c r="C552" s="20"/>
       <c r="D552" s="20"/>
@@ -6110,7 +6374,7 @@
       <c r="F552" s="20"/>
       <c r="G552" s="20"/>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" ht="12.75">
       <c r="A553" s="20"/>
       <c r="C553" s="20"/>
       <c r="D553" s="20"/>
@@ -6118,7 +6382,7 @@
       <c r="F553" s="20"/>
       <c r="G553" s="20"/>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" ht="12.75">
       <c r="A554" s="20"/>
       <c r="C554" s="20"/>
       <c r="D554" s="20"/>
@@ -6126,7 +6390,7 @@
       <c r="F554" s="20"/>
       <c r="G554" s="20"/>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" ht="12.75">
       <c r="A555" s="20"/>
       <c r="C555" s="20"/>
       <c r="D555" s="20"/>
@@ -6134,7 +6398,7 @@
       <c r="F555" s="20"/>
       <c r="G555" s="20"/>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" ht="12.75">
       <c r="A556" s="20"/>
       <c r="C556" s="20"/>
       <c r="D556" s="20"/>
@@ -6142,7 +6406,7 @@
       <c r="F556" s="20"/>
       <c r="G556" s="20"/>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" ht="12.75">
       <c r="A557" s="20"/>
       <c r="C557" s="20"/>
       <c r="D557" s="20"/>
@@ -6150,7 +6414,7 @@
       <c r="F557" s="20"/>
       <c r="G557" s="20"/>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" ht="12.75">
       <c r="A558" s="20"/>
       <c r="C558" s="20"/>
       <c r="D558" s="20"/>
@@ -6158,7 +6422,7 @@
       <c r="F558" s="20"/>
       <c r="G558" s="20"/>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" ht="12.75">
       <c r="A559" s="20"/>
       <c r="C559" s="20"/>
       <c r="D559" s="20"/>
@@ -6166,7 +6430,7 @@
       <c r="F559" s="20"/>
       <c r="G559" s="20"/>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" ht="12.75">
       <c r="A560" s="20"/>
       <c r="C560" s="20"/>
       <c r="D560" s="20"/>
@@ -6174,7 +6438,7 @@
       <c r="F560" s="20"/>
       <c r="G560" s="20"/>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" ht="12.75">
       <c r="A561" s="20"/>
       <c r="C561" s="20"/>
       <c r="D561" s="20"/>
@@ -6182,7 +6446,7 @@
       <c r="F561" s="20"/>
       <c r="G561" s="20"/>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" ht="12.75">
       <c r="A562" s="20"/>
       <c r="C562" s="20"/>
       <c r="D562" s="20"/>
@@ -6190,7 +6454,7 @@
       <c r="F562" s="20"/>
       <c r="G562" s="20"/>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" ht="12.75">
       <c r="A563" s="20"/>
       <c r="C563" s="20"/>
       <c r="D563" s="20"/>
@@ -6198,7 +6462,7 @@
       <c r="F563" s="20"/>
       <c r="G563" s="20"/>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" ht="12.75">
       <c r="A564" s="20"/>
       <c r="C564" s="20"/>
       <c r="D564" s="20"/>
@@ -6206,7 +6470,7 @@
       <c r="F564" s="20"/>
       <c r="G564" s="20"/>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" ht="12.75">
       <c r="A565" s="20"/>
       <c r="C565" s="20"/>
       <c r="D565" s="20"/>
@@ -6214,7 +6478,7 @@
       <c r="F565" s="20"/>
       <c r="G565" s="20"/>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" ht="12.75">
       <c r="A566" s="20"/>
       <c r="C566" s="20"/>
       <c r="D566" s="20"/>
@@ -6222,7 +6486,7 @@
       <c r="F566" s="20"/>
       <c r="G566" s="20"/>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" ht="12.75">
       <c r="A567" s="20"/>
       <c r="C567" s="20"/>
       <c r="D567" s="20"/>
@@ -6230,7 +6494,7 @@
       <c r="F567" s="20"/>
       <c r="G567" s="20"/>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" ht="12.75">
       <c r="A568" s="20"/>
       <c r="C568" s="20"/>
       <c r="D568" s="20"/>
@@ -6238,7 +6502,7 @@
       <c r="F568" s="20"/>
       <c r="G568" s="20"/>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" ht="12.75">
       <c r="A569" s="20"/>
       <c r="C569" s="20"/>
       <c r="D569" s="20"/>
@@ -6246,7 +6510,7 @@
       <c r="F569" s="20"/>
       <c r="G569" s="20"/>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" ht="12.75">
       <c r="A570" s="20"/>
       <c r="C570" s="20"/>
       <c r="D570" s="20"/>
@@ -6254,7 +6518,7 @@
       <c r="F570" s="20"/>
       <c r="G570" s="20"/>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" ht="12.75">
       <c r="A571" s="20"/>
       <c r="C571" s="20"/>
       <c r="D571" s="20"/>
@@ -6262,7 +6526,7 @@
       <c r="F571" s="20"/>
       <c r="G571" s="20"/>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" ht="12.75">
       <c r="A572" s="20"/>
       <c r="C572" s="20"/>
       <c r="D572" s="20"/>
@@ -6270,7 +6534,7 @@
       <c r="F572" s="20"/>
       <c r="G572" s="20"/>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" ht="12.75">
       <c r="A573" s="20"/>
       <c r="C573" s="20"/>
       <c r="D573" s="20"/>
@@ -6278,7 +6542,7 @@
       <c r="F573" s="20"/>
       <c r="G573" s="20"/>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" ht="12.75">
       <c r="A574" s="20"/>
       <c r="C574" s="20"/>
       <c r="D574" s="20"/>
@@ -6286,7 +6550,7 @@
       <c r="F574" s="20"/>
       <c r="G574" s="20"/>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" ht="12.75">
       <c r="A575" s="20"/>
       <c r="C575" s="20"/>
       <c r="D575" s="20"/>
@@ -6294,7 +6558,7 @@
       <c r="F575" s="20"/>
       <c r="G575" s="20"/>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" ht="12.75">
       <c r="A576" s="20"/>
       <c r="C576" s="20"/>
       <c r="D576" s="20"/>
@@ -6302,7 +6566,7 @@
       <c r="F576" s="20"/>
       <c r="G576" s="20"/>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" ht="12.75">
       <c r="A577" s="20"/>
       <c r="C577" s="20"/>
       <c r="D577" s="20"/>
@@ -6310,7 +6574,7 @@
       <c r="F577" s="20"/>
       <c r="G577" s="20"/>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" ht="12.75">
       <c r="A578" s="20"/>
       <c r="C578" s="20"/>
       <c r="D578" s="20"/>
@@ -6318,7 +6582,7 @@
       <c r="F578" s="20"/>
       <c r="G578" s="20"/>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" ht="12.75">
       <c r="A579" s="20"/>
       <c r="C579" s="20"/>
       <c r="D579" s="20"/>
@@ -6326,7 +6590,7 @@
       <c r="F579" s="20"/>
       <c r="G579" s="20"/>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" ht="12.75">
       <c r="A580" s="20"/>
       <c r="C580" s="20"/>
       <c r="D580" s="20"/>
@@ -6334,7 +6598,7 @@
       <c r="F580" s="20"/>
       <c r="G580" s="20"/>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" ht="12.75">
       <c r="A581" s="20"/>
       <c r="C581" s="20"/>
       <c r="D581" s="20"/>
@@ -6342,7 +6606,7 @@
       <c r="F581" s="20"/>
       <c r="G581" s="20"/>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" ht="12.75">
       <c r="A582" s="20"/>
       <c r="C582" s="20"/>
       <c r="D582" s="20"/>
@@ -6350,7 +6614,7 @@
       <c r="F582" s="20"/>
       <c r="G582" s="20"/>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" ht="12.75">
       <c r="A583" s="20"/>
       <c r="C583" s="20"/>
       <c r="D583" s="20"/>
@@ -6358,7 +6622,7 @@
       <c r="F583" s="20"/>
       <c r="G583" s="20"/>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" ht="12.75">
       <c r="A584" s="20"/>
       <c r="C584" s="20"/>
       <c r="D584" s="20"/>
@@ -6366,7 +6630,7 @@
       <c r="F584" s="20"/>
       <c r="G584" s="20"/>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" ht="12.75">
       <c r="A585" s="20"/>
       <c r="C585" s="20"/>
       <c r="D585" s="20"/>
@@ -6374,7 +6638,7 @@
       <c r="F585" s="20"/>
       <c r="G585" s="20"/>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" ht="12.75">
       <c r="A586" s="20"/>
       <c r="C586" s="20"/>
       <c r="D586" s="20"/>
@@ -6382,7 +6646,7 @@
       <c r="F586" s="20"/>
       <c r="G586" s="20"/>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" ht="12.75">
       <c r="A587" s="20"/>
       <c r="C587" s="20"/>
       <c r="D587" s="20"/>
@@ -6390,7 +6654,7 @@
       <c r="F587" s="20"/>
       <c r="G587" s="20"/>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" ht="12.75">
       <c r="A588" s="20"/>
       <c r="C588" s="20"/>
       <c r="D588" s="20"/>
@@ -6398,7 +6662,7 @@
       <c r="F588" s="20"/>
       <c r="G588" s="20"/>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" ht="12.75">
       <c r="A589" s="20"/>
       <c r="C589" s="20"/>
       <c r="D589" s="20"/>
@@ -6406,7 +6670,7 @@
       <c r="F589" s="20"/>
       <c r="G589" s="20"/>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" ht="12.75">
       <c r="A590" s="20"/>
       <c r="C590" s="20"/>
       <c r="D590" s="20"/>
@@ -6414,7 +6678,7 @@
       <c r="F590" s="20"/>
       <c r="G590" s="20"/>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" ht="12.75">
       <c r="A591" s="20"/>
       <c r="C591" s="20"/>
       <c r="D591" s="20"/>
@@ -6422,7 +6686,7 @@
       <c r="F591" s="20"/>
       <c r="G591" s="20"/>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" ht="12.75">
       <c r="A592" s="20"/>
       <c r="C592" s="20"/>
       <c r="D592" s="20"/>
@@ -6430,7 +6694,7 @@
       <c r="F592" s="20"/>
       <c r="G592" s="20"/>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" ht="12.75">
       <c r="A593" s="20"/>
       <c r="C593" s="20"/>
       <c r="D593" s="20"/>
@@ -6438,7 +6702,7 @@
       <c r="F593" s="20"/>
       <c r="G593" s="20"/>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" ht="12.75">
       <c r="A594" s="20"/>
       <c r="C594" s="20"/>
       <c r="D594" s="20"/>
@@ -6446,7 +6710,7 @@
       <c r="F594" s="20"/>
       <c r="G594" s="20"/>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" ht="12.75">
       <c r="A595" s="20"/>
       <c r="C595" s="20"/>
       <c r="D595" s="20"/>
@@ -6454,7 +6718,7 @@
       <c r="F595" s="20"/>
       <c r="G595" s="20"/>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" ht="12.75">
       <c r="A596" s="20"/>
       <c r="C596" s="20"/>
       <c r="D596" s="20"/>
@@ -6462,7 +6726,7 @@
       <c r="F596" s="20"/>
       <c r="G596" s="20"/>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" ht="12.75">
       <c r="A597" s="20"/>
       <c r="C597" s="20"/>
       <c r="D597" s="20"/>
@@ -6470,7 +6734,7 @@
       <c r="F597" s="20"/>
       <c r="G597" s="20"/>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" ht="12.75">
       <c r="A598" s="20"/>
       <c r="C598" s="20"/>
       <c r="D598" s="20"/>
@@ -6478,7 +6742,7 @@
       <c r="F598" s="20"/>
       <c r="G598" s="20"/>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" ht="12.75">
       <c r="A599" s="20"/>
       <c r="C599" s="20"/>
       <c r="D599" s="20"/>
@@ -6486,7 +6750,7 @@
       <c r="F599" s="20"/>
       <c r="G599" s="20"/>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" ht="12.75">
       <c r="A600" s="20"/>
       <c r="C600" s="20"/>
       <c r="D600" s="20"/>
@@ -6494,7 +6758,7 @@
       <c r="F600" s="20"/>
       <c r="G600" s="20"/>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" ht="12.75">
       <c r="A601" s="20"/>
       <c r="C601" s="20"/>
       <c r="D601" s="20"/>
@@ -6502,7 +6766,7 @@
       <c r="F601" s="20"/>
       <c r="G601" s="20"/>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" ht="12.75">
       <c r="A602" s="20"/>
       <c r="C602" s="20"/>
       <c r="D602" s="20"/>
@@ -6510,7 +6774,7 @@
       <c r="F602" s="20"/>
       <c r="G602" s="20"/>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" ht="12.75">
       <c r="A603" s="20"/>
       <c r="C603" s="20"/>
       <c r="D603" s="20"/>
@@ -6518,7 +6782,7 @@
       <c r="F603" s="20"/>
       <c r="G603" s="20"/>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" ht="12.75">
       <c r="A604" s="20"/>
       <c r="C604" s="20"/>
       <c r="D604" s="20"/>
@@ -6526,7 +6790,7 @@
       <c r="F604" s="20"/>
       <c r="G604" s="20"/>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" ht="12.75">
       <c r="A605" s="20"/>
       <c r="C605" s="20"/>
       <c r="D605" s="20"/>
@@ -6534,7 +6798,7 @@
       <c r="F605" s="20"/>
       <c r="G605" s="20"/>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" ht="12.75">
       <c r="A606" s="20"/>
       <c r="C606" s="20"/>
       <c r="D606" s="20"/>
@@ -6542,7 +6806,7 @@
       <c r="F606" s="20"/>
       <c r="G606" s="20"/>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" ht="12.75">
       <c r="A607" s="20"/>
       <c r="C607" s="20"/>
       <c r="D607" s="20"/>
@@ -6550,7 +6814,7 @@
       <c r="F607" s="20"/>
       <c r="G607" s="20"/>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" ht="12.75">
       <c r="A608" s="20"/>
       <c r="C608" s="20"/>
       <c r="D608" s="20"/>
@@ -6558,7 +6822,7 @@
       <c r="F608" s="20"/>
       <c r="G608" s="20"/>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" ht="12.75">
       <c r="A609" s="20"/>
       <c r="C609" s="20"/>
       <c r="D609" s="20"/>
@@ -6566,7 +6830,7 @@
       <c r="F609" s="20"/>
       <c r="G609" s="20"/>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" ht="12.75">
       <c r="A610" s="20"/>
       <c r="C610" s="20"/>
       <c r="D610" s="20"/>
@@ -6574,7 +6838,7 @@
       <c r="F610" s="20"/>
       <c r="G610" s="20"/>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" ht="12.75">
       <c r="A611" s="20"/>
       <c r="C611" s="20"/>
       <c r="D611" s="20"/>
@@ -6582,7 +6846,7 @@
       <c r="F611" s="20"/>
       <c r="G611" s="20"/>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" ht="12.75">
       <c r="A612" s="20"/>
       <c r="C612" s="20"/>
       <c r="D612" s="20"/>
@@ -6590,7 +6854,7 @@
       <c r="F612" s="20"/>
       <c r="G612" s="20"/>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" ht="12.75">
       <c r="A613" s="20"/>
       <c r="C613" s="20"/>
       <c r="D613" s="20"/>
@@ -6598,7 +6862,7 @@
       <c r="F613" s="20"/>
       <c r="G613" s="20"/>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" ht="12.75">
       <c r="A614" s="20"/>
       <c r="C614" s="20"/>
       <c r="D614" s="20"/>
@@ -6606,7 +6870,7 @@
       <c r="F614" s="20"/>
       <c r="G614" s="20"/>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" ht="12.75">
       <c r="A615" s="20"/>
       <c r="C615" s="20"/>
       <c r="D615" s="20"/>
@@ -6614,7 +6878,7 @@
       <c r="F615" s="20"/>
       <c r="G615" s="20"/>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" ht="12.75">
       <c r="A616" s="20"/>
       <c r="C616" s="20"/>
       <c r="D616" s="20"/>
@@ -6622,7 +6886,7 @@
       <c r="F616" s="20"/>
       <c r="G616" s="20"/>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" ht="12.75">
       <c r="A617" s="20"/>
       <c r="C617" s="20"/>
       <c r="D617" s="20"/>
@@ -6630,7 +6894,7 @@
       <c r="F617" s="20"/>
       <c r="G617" s="20"/>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" ht="12.75">
       <c r="A618" s="20"/>
       <c r="C618" s="20"/>
       <c r="D618" s="20"/>
@@ -6638,7 +6902,7 @@
       <c r="F618" s="20"/>
       <c r="G618" s="20"/>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" ht="12.75">
       <c r="A619" s="20"/>
       <c r="C619" s="20"/>
       <c r="D619" s="20"/>
@@ -6646,7 +6910,7 @@
       <c r="F619" s="20"/>
       <c r="G619" s="20"/>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" ht="12.75">
       <c r="A620" s="20"/>
       <c r="C620" s="20"/>
       <c r="D620" s="20"/>
@@ -6654,7 +6918,7 @@
       <c r="F620" s="20"/>
       <c r="G620" s="20"/>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" ht="12.75">
       <c r="A621" s="20"/>
       <c r="C621" s="20"/>
       <c r="D621" s="20"/>
@@ -6662,7 +6926,7 @@
       <c r="F621" s="20"/>
       <c r="G621" s="20"/>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" ht="12.75">
       <c r="A622" s="20"/>
       <c r="C622" s="20"/>
       <c r="D622" s="20"/>
@@ -6670,7 +6934,7 @@
       <c r="F622" s="20"/>
       <c r="G622" s="20"/>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" ht="12.75">
       <c r="A623" s="20"/>
       <c r="C623" s="20"/>
       <c r="D623" s="20"/>
@@ -6678,7 +6942,7 @@
       <c r="F623" s="20"/>
       <c r="G623" s="20"/>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" ht="12.75">
       <c r="A624" s="20"/>
       <c r="C624" s="20"/>
       <c r="D624" s="20"/>
@@ -6686,7 +6950,7 @@
       <c r="F624" s="20"/>
       <c r="G624" s="20"/>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" ht="12.75">
       <c r="A625" s="20"/>
       <c r="C625" s="20"/>
       <c r="D625" s="20"/>
@@ -6694,7 +6958,7 @@
       <c r="F625" s="20"/>
       <c r="G625" s="20"/>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" ht="12.75">
       <c r="A626" s="20"/>
       <c r="C626" s="20"/>
       <c r="D626" s="20"/>
@@ -6702,7 +6966,7 @@
       <c r="F626" s="20"/>
       <c r="G626" s="20"/>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" ht="12.75">
       <c r="A627" s="20"/>
       <c r="C627" s="20"/>
       <c r="D627" s="20"/>
@@ -6710,7 +6974,7 @@
       <c r="F627" s="20"/>
       <c r="G627" s="20"/>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" ht="12.75">
       <c r="A628" s="20"/>
       <c r="C628" s="20"/>
       <c r="D628" s="20"/>
@@ -6718,7 +6982,7 @@
       <c r="F628" s="20"/>
       <c r="G628" s="20"/>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" ht="12.75">
       <c r="A629" s="20"/>
       <c r="C629" s="20"/>
       <c r="D629" s="20"/>
@@ -6726,7 +6990,7 @@
       <c r="F629" s="20"/>
       <c r="G629" s="20"/>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" ht="12.75">
       <c r="A630" s="20"/>
       <c r="C630" s="20"/>
       <c r="D630" s="20"/>
@@ -6734,7 +6998,7 @@
       <c r="F630" s="20"/>
       <c r="G630" s="20"/>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" ht="12.75">
       <c r="A631" s="20"/>
       <c r="C631" s="20"/>
       <c r="D631" s="20"/>
@@ -6742,7 +7006,7 @@
       <c r="F631" s="20"/>
       <c r="G631" s="20"/>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" ht="12.75">
       <c r="A632" s="20"/>
       <c r="C632" s="20"/>
       <c r="D632" s="20"/>
@@ -6750,7 +7014,7 @@
       <c r="F632" s="20"/>
       <c r="G632" s="20"/>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" ht="12.75">
       <c r="A633" s="20"/>
       <c r="C633" s="20"/>
       <c r="D633" s="20"/>
@@ -6758,7 +7022,7 @@
       <c r="F633" s="20"/>
       <c r="G633" s="20"/>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" ht="12.75">
       <c r="A634" s="20"/>
       <c r="C634" s="20"/>
       <c r="D634" s="20"/>
@@ -6766,7 +7030,7 @@
       <c r="F634" s="20"/>
       <c r="G634" s="20"/>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" ht="12.75">
       <c r="A635" s="20"/>
       <c r="C635" s="20"/>
       <c r="D635" s="20"/>
@@ -6774,7 +7038,7 @@
       <c r="F635" s="20"/>
       <c r="G635" s="20"/>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" ht="12.75">
       <c r="A636" s="20"/>
       <c r="C636" s="20"/>
       <c r="D636" s="20"/>
@@ -6782,7 +7046,7 @@
       <c r="F636" s="20"/>
       <c r="G636" s="20"/>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" ht="12.75">
       <c r="A637" s="20"/>
       <c r="C637" s="20"/>
       <c r="D637" s="20"/>
@@ -6790,7 +7054,7 @@
       <c r="F637" s="20"/>
       <c r="G637" s="20"/>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" ht="12.75">
       <c r="A638" s="20"/>
       <c r="C638" s="20"/>
       <c r="D638" s="20"/>
@@ -6798,7 +7062,7 @@
       <c r="F638" s="20"/>
       <c r="G638" s="20"/>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" ht="12.75">
       <c r="A639" s="20"/>
       <c r="C639" s="20"/>
       <c r="D639" s="20"/>
@@ -6806,7 +7070,7 @@
       <c r="F639" s="20"/>
       <c r="G639" s="20"/>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" ht="12.75">
       <c r="A640" s="20"/>
       <c r="C640" s="20"/>
       <c r="D640" s="20"/>
@@ -6814,7 +7078,7 @@
       <c r="F640" s="20"/>
       <c r="G640" s="20"/>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" ht="12.75">
       <c r="A641" s="20"/>
       <c r="C641" s="20"/>
       <c r="D641" s="20"/>
@@ -6822,7 +7086,7 @@
       <c r="F641" s="20"/>
       <c r="G641" s="20"/>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" ht="12.75">
       <c r="A642" s="20"/>
       <c r="C642" s="20"/>
       <c r="D642" s="20"/>
@@ -6830,7 +7094,7 @@
       <c r="F642" s="20"/>
       <c r="G642" s="20"/>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" ht="12.75">
       <c r="A643" s="20"/>
       <c r="C643" s="20"/>
       <c r="D643" s="20"/>
@@ -6838,7 +7102,7 @@
       <c r="F643" s="20"/>
       <c r="G643" s="20"/>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" ht="12.75">
       <c r="A644" s="20"/>
       <c r="C644" s="20"/>
       <c r="D644" s="20"/>
@@ -6846,7 +7110,7 @@
       <c r="F644" s="20"/>
       <c r="G644" s="20"/>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" ht="12.75">
       <c r="A645" s="20"/>
       <c r="C645" s="20"/>
       <c r="D645" s="20"/>
@@ -6854,7 +7118,7 @@
       <c r="F645" s="20"/>
       <c r="G645" s="20"/>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" ht="12.75">
       <c r="A646" s="20"/>
       <c r="C646" s="20"/>
       <c r="D646" s="20"/>
@@ -6862,7 +7126,7 @@
       <c r="F646" s="20"/>
       <c r="G646" s="20"/>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" ht="12.75">
       <c r="A647" s="20"/>
       <c r="C647" s="20"/>
       <c r="D647" s="20"/>
@@ -6870,7 +7134,7 @@
       <c r="F647" s="20"/>
       <c r="G647" s="20"/>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" ht="12.75">
       <c r="A648" s="20"/>
       <c r="C648" s="20"/>
       <c r="D648" s="20"/>
@@ -6878,7 +7142,7 @@
       <c r="F648" s="20"/>
       <c r="G648" s="20"/>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" ht="12.75">
       <c r="A649" s="20"/>
       <c r="C649" s="20"/>
       <c r="D649" s="20"/>
@@ -6886,7 +7150,7 @@
       <c r="F649" s="20"/>
       <c r="G649" s="20"/>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" ht="12.75">
       <c r="A650" s="20"/>
       <c r="C650" s="20"/>
       <c r="D650" s="20"/>
@@ -6894,7 +7158,7 @@
       <c r="F650" s="20"/>
       <c r="G650" s="20"/>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" ht="12.75">
       <c r="A651" s="20"/>
       <c r="C651" s="20"/>
       <c r="D651" s="20"/>
@@ -6902,7 +7166,7 @@
       <c r="F651" s="20"/>
       <c r="G651" s="20"/>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" ht="12.75">
       <c r="A652" s="20"/>
       <c r="C652" s="20"/>
       <c r="D652" s="20"/>
@@ -6910,7 +7174,7 @@
       <c r="F652" s="20"/>
       <c r="G652" s="20"/>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" ht="12.75">
       <c r="A653" s="20"/>
       <c r="C653" s="20"/>
       <c r="D653" s="20"/>
@@ -6918,7 +7182,7 @@
       <c r="F653" s="20"/>
       <c r="G653" s="20"/>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" ht="12.75">
       <c r="A654" s="20"/>
       <c r="C654" s="20"/>
       <c r="D654" s="20"/>
@@ -6926,7 +7190,7 @@
       <c r="F654" s="20"/>
       <c r="G654" s="20"/>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" ht="12.75">
       <c r="A655" s="20"/>
       <c r="C655" s="20"/>
       <c r="D655" s="20"/>
@@ -6934,7 +7198,7 @@
       <c r="F655" s="20"/>
       <c r="G655" s="20"/>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" ht="12.75">
       <c r="A656" s="20"/>
       <c r="C656" s="20"/>
       <c r="D656" s="20"/>
@@ -6942,7 +7206,7 @@
       <c r="F656" s="20"/>
       <c r="G656" s="20"/>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" ht="12.75">
       <c r="A657" s="20"/>
       <c r="C657" s="20"/>
       <c r="D657" s="20"/>
@@ -6950,7 +7214,7 @@
       <c r="F657" s="20"/>
       <c r="G657" s="20"/>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" ht="12.75">
       <c r="A658" s="20"/>
       <c r="C658" s="20"/>
       <c r="D658" s="20"/>
@@ -6958,7 +7222,7 @@
       <c r="F658" s="20"/>
       <c r="G658" s="20"/>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" ht="12.75">
       <c r="A659" s="20"/>
       <c r="C659" s="20"/>
       <c r="D659" s="20"/>
@@ -6966,7 +7230,7 @@
       <c r="F659" s="20"/>
       <c r="G659" s="20"/>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" ht="12.75">
       <c r="A660" s="20"/>
       <c r="C660" s="20"/>
       <c r="D660" s="20"/>
@@ -6974,7 +7238,7 @@
       <c r="F660" s="20"/>
       <c r="G660" s="20"/>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" ht="12.75">
       <c r="A661" s="20"/>
       <c r="C661" s="20"/>
       <c r="D661" s="20"/>
@@ -6982,7 +7246,7 @@
       <c r="F661" s="20"/>
       <c r="G661" s="20"/>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" ht="12.75">
       <c r="A662" s="20"/>
       <c r="C662" s="20"/>
       <c r="D662" s="20"/>
@@ -6990,7 +7254,7 @@
       <c r="F662" s="20"/>
       <c r="G662" s="20"/>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" ht="12.75">
       <c r="A663" s="20"/>
       <c r="C663" s="20"/>
       <c r="D663" s="20"/>
@@ -6998,7 +7262,7 @@
       <c r="F663" s="20"/>
       <c r="G663" s="20"/>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" ht="12.75">
       <c r="A664" s="20"/>
       <c r="C664" s="20"/>
       <c r="D664" s="20"/>
@@ -7006,7 +7270,7 @@
       <c r="F664" s="20"/>
       <c r="G664" s="20"/>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" ht="12.75">
       <c r="A665" s="20"/>
       <c r="C665" s="20"/>
       <c r="D665" s="20"/>
@@ -7014,7 +7278,7 @@
       <c r="F665" s="20"/>
       <c r="G665" s="20"/>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" ht="12.75">
       <c r="A666" s="20"/>
       <c r="C666" s="20"/>
       <c r="D666" s="20"/>
@@ -7022,7 +7286,7 @@
       <c r="F666" s="20"/>
       <c r="G666" s="20"/>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" ht="12.75">
       <c r="A667" s="20"/>
       <c r="C667" s="20"/>
       <c r="D667" s="20"/>
@@ -7030,7 +7294,7 @@
       <c r="F667" s="20"/>
       <c r="G667" s="20"/>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" ht="12.75">
       <c r="A668" s="20"/>
       <c r="C668" s="20"/>
       <c r="D668" s="20"/>
@@ -7038,7 +7302,7 @@
       <c r="F668" s="20"/>
       <c r="G668" s="20"/>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" ht="12.75">
       <c r="A669" s="20"/>
       <c r="C669" s="20"/>
       <c r="D669" s="20"/>
@@ -7046,7 +7310,7 @@
       <c r="F669" s="20"/>
       <c r="G669" s="20"/>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" ht="12.75">
       <c r="A670" s="20"/>
       <c r="C670" s="20"/>
       <c r="D670" s="20"/>
@@ -7054,7 +7318,7 @@
       <c r="F670" s="20"/>
       <c r="G670" s="20"/>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" ht="12.75">
       <c r="A671" s="20"/>
       <c r="C671" s="20"/>
       <c r="D671" s="20"/>
@@ -7062,7 +7326,7 @@
       <c r="F671" s="20"/>
       <c r="G671" s="20"/>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" ht="12.75">
       <c r="A672" s="20"/>
       <c r="C672" s="20"/>
       <c r="D672" s="20"/>
@@ -7070,7 +7334,7 @@
       <c r="F672" s="20"/>
       <c r="G672" s="20"/>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" ht="12.75">
       <c r="A673" s="20"/>
       <c r="C673" s="20"/>
       <c r="D673" s="20"/>
@@ -7078,7 +7342,7 @@
       <c r="F673" s="20"/>
       <c r="G673" s="20"/>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" ht="12.75">
       <c r="A674" s="20"/>
       <c r="C674" s="20"/>
       <c r="D674" s="20"/>
@@ -7086,7 +7350,7 @@
       <c r="F674" s="20"/>
       <c r="G674" s="20"/>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" ht="12.75">
       <c r="A675" s="20"/>
       <c r="C675" s="20"/>
       <c r="D675" s="20"/>
@@ -7094,7 +7358,7 @@
       <c r="F675" s="20"/>
       <c r="G675" s="20"/>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" ht="12.75">
       <c r="A676" s="20"/>
       <c r="C676" s="20"/>
       <c r="D676" s="20"/>
@@ -7102,7 +7366,7 @@
       <c r="F676" s="20"/>
       <c r="G676" s="20"/>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" ht="12.75">
       <c r="A677" s="20"/>
       <c r="C677" s="20"/>
       <c r="D677" s="20"/>
@@ -7110,7 +7374,7 @@
       <c r="F677" s="20"/>
       <c r="G677" s="20"/>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" ht="12.75">
       <c r="A678" s="20"/>
       <c r="C678" s="20"/>
       <c r="D678" s="20"/>
@@ -7118,7 +7382,7 @@
       <c r="F678" s="20"/>
       <c r="G678" s="20"/>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" ht="12.75">
       <c r="A679" s="20"/>
       <c r="C679" s="20"/>
       <c r="D679" s="20"/>
@@ -7126,7 +7390,7 @@
       <c r="F679" s="20"/>
       <c r="G679" s="20"/>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" ht="12.75">
       <c r="A680" s="20"/>
       <c r="C680" s="20"/>
       <c r="D680" s="20"/>
@@ -7134,7 +7398,7 @@
       <c r="F680" s="20"/>
       <c r="G680" s="20"/>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" ht="12.75">
       <c r="A681" s="20"/>
       <c r="C681" s="20"/>
       <c r="D681" s="20"/>
@@ -7142,7 +7406,7 @@
       <c r="F681" s="20"/>
       <c r="G681" s="20"/>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" ht="12.75">
       <c r="A682" s="20"/>
       <c r="C682" s="20"/>
       <c r="D682" s="20"/>
@@ -7150,7 +7414,7 @@
       <c r="F682" s="20"/>
       <c r="G682" s="20"/>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" ht="12.75">
       <c r="A683" s="20"/>
       <c r="C683" s="20"/>
       <c r="D683" s="20"/>
@@ -7158,7 +7422,7 @@
       <c r="F683" s="20"/>
       <c r="G683" s="20"/>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" ht="12.75">
       <c r="A684" s="20"/>
       <c r="C684" s="20"/>
       <c r="D684" s="20"/>
@@ -7166,7 +7430,7 @@
       <c r="F684" s="20"/>
       <c r="G684" s="20"/>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" ht="12.75">
       <c r="A685" s="20"/>
       <c r="C685" s="20"/>
       <c r="D685" s="20"/>
@@ -7174,7 +7438,7 @@
       <c r="F685" s="20"/>
       <c r="G685" s="20"/>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" ht="12.75">
       <c r="A686" s="20"/>
       <c r="C686" s="20"/>
       <c r="D686" s="20"/>
@@ -7182,7 +7446,7 @@
       <c r="F686" s="20"/>
       <c r="G686" s="20"/>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" ht="12.75">
       <c r="A687" s="20"/>
       <c r="C687" s="20"/>
       <c r="D687" s="20"/>
@@ -7190,7 +7454,7 @@
       <c r="F687" s="20"/>
       <c r="G687" s="20"/>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" ht="12.75">
       <c r="A688" s="20"/>
       <c r="C688" s="20"/>
       <c r="D688" s="20"/>
@@ -7198,7 +7462,7 @@
       <c r="F688" s="20"/>
       <c r="G688" s="20"/>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" ht="12.75">
       <c r="A689" s="20"/>
       <c r="C689" s="20"/>
       <c r="D689" s="20"/>
@@ -7206,7 +7470,7 @@
       <c r="F689" s="20"/>
       <c r="G689" s="20"/>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" ht="12.75">
       <c r="A690" s="20"/>
       <c r="C690" s="20"/>
       <c r="D690" s="20"/>
@@ -7214,7 +7478,7 @@
       <c r="F690" s="20"/>
       <c r="G690" s="20"/>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" ht="12.75">
       <c r="A691" s="20"/>
       <c r="C691" s="20"/>
       <c r="D691" s="20"/>
@@ -7222,7 +7486,7 @@
       <c r="F691" s="20"/>
       <c r="G691" s="20"/>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" ht="12.75">
       <c r="A692" s="20"/>
       <c r="C692" s="20"/>
       <c r="D692" s="20"/>
@@ -7230,7 +7494,7 @@
       <c r="F692" s="20"/>
       <c r="G692" s="20"/>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" ht="12.75">
       <c r="A693" s="20"/>
       <c r="C693" s="20"/>
       <c r="D693" s="20"/>
@@ -7238,7 +7502,7 @@
       <c r="F693" s="20"/>
       <c r="G693" s="20"/>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" ht="12.75">
       <c r="A694" s="20"/>
       <c r="C694" s="20"/>
       <c r="D694" s="20"/>
@@ -7246,7 +7510,7 @@
       <c r="F694" s="20"/>
       <c r="G694" s="20"/>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" ht="12.75">
       <c r="A695" s="20"/>
       <c r="C695" s="20"/>
       <c r="D695" s="20"/>
@@ -7254,7 +7518,7 @@
       <c r="F695" s="20"/>
       <c r="G695" s="20"/>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" ht="12.75">
       <c r="A696" s="20"/>
       <c r="C696" s="20"/>
       <c r="D696" s="20"/>
@@ -7262,7 +7526,7 @@
       <c r="F696" s="20"/>
       <c r="G696" s="20"/>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" ht="12.75">
       <c r="A697" s="20"/>
       <c r="C697" s="20"/>
       <c r="D697" s="20"/>
@@ -7270,7 +7534,7 @@
       <c r="F697" s="20"/>
       <c r="G697" s="20"/>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" ht="12.75">
       <c r="A698" s="20"/>
       <c r="C698" s="20"/>
       <c r="D698" s="20"/>
@@ -7278,7 +7542,7 @@
       <c r="F698" s="20"/>
       <c r="G698" s="20"/>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" ht="12.75">
       <c r="A699" s="20"/>
       <c r="C699" s="20"/>
       <c r="D699" s="20"/>
@@ -7286,7 +7550,7 @@
       <c r="F699" s="20"/>
       <c r="G699" s="20"/>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" ht="12.75">
       <c r="A700" s="20"/>
       <c r="C700" s="20"/>
       <c r="D700" s="20"/>
@@ -7294,7 +7558,7 @@
       <c r="F700" s="20"/>
       <c r="G700" s="20"/>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" ht="12.75">
       <c r="A701" s="20"/>
       <c r="C701" s="20"/>
       <c r="D701" s="20"/>
@@ -7302,7 +7566,7 @@
       <c r="F701" s="20"/>
       <c r="G701" s="20"/>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" ht="12.75">
       <c r="A702" s="20"/>
       <c r="C702" s="20"/>
       <c r="D702" s="20"/>
@@ -7310,7 +7574,7 @@
       <c r="F702" s="20"/>
       <c r="G702" s="20"/>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" ht="12.75">
       <c r="A703" s="20"/>
       <c r="C703" s="20"/>
       <c r="D703" s="20"/>
@@ -7318,7 +7582,7 @@
       <c r="F703" s="20"/>
       <c r="G703" s="20"/>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" ht="12.75">
       <c r="A704" s="20"/>
       <c r="C704" s="20"/>
       <c r="D704" s="20"/>
@@ -7326,7 +7590,7 @@
       <c r="F704" s="20"/>
       <c r="G704" s="20"/>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" ht="12.75">
       <c r="A705" s="20"/>
       <c r="C705" s="20"/>
       <c r="D705" s="20"/>
@@ -7334,7 +7598,7 @@
       <c r="F705" s="20"/>
       <c r="G705" s="20"/>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" ht="12.75">
       <c r="A706" s="20"/>
       <c r="C706" s="20"/>
       <c r="D706" s="20"/>
@@ -7342,7 +7606,7 @@
       <c r="F706" s="20"/>
       <c r="G706" s="20"/>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" ht="12.75">
       <c r="A707" s="20"/>
       <c r="C707" s="20"/>
       <c r="D707" s="20"/>
@@ -7350,7 +7614,7 @@
       <c r="F707" s="20"/>
       <c r="G707" s="20"/>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" ht="12.75">
       <c r="A708" s="20"/>
       <c r="C708" s="20"/>
       <c r="D708" s="20"/>
@@ -7358,7 +7622,7 @@
       <c r="F708" s="20"/>
       <c r="G708" s="20"/>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" ht="12.75">
       <c r="A709" s="20"/>
       <c r="C709" s="20"/>
       <c r="D709" s="20"/>
@@ -7366,7 +7630,7 @@
       <c r="F709" s="20"/>
       <c r="G709" s="20"/>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" ht="12.75">
       <c r="A710" s="20"/>
       <c r="C710" s="20"/>
       <c r="D710" s="20"/>
@@ -7374,7 +7638,7 @@
       <c r="F710" s="20"/>
       <c r="G710" s="20"/>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" ht="12.75">
       <c r="A711" s="20"/>
       <c r="C711" s="20"/>
       <c r="D711" s="20"/>
@@ -7382,7 +7646,7 @@
       <c r="F711" s="20"/>
       <c r="G711" s="20"/>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" ht="12.75">
       <c r="A712" s="20"/>
       <c r="C712" s="20"/>
       <c r="D712" s="20"/>
@@ -7390,7 +7654,7 @@
       <c r="F712" s="20"/>
       <c r="G712" s="20"/>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" ht="12.75">
       <c r="A713" s="20"/>
       <c r="C713" s="20"/>
       <c r="D713" s="20"/>
@@ -7398,7 +7662,7 @@
       <c r="F713" s="20"/>
       <c r="G713" s="20"/>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" ht="12.75">
       <c r="A714" s="20"/>
       <c r="C714" s="20"/>
       <c r="D714" s="20"/>
@@ -7406,7 +7670,7 @@
       <c r="F714" s="20"/>
       <c r="G714" s="20"/>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" ht="12.75">
       <c r="A715" s="20"/>
       <c r="C715" s="20"/>
       <c r="D715" s="20"/>
@@ -7414,7 +7678,7 @@
       <c r="F715" s="20"/>
       <c r="G715" s="20"/>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" ht="12.75">
       <c r="A716" s="20"/>
       <c r="C716" s="20"/>
       <c r="D716" s="20"/>
@@ -7422,7 +7686,7 @@
       <c r="F716" s="20"/>
       <c r="G716" s="20"/>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" ht="12.75">
       <c r="A717" s="20"/>
       <c r="C717" s="20"/>
       <c r="D717" s="20"/>
@@ -7430,7 +7694,7 @@
       <c r="F717" s="20"/>
       <c r="G717" s="20"/>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" ht="12.75">
       <c r="A718" s="20"/>
       <c r="C718" s="20"/>
       <c r="D718" s="20"/>
@@ -7438,7 +7702,7 @@
       <c r="F718" s="20"/>
       <c r="G718" s="20"/>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" ht="12.75">
       <c r="A719" s="20"/>
       <c r="C719" s="20"/>
       <c r="D719" s="20"/>
@@ -7446,7 +7710,7 @@
       <c r="F719" s="20"/>
       <c r="G719" s="20"/>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" ht="12.75">
       <c r="A720" s="20"/>
       <c r="C720" s="20"/>
       <c r="D720" s="20"/>
@@ -7454,7 +7718,7 @@
       <c r="F720" s="20"/>
       <c r="G720" s="20"/>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" ht="12.75">
       <c r="A721" s="20"/>
       <c r="C721" s="20"/>
       <c r="D721" s="20"/>
@@ -7462,7 +7726,7 @@
       <c r="F721" s="20"/>
       <c r="G721" s="20"/>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" ht="12.75">
       <c r="A722" s="20"/>
       <c r="C722" s="20"/>
       <c r="D722" s="20"/>
@@ -7470,7 +7734,7 @@
       <c r="F722" s="20"/>
       <c r="G722" s="20"/>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" ht="12.75">
       <c r="A723" s="20"/>
       <c r="C723" s="20"/>
       <c r="D723" s="20"/>
@@ -7478,7 +7742,7 @@
       <c r="F723" s="20"/>
       <c r="G723" s="20"/>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" ht="12.75">
       <c r="A724" s="20"/>
       <c r="C724" s="20"/>
       <c r="D724" s="20"/>
@@ -7486,7 +7750,7 @@
       <c r="F724" s="20"/>
       <c r="G724" s="20"/>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" ht="12.75">
       <c r="A725" s="20"/>
       <c r="C725" s="20"/>
       <c r="D725" s="20"/>
@@ -7494,7 +7758,7 @@
       <c r="F725" s="20"/>
       <c r="G725" s="20"/>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" ht="12.75">
       <c r="A726" s="20"/>
       <c r="C726" s="20"/>
       <c r="D726" s="20"/>
@@ -7502,7 +7766,7 @@
       <c r="F726" s="20"/>
       <c r="G726" s="20"/>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" ht="12.75">
       <c r="A727" s="20"/>
       <c r="C727" s="20"/>
       <c r="D727" s="20"/>
@@ -7510,7 +7774,7 @@
       <c r="F727" s="20"/>
       <c r="G727" s="20"/>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" ht="12.75">
       <c r="A728" s="20"/>
       <c r="C728" s="20"/>
       <c r="D728" s="20"/>
@@ -7518,7 +7782,7 @@
       <c r="F728" s="20"/>
       <c r="G728" s="20"/>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" ht="12.75">
       <c r="A729" s="20"/>
       <c r="C729" s="20"/>
       <c r="D729" s="20"/>
@@ -7526,7 +7790,7 @@
       <c r="F729" s="20"/>
       <c r="G729" s="20"/>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" ht="12.75">
       <c r="A730" s="20"/>
       <c r="C730" s="20"/>
       <c r="D730" s="20"/>
@@ -7534,7 +7798,7 @@
       <c r="F730" s="20"/>
       <c r="G730" s="20"/>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" ht="12.75">
       <c r="A731" s="20"/>
       <c r="C731" s="20"/>
       <c r="D731" s="20"/>
@@ -7542,7 +7806,7 @@
       <c r="F731" s="20"/>
       <c r="G731" s="20"/>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" ht="12.75">
       <c r="A732" s="20"/>
       <c r="C732" s="20"/>
       <c r="D732" s="20"/>
@@ -7550,7 +7814,7 @@
       <c r="F732" s="20"/>
       <c r="G732" s="20"/>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" ht="12.75">
       <c r="A733" s="20"/>
       <c r="C733" s="20"/>
       <c r="D733" s="20"/>
@@ -7558,7 +7822,7 @@
       <c r="F733" s="20"/>
       <c r="G733" s="20"/>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" ht="12.75">
       <c r="A734" s="20"/>
       <c r="C734" s="20"/>
       <c r="D734" s="20"/>
@@ -7566,7 +7830,7 @@
       <c r="F734" s="20"/>
       <c r="G734" s="20"/>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" ht="12.75">
       <c r="A735" s="20"/>
       <c r="C735" s="20"/>
       <c r="D735" s="20"/>
@@ -7574,7 +7838,7 @@
       <c r="F735" s="20"/>
       <c r="G735" s="20"/>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" ht="12.75">
       <c r="A736" s="20"/>
       <c r="C736" s="20"/>
       <c r="D736" s="20"/>
@@ -7582,7 +7846,7 @@
       <c r="F736" s="20"/>
       <c r="G736" s="20"/>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" ht="12.75">
       <c r="A737" s="20"/>
       <c r="C737" s="20"/>
       <c r="D737" s="20"/>
@@ -7590,7 +7854,7 @@
       <c r="F737" s="20"/>
       <c r="G737" s="20"/>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" ht="12.75">
       <c r="A738" s="20"/>
       <c r="C738" s="20"/>
       <c r="D738" s="20"/>
@@ -7598,7 +7862,7 @@
       <c r="F738" s="20"/>
       <c r="G738" s="20"/>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" ht="12.75">
       <c r="A739" s="20"/>
       <c r="C739" s="20"/>
       <c r="D739" s="20"/>
@@ -7606,7 +7870,7 @@
       <c r="F739" s="20"/>
       <c r="G739" s="20"/>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" ht="12.75">
       <c r="A740" s="20"/>
       <c r="C740" s="20"/>
       <c r="D740" s="20"/>
@@ -7614,7 +7878,7 @@
       <c r="F740" s="20"/>
       <c r="G740" s="20"/>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" ht="12.75">
       <c r="A741" s="20"/>
       <c r="C741" s="20"/>
       <c r="D741" s="20"/>
@@ -7622,7 +7886,7 @@
       <c r="F741" s="20"/>
       <c r="G741" s="20"/>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" ht="12.75">
       <c r="A742" s="20"/>
       <c r="C742" s="20"/>
       <c r="D742" s="20"/>
@@ -7630,7 +7894,7 @@
       <c r="F742" s="20"/>
       <c r="G742" s="20"/>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" ht="12.75">
       <c r="A743" s="20"/>
       <c r="C743" s="20"/>
       <c r="D743" s="20"/>
@@ -7638,7 +7902,7 @@
       <c r="F743" s="20"/>
       <c r="G743" s="20"/>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" ht="12.75">
       <c r="A744" s="20"/>
       <c r="C744" s="20"/>
       <c r="D744" s="20"/>
@@ -7646,7 +7910,7 @@
       <c r="F744" s="20"/>
       <c r="G744" s="20"/>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" ht="12.75">
       <c r="A745" s="20"/>
       <c r="C745" s="20"/>
       <c r="D745" s="20"/>
@@ -7654,7 +7918,7 @@
       <c r="F745" s="20"/>
       <c r="G745" s="20"/>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" ht="12.75">
       <c r="A746" s="20"/>
       <c r="C746" s="20"/>
       <c r="D746" s="20"/>
@@ -7662,7 +7926,7 @@
       <c r="F746" s="20"/>
       <c r="G746" s="20"/>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" ht="12.75">
       <c r="A747" s="20"/>
       <c r="C747" s="20"/>
       <c r="D747" s="20"/>
@@ -7670,7 +7934,7 @@
       <c r="F747" s="20"/>
       <c r="G747" s="20"/>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" ht="12.75">
       <c r="A748" s="20"/>
       <c r="C748" s="20"/>
       <c r="D748" s="20"/>
@@ -7678,7 +7942,7 @@
       <c r="F748" s="20"/>
       <c r="G748" s="20"/>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" ht="12.75">
       <c r="A749" s="20"/>
       <c r="C749" s="20"/>
       <c r="D749" s="20"/>
@@ -7686,7 +7950,7 @@
       <c r="F749" s="20"/>
       <c r="G749" s="20"/>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" ht="12.75">
       <c r="A750" s="20"/>
       <c r="C750" s="20"/>
       <c r="D750" s="20"/>
@@ -7694,7 +7958,7 @@
       <c r="F750" s="20"/>
       <c r="G750" s="20"/>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" ht="12.75">
       <c r="A751" s="20"/>
       <c r="C751" s="20"/>
       <c r="D751" s="20"/>
@@ -7702,7 +7966,7 @@
       <c r="F751" s="20"/>
       <c r="G751" s="20"/>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" ht="12.75">
       <c r="A752" s="20"/>
       <c r="C752" s="20"/>
       <c r="D752" s="20"/>
@@ -7710,7 +7974,7 @@
       <c r="F752" s="20"/>
       <c r="G752" s="20"/>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" ht="12.75">
       <c r="A753" s="20"/>
       <c r="C753" s="20"/>
       <c r="D753" s="20"/>
@@ -7718,7 +7982,7 @@
       <c r="F753" s="20"/>
       <c r="G753" s="20"/>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" ht="12.75">
       <c r="A754" s="20"/>
       <c r="C754" s="20"/>
       <c r="D754" s="20"/>
@@ -7726,7 +7990,7 @@
       <c r="F754" s="20"/>
       <c r="G754" s="20"/>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" ht="12.75">
       <c r="A755" s="20"/>
       <c r="C755" s="20"/>
       <c r="D755" s="20"/>
@@ -7734,7 +7998,7 @@
       <c r="F755" s="20"/>
       <c r="G755" s="20"/>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" ht="12.75">
       <c r="A756" s="20"/>
       <c r="C756" s="20"/>
       <c r="D756" s="20"/>
@@ -7742,7 +8006,7 @@
       <c r="F756" s="20"/>
       <c r="G756" s="20"/>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" ht="12.75">
       <c r="A757" s="20"/>
       <c r="C757" s="20"/>
       <c r="D757" s="20"/>
@@ -7750,7 +8014,7 @@
       <c r="F757" s="20"/>
       <c r="G757" s="20"/>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" ht="12.75">
       <c r="A758" s="20"/>
       <c r="C758" s="20"/>
       <c r="D758" s="20"/>
@@ -7758,7 +8022,7 @@
       <c r="F758" s="20"/>
       <c r="G758" s="20"/>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" ht="12.75">
       <c r="A759" s="20"/>
       <c r="C759" s="20"/>
       <c r="D759" s="20"/>
@@ -7766,7 +8030,7 @@
       <c r="F759" s="20"/>
       <c r="G759" s="20"/>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" ht="12.75">
       <c r="A760" s="20"/>
       <c r="C760" s="20"/>
       <c r="D760" s="20"/>
@@ -7774,7 +8038,7 @@
       <c r="F760" s="20"/>
       <c r="G760" s="20"/>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" ht="12.75">
       <c r="A761" s="20"/>
       <c r="C761" s="20"/>
       <c r="D761" s="20"/>
@@ -7782,7 +8046,7 @@
       <c r="F761" s="20"/>
       <c r="G761" s="20"/>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" ht="12.75">
       <c r="A762" s="20"/>
       <c r="C762" s="20"/>
       <c r="D762" s="20"/>
@@ -7790,7 +8054,7 @@
       <c r="F762" s="20"/>
       <c r="G762" s="20"/>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" ht="12.75">
       <c r="A763" s="20"/>
       <c r="C763" s="20"/>
       <c r="D763" s="20"/>
@@ -7798,7 +8062,7 @@
       <c r="F763" s="20"/>
       <c r="G763" s="20"/>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" ht="12.75">
       <c r="A764" s="20"/>
       <c r="C764" s="20"/>
       <c r="D764" s="20"/>
@@ -7806,7 +8070,7 @@
       <c r="F764" s="20"/>
       <c r="G764" s="20"/>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" ht="12.75">
       <c r="A765" s="20"/>
       <c r="C765" s="20"/>
       <c r="D765" s="20"/>
@@ -7814,7 +8078,7 @@
       <c r="F765" s="20"/>
       <c r="G765" s="20"/>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" ht="12.75">
       <c r="A766" s="20"/>
       <c r="C766" s="20"/>
       <c r="D766" s="20"/>
@@ -7822,7 +8086,7 @@
       <c r="F766" s="20"/>
       <c r="G766" s="20"/>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" ht="12.75">
       <c r="A767" s="20"/>
       <c r="C767" s="20"/>
       <c r="D767" s="20"/>
@@ -7830,7 +8094,7 @@
       <c r="F767" s="20"/>
       <c r="G767" s="20"/>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" ht="12.75">
       <c r="A768" s="20"/>
       <c r="C768" s="20"/>
       <c r="D768" s="20"/>
@@ -7838,7 +8102,7 @@
       <c r="F768" s="20"/>
       <c r="G768" s="20"/>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" ht="12.75">
       <c r="A769" s="20"/>
       <c r="C769" s="20"/>
       <c r="D769" s="20"/>
@@ -7846,7 +8110,7 @@
       <c r="F769" s="20"/>
       <c r="G769" s="20"/>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" ht="12.75">
       <c r="A770" s="20"/>
       <c r="C770" s="20"/>
       <c r="D770" s="20"/>
@@ -7854,7 +8118,7 @@
       <c r="F770" s="20"/>
       <c r="G770" s="20"/>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" ht="12.75">
       <c r="A771" s="20"/>
       <c r="C771" s="20"/>
       <c r="D771" s="20"/>
@@ -7862,7 +8126,7 @@
       <c r="F771" s="20"/>
       <c r="G771" s="20"/>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" ht="12.75">
       <c r="A772" s="20"/>
       <c r="C772" s="20"/>
       <c r="D772" s="20"/>
@@ -7870,7 +8134,7 @@
       <c r="F772" s="20"/>
       <c r="G772" s="20"/>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" ht="12.75">
       <c r="A773" s="20"/>
       <c r="C773" s="20"/>
       <c r="D773" s="20"/>
@@ -7878,7 +8142,7 @@
       <c r="F773" s="20"/>
       <c r="G773" s="20"/>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" ht="12.75">
       <c r="A774" s="20"/>
       <c r="C774" s="20"/>
       <c r="D774" s="20"/>
@@ -7886,7 +8150,7 @@
       <c r="F774" s="20"/>
       <c r="G774" s="20"/>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" ht="12.75">
       <c r="A775" s="20"/>
       <c r="C775" s="20"/>
       <c r="D775" s="20"/>
@@ -7894,7 +8158,7 @@
       <c r="F775" s="20"/>
       <c r="G775" s="20"/>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" ht="12.75">
       <c r="A776" s="20"/>
       <c r="C776" s="20"/>
       <c r="D776" s="20"/>
@@ -7902,7 +8166,7 @@
       <c r="F776" s="20"/>
       <c r="G776" s="20"/>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" ht="12.75">
       <c r="A777" s="20"/>
       <c r="C777" s="20"/>
       <c r="D777" s="20"/>
@@ -7910,7 +8174,7 @@
       <c r="F777" s="20"/>
       <c r="G777" s="20"/>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" ht="12.75">
       <c r="A778" s="20"/>
       <c r="C778" s="20"/>
       <c r="D778" s="20"/>
@@ -7918,7 +8182,7 @@
       <c r="F778" s="20"/>
       <c r="G778" s="20"/>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" ht="12.75">
       <c r="A779" s="20"/>
       <c r="C779" s="20"/>
       <c r="D779" s="20"/>
@@ -7926,7 +8190,7 @@
       <c r="F779" s="20"/>
       <c r="G779" s="20"/>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" ht="12.75">
       <c r="A780" s="20"/>
       <c r="C780" s="20"/>
       <c r="D780" s="20"/>
@@ -7934,7 +8198,7 @@
       <c r="F780" s="20"/>
       <c r="G780" s="20"/>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" ht="12.75">
       <c r="A781" s="20"/>
       <c r="C781" s="20"/>
       <c r="D781" s="20"/>
@@ -7942,7 +8206,7 @@
       <c r="F781" s="20"/>
       <c r="G781" s="20"/>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" ht="12.75">
       <c r="A782" s="20"/>
       <c r="C782" s="20"/>
       <c r="D782" s="20"/>
@@ -7950,7 +8214,7 @@
       <c r="F782" s="20"/>
       <c r="G782" s="20"/>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" ht="12.75">
       <c r="A783" s="20"/>
       <c r="C783" s="20"/>
       <c r="D783" s="20"/>
@@ -7958,7 +8222,7 @@
       <c r="F783" s="20"/>
       <c r="G783" s="20"/>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" ht="12.75">
       <c r="A784" s="20"/>
       <c r="C784" s="20"/>
       <c r="D784" s="20"/>
@@ -7966,7 +8230,7 @@
       <c r="F784" s="20"/>
       <c r="G784" s="20"/>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" ht="12.75">
       <c r="A785" s="20"/>
       <c r="C785" s="20"/>
       <c r="D785" s="20"/>
@@ -7974,7 +8238,7 @@
       <c r="F785" s="20"/>
       <c r="G785" s="20"/>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" ht="12.75">
       <c r="A786" s="20"/>
       <c r="C786" s="20"/>
       <c r="D786" s="20"/>
@@ -7982,7 +8246,7 @@
       <c r="F786" s="20"/>
       <c r="G786" s="20"/>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" ht="12.75">
       <c r="A787" s="20"/>
       <c r="C787" s="20"/>
       <c r="D787" s="20"/>
@@ -7990,7 +8254,7 @@
       <c r="F787" s="20"/>
       <c r="G787" s="20"/>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" ht="12.75">
       <c r="A788" s="20"/>
       <c r="C788" s="20"/>
       <c r="D788" s="20"/>
@@ -7998,7 +8262,7 @@
       <c r="F788" s="20"/>
       <c r="G788" s="20"/>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" ht="12.75">
       <c r="A789" s="20"/>
       <c r="C789" s="20"/>
       <c r="D789" s="20"/>
@@ -8006,7 +8270,7 @@
       <c r="F789" s="20"/>
       <c r="G789" s="20"/>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" ht="12.75">
       <c r="A790" s="20"/>
       <c r="C790" s="20"/>
       <c r="D790" s="20"/>
@@ -8014,7 +8278,7 @@
       <c r="F790" s="20"/>
       <c r="G790" s="20"/>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" ht="12.75">
       <c r="A791" s="20"/>
       <c r="C791" s="20"/>
       <c r="D791" s="20"/>
@@ -8022,7 +8286,7 @@
       <c r="F791" s="20"/>
       <c r="G791" s="20"/>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" ht="12.75">
       <c r="A792" s="20"/>
       <c r="C792" s="20"/>
       <c r="D792" s="20"/>
@@ -8030,7 +8294,7 @@
       <c r="F792" s="20"/>
       <c r="G792" s="20"/>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" ht="12.75">
       <c r="A793" s="20"/>
       <c r="C793" s="20"/>
       <c r="D793" s="20"/>
@@ -8038,7 +8302,7 @@
       <c r="F793" s="20"/>
       <c r="G793" s="20"/>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" ht="12.75">
       <c r="A794" s="20"/>
       <c r="C794" s="20"/>
       <c r="D794" s="20"/>
@@ -8046,7 +8310,7 @@
       <c r="F794" s="20"/>
       <c r="G794" s="20"/>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" ht="12.75">
       <c r="A795" s="20"/>
       <c r="C795" s="20"/>
       <c r="D795" s="20"/>
@@ -8054,7 +8318,7 @@
       <c r="F795" s="20"/>
       <c r="G795" s="20"/>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" ht="12.75">
       <c r="A796" s="20"/>
       <c r="C796" s="20"/>
       <c r="D796" s="20"/>
@@ -8062,7 +8326,7 @@
       <c r="F796" s="20"/>
       <c r="G796" s="20"/>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" ht="12.75">
       <c r="A797" s="20"/>
       <c r="C797" s="20"/>
       <c r="D797" s="20"/>
@@ -8070,7 +8334,7 @@
       <c r="F797" s="20"/>
       <c r="G797" s="20"/>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" ht="12.75">
       <c r="A798" s="20"/>
       <c r="C798" s="20"/>
       <c r="D798" s="20"/>
@@ -8078,7 +8342,7 @@
       <c r="F798" s="20"/>
       <c r="G798" s="20"/>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" ht="12.75">
       <c r="A799" s="20"/>
       <c r="C799" s="20"/>
       <c r="D799" s="20"/>
@@ -8086,7 +8350,7 @@
       <c r="F799" s="20"/>
       <c r="G799" s="20"/>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" ht="12.75">
       <c r="A800" s="20"/>
       <c r="C800" s="20"/>
       <c r="D800" s="20"/>
@@ -8094,7 +8358,7 @@
       <c r="F800" s="20"/>
       <c r="G800" s="20"/>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" ht="12.75">
       <c r="A801" s="20"/>
       <c r="C801" s="20"/>
       <c r="D801" s="20"/>
@@ -8102,7 +8366,7 @@
       <c r="F801" s="20"/>
       <c r="G801" s="20"/>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" ht="12.75">
       <c r="A802" s="20"/>
       <c r="C802" s="20"/>
       <c r="D802" s="20"/>
@@ -8110,7 +8374,7 @@
       <c r="F802" s="20"/>
       <c r="G802" s="20"/>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" ht="12.75">
       <c r="A803" s="20"/>
       <c r="C803" s="20"/>
       <c r="D803" s="20"/>
@@ -8118,7 +8382,7 @@
       <c r="F803" s="20"/>
       <c r="G803" s="20"/>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" ht="12.75">
       <c r="A804" s="20"/>
       <c r="C804" s="20"/>
       <c r="D804" s="20"/>
@@ -8126,7 +8390,7 @@
       <c r="F804" s="20"/>
       <c r="G804" s="20"/>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" ht="12.75">
       <c r="A805" s="20"/>
       <c r="C805" s="20"/>
       <c r="D805" s="20"/>
@@ -8134,7 +8398,7 @@
       <c r="F805" s="20"/>
       <c r="G805" s="20"/>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" ht="12.75">
       <c r="A806" s="20"/>
       <c r="C806" s="20"/>
       <c r="D806" s="20"/>
@@ -8142,7 +8406,7 @@
       <c r="F806" s="20"/>
       <c r="G806" s="20"/>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" ht="12.75">
       <c r="A807" s="20"/>
       <c r="C807" s="20"/>
       <c r="D807" s="20"/>
@@ -8150,7 +8414,7 @@
       <c r="F807" s="20"/>
       <c r="G807" s="20"/>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" ht="12.75">
       <c r="A808" s="20"/>
       <c r="C808" s="20"/>
       <c r="D808" s="20"/>
@@ -8158,7 +8422,7 @@
       <c r="F808" s="20"/>
       <c r="G808" s="20"/>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" ht="12.75">
       <c r="A809" s="20"/>
       <c r="C809" s="20"/>
       <c r="D809" s="20"/>
@@ -8166,7 +8430,7 @@
       <c r="F809" s="20"/>
       <c r="G809" s="20"/>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" ht="12.75">
       <c r="A810" s="20"/>
       <c r="C810" s="20"/>
       <c r="D810" s="20"/>
@@ -8174,7 +8438,7 @@
       <c r="F810" s="20"/>
       <c r="G810" s="20"/>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" ht="12.75">
       <c r="A811" s="20"/>
       <c r="C811" s="20"/>
       <c r="D811" s="20"/>
@@ -8182,7 +8446,7 @@
       <c r="F811" s="20"/>
       <c r="G811" s="20"/>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" ht="12.75">
       <c r="A812" s="20"/>
       <c r="C812" s="20"/>
       <c r="D812" s="20"/>
@@ -8190,7 +8454,7 @@
       <c r="F812" s="20"/>
       <c r="G812" s="20"/>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" ht="12.75">
       <c r="A813" s="20"/>
       <c r="C813" s="20"/>
       <c r="D813" s="20"/>
@@ -8198,7 +8462,7 @@
       <c r="F813" s="20"/>
       <c r="G813" s="20"/>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" ht="12.75">
       <c r="A814" s="20"/>
       <c r="C814" s="20"/>
       <c r="D814" s="20"/>
@@ -8206,7 +8470,7 @@
       <c r="F814" s="20"/>
       <c r="G814" s="20"/>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" ht="12.75">
       <c r="A815" s="20"/>
       <c r="C815" s="20"/>
       <c r="D815" s="20"/>
@@ -8214,7 +8478,7 @@
       <c r="F815" s="20"/>
       <c r="G815" s="20"/>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" ht="12.75">
       <c r="A816" s="20"/>
       <c r="C816" s="20"/>
       <c r="D816" s="20"/>
@@ -8222,7 +8486,7 @@
       <c r="F816" s="20"/>
       <c r="G816" s="20"/>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" ht="12.75">
       <c r="A817" s="20"/>
       <c r="C817" s="20"/>
       <c r="D817" s="20"/>
@@ -8230,7 +8494,7 @@
       <c r="F817" s="20"/>
       <c r="G817" s="20"/>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" ht="12.75">
       <c r="A818" s="20"/>
       <c r="C818" s="20"/>
       <c r="D818" s="20"/>
@@ -8238,7 +8502,7 @@
       <c r="F818" s="20"/>
       <c r="G818" s="20"/>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" ht="12.75">
       <c r="A819" s="20"/>
       <c r="C819" s="20"/>
       <c r="D819" s="20"/>
@@ -8246,7 +8510,7 @@
       <c r="F819" s="20"/>
       <c r="G819" s="20"/>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" ht="12.75">
       <c r="A820" s="20"/>
       <c r="C820" s="20"/>
       <c r="D820" s="20"/>
@@ -8254,7 +8518,7 @@
       <c r="F820" s="20"/>
       <c r="G820" s="20"/>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" ht="12.75">
       <c r="A821" s="20"/>
       <c r="C821" s="20"/>
       <c r="D821" s="20"/>
@@ -8262,7 +8526,7 @@
       <c r="F821" s="20"/>
       <c r="G821" s="20"/>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" ht="12.75">
       <c r="A822" s="20"/>
       <c r="C822" s="20"/>
       <c r="D822" s="20"/>
@@ -8270,7 +8534,7 @@
       <c r="F822" s="20"/>
       <c r="G822" s="20"/>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" ht="12.75">
       <c r="A823" s="20"/>
       <c r="C823" s="20"/>
       <c r="D823" s="20"/>
@@ -8278,7 +8542,7 @@
       <c r="F823" s="20"/>
       <c r="G823" s="20"/>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" ht="12.75">
       <c r="A824" s="20"/>
       <c r="C824" s="20"/>
       <c r="D824" s="20"/>
@@ -8286,7 +8550,7 @@
       <c r="F824" s="20"/>
       <c r="G824" s="20"/>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" ht="12.75">
       <c r="A825" s="20"/>
       <c r="C825" s="20"/>
       <c r="D825" s="20"/>
@@ -8294,7 +8558,7 @@
       <c r="F825" s="20"/>
       <c r="G825" s="20"/>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" ht="12.75">
       <c r="A826" s="20"/>
       <c r="C826" s="20"/>
       <c r="D826" s="20"/>
@@ -8302,7 +8566,7 @@
       <c r="F826" s="20"/>
       <c r="G826" s="20"/>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" ht="12.75">
       <c r="A827" s="20"/>
       <c r="C827" s="20"/>
       <c r="D827" s="20"/>
@@ -8310,7 +8574,7 @@
       <c r="F827" s="20"/>
       <c r="G827" s="20"/>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" ht="12.75">
       <c r="A828" s="20"/>
       <c r="C828" s="20"/>
       <c r="D828" s="20"/>
@@ -8318,7 +8582,7 @@
       <c r="F828" s="20"/>
       <c r="G828" s="20"/>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" ht="12.75">
       <c r="A829" s="20"/>
       <c r="C829" s="20"/>
       <c r="D829" s="20"/>
@@ -8326,7 +8590,7 @@
       <c r="F829" s="20"/>
       <c r="G829" s="20"/>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" ht="12.75">
       <c r="A830" s="20"/>
       <c r="C830" s="20"/>
       <c r="D830" s="20"/>
@@ -8334,7 +8598,7 @@
       <c r="F830" s="20"/>
       <c r="G830" s="20"/>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" ht="12.75">
       <c r="A831" s="20"/>
       <c r="C831" s="20"/>
       <c r="D831" s="20"/>
@@ -8342,7 +8606,7 @@
       <c r="F831" s="20"/>
       <c r="G831" s="20"/>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" ht="12.75">
       <c r="A832" s="20"/>
       <c r="C832" s="20"/>
       <c r="D832" s="20"/>
@@ -8350,7 +8614,7 @@
       <c r="F832" s="20"/>
       <c r="G832" s="20"/>
     </row>
-    <row r="833" spans="1:7">
+    <row r="833" spans="1:7" ht="12.75">
       <c r="A833" s="20"/>
       <c r="C833" s="20"/>
       <c r="D833" s="20"/>
@@ -8358,7 +8622,7 @@
       <c r="F833" s="20"/>
       <c r="G833" s="20"/>
     </row>
-    <row r="834" spans="1:7">
+    <row r="834" spans="1:7" ht="12.75">
       <c r="A834" s="20"/>
       <c r="C834" s="20"/>
       <c r="D834" s="20"/>
@@ -8366,7 +8630,7 @@
       <c r="F834" s="20"/>
       <c r="G834" s="20"/>
     </row>
-    <row r="835" spans="1:7">
+    <row r="835" spans="1:7" ht="12.75">
       <c r="A835" s="20"/>
       <c r="C835" s="20"/>
       <c r="D835" s="20"/>
@@ -8374,7 +8638,7 @@
       <c r="F835" s="20"/>
       <c r="G835" s="20"/>
     </row>
-    <row r="836" spans="1:7">
+    <row r="836" spans="1:7" ht="12.75">
       <c r="A836" s="20"/>
       <c r="C836" s="20"/>
       <c r="D836" s="20"/>
@@ -8382,7 +8646,7 @@
       <c r="F836" s="20"/>
       <c r="G836" s="20"/>
     </row>
-    <row r="837" spans="1:7">
+    <row r="837" spans="1:7" ht="12.75">
       <c r="A837" s="20"/>
       <c r="C837" s="20"/>
       <c r="D837" s="20"/>
@@ -8390,7 +8654,7 @@
       <c r="F837" s="20"/>
       <c r="G837" s="20"/>
     </row>
-    <row r="838" spans="1:7">
+    <row r="838" spans="1:7" ht="12.75">
       <c r="A838" s="20"/>
       <c r="C838" s="20"/>
       <c r="D838" s="20"/>
@@ -8398,7 +8662,7 @@
       <c r="F838" s="20"/>
       <c r="G838" s="20"/>
     </row>
-    <row r="839" spans="1:7">
+    <row r="839" spans="1:7" ht="12.75">
       <c r="A839" s="20"/>
       <c r="C839" s="20"/>
       <c r="D839" s="20"/>
@@ -8406,7 +8670,7 @@
       <c r="F839" s="20"/>
       <c r="G839" s="20"/>
     </row>
-    <row r="840" spans="1:7">
+    <row r="840" spans="1:7" ht="12.75">
       <c r="A840" s="20"/>
       <c r="C840" s="20"/>
       <c r="D840" s="20"/>
@@ -8414,7 +8678,7 @@
       <c r="F840" s="20"/>
       <c r="G840" s="20"/>
     </row>
-    <row r="841" spans="1:7">
+    <row r="841" spans="1:7" ht="12.75">
       <c r="A841" s="20"/>
       <c r="C841" s="20"/>
       <c r="D841" s="20"/>
@@ -8422,7 +8686,7 @@
       <c r="F841" s="20"/>
       <c r="G841" s="20"/>
     </row>
-    <row r="842" spans="1:7">
+    <row r="842" spans="1:7" ht="12.75">
       <c r="A842" s="20"/>
       <c r="C842" s="20"/>
       <c r="D842" s="20"/>
@@ -8430,7 +8694,7 @@
       <c r="F842" s="20"/>
       <c r="G842" s="20"/>
     </row>
-    <row r="843" spans="1:7">
+    <row r="843" spans="1:7" ht="12.75">
       <c r="A843" s="20"/>
       <c r="C843" s="20"/>
       <c r="D843" s="20"/>
@@ -8438,7 +8702,7 @@
       <c r="F843" s="20"/>
       <c r="G843" s="20"/>
     </row>
-    <row r="844" spans="1:7">
+    <row r="844" spans="1:7" ht="12.75">
       <c r="A844" s="20"/>
       <c r="C844" s="20"/>
       <c r="D844" s="20"/>
@@ -8446,7 +8710,7 @@
       <c r="F844" s="20"/>
       <c r="G844" s="20"/>
     </row>
-    <row r="845" spans="1:7">
+    <row r="845" spans="1:7" ht="12.75">
       <c r="A845" s="20"/>
       <c r="C845" s="20"/>
       <c r="D845" s="20"/>
@@ -8454,7 +8718,7 @@
       <c r="F845" s="20"/>
       <c r="G845" s="20"/>
     </row>
-    <row r="846" spans="1:7">
+    <row r="846" spans="1:7" ht="12.75">
       <c r="A846" s="20"/>
       <c r="C846" s="20"/>
       <c r="D846" s="20"/>
@@ -8462,7 +8726,7 @@
       <c r="F846" s="20"/>
       <c r="G846" s="20"/>
     </row>
-    <row r="847" spans="1:7">
+    <row r="847" spans="1:7" ht="12.75">
       <c r="A847" s="20"/>
       <c r="C847" s="20"/>
       <c r="D847" s="20"/>
@@ -8470,7 +8734,7 @@
       <c r="F847" s="20"/>
       <c r="G847" s="20"/>
     </row>
-    <row r="848" spans="1:7">
+    <row r="848" spans="1:7" ht="12.75">
       <c r="A848" s="20"/>
       <c r="C848" s="20"/>
       <c r="D848" s="20"/>
@@ -8478,7 +8742,7 @@
       <c r="F848" s="20"/>
       <c r="G848" s="20"/>
     </row>
-    <row r="849" spans="1:7">
+    <row r="849" spans="1:7" ht="12.75">
       <c r="A849" s="20"/>
       <c r="C849" s="20"/>
       <c r="D849" s="20"/>
@@ -8486,7 +8750,7 @@
       <c r="F849" s="20"/>
       <c r="G849" s="20"/>
     </row>
-    <row r="850" spans="1:7">
+    <row r="850" spans="1:7" ht="12.75">
       <c r="A850" s="20"/>
       <c r="C850" s="20"/>
       <c r="D850" s="20"/>
@@ -8494,7 +8758,7 @@
       <c r="F850" s="20"/>
       <c r="G850" s="20"/>
     </row>
-    <row r="851" spans="1:7">
+    <row r="851" spans="1:7" ht="12.75">
       <c r="A851" s="20"/>
       <c r="C851" s="20"/>
       <c r="D851" s="20"/>
@@ -8502,7 +8766,7 @@
       <c r="F851" s="20"/>
       <c r="G851" s="20"/>
     </row>
-    <row r="852" spans="1:7">
+    <row r="852" spans="1:7" ht="12.75">
       <c r="A852" s="20"/>
       <c r="C852" s="20"/>
       <c r="D852" s="20"/>
@@ -8510,7 +8774,7 @@
       <c r="F852" s="20"/>
       <c r="G852" s="20"/>
     </row>
-    <row r="853" spans="1:7">
+    <row r="853" spans="1:7" ht="12.75">
       <c r="A853" s="20"/>
       <c r="C853" s="20"/>
       <c r="D853" s="20"/>
@@ -8518,7 +8782,7 @@
       <c r="F853" s="20"/>
       <c r="G853" s="20"/>
     </row>
-    <row r="854" spans="1:7">
+    <row r="854" spans="1:7" ht="12.75">
       <c r="A854" s="20"/>
       <c r="C854" s="20"/>
       <c r="D854" s="20"/>
@@ -8526,7 +8790,7 @@
       <c r="F854" s="20"/>
       <c r="G854" s="20"/>
     </row>
-    <row r="855" spans="1:7">
+    <row r="855" spans="1:7" ht="12.75">
       <c r="A855" s="20"/>
       <c r="C855" s="20"/>
       <c r="D855" s="20"/>
@@ -8534,7 +8798,7 @@
       <c r="F855" s="20"/>
       <c r="G855" s="20"/>
     </row>
-    <row r="856" spans="1:7">
+    <row r="856" spans="1:7" ht="12.75">
       <c r="A856" s="20"/>
       <c r="C856" s="20"/>
       <c r="D856" s="20"/>
@@ -8542,7 +8806,7 @@
       <c r="F856" s="20"/>
       <c r="G856" s="20"/>
     </row>
-    <row r="857" spans="1:7">
+    <row r="857" spans="1:7" ht="12.75">
       <c r="A857" s="20"/>
       <c r="C857" s="20"/>
       <c r="D857" s="20"/>
@@ -8550,7 +8814,7 @@
       <c r="F857" s="20"/>
       <c r="G857" s="20"/>
     </row>
-    <row r="858" spans="1:7">
+    <row r="858" spans="1:7" ht="12.75">
       <c r="A858" s="20"/>
       <c r="C858" s="20"/>
       <c r="D858" s="20"/>
@@ -8558,7 +8822,7 @@
       <c r="F858" s="20"/>
       <c r="G858" s="20"/>
     </row>
-    <row r="859" spans="1:7">
+    <row r="859" spans="1:7" ht="12.75">
       <c r="A859" s="20"/>
       <c r="C859" s="20"/>
       <c r="D859" s="20"/>
@@ -8566,7 +8830,7 @@
       <c r="F859" s="20"/>
       <c r="G859" s="20"/>
     </row>
-    <row r="860" spans="1:7">
+    <row r="860" spans="1:7" ht="12.75">
       <c r="A860" s="20"/>
       <c r="C860" s="20"/>
       <c r="D860" s="20"/>
@@ -8574,7 +8838,7 @@
       <c r="F860" s="20"/>
       <c r="G860" s="20"/>
     </row>
-    <row r="861" spans="1:7">
+    <row r="861" spans="1:7" ht="12.75">
       <c r="A861" s="20"/>
       <c r="C861" s="20"/>
       <c r="D861" s="20"/>
@@ -8582,7 +8846,7 @@
       <c r="F861" s="20"/>
       <c r="G861" s="20"/>
     </row>
-    <row r="862" spans="1:7">
+    <row r="862" spans="1:7" ht="12.75">
       <c r="A862" s="20"/>
       <c r="C862" s="20"/>
       <c r="D862" s="20"/>
@@ -8590,7 +8854,7 @@
       <c r="F862" s="20"/>
       <c r="G862" s="20"/>
     </row>
-    <row r="863" spans="1:7">
+    <row r="863" spans="1:7" ht="12.75">
       <c r="A863" s="20"/>
       <c r="C863" s="20"/>
       <c r="D863" s="20"/>
@@ -8598,7 +8862,7 @@
       <c r="F863" s="20"/>
       <c r="G863" s="20"/>
     </row>
-    <row r="864" spans="1:7">
+    <row r="864" spans="1:7" ht="12.75">
       <c r="A864" s="20"/>
       <c r="C864" s="20"/>
       <c r="D864" s="20"/>
@@ -8606,7 +8870,7 @@
       <c r="F864" s="20"/>
       <c r="G864" s="20"/>
     </row>
-    <row r="865" spans="1:7">
+    <row r="865" spans="1:7" ht="12.75">
       <c r="A865" s="20"/>
       <c r="C865" s="20"/>
       <c r="D865" s="20"/>
@@ -8614,7 +8878,7 @@
       <c r="F865" s="20"/>
       <c r="G865" s="20"/>
     </row>
-    <row r="866" spans="1:7">
+    <row r="866" spans="1:7" ht="12.75">
       <c r="A866" s="20"/>
       <c r="C866" s="20"/>
       <c r="D866" s="20"/>
@@ -8622,7 +8886,7 @@
       <c r="F866" s="20"/>
       <c r="G866" s="20"/>
     </row>
-    <row r="867" spans="1:7">
+    <row r="867" spans="1:7" ht="12.75">
       <c r="A867" s="20"/>
       <c r="C867" s="20"/>
       <c r="D867" s="20"/>
@@ -8630,7 +8894,7 @@
       <c r="F867" s="20"/>
       <c r="G867" s="20"/>
     </row>
-    <row r="868" spans="1:7">
+    <row r="868" spans="1:7" ht="12.75">
       <c r="A868" s="20"/>
       <c r="C868" s="20"/>
       <c r="D868" s="20"/>
@@ -8638,7 +8902,7 @@
       <c r="F868" s="20"/>
       <c r="G868" s="20"/>
     </row>
-    <row r="869" spans="1:7">
+    <row r="869" spans="1:7" ht="12.75">
       <c r="A869" s="20"/>
       <c r="C869" s="20"/>
       <c r="D869" s="20"/>
@@ -8646,7 +8910,7 @@
       <c r="F869" s="20"/>
       <c r="G869" s="20"/>
     </row>
-    <row r="870" spans="1:7">
+    <row r="870" spans="1:7" ht="12.75">
       <c r="A870" s="20"/>
       <c r="C870" s="20"/>
       <c r="D870" s="20"/>
@@ -8654,7 +8918,7 @@
       <c r="F870" s="20"/>
       <c r="G870" s="20"/>
     </row>
-    <row r="871" spans="1:7">
+    <row r="871" spans="1:7" ht="12.75">
       <c r="A871" s="20"/>
       <c r="C871" s="20"/>
       <c r="D871" s="20"/>
@@ -8662,7 +8926,7 @@
       <c r="F871" s="20"/>
       <c r="G871" s="20"/>
     </row>
-    <row r="872" spans="1:7">
+    <row r="872" spans="1:7" ht="12.75">
       <c r="A872" s="20"/>
       <c r="C872" s="20"/>
       <c r="D872" s="20"/>
@@ -8670,7 +8934,7 @@
       <c r="F872" s="20"/>
       <c r="G872" s="20"/>
     </row>
-    <row r="873" spans="1:7">
+    <row r="873" spans="1:7" ht="12.75">
       <c r="A873" s="20"/>
       <c r="C873" s="20"/>
       <c r="D873" s="20"/>
@@ -8678,7 +8942,7 @@
       <c r="F873" s="20"/>
       <c r="G873" s="20"/>
     </row>
-    <row r="874" spans="1:7">
+    <row r="874" spans="1:7" ht="12.75">
       <c r="A874" s="20"/>
       <c r="C874" s="20"/>
       <c r="D874" s="20"/>
@@ -8686,7 +8950,7 @@
       <c r="F874" s="20"/>
       <c r="G874" s="20"/>
     </row>
-    <row r="875" spans="1:7">
+    <row r="875" spans="1:7" ht="12.75">
       <c r="A875" s="20"/>
       <c r="C875" s="20"/>
       <c r="D875" s="20"/>
@@ -8694,7 +8958,7 @@
       <c r="F875" s="20"/>
       <c r="G875" s="20"/>
     </row>
-    <row r="876" spans="1:7">
+    <row r="876" spans="1:7" ht="12.75">
       <c r="A876" s="20"/>
       <c r="C876" s="20"/>
       <c r="D876" s="20"/>
@@ -8702,7 +8966,7 @@
       <c r="F876" s="20"/>
       <c r="G876" s="20"/>
     </row>
-    <row r="877" spans="1:7">
+    <row r="877" spans="1:7" ht="12.75">
       <c r="A877" s="20"/>
       <c r="C877" s="20"/>
       <c r="D877" s="20"/>
@@ -8710,7 +8974,7 @@
       <c r="F877" s="20"/>
       <c r="G877" s="20"/>
     </row>
-    <row r="878" spans="1:7">
+    <row r="878" spans="1:7" ht="12.75">
       <c r="A878" s="20"/>
       <c r="C878" s="20"/>
       <c r="D878" s="20"/>
@@ -8718,7 +8982,7 @@
       <c r="F878" s="20"/>
       <c r="G878" s="20"/>
     </row>
-    <row r="879" spans="1:7">
+    <row r="879" spans="1:7" ht="12.75">
       <c r="A879" s="20"/>
       <c r="C879" s="20"/>
       <c r="D879" s="20"/>
@@ -8726,7 +8990,7 @@
       <c r="F879" s="20"/>
       <c r="G879" s="20"/>
     </row>
-    <row r="880" spans="1:7">
+    <row r="880" spans="1:7" ht="12.75">
       <c r="A880" s="20"/>
       <c r="C880" s="20"/>
       <c r="D880" s="20"/>
@@ -8734,7 +8998,7 @@
       <c r="F880" s="20"/>
       <c r="G880" s="20"/>
     </row>
-    <row r="881" spans="1:7">
+    <row r="881" spans="1:7" ht="12.75">
       <c r="A881" s="20"/>
       <c r="C881" s="20"/>
       <c r="D881" s="20"/>
@@ -8742,7 +9006,7 @@
       <c r="F881" s="20"/>
       <c r="G881" s="20"/>
     </row>
-    <row r="882" spans="1:7">
+    <row r="882" spans="1:7" ht="12.75">
       <c r="A882" s="20"/>
       <c r="C882" s="20"/>
       <c r="D882" s="20"/>
@@ -8750,7 +9014,7 @@
       <c r="F882" s="20"/>
       <c r="G882" s="20"/>
     </row>
-    <row r="883" spans="1:7">
+    <row r="883" spans="1:7" ht="12.75">
       <c r="A883" s="20"/>
       <c r="C883" s="20"/>
       <c r="D883" s="20"/>
@@ -8758,7 +9022,7 @@
       <c r="F883" s="20"/>
       <c r="G883" s="20"/>
     </row>
-    <row r="884" spans="1:7">
+    <row r="884" spans="1:7" ht="12.75">
       <c r="A884" s="20"/>
       <c r="C884" s="20"/>
       <c r="D884" s="20"/>
@@ -8766,7 +9030,7 @@
       <c r="F884" s="20"/>
       <c r="G884" s="20"/>
     </row>
-    <row r="885" spans="1:7">
+    <row r="885" spans="1:7" ht="12.75">
       <c r="A885" s="20"/>
       <c r="C885" s="20"/>
       <c r="D885" s="20"/>
@@ -8774,7 +9038,7 @@
       <c r="F885" s="20"/>
       <c r="G885" s="20"/>
     </row>
-    <row r="886" spans="1:7">
+    <row r="886" spans="1:7" ht="12.75">
       <c r="A886" s="20"/>
       <c r="C886" s="20"/>
       <c r="D886" s="20"/>
@@ -8782,7 +9046,7 @@
       <c r="F886" s="20"/>
       <c r="G886" s="20"/>
     </row>
-    <row r="887" spans="1:7">
+    <row r="887" spans="1:7" ht="12.75">
       <c r="A887" s="20"/>
       <c r="C887" s="20"/>
       <c r="D887" s="20"/>
@@ -8790,7 +9054,7 @@
       <c r="F887" s="20"/>
       <c r="G887" s="20"/>
     </row>
-    <row r="888" spans="1:7">
+    <row r="888" spans="1:7" ht="12.75">
       <c r="A888" s="20"/>
       <c r="C888" s="20"/>
       <c r="D888" s="20"/>
@@ -8798,7 +9062,7 @@
       <c r="F888" s="20"/>
       <c r="G888" s="20"/>
     </row>
-    <row r="889" spans="1:7">
+    <row r="889" spans="1:7" ht="12.75">
       <c r="A889" s="20"/>
       <c r="C889" s="20"/>
       <c r="D889" s="20"/>
@@ -8806,7 +9070,7 @@
       <c r="F889" s="20"/>
       <c r="G889" s="20"/>
     </row>
-    <row r="890" spans="1:7">
+    <row r="890" spans="1:7" ht="12.75">
       <c r="A890" s="20"/>
       <c r="C890" s="20"/>
       <c r="D890" s="20"/>
@@ -8814,7 +9078,7 @@
       <c r="F890" s="20"/>
       <c r="G890" s="20"/>
     </row>
-    <row r="891" spans="1:7">
+    <row r="891" spans="1:7" ht="12.75">
       <c r="A891" s="20"/>
       <c r="C891" s="20"/>
       <c r="D891" s="20"/>
@@ -8822,7 +9086,7 @@
       <c r="F891" s="20"/>
       <c r="G891" s="20"/>
     </row>
-    <row r="892" spans="1:7">
+    <row r="892" spans="1:7" ht="12.75">
       <c r="A892" s="20"/>
       <c r="C892" s="20"/>
       <c r="D892" s="20"/>
@@ -8830,7 +9094,7 @@
       <c r="F892" s="20"/>
       <c r="G892" s="20"/>
     </row>
-    <row r="893" spans="1:7">
+    <row r="893" spans="1:7" ht="12.75">
       <c r="A893" s="20"/>
       <c r="C893" s="20"/>
       <c r="D893" s="20"/>
@@ -8838,7 +9102,7 @@
       <c r="F893" s="20"/>
       <c r="G893" s="20"/>
     </row>
-    <row r="894" spans="1:7">
+    <row r="894" spans="1:7" ht="12.75">
       <c r="A894" s="20"/>
       <c r="C894" s="20"/>
       <c r="D894" s="20"/>
@@ -8846,7 +9110,7 @@
       <c r="F894" s="20"/>
       <c r="G894" s="20"/>
     </row>
-    <row r="895" spans="1:7">
+    <row r="895" spans="1:7" ht="12.75">
       <c r="A895" s="20"/>
       <c r="C895" s="20"/>
       <c r="D895" s="20"/>
@@ -8854,7 +9118,7 @@
       <c r="F895" s="20"/>
       <c r="G895" s="20"/>
     </row>
-    <row r="896" spans="1:7">
+    <row r="896" spans="1:7" ht="12.75">
       <c r="A896" s="20"/>
       <c r="C896" s="20"/>
       <c r="D896" s="20"/>
@@ -8862,7 +9126,7 @@
       <c r="F896" s="20"/>
       <c r="G896" s="20"/>
     </row>
-    <row r="897" spans="1:7">
+    <row r="897" spans="1:7" ht="12.75">
       <c r="A897" s="20"/>
       <c r="C897" s="20"/>
       <c r="D897" s="20"/>
@@ -8870,7 +9134,7 @@
       <c r="F897" s="20"/>
       <c r="G897" s="20"/>
     </row>
-    <row r="898" spans="1:7">
+    <row r="898" spans="1:7" ht="12.75">
       <c r="A898" s="20"/>
       <c r="C898" s="20"/>
       <c r="D898" s="20"/>
@@ -8878,7 +9142,7 @@
       <c r="F898" s="20"/>
       <c r="G898" s="20"/>
     </row>
-    <row r="899" spans="1:7">
+    <row r="899" spans="1:7" ht="12.75">
       <c r="A899" s="20"/>
       <c r="C899" s="20"/>
       <c r="D899" s="20"/>
@@ -8886,7 +9150,7 @@
       <c r="F899" s="20"/>
       <c r="G899" s="20"/>
     </row>
-    <row r="900" spans="1:7">
+    <row r="900" spans="1:7" ht="12.75">
       <c r="A900" s="20"/>
       <c r="C900" s="20"/>
       <c r="D900" s="20"/>
@@ -8894,7 +9158,7 @@
       <c r="F900" s="20"/>
       <c r="G900" s="20"/>
     </row>
-    <row r="901" spans="1:7">
+    <row r="901" spans="1:7" ht="12.75">
       <c r="A901" s="20"/>
       <c r="C901" s="20"/>
       <c r="D901" s="20"/>
@@ -8902,7 +9166,7 @@
       <c r="F901" s="20"/>
       <c r="G901" s="20"/>
     </row>
-    <row r="902" spans="1:7">
+    <row r="902" spans="1:7" ht="12.75">
       <c r="A902" s="20"/>
       <c r="C902" s="20"/>
       <c r="D902" s="20"/>
@@ -8910,7 +9174,7 @@
       <c r="F902" s="20"/>
       <c r="G902" s="20"/>
     </row>
-    <row r="903" spans="1:7">
+    <row r="903" spans="1:7" ht="12.75">
       <c r="A903" s="20"/>
       <c r="C903" s="20"/>
       <c r="D903" s="20"/>
@@ -8918,7 +9182,7 @@
       <c r="F903" s="20"/>
       <c r="G903" s="20"/>
     </row>
-    <row r="904" spans="1:7">
+    <row r="904" spans="1:7" ht="12.75">
       <c r="A904" s="20"/>
       <c r="C904" s="20"/>
       <c r="D904" s="20"/>
@@ -8926,7 +9190,7 @@
       <c r="F904" s="20"/>
       <c r="G904" s="20"/>
     </row>
-    <row r="905" spans="1:7">
+    <row r="905" spans="1:7" ht="12.75">
       <c r="A905" s="20"/>
       <c r="C905" s="20"/>
       <c r="D905" s="20"/>
@@ -8934,7 +9198,7 @@
       <c r="F905" s="20"/>
       <c r="G905" s="20"/>
     </row>
-    <row r="906" spans="1:7">
+    <row r="906" spans="1:7" ht="12.75">
       <c r="A906" s="20"/>
       <c r="C906" s="20"/>
       <c r="D906" s="20"/>
@@ -8942,7 +9206,7 @@
       <c r="F906" s="20"/>
       <c r="G906" s="20"/>
     </row>
-    <row r="907" spans="1:7">
+    <row r="907" spans="1:7" ht="12.75">
       <c r="A907" s="20"/>
       <c r="C907" s="20"/>
       <c r="D907" s="20"/>
@@ -8950,7 +9214,7 @@
       <c r="F907" s="20"/>
       <c r="G907" s="20"/>
     </row>
-    <row r="908" spans="1:7">
+    <row r="908" spans="1:7" ht="12.75">
       <c r="A908" s="20"/>
       <c r="C908" s="20"/>
       <c r="D908" s="20"/>
@@ -8958,7 +9222,7 @@
       <c r="F908" s="20"/>
       <c r="G908" s="20"/>
     </row>
-    <row r="909" spans="1:7">
+    <row r="909" spans="1:7" ht="12.75">
       <c r="A909" s="20"/>
       <c r="C909" s="20"/>
       <c r="D909" s="20"/>
@@ -8966,7 +9230,7 @@
       <c r="F909" s="20"/>
       <c r="G909" s="20"/>
     </row>
-    <row r="910" spans="1:7">
+    <row r="910" spans="1:7" ht="12.75">
       <c r="A910" s="20"/>
       <c r="C910" s="20"/>
       <c r="D910" s="20"/>
@@ -8974,7 +9238,7 @@
       <c r="F910" s="20"/>
       <c r="G910" s="20"/>
     </row>
-    <row r="911" spans="1:7">
+    <row r="911" spans="1:7" ht="12.75">
       <c r="A911" s="20"/>
       <c r="C911" s="20"/>
       <c r="D911" s="20"/>
@@ -8982,7 +9246,7 @@
       <c r="F911" s="20"/>
       <c r="G911" s="20"/>
     </row>
-    <row r="912" spans="1:7">
+    <row r="912" spans="1:7" ht="12.75">
       <c r="A912" s="20"/>
       <c r="C912" s="20"/>
       <c r="D912" s="20"/>
@@ -8990,7 +9254,7 @@
       <c r="F912" s="20"/>
       <c r="G912" s="20"/>
     </row>
-    <row r="913" spans="1:7">
+    <row r="913" spans="1:7" ht="12.75">
       <c r="A913" s="20"/>
       <c r="C913" s="20"/>
       <c r="D913" s="20"/>
@@ -8998,7 +9262,7 @@
       <c r="F913" s="20"/>
       <c r="G913" s="20"/>
     </row>
-    <row r="914" spans="1:7">
+    <row r="914" spans="1:7" ht="12.75">
       <c r="A914" s="20"/>
       <c r="C914" s="20"/>
       <c r="D914" s="20"/>
@@ -9006,7 +9270,7 @@
       <c r="F914" s="20"/>
       <c r="G914" s="20"/>
     </row>
-    <row r="915" spans="1:7">
+    <row r="915" spans="1:7" ht="12.75">
       <c r="A915" s="20"/>
       <c r="C915" s="20"/>
       <c r="D915" s="20"/>
@@ -9014,7 +9278,7 @@
       <c r="F915" s="20"/>
       <c r="G915" s="20"/>
     </row>
-    <row r="916" spans="1:7">
+    <row r="916" spans="1:7" ht="12.75">
       <c r="A916" s="20"/>
       <c r="C916" s="20"/>
       <c r="D916" s="20"/>
@@ -9022,7 +9286,7 @@
       <c r="F916" s="20"/>
       <c r="G916" s="20"/>
     </row>
-    <row r="917" spans="1:7">
+    <row r="917" spans="1:7" ht="12.75">
       <c r="A917" s="20"/>
       <c r="C917" s="20"/>
       <c r="D917" s="20"/>
@@ -9030,7 +9294,7 @@
       <c r="F917" s="20"/>
       <c r="G917" s="20"/>
     </row>
-    <row r="918" spans="1:7">
+    <row r="918" spans="1:7" ht="12.75">
       <c r="A918" s="20"/>
       <c r="C918" s="20"/>
       <c r="D918" s="20"/>
@@ -9038,7 +9302,7 @@
       <c r="F918" s="20"/>
       <c r="G918" s="20"/>
     </row>
-    <row r="919" spans="1:7">
+    <row r="919" spans="1:7" ht="12.75">
       <c r="A919" s="20"/>
       <c r="C919" s="20"/>
       <c r="D919" s="20"/>
@@ -9046,7 +9310,7 @@
       <c r="F919" s="20"/>
       <c r="G919" s="20"/>
     </row>
-    <row r="920" spans="1:7">
+    <row r="920" spans="1:7" ht="12.75">
       <c r="A920" s="20"/>
       <c r="C920" s="20"/>
       <c r="D920" s="20"/>
@@ -9054,7 +9318,7 @@
       <c r="F920" s="20"/>
       <c r="G920" s="20"/>
     </row>
-    <row r="921" spans="1:7">
+    <row r="921" spans="1:7" ht="12.75">
       <c r="A921" s="20"/>
       <c r="C921" s="20"/>
       <c r="D921" s="20"/>
@@ -9062,7 +9326,7 @@
       <c r="F921" s="20"/>
       <c r="G921" s="20"/>
     </row>
-    <row r="922" spans="1:7">
+    <row r="922" spans="1:7" ht="12.75">
       <c r="A922" s="20"/>
       <c r="C922" s="20"/>
       <c r="D922" s="20"/>
@@ -9070,7 +9334,7 @@
       <c r="F922" s="20"/>
       <c r="G922" s="20"/>
     </row>
-    <row r="923" spans="1:7">
+    <row r="923" spans="1:7" ht="12.75">
       <c r="A923" s="20"/>
       <c r="C923" s="20"/>
       <c r="D923" s="20"/>
@@ -9078,7 +9342,7 @@
       <c r="F923" s="20"/>
       <c r="G923" s="20"/>
     </row>
-    <row r="924" spans="1:7">
+    <row r="924" spans="1:7" ht="12.75">
       <c r="A924" s="20"/>
       <c r="C924" s="20"/>
       <c r="D924" s="20"/>
@@ -9086,7 +9350,7 @@
       <c r="F924" s="20"/>
       <c r="G924" s="20"/>
     </row>
-    <row r="925" spans="1:7">
+    <row r="925" spans="1:7" ht="12.75">
       <c r="A925" s="20"/>
       <c r="C925" s="20"/>
       <c r="D925" s="20"/>
@@ -9094,7 +9358,7 @@
       <c r="F925" s="20"/>
       <c r="G925" s="20"/>
     </row>
-    <row r="926" spans="1:7">
+    <row r="926" spans="1:7" ht="12.75">
       <c r="A926" s="20"/>
       <c r="C926" s="20"/>
       <c r="D926" s="20"/>
@@ -9102,7 +9366,7 @@
       <c r="F926" s="20"/>
       <c r="G926" s="20"/>
     </row>
-    <row r="927" spans="1:7">
+    <row r="927" spans="1:7" ht="12.75">
       <c r="A927" s="20"/>
       <c r="C927" s="20"/>
       <c r="D927" s="20"/>
@@ -9110,7 +9374,7 @@
       <c r="F927" s="20"/>
       <c r="G927" s="20"/>
     </row>
-    <row r="928" spans="1:7">
+    <row r="928" spans="1:7" ht="12.75">
       <c r="A928" s="20"/>
       <c r="C928" s="20"/>
       <c r="D928" s="20"/>
@@ -9118,7 +9382,7 @@
       <c r="F928" s="20"/>
       <c r="G928" s="20"/>
     </row>
-    <row r="929" spans="1:7">
+    <row r="929" spans="1:7" ht="12.75">
       <c r="A929" s="20"/>
       <c r="C929" s="20"/>
       <c r="D929" s="20"/>
@@ -9126,7 +9390,7 @@
       <c r="F929" s="20"/>
       <c r="G929" s="20"/>
     </row>
-    <row r="930" spans="1:7">
+    <row r="930" spans="1:7" ht="12.75">
       <c r="A930" s="20"/>
       <c r="C930" s="20"/>
       <c r="D930" s="20"/>
@@ -9134,7 +9398,7 @@
       <c r="F930" s="20"/>
       <c r="G930" s="20"/>
     </row>
-    <row r="931" spans="1:7">
+    <row r="931" spans="1:7" ht="12.75">
       <c r="A931" s="20"/>
       <c r="C931" s="20"/>
       <c r="D931" s="20"/>
@@ -9142,7 +9406,7 @@
       <c r="F931" s="20"/>
       <c r="G931" s="20"/>
     </row>
-    <row r="932" spans="1:7">
+    <row r="932" spans="1:7" ht="12.75">
       <c r="A932" s="20"/>
       <c r="C932" s="20"/>
       <c r="D932" s="20"/>
@@ -9150,7 +9414,7 @@
       <c r="F932" s="20"/>
       <c r="G932" s="20"/>
     </row>
-    <row r="933" spans="1:7">
+    <row r="933" spans="1:7" ht="12.75">
       <c r="A933" s="20"/>
       <c r="C933" s="20"/>
       <c r="D933" s="20"/>
@@ -9158,7 +9422,7 @@
       <c r="F933" s="20"/>
       <c r="G933" s="20"/>
     </row>
-    <row r="934" spans="1:7">
+    <row r="934" spans="1:7" ht="12.75">
       <c r="A934" s="20"/>
       <c r="C934" s="20"/>
       <c r="D934" s="20"/>
@@ -9166,7 +9430,7 @@
       <c r="F934" s="20"/>
       <c r="G934" s="20"/>
     </row>
-    <row r="935" spans="1:7">
+    <row r="935" spans="1:7" ht="12.75">
       <c r="A935" s="20"/>
       <c r="C935" s="20"/>
       <c r="D935" s="20"/>
@@ -9174,7 +9438,7 @@
       <c r="F935" s="20"/>
       <c r="G935" s="20"/>
     </row>
-    <row r="936" spans="1:7">
+    <row r="936" spans="1:7" ht="12.75">
       <c r="A936" s="20"/>
       <c r="C936" s="20"/>
       <c r="D936" s="20"/>
@@ -9182,7 +9446,7 @@
       <c r="F936" s="20"/>
       <c r="G936" s="20"/>
     </row>
-    <row r="937" spans="1:7">
+    <row r="937" spans="1:7" ht="12.75">
       <c r="A937" s="20"/>
       <c r="C937" s="20"/>
       <c r="D937" s="20"/>
@@ -9190,7 +9454,7 @@
       <c r="F937" s="20"/>
       <c r="G937" s="20"/>
     </row>
-    <row r="938" spans="1:7">
+    <row r="938" spans="1:7" ht="12.75">
       <c r="A938" s="20"/>
       <c r="C938" s="20"/>
       <c r="D938" s="20"/>
@@ -9198,7 +9462,7 @@
       <c r="F938" s="20"/>
       <c r="G938" s="20"/>
     </row>
-    <row r="939" spans="1:7">
+    <row r="939" spans="1:7" ht="12.75">
       <c r="A939" s="20"/>
       <c r="C939" s="20"/>
       <c r="D939" s="20"/>
@@ -9206,7 +9470,7 @@
       <c r="F939" s="20"/>
       <c r="G939" s="20"/>
     </row>
-    <row r="940" spans="1:7">
+    <row r="940" spans="1:7" ht="12.75">
       <c r="A940" s="20"/>
       <c r="C940" s="20"/>
       <c r="D940" s="20"/>
@@ -9214,7 +9478,7 @@
       <c r="F940" s="20"/>
       <c r="G940" s="20"/>
     </row>
-    <row r="941" spans="1:7">
+    <row r="941" spans="1:7" ht="12.75">
       <c r="A941" s="20"/>
       <c r="C941" s="20"/>
       <c r="D941" s="20"/>
@@ -9222,7 +9486,7 @@
       <c r="F941" s="20"/>
       <c r="G941" s="20"/>
     </row>
-    <row r="942" spans="1:7">
+    <row r="942" spans="1:7" ht="12.75">
       <c r="A942" s="20"/>
       <c r="C942" s="20"/>
       <c r="D942" s="20"/>
@@ -9230,7 +9494,7 @@
       <c r="F942" s="20"/>
       <c r="G942" s="20"/>
     </row>
-    <row r="943" spans="1:7">
+    <row r="943" spans="1:7" ht="12.75">
       <c r="A943" s="20"/>
       <c r="C943" s="20"/>
       <c r="D943" s="20"/>
@@ -9238,7 +9502,7 @@
       <c r="F943" s="20"/>
       <c r="G943" s="20"/>
     </row>
-    <row r="944" spans="1:7">
+    <row r="944" spans="1:7" ht="12.75">
       <c r="A944" s="20"/>
       <c r="C944" s="20"/>
       <c r="D944" s="20"/>
@@ -9246,7 +9510,7 @@
       <c r="F944" s="20"/>
       <c r="G944" s="20"/>
     </row>
-    <row r="945" spans="1:7">
+    <row r="945" spans="1:7" ht="12.75">
       <c r="A945" s="20"/>
       <c r="C945" s="20"/>
       <c r="D945" s="20"/>
@@ -9254,7 +9518,7 @@
       <c r="F945" s="20"/>
       <c r="G945" s="20"/>
     </row>
-    <row r="946" spans="1:7">
+    <row r="946" spans="1:7" ht="12.75">
       <c r="A946" s="20"/>
       <c r="C946" s="20"/>
       <c r="D946" s="20"/>
@@ -9262,7 +9526,7 @@
       <c r="F946" s="20"/>
       <c r="G946" s="20"/>
     </row>
-    <row r="947" spans="1:7">
+    <row r="947" spans="1:7" ht="12.75">
       <c r="A947" s="20"/>
       <c r="C947" s="20"/>
       <c r="D947" s="20"/>
@@ -9270,7 +9534,7 @@
       <c r="F947" s="20"/>
       <c r="G947" s="20"/>
     </row>
-    <row r="948" spans="1:7">
+    <row r="948" spans="1:7" ht="12.75">
       <c r="A948" s="20"/>
       <c r="C948" s="20"/>
       <c r="D948" s="20"/>
@@ -9278,7 +9542,7 @@
       <c r="F948" s="20"/>
       <c r="G948" s="20"/>
     </row>
-    <row r="949" spans="1:7">
+    <row r="949" spans="1:7" ht="12.75">
       <c r="A949" s="20"/>
       <c r="C949" s="20"/>
       <c r="D949" s="20"/>
@@ -9286,7 +9550,7 @@
       <c r="F949" s="20"/>
       <c r="G949" s="20"/>
     </row>
-    <row r="950" spans="1:7">
+    <row r="950" spans="1:7" ht="12.75">
       <c r="A950" s="20"/>
       <c r="C950" s="20"/>
       <c r="D950" s="20"/>
@@ -9294,7 +9558,7 @@
       <c r="F950" s="20"/>
       <c r="G950" s="20"/>
     </row>
-    <row r="951" spans="1:7">
+    <row r="951" spans="1:7" ht="12.75">
       <c r="A951" s="20"/>
       <c r="C951" s="20"/>
       <c r="D951" s="20"/>
@@ -9302,7 +9566,7 @@
       <c r="F951" s="20"/>
       <c r="G951" s="20"/>
     </row>
-    <row r="952" spans="1:7">
+    <row r="952" spans="1:7" ht="12.75">
       <c r="A952" s="20"/>
       <c r="C952" s="20"/>
       <c r="D952" s="20"/>
@@ -9310,7 +9574,7 @@
       <c r="F952" s="20"/>
       <c r="G952" s="20"/>
     </row>
-    <row r="953" spans="1:7">
+    <row r="953" spans="1:7" ht="12.75">
       <c r="A953" s="20"/>
       <c r="C953" s="20"/>
       <c r="D953" s="20"/>
@@ -9318,7 +9582,7 @@
       <c r="F953" s="20"/>
       <c r="G953" s="20"/>
     </row>
-    <row r="954" spans="1:7">
+    <row r="954" spans="1:7" ht="12.75">
       <c r="A954" s="20"/>
       <c r="C954" s="20"/>
       <c r="D954" s="20"/>
@@ -9326,7 +9590,7 @@
       <c r="F954" s="20"/>
       <c r="G954" s="20"/>
     </row>
-    <row r="955" spans="1:7">
+    <row r="955" spans="1:7" ht="12.75">
       <c r="A955" s="20"/>
       <c r="C955" s="20"/>
       <c r="D955" s="20"/>
@@ -9334,7 +9598,7 @@
       <c r="F955" s="20"/>
       <c r="G955" s="20"/>
     </row>
-    <row r="956" spans="1:7">
+    <row r="956" spans="1:7" ht="12.75">
       <c r="A956" s="20"/>
       <c r="C956" s="20"/>
       <c r="D956" s="20"/>
@@ -9342,7 +9606,7 @@
       <c r="F956" s="20"/>
       <c r="G956" s="20"/>
     </row>
-    <row r="957" spans="1:7">
+    <row r="957" spans="1:7" ht="12.75">
       <c r="A957" s="20"/>
       <c r="C957" s="20"/>
       <c r="D957" s="20"/>
@@ -9350,7 +9614,7 @@
       <c r="F957" s="20"/>
       <c r="G957" s="20"/>
     </row>
-    <row r="958" spans="1:7">
+    <row r="958" spans="1:7" ht="12.75">
       <c r="A958" s="20"/>
       <c r="C958" s="20"/>
       <c r="D958" s="20"/>
@@ -9358,7 +9622,7 @@
       <c r="F958" s="20"/>
       <c r="G958" s="20"/>
     </row>
-    <row r="959" spans="1:7">
+    <row r="959" spans="1:7" ht="12.75">
       <c r="A959" s="20"/>
       <c r="C959" s="20"/>
       <c r="D959" s="20"/>
@@ -9366,7 +9630,7 @@
       <c r="F959" s="20"/>
       <c r="G959" s="20"/>
     </row>
-    <row r="960" spans="1:7">
+    <row r="960" spans="1:7" ht="12.75">
       <c r="A960" s="20"/>
       <c r="C960" s="20"/>
       <c r="D960" s="20"/>
@@ -9374,7 +9638,7 @@
       <c r="F960" s="20"/>
       <c r="G960" s="20"/>
     </row>
-    <row r="961" spans="1:7">
+    <row r="961" spans="1:7" ht="12.75">
       <c r="A961" s="20"/>
       <c r="C961" s="20"/>
       <c r="D961" s="20"/>
@@ -9382,7 +9646,7 @@
       <c r="F961" s="20"/>
       <c r="G961" s="20"/>
     </row>
-    <row r="962" spans="1:7">
+    <row r="962" spans="1:7" ht="12.75">
       <c r="A962" s="20"/>
       <c r="C962" s="20"/>
       <c r="D962" s="20"/>
@@ -9390,7 +9654,7 @@
       <c r="F962" s="20"/>
       <c r="G962" s="20"/>
     </row>
-    <row r="963" spans="1:7">
+    <row r="963" spans="1:7" ht="12.75">
       <c r="A963" s="20"/>
       <c r="C963" s="20"/>
       <c r="D963" s="20"/>
@@ -9398,7 +9662,7 @@
       <c r="F963" s="20"/>
       <c r="G963" s="20"/>
     </row>
-    <row r="964" spans="1:7">
+    <row r="964" spans="1:7" ht="12.75">
       <c r="A964" s="20"/>
       <c r="C964" s="20"/>
       <c r="D964" s="20"/>
@@ -9406,7 +9670,7 @@
       <c r="F964" s="20"/>
       <c r="G964" s="20"/>
     </row>
-    <row r="965" spans="1:7">
+    <row r="965" spans="1:7" ht="12.75">
       <c r="A965" s="20"/>
       <c r="C965" s="20"/>
       <c r="D965" s="20"/>
@@ -9414,7 +9678,7 @@
       <c r="F965" s="20"/>
       <c r="G965" s="20"/>
     </row>
-    <row r="966" spans="1:7">
+    <row r="966" spans="1:7" ht="12.75">
       <c r="A966" s="20"/>
       <c r="C966" s="20"/>
       <c r="D966" s="20"/>
@@ -9422,7 +9686,7 @@
       <c r="F966" s="20"/>
       <c r="G966" s="20"/>
     </row>
-    <row r="967" spans="1:7">
+    <row r="967" spans="1:7" ht="12.75">
       <c r="A967" s="20"/>
       <c r="C967" s="20"/>
       <c r="D967" s="20"/>
@@ -9430,7 +9694,7 @@
       <c r="F967" s="20"/>
       <c r="G967" s="20"/>
     </row>
-    <row r="968" spans="1:7">
+    <row r="968" spans="1:7" ht="12.75">
       <c r="A968" s="20"/>
       <c r="C968" s="20"/>
       <c r="D968" s="20"/>
@@ -9438,7 +9702,7 @@
       <c r="F968" s="20"/>
       <c r="G968" s="20"/>
     </row>
-    <row r="969" spans="1:7">
+    <row r="969" spans="1:7" ht="12.75">
       <c r="A969" s="20"/>
       <c r="C969" s="20"/>
       <c r="D969" s="20"/>
@@ -9446,7 +9710,7 @@
       <c r="F969" s="20"/>
       <c r="G969" s="20"/>
     </row>
-    <row r="970" spans="1:7">
+    <row r="970" spans="1:7" ht="12.75">
       <c r="A970" s="20"/>
       <c r="C970" s="20"/>
       <c r="D970" s="20"/>
@@ -9454,7 +9718,7 @@
       <c r="F970" s="20"/>
       <c r="G970" s="20"/>
     </row>
-    <row r="971" spans="1:7">
+    <row r="971" spans="1:7" ht="12.75">
       <c r="A971" s="20"/>
       <c r="C971" s="20"/>
       <c r="D971" s="20"/>
@@ -9462,7 +9726,7 @@
       <c r="F971" s="20"/>
       <c r="G971" s="20"/>
     </row>
-    <row r="972" spans="1:7">
+    <row r="972" spans="1:7" ht="12.75">
       <c r="A972" s="20"/>
       <c r="C972" s="20"/>
       <c r="D972" s="20"/>
@@ -9470,7 +9734,7 @@
       <c r="F972" s="20"/>
       <c r="G972" s="20"/>
     </row>
-    <row r="973" spans="1:7">
+    <row r="973" spans="1:7" ht="12.75">
       <c r="A973" s="20"/>
       <c r="C973" s="20"/>
       <c r="D973" s="20"/>
@@ -9478,7 +9742,7 @@
       <c r="F973" s="20"/>
       <c r="G973" s="20"/>
     </row>
-    <row r="974" spans="1:7">
+    <row r="974" spans="1:7" ht="12.75">
       <c r="A974" s="20"/>
       <c r="C974" s="20"/>
       <c r="D974" s="20"/>
@@ -9486,7 +9750,7 @@
       <c r="F974" s="20"/>
       <c r="G974" s="20"/>
     </row>
-    <row r="975" spans="1:7">
+    <row r="975" spans="1:7" ht="12.75">
       <c r="A975" s="20"/>
       <c r="C975" s="20"/>
       <c r="D975" s="20"/>
@@ -9494,7 +9758,7 @@
       <c r="F975" s="20"/>
       <c r="G975" s="20"/>
     </row>
-    <row r="976" spans="1:7">
+    <row r="976" spans="1:7" ht="12.75">
       <c r="A976" s="20"/>
       <c r="C976" s="20"/>
       <c r="D976" s="20"/>
@@ -9502,7 +9766,7 @@
       <c r="F976" s="20"/>
       <c r="G976" s="20"/>
     </row>
-    <row r="977" spans="1:7">
+    <row r="977" spans="1:7" ht="12.75">
       <c r="A977" s="20"/>
       <c r="C977" s="20"/>
       <c r="D977" s="20"/>
@@ -9510,7 +9774,7 @@
       <c r="F977" s="20"/>
       <c r="G977" s="20"/>
     </row>
-    <row r="978" spans="1:7">
+    <row r="978" spans="1:7" ht="12.75">
       <c r="A978" s="20"/>
       <c r="C978" s="20"/>
       <c r="D978" s="20"/>
@@ -9518,7 +9782,7 @@
       <c r="F978" s="20"/>
       <c r="G978" s="20"/>
     </row>
-    <row r="979" spans="1:7">
+    <row r="979" spans="1:7" ht="12.75">
       <c r="A979" s="20"/>
       <c r="C979" s="20"/>
       <c r="D979" s="20"/>
@@ -9526,7 +9790,7 @@
       <c r="F979" s="20"/>
       <c r="G979" s="20"/>
     </row>
-    <row r="980" spans="1:7">
+    <row r="980" spans="1:7" ht="12.75">
       <c r="A980" s="20"/>
       <c r="C980" s="20"/>
       <c r="D980" s="20"/>
@@ -9534,7 +9798,7 @@
       <c r="F980" s="20"/>
       <c r="G980" s="20"/>
     </row>
-    <row r="981" spans="1:7">
+    <row r="981" spans="1:7" ht="12.75">
       <c r="A981" s="20"/>
       <c r="C981" s="20"/>
       <c r="D981" s="20"/>
@@ -9542,7 +9806,7 @@
       <c r="F981" s="20"/>
       <c r="G981" s="20"/>
     </row>
-    <row r="982" spans="1:7">
+    <row r="982" spans="1:7" ht="12.75">
       <c r="A982" s="20"/>
       <c r="C982" s="20"/>
       <c r="D982" s="20"/>
@@ -9550,7 +9814,7 @@
       <c r="F982" s="20"/>
       <c r="G982" s="20"/>
     </row>
-    <row r="983" spans="1:7">
+    <row r="983" spans="1:7" ht="12.75">
       <c r="A983" s="20"/>
       <c r="C983" s="20"/>
       <c r="D983" s="20"/>
@@ -9558,7 +9822,7 @@
       <c r="F983" s="20"/>
       <c r="G983" s="20"/>
     </row>
-    <row r="984" spans="1:7">
+    <row r="984" spans="1:7" ht="12.75">
       <c r="A984" s="20"/>
       <c r="C984" s="20"/>
       <c r="D984" s="20"/>
@@ -9566,7 +9830,7 @@
       <c r="F984" s="20"/>
       <c r="G984" s="20"/>
     </row>
-    <row r="985" spans="1:7">
+    <row r="985" spans="1:7" ht="12.75">
       <c r="A985" s="20"/>
       <c r="C985" s="20"/>
       <c r="D985" s="20"/>
@@ -9574,7 +9838,7 @@
       <c r="F985" s="20"/>
       <c r="G985" s="20"/>
     </row>
-    <row r="986" spans="1:7">
+    <row r="986" spans="1:7" ht="12.75">
       <c r="A986" s="20"/>
       <c r="C986" s="20"/>
       <c r="D986" s="20"/>
@@ -9582,7 +9846,7 @@
       <c r="F986" s="20"/>
       <c r="G986" s="20"/>
     </row>
-    <row r="987" spans="1:7">
+    <row r="987" spans="1:7" ht="12.75">
       <c r="A987" s="20"/>
       <c r="C987" s="20"/>
       <c r="D987" s="20"/>
@@ -9590,7 +9854,7 @@
       <c r="F987" s="20"/>
       <c r="G987" s="20"/>
     </row>
-    <row r="988" spans="1:7">
+    <row r="988" spans="1:7" ht="12.75">
       <c r="A988" s="20"/>
       <c r="C988" s="20"/>
       <c r="D988" s="20"/>
@@ -9598,7 +9862,7 @@
       <c r="F988" s="20"/>
       <c r="G988" s="20"/>
     </row>
-    <row r="989" spans="1:7">
+    <row r="989" spans="1:7" ht="12.75">
       <c r="A989" s="20"/>
       <c r="C989" s="20"/>
       <c r="D989" s="20"/>
@@ -9606,7 +9870,7 @@
       <c r="F989" s="20"/>
       <c r="G989" s="20"/>
     </row>
-    <row r="990" spans="1:7">
+    <row r="990" spans="1:7" ht="12.75">
       <c r="A990" s="20"/>
       <c r="C990" s="20"/>
       <c r="D990" s="20"/>
@@ -9614,7 +9878,7 @@
       <c r="F990" s="20"/>
       <c r="G990" s="20"/>
     </row>
-    <row r="991" spans="1:7">
+    <row r="991" spans="1:7" ht="12.75">
       <c r="A991" s="20"/>
       <c r="C991" s="20"/>
       <c r="D991" s="20"/>
@@ -9622,7 +9886,7 @@
       <c r="F991" s="20"/>
       <c r="G991" s="20"/>
     </row>
-    <row r="992" spans="1:7">
+    <row r="992" spans="1:7" ht="12.75">
       <c r="A992" s="20"/>
       <c r="C992" s="20"/>
       <c r="D992" s="20"/>
@@ -9637,5 +9901,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>